--- a/事出无因-表格.xlsx
+++ b/事出无因-表格.xlsx
@@ -4,19 +4,227 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12330" activeTab="2"/>
+    <workbookView windowWidth="13545" windowHeight="12330"/>
   </bookViews>
   <sheets>
-    <sheet name="故事线表格" sheetId="1" r:id="rId1"/>
-    <sheet name="时间轴" sheetId="2" r:id="rId2"/>
+    <sheet name="时间轴" sheetId="2" r:id="rId1"/>
+    <sheet name="故事线表格" sheetId="1" r:id="rId2"/>
     <sheet name="人物表" sheetId="3" r:id="rId3"/>
+    <sheet name="时间换算" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="297">
+  <si>
+    <t>时间</t>
+  </si>
+  <si>
+    <t>事件</t>
+  </si>
+  <si>
+    <t>公元2022年7月18日-8月1日</t>
+  </si>
+  <si>
+    <t>《实习报告》</t>
+  </si>
+  <si>
+    <t>公元2023年1月21日</t>
+  </si>
+  <si>
+    <t>《亲爱的李同学》</t>
+  </si>
+  <si>
+    <t>公元2023年10月19日</t>
+  </si>
+  <si>
+    <t>《亲爱的吴女士》</t>
+  </si>
+  <si>
+    <t>公元2088年</t>
+  </si>
+  <si>
+    <t>核战爆发</t>
+  </si>
+  <si>
+    <t>公元2111年</t>
+  </si>
+  <si>
+    <t>尘埃落地,人类第一次走出地下城</t>
+  </si>
+  <si>
+    <t>公元2120-2125年</t>
+  </si>
+  <si>
+    <t>云虫创造新人类</t>
+  </si>
+  <si>
+    <t>公元2140年</t>
+  </si>
+  <si>
+    <t>旧机器殖民比邻星b</t>
+  </si>
+  <si>
+    <t>公元2170年</t>
+  </si>
+  <si>
+    <t>云虫复建造130座著名城市</t>
+  </si>
+  <si>
+    <t>公元2171年4月</t>
+  </si>
+  <si>
+    <t>云虫的舰队从比邻星飞回</t>
+  </si>
+  <si>
+    <t>公元2171年7月</t>
+  </si>
+  <si>
+    <t>旅者舰队启航</t>
+  </si>
+  <si>
+    <t>公元2171年7月9日（周二）</t>
+  </si>
+  <si>
+    <t>卢在云虫实验室见到林一、小石应聘</t>
+  </si>
+  <si>
+    <t>公元2171年7月10日（周三）</t>
+  </si>
+  <si>
+    <t>卢和林一进入镜像云虫</t>
+  </si>
+  <si>
+    <t>公元2171年7月19日（周五）</t>
+  </si>
+  <si>
+    <t>小陈带着小石深夜外出</t>
+  </si>
+  <si>
+    <t>公元2171年7月23日（周二）</t>
+  </si>
+  <si>
+    <t>云虫使用EMP炸弹打击地下城</t>
+  </si>
+  <si>
+    <t>公元2171年7月28日（周日）</t>
+  </si>
+  <si>
+    <t>禾来到新常州</t>
+  </si>
+  <si>
+    <t>公元2171年7月29日（周一）</t>
+  </si>
+  <si>
+    <t>禾来到云虫实验室与卢和林一见面</t>
+  </si>
+  <si>
+    <t>公元2171年7月30日（周二）</t>
+  </si>
+  <si>
+    <t>云虫核心召开会议</t>
+  </si>
+  <si>
+    <t>公元2171年7月31日（周三）</t>
+  </si>
+  <si>
+    <t>聚会、烟花和后巷</t>
+  </si>
+  <si>
+    <t>公元2171年8月1日（周四）</t>
+  </si>
+  <si>
+    <t>禾和林一进入镜像洞穴、云虫舰队在月球附近接应核心</t>
+  </si>
+  <si>
+    <t>公元2171年8月2日（周五）</t>
+  </si>
+  <si>
+    <t>月前往书房</t>
+  </si>
+  <si>
+    <t>公元2171年8月3日（周六）</t>
+  </si>
+  <si>
+    <t>阿皮和方方参加汽水展、小彼得和女友约会</t>
+  </si>
+  <si>
+    <t>公元2171年8月4日（周日）</t>
+  </si>
+  <si>
+    <t>月来到新常州、卢进入云虫内部遇到李</t>
+  </si>
+  <si>
+    <t>公元2171年8月5日（周一）</t>
+  </si>
+  <si>
+    <t>公元2171年8月6日（周二）</t>
+  </si>
+  <si>
+    <t>公元2171年8月7日（周三）</t>
+  </si>
+  <si>
+    <t>禾和月在天桥见面</t>
+  </si>
+  <si>
+    <t>公元2171年8月8日（周四）</t>
+  </si>
+  <si>
+    <t>公元2171年8月9日（周五）</t>
+  </si>
+  <si>
+    <t>禾和月前往郊外传递密钥、密钥通过月面传输到地下城</t>
+  </si>
+  <si>
+    <t>公元2171年8月10日（周六）</t>
+  </si>
+  <si>
+    <t>地下城发表演讲、虫族舰队抵达月背</t>
+  </si>
+  <si>
+    <t>公元2171年8月11日（周日）</t>
+  </si>
+  <si>
+    <t>卢在镜岛认识沙岛</t>
+  </si>
+  <si>
+    <t>公元2171年8月12日（周一）</t>
+  </si>
+  <si>
+    <t>卢进入朱澄的世界</t>
+  </si>
+  <si>
+    <t>公元2171年8月13日（周二）</t>
+  </si>
+  <si>
+    <t>禾主动进入书寻求破局之道</t>
+  </si>
+  <si>
+    <t>公元2171年8月14日（周三）</t>
+  </si>
+  <si>
+    <t>禾参观微型龙全息仓A、小陈寻求林一帮助、月签署合同</t>
+  </si>
+  <si>
+    <t>公元2171年8月15日（周四）</t>
+  </si>
+  <si>
+    <t>阴影请求与机器人合作</t>
+  </si>
+  <si>
+    <t>公元2171年8月16日（周五）</t>
+  </si>
+  <si>
+    <t>小陈与小石进行献祭</t>
+  </si>
+  <si>
+    <t>公元2171年8月17日（周六）</t>
+  </si>
+  <si>
+    <t>公元2171年8月18日（周日）</t>
+  </si>
   <si>
     <t>章节号</t>
   </si>
@@ -369,13 +577,16 @@
     <t>解药</t>
   </si>
   <si>
-    <t>待定（小陈来林一这寻找解药）</t>
+    <t>小陈访问林一寻找解药和帮助</t>
   </si>
   <si>
     <t>手环</t>
   </si>
   <si>
-    <t>待定（卢从月留下的手环得知其他信息）</t>
+    <t>卢在手环的引导下发现真相</t>
+  </si>
+  <si>
+    <t>合同</t>
   </si>
   <si>
     <t>民族</t>
@@ -384,192 +595,24 @@
     <t>待定（机器人询问阴影问题，然后参与计划）</t>
   </si>
   <si>
+    <t>家乡</t>
+  </si>
+  <si>
+    <t>献祭</t>
+  </si>
+  <si>
+    <t>出发</t>
+  </si>
+  <si>
+    <t>解封</t>
+  </si>
+  <si>
     <t>蛛网</t>
   </si>
   <si>
     <t>虫族已经潜伏在月球背面、等待着最后确认</t>
   </si>
   <si>
-    <t>时间</t>
-  </si>
-  <si>
-    <t>事件</t>
-  </si>
-  <si>
-    <t>公元2022年7月18日-8月1日</t>
-  </si>
-  <si>
-    <t>《实习报告》</t>
-  </si>
-  <si>
-    <t>公元2023年1月21日</t>
-  </si>
-  <si>
-    <t>《亲爱的李同学》</t>
-  </si>
-  <si>
-    <t>公元2023年10月19日</t>
-  </si>
-  <si>
-    <t>《亲爱的吴女士》</t>
-  </si>
-  <si>
-    <t>公元2088年</t>
-  </si>
-  <si>
-    <t>核战爆发</t>
-  </si>
-  <si>
-    <t>公元2111年</t>
-  </si>
-  <si>
-    <t>尘埃落地,人类第一次走出地下城</t>
-  </si>
-  <si>
-    <t>公元2120-2125年</t>
-  </si>
-  <si>
-    <t>云虫创造新人类</t>
-  </si>
-  <si>
-    <t>公元2140年</t>
-  </si>
-  <si>
-    <t>旧机器殖民比邻星b</t>
-  </si>
-  <si>
-    <t>公元2170年</t>
-  </si>
-  <si>
-    <t>云虫复建造130座著名城市</t>
-  </si>
-  <si>
-    <t>公元2171年4月</t>
-  </si>
-  <si>
-    <t>云虫的舰队从比邻星飞回</t>
-  </si>
-  <si>
-    <t>公元2171年7月</t>
-  </si>
-  <si>
-    <t>旅者舰队启航</t>
-  </si>
-  <si>
-    <t>公元2171年7月9日（周二）</t>
-  </si>
-  <si>
-    <t>卢在云虫实验室见到林一、小石应聘</t>
-  </si>
-  <si>
-    <t>公元2171年7月10日（周三）</t>
-  </si>
-  <si>
-    <t>卢和林一进入镜像云虫</t>
-  </si>
-  <si>
-    <t>公元2171年7月19日（周五）</t>
-  </si>
-  <si>
-    <t>小陈带着小石深夜外出</t>
-  </si>
-  <si>
-    <t>公元2171年7月23日（周二）</t>
-  </si>
-  <si>
-    <t>云虫使用EMP炸弹打击地下城</t>
-  </si>
-  <si>
-    <t>公元2171年7月28日（周日）</t>
-  </si>
-  <si>
-    <t>禾来到新常州</t>
-  </si>
-  <si>
-    <t>公元2171年7月29日（周一）</t>
-  </si>
-  <si>
-    <t>禾来到云虫实验室与卢和林一见面</t>
-  </si>
-  <si>
-    <t>公元2171年7月30日（周二）</t>
-  </si>
-  <si>
-    <t>云虫核心召开会议</t>
-  </si>
-  <si>
-    <t>公元2171年7月31日（周三）</t>
-  </si>
-  <si>
-    <t>聚会、烟花和后巷</t>
-  </si>
-  <si>
-    <t>公元2171年8月1日（周四）</t>
-  </si>
-  <si>
-    <t>禾和林一进入镜像洞穴、云虫舰队在月球附近接应核心</t>
-  </si>
-  <si>
-    <t>公元2171年8月2日（周五）</t>
-  </si>
-  <si>
-    <t>月前往书房</t>
-  </si>
-  <si>
-    <t>公元2171年8月3日（周六）</t>
-  </si>
-  <si>
-    <t>阿皮和方方参加汽水展、小彼得和女友约会</t>
-  </si>
-  <si>
-    <t>公元2171年8月4日（周日）</t>
-  </si>
-  <si>
-    <t>月来到新常州、卢进入云虫内部遇到李</t>
-  </si>
-  <si>
-    <t>公元2171年8月7日（周三）</t>
-  </si>
-  <si>
-    <t>禾和月在天桥见面</t>
-  </si>
-  <si>
-    <t>公元2171年8月9日（周五）</t>
-  </si>
-  <si>
-    <t>禾和月前往郊外传递密钥</t>
-  </si>
-  <si>
-    <t>公元2171年8月10日（周六）</t>
-  </si>
-  <si>
-    <t>地下城发表演讲、虫族舰队抵达月背</t>
-  </si>
-  <si>
-    <t>公元2171年8月11日（周日）</t>
-  </si>
-  <si>
-    <t>卢在镜岛认识沙岛</t>
-  </si>
-  <si>
-    <t>公元2171年8月12日（周一）</t>
-  </si>
-  <si>
-    <t>卢进入朱澄的世界</t>
-  </si>
-  <si>
-    <t>公元2171年8月13日（周二）</t>
-  </si>
-  <si>
-    <t>禾主动进入书寻求破局之道</t>
-  </si>
-  <si>
-    <t>公元2171年8月14日（周三）</t>
-  </si>
-  <si>
-    <t>禾参观微型龙全息仓A</t>
-  </si>
-  <si>
     <t>名字</t>
   </si>
   <si>
@@ -597,7 +640,7 @@
     <t>男</t>
   </si>
   <si>
-    <t>0101</t>
+    <t>01</t>
   </si>
   <si>
     <t>一个契机</t>
@@ -618,7 +661,7 @@
     <t>李</t>
   </si>
   <si>
-    <t>0102</t>
+    <t>02</t>
   </si>
   <si>
     <t>常州云虫管理人</t>
@@ -627,7 +670,7 @@
     <t>林一</t>
   </si>
   <si>
-    <t>0104</t>
+    <t>04</t>
   </si>
   <si>
     <t>云虫学者</t>
@@ -651,7 +694,7 @@
     <t>卢</t>
   </si>
   <si>
-    <t>0106</t>
+    <t>06</t>
   </si>
   <si>
     <t>常州新人类职员</t>
@@ -660,7 +703,7 @@
     <t>？</t>
   </si>
   <si>
-    <t>0107</t>
+    <t>07</t>
   </si>
   <si>
     <t>地下城市长</t>
@@ -669,18 +712,12 @@
     <t>欧姆</t>
   </si>
   <si>
-    <t>0110</t>
-  </si>
-  <si>
     <t>常州城西大学学生</t>
   </si>
   <si>
     <t>迪克</t>
   </si>
   <si>
-    <t>0111</t>
-  </si>
-  <si>
     <t>地下城黑客群体管理者</t>
   </si>
   <si>
@@ -693,9 +730,6 @@
     <t>历史镜像</t>
   </si>
   <si>
-    <t>0113</t>
-  </si>
-  <si>
     <t>由历史生成的镜像暴徒</t>
   </si>
   <si>
@@ -711,18 +745,12 @@
     <t>新机器</t>
   </si>
   <si>
-    <t>0118</t>
-  </si>
-  <si>
     <t>机器联合国信息部职员</t>
   </si>
   <si>
     <t>小石</t>
   </si>
   <si>
-    <t>0120</t>
-  </si>
-  <si>
     <t>新一代守林人</t>
   </si>
   <si>
@@ -732,9 +760,6 @@
     <t>布恩斯</t>
   </si>
   <si>
-    <t>0123</t>
-  </si>
-  <si>
     <t>旅者，现苏州机场员工</t>
   </si>
   <si>
@@ -747,18 +772,12 @@
     <t>无</t>
   </si>
   <si>
-    <t>0127</t>
-  </si>
-  <si>
     <t>创造新人类的机器智慧</t>
   </si>
   <si>
     <t>方方</t>
   </si>
   <si>
-    <t>0128</t>
-  </si>
-  <si>
     <t>布恩斯的常州网友之一</t>
   </si>
   <si>
@@ -771,9 +790,6 @@
     <t>虫族</t>
   </si>
   <si>
-    <t>0129</t>
-  </si>
-  <si>
     <t>派遣观察客地的见证人</t>
   </si>
   <si>
@@ -810,43 +826,88 @@
     <t>远方机器</t>
   </si>
   <si>
-    <t>0131</t>
-  </si>
-  <si>
     <t>流窜智能</t>
   </si>
   <si>
     <t>奇菈</t>
   </si>
   <si>
-    <t>0134</t>
-  </si>
-  <si>
     <t>机器联合国普通职员</t>
   </si>
   <si>
     <t>安可</t>
   </si>
   <si>
-    <t>0140</t>
-  </si>
-  <si>
     <t>旅者四园艺仓职员</t>
   </si>
   <si>
     <t>沙岛</t>
   </si>
   <si>
-    <t>0145</t>
+    <t>45</t>
   </si>
   <si>
     <t>朱澄</t>
   </si>
   <si>
-    <t>0149</t>
+    <t>49</t>
   </si>
   <si>
     <t>卢的另一半？</t>
+  </si>
+  <si>
+    <t>虚拟世界</t>
+  </si>
+  <si>
+    <t>镜像城</t>
+  </si>
+  <si>
+    <t>现实世界</t>
+  </si>
+  <si>
+    <t>20年</t>
+  </si>
+  <si>
+    <t>4天</t>
+  </si>
+  <si>
+    <t>1天</t>
+  </si>
+  <si>
+    <t>7300天</t>
+  </si>
+  <si>
+    <t>1825天</t>
+  </si>
+  <si>
+    <t>24小时</t>
+  </si>
+  <si>
+    <t>1小时</t>
+  </si>
+  <si>
+    <t>76.042天</t>
+  </si>
+  <si>
+    <t>150秒</t>
+  </si>
+  <si>
+    <t>30.417小时</t>
+  </si>
+  <si>
+    <t>1分钟</t>
+  </si>
+  <si>
+    <t>2.5秒</t>
+  </si>
+  <si>
+    <t>30.417分钟</t>
+  </si>
+  <si>
+    <t>1秒</t>
+  </si>
+  <si>
+    <t>41.7毫秒</t>
   </si>
 </sst>
 </file>
@@ -1476,12 +1537,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1873,1022 +1943,1354 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I75"/>
+  <dimension ref="A1:B39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="77.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="6" customFormat="1" spans="1:2">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" s="6" customFormat="1" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" s="6" customFormat="1" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" s="6" customFormat="1" spans="1:2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" s="6" customFormat="1"/>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+  <ignoredErrors>
+    <ignoredError sqref="A1:B1 B6 B7 B8 A9:B9 A10" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B59" sqref="B59"/>
+      <selection pane="bottomLeft" activeCell="L53" sqref="L53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
+    <col min="1" max="1" width="9" style="7"/>
     <col min="3" max="3" width="50.875" customWidth="1"/>
-    <col min="4" max="9" width="9" style="5"/>
+    <col min="4" max="9" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" spans="1:9">
-      <c r="A1" s="6" t="s">
+    <row r="1" s="6" customFormat="1" spans="1:9">
+      <c r="A1" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="7">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="7">
+        <f ca="1">OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),-1,0)+1</f>
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="7">
+        <f ca="1" t="shared" ref="A6:A63" si="0">OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),-1,0)+1</f>
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="7">
+        <f ca="1" t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="7">
+        <f ca="1" t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="7">
+        <f ca="1" t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="7">
+        <f ca="1" t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="7">
+        <f ca="1" t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="7">
+        <f ca="1" t="shared" si="0"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="4">
+      <c r="B12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="7">
+        <f ca="1" t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="7">
+        <f ca="1" t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" t="s">
+        <v>102</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="7">
+        <f ca="1" t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="7">
+        <f ca="1" t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" t="s">
+        <v>106</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="7">
+        <f ca="1" t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="7">
+        <f ca="1" t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" t="s">
+        <v>110</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="7">
+        <f ca="1" t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="7">
+        <f ca="1" t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="7">
+        <f ca="1" t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" t="s">
+        <v>116</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="7">
+        <f ca="1" t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" t="s">
+        <v>118</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="7">
+        <f ca="1" t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23" t="s">
+        <v>120</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="7">
+        <f ca="1" t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" t="s">
+        <v>122</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="7">
+        <f ca="1" t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25" t="s">
+        <v>124</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="7">
+        <f ca="1" t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B26" t="s">
+        <v>125</v>
+      </c>
+      <c r="C26" t="s">
+        <v>126</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="7">
+        <f ca="1" t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B27" t="s">
+        <v>127</v>
+      </c>
+      <c r="C27" t="s">
+        <v>128</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="7">
+        <f ca="1" t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>129</v>
+      </c>
+      <c r="C28" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="7">
+        <f ca="1" t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>131</v>
+      </c>
+      <c r="C29" t="s">
+        <v>132</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="7">
+        <f ca="1" t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B30" t="s">
+        <v>133</v>
+      </c>
+      <c r="C30" t="s">
+        <v>134</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="7">
+        <f ca="1" t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B31" t="s">
+        <v>135</v>
+      </c>
+      <c r="C31" t="s">
+        <v>136</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="7">
+        <f ca="1" t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B32" t="s">
+        <v>137</v>
+      </c>
+      <c r="C32" t="s">
+        <v>138</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="7">
+        <f ca="1" t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B33" t="s">
+        <v>139</v>
+      </c>
+      <c r="C33" t="s">
+        <v>140</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="7">
+        <f ca="1" t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B34" t="s">
+        <v>141</v>
+      </c>
+      <c r="C34" t="s">
+        <v>142</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="7">
+        <f ca="1" t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B35" t="s">
+        <v>143</v>
+      </c>
+      <c r="C35" t="s">
+        <v>144</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="7">
+        <f ca="1" t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B36" t="s">
+        <v>145</v>
+      </c>
+      <c r="C36" t="s">
+        <v>146</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="7">
+        <f ca="1" t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B37" t="s">
+        <v>147</v>
+      </c>
+      <c r="C37" t="s">
+        <v>148</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="7">
+        <f ca="1" t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B38" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" t="s">
+        <v>150</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="7">
+        <f ca="1" t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B39" t="s">
+        <v>151</v>
+      </c>
+      <c r="C39" t="s">
+        <v>152</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="7">
+        <f ca="1" t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B40" t="s">
+        <v>153</v>
+      </c>
+      <c r="C40" t="s">
+        <v>154</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="7">
+        <f ca="1" t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B41" t="s">
+        <v>155</v>
+      </c>
+      <c r="C41" t="s">
+        <v>156</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="7">
+        <f ca="1" t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B42" t="s">
+        <v>157</v>
+      </c>
+      <c r="C42" t="s">
+        <v>158</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="7">
+        <f ca="1" t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B43" t="s">
+        <v>159</v>
+      </c>
+      <c r="C43" t="s">
+        <v>160</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="7">
+        <f ca="1" t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B44" t="s">
+        <v>161</v>
+      </c>
+      <c r="C44" t="s">
+        <v>162</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="7">
+        <f ca="1" t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B45" t="s">
+        <v>163</v>
+      </c>
+      <c r="C45" t="s">
+        <v>164</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="7">
+        <f ca="1" t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B46" t="s">
+        <v>165</v>
+      </c>
+      <c r="C46" t="s">
+        <v>166</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="7">
+        <f ca="1" t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B47" t="s">
+        <v>167</v>
+      </c>
+      <c r="C47" t="s">
+        <v>168</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="7">
+        <f ca="1" t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B48" t="s">
+        <v>169</v>
+      </c>
+      <c r="C48" t="s">
+        <v>170</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="7">
+        <f ca="1" t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B49" t="s">
+        <v>171</v>
+      </c>
+      <c r="C49" t="s">
+        <v>172</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="7">
+        <f ca="1" t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B50" t="s">
+        <v>173</v>
+      </c>
+      <c r="C50" t="s">
+        <v>174</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="7">
+        <f ca="1" t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B51" t="s">
+        <v>175</v>
+      </c>
+      <c r="C51" t="s">
+        <v>176</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="7">
+        <f ca="1" t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B52" t="s">
+        <v>177</v>
+      </c>
+      <c r="C52" t="s">
+        <v>178</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="7">
+        <f ca="1" t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B53" t="s">
+        <v>179</v>
+      </c>
+      <c r="C53" t="s">
+        <v>180</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="7">
+        <f ca="1" t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B54" t="s">
+        <v>181</v>
+      </c>
+      <c r="C54" t="s">
+        <v>182</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I54" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="7">
+        <f ca="1" t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B55" t="s">
+        <v>183</v>
+      </c>
+      <c r="C55" t="s">
+        <v>184</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="7">
+        <f ca="1" t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B56" t="s">
+        <v>185</v>
+      </c>
+      <c r="C56" t="s">
+        <v>186</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="7">
+        <f ca="1" t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B57" t="s">
+        <v>187</v>
+      </c>
+      <c r="C57" t="s">
+        <v>188</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="7">
+        <f ca="1">OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),-1,0)+1</f>
+        <v>54</v>
+      </c>
+      <c r="B58" t="s">
+        <v>189</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="7">
+        <f ca="1">OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),-1,0)+1</f>
+        <v>55</v>
+      </c>
+      <c r="B59" t="s">
+        <v>190</v>
+      </c>
+      <c r="C59" t="s">
+        <v>191</v>
+      </c>
+      <c r="I59" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="7">
+        <f ca="1">OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),-1,0)+1</f>
+        <v>56</v>
+      </c>
+      <c r="B60" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="7">
+        <f ca="1">OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),-1,0)+1</f>
+        <v>57</v>
+      </c>
+      <c r="B61" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="7">
+        <f ca="1">OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),-1,0)+1</f>
+        <v>58</v>
+      </c>
+      <c r="B62" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="7">
+        <f ca="1">OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),-1,0)+1</f>
+        <v>59</v>
+      </c>
+      <c r="B63" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="7">
+        <f ca="1">OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),-1,0)+1</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="7">
+        <f ca="1" t="shared" ref="A66:A76" si="1">OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),-1,0)+1</f>
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="4">
-        <v>100</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="4">
-        <f ca="1">OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),-1,0)+1</f>
-        <v>101</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="4">
-        <f ca="1" t="shared" ref="A6:A63" si="0">OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),-1,0)+1</f>
-        <v>102</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="4">
-        <f ca="1" t="shared" si="0"/>
-        <v>103</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="4">
-        <f ca="1" t="shared" si="0"/>
-        <v>104</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="4">
-        <f ca="1" t="shared" si="0"/>
-        <v>105</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="4">
-        <f ca="1" t="shared" si="0"/>
-        <v>106</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="4">
-        <f ca="1" t="shared" si="0"/>
-        <v>107</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4">
-        <f ca="1" t="shared" si="0"/>
-        <v>108</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="4">
-        <f ca="1" t="shared" si="0"/>
-        <v>109</v>
-      </c>
-      <c r="B13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="4">
-        <f ca="1" t="shared" si="0"/>
-        <v>110</v>
-      </c>
-      <c r="B14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="4">
-        <f ca="1" t="shared" si="0"/>
-        <v>111</v>
-      </c>
-      <c r="B15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="4">
-        <f ca="1" t="shared" si="0"/>
-        <v>112</v>
-      </c>
-      <c r="B16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="4">
-        <f ca="1" t="shared" si="0"/>
-        <v>113</v>
-      </c>
-      <c r="B17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="4">
-        <f ca="1" t="shared" si="0"/>
-        <v>114</v>
-      </c>
-      <c r="B18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="4">
-        <f ca="1" t="shared" si="0"/>
-        <v>115</v>
-      </c>
-      <c r="B19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="4">
-        <f ca="1" t="shared" si="0"/>
-        <v>116</v>
-      </c>
-      <c r="B20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="4">
-        <f ca="1" t="shared" si="0"/>
-        <v>117</v>
-      </c>
-      <c r="B21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="4">
-        <f ca="1" t="shared" si="0"/>
-        <v>118</v>
-      </c>
-      <c r="B22" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" t="s">
-        <v>49</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="4">
-        <f ca="1" t="shared" si="0"/>
-        <v>119</v>
-      </c>
-      <c r="B23" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" t="s">
-        <v>51</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="4">
-        <f ca="1" t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="B24" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" t="s">
-        <v>53</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="4">
-        <f ca="1" t="shared" si="0"/>
-        <v>121</v>
-      </c>
-      <c r="B25" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" t="s">
-        <v>55</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="4">
-        <f ca="1" t="shared" si="0"/>
-        <v>122</v>
-      </c>
-      <c r="B26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" t="s">
-        <v>57</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="4">
-        <f ca="1" t="shared" si="0"/>
-        <v>123</v>
-      </c>
-      <c r="B27" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="4">
-        <f ca="1" t="shared" si="0"/>
-        <v>124</v>
-      </c>
-      <c r="B28" t="s">
-        <v>60</v>
-      </c>
-      <c r="C28" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="4">
-        <f ca="1" t="shared" si="0"/>
-        <v>125</v>
-      </c>
-      <c r="B29" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" t="s">
-        <v>63</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="4">
-        <f ca="1" t="shared" si="0"/>
-        <v>126</v>
-      </c>
-      <c r="B30" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" t="s">
-        <v>65</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="4">
-        <f ca="1" t="shared" si="0"/>
-        <v>127</v>
-      </c>
-      <c r="B31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" t="s">
-        <v>67</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="4">
-        <f ca="1" t="shared" si="0"/>
-        <v>128</v>
-      </c>
-      <c r="B32" t="s">
-        <v>68</v>
-      </c>
-      <c r="C32" t="s">
-        <v>69</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="4">
-        <f ca="1" t="shared" si="0"/>
-        <v>129</v>
-      </c>
-      <c r="B33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C33" t="s">
-        <v>71</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="4">
-        <f ca="1" t="shared" si="0"/>
-        <v>130</v>
-      </c>
-      <c r="B34" t="s">
-        <v>72</v>
-      </c>
-      <c r="C34" t="s">
-        <v>73</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="4">
-        <f ca="1" t="shared" si="0"/>
-        <v>131</v>
-      </c>
-      <c r="B35" t="s">
-        <v>74</v>
-      </c>
-      <c r="C35" t="s">
-        <v>75</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="4">
-        <f ca="1" t="shared" si="0"/>
-        <v>132</v>
-      </c>
-      <c r="B36" t="s">
-        <v>76</v>
-      </c>
-      <c r="C36" t="s">
-        <v>77</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="4">
-        <f ca="1" t="shared" si="0"/>
-        <v>133</v>
-      </c>
-      <c r="B37" t="s">
-        <v>78</v>
-      </c>
-      <c r="C37" t="s">
-        <v>79</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="4">
-        <f ca="1" t="shared" si="0"/>
-        <v>134</v>
-      </c>
-      <c r="B38" t="s">
-        <v>80</v>
-      </c>
-      <c r="C38" t="s">
-        <v>81</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="4">
-        <f ca="1" t="shared" si="0"/>
-        <v>135</v>
-      </c>
-      <c r="B39" t="s">
-        <v>82</v>
-      </c>
-      <c r="C39" t="s">
-        <v>83</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="4">
-        <f ca="1" t="shared" si="0"/>
-        <v>136</v>
-      </c>
-      <c r="B40" t="s">
-        <v>84</v>
-      </c>
-      <c r="C40" t="s">
-        <v>85</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="4">
-        <f ca="1" t="shared" si="0"/>
-        <v>137</v>
-      </c>
-      <c r="B41" t="s">
-        <v>86</v>
-      </c>
-      <c r="C41" t="s">
-        <v>87</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="4">
-        <f ca="1" t="shared" si="0"/>
-        <v>138</v>
-      </c>
-      <c r="B42" t="s">
-        <v>88</v>
-      </c>
-      <c r="C42" t="s">
-        <v>89</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="4">
-        <f ca="1" t="shared" si="0"/>
-        <v>139</v>
-      </c>
-      <c r="B43" t="s">
-        <v>90</v>
-      </c>
-      <c r="C43" t="s">
-        <v>91</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="4">
-        <f ca="1" t="shared" si="0"/>
-        <v>140</v>
-      </c>
-      <c r="B44" t="s">
-        <v>92</v>
-      </c>
-      <c r="C44" t="s">
-        <v>93</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="4">
-        <f ca="1" t="shared" si="0"/>
-        <v>141</v>
-      </c>
-      <c r="B45" t="s">
-        <v>94</v>
-      </c>
-      <c r="C45" t="s">
-        <v>95</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="4">
-        <f ca="1" t="shared" si="0"/>
-        <v>142</v>
-      </c>
-      <c r="B46" t="s">
-        <v>96</v>
-      </c>
-      <c r="C46" t="s">
-        <v>97</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="4">
-        <f ca="1" t="shared" si="0"/>
-        <v>143</v>
-      </c>
-      <c r="B47" t="s">
-        <v>98</v>
-      </c>
-      <c r="C47" t="s">
-        <v>99</v>
-      </c>
-      <c r="I47" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="4">
-        <f ca="1" t="shared" si="0"/>
-        <v>144</v>
-      </c>
-      <c r="B48" t="s">
-        <v>100</v>
-      </c>
-      <c r="C48" t="s">
-        <v>101</v>
-      </c>
-      <c r="I48" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="4">
-        <f ca="1" t="shared" si="0"/>
-        <v>145</v>
-      </c>
-      <c r="B49" t="s">
-        <v>102</v>
-      </c>
-      <c r="C49" t="s">
-        <v>103</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="4">
-        <f ca="1" t="shared" si="0"/>
-        <v>146</v>
-      </c>
-      <c r="B50" t="s">
-        <v>104</v>
-      </c>
-      <c r="C50" t="s">
-        <v>105</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="4">
-        <f ca="1" t="shared" si="0"/>
-        <v>147</v>
-      </c>
-      <c r="B51" t="s">
-        <v>106</v>
-      </c>
-      <c r="C51" t="s">
-        <v>107</v>
-      </c>
-      <c r="H51" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="4">
-        <f ca="1" t="shared" si="0"/>
-        <v>148</v>
-      </c>
-      <c r="B52" t="s">
-        <v>108</v>
-      </c>
-      <c r="C52" t="s">
-        <v>109</v>
-      </c>
-      <c r="G52" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="4">
-        <f ca="1" t="shared" si="0"/>
-        <v>149</v>
-      </c>
-      <c r="B53" t="s">
-        <v>110</v>
-      </c>
-      <c r="C53" t="s">
-        <v>111</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54" s="4">
-        <f ca="1" t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="B54" t="s">
-        <v>112</v>
-      </c>
-      <c r="C54" t="s">
-        <v>113</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I54" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="4">
-        <f ca="1" t="shared" si="0"/>
-        <v>151</v>
-      </c>
-      <c r="B55" t="s">
-        <v>114</v>
-      </c>
-      <c r="C55" t="s">
-        <v>115</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="4">
-        <f ca="1" t="shared" si="0"/>
-        <v>152</v>
-      </c>
-      <c r="B56" t="s">
-        <v>116</v>
-      </c>
-      <c r="C56" t="s">
-        <v>117</v>
-      </c>
-      <c r="G56" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="4">
-        <f ca="1" t="shared" si="0"/>
-        <v>153</v>
-      </c>
-      <c r="B57" t="s">
-        <v>118</v>
-      </c>
-      <c r="C57" t="s">
-        <v>119</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58" s="4">
-        <f ca="1" t="shared" si="0"/>
-        <v>154</v>
-      </c>
-      <c r="B58" t="s">
-        <v>120</v>
-      </c>
-      <c r="C58" t="s">
-        <v>121</v>
-      </c>
-      <c r="I58" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="4">
-        <f ca="1" t="shared" si="0"/>
-        <v>155</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="4">
-        <f ca="1" t="shared" si="0"/>
-        <v>156</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="4">
-        <f ca="1" t="shared" si="0"/>
-        <v>157</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" s="4">
-        <f ca="1" t="shared" si="0"/>
-        <v>158</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" s="4">
-        <f ca="1" t="shared" si="0"/>
-        <v>159</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="A65" s="4">
-        <f ca="1" t="shared" ref="A65:A75" si="1">OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),-1,0)+1</f>
-        <v>1</v>
-      </c>
-      <c r="B65" t="s">
-        <v>122</v>
-      </c>
-      <c r="C65" t="s">
-        <v>123</v>
-      </c>
-      <c r="H65" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="4">
+      <c r="B66" t="s">
+        <v>196</v>
+      </c>
+      <c r="C66" t="s">
+        <v>197</v>
+      </c>
+      <c r="H66" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="7">
         <f ca="1" t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="4">
+    <row r="68" spans="1:1">
+      <c r="A68" s="7">
         <f ca="1" t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="4">
+    <row r="69" spans="1:1">
+      <c r="A69" s="7">
         <f ca="1" t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="4">
+    <row r="70" spans="1:1">
+      <c r="A70" s="7">
         <f ca="1" t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="4">
+    <row r="71" spans="1:1">
+      <c r="A71" s="7">
         <f ca="1" t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="4">
+    <row r="72" spans="1:1">
+      <c r="A72" s="7">
         <f ca="1" t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
-      <c r="A72" s="4">
+    <row r="73" spans="1:1">
+      <c r="A73" s="7">
         <f ca="1" t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
-      <c r="A73" s="4">
+    <row r="74" spans="1:1">
+      <c r="A74" s="7">
         <f ca="1" t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
-      <c r="A74" s="4">
+    <row r="75" spans="1:1">
+      <c r="A75" s="7">
         <f ca="1" t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
-      <c r="A75" s="4">
+    <row r="76" spans="1:1">
+      <c r="A76" s="7">
         <f ca="1" t="shared" si="1"/>
         <v>11</v>
       </c>
@@ -2903,282 +3305,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="48.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="3" customFormat="1" spans="1:2">
-      <c r="A1" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" s="3" customFormat="1" spans="1:2">
-      <c r="A2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="3" s="3" customFormat="1" spans="1:2">
-      <c r="A3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="4" s="3" customFormat="1" spans="1:2">
-      <c r="A4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="5" s="3" customFormat="1"/>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>134</v>
-      </c>
-      <c r="B7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>136</v>
-      </c>
-      <c r="B8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>138</v>
-      </c>
-      <c r="B9" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B10" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>142</v>
-      </c>
-      <c r="B12" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>144</v>
-      </c>
-      <c r="B13" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>146</v>
-      </c>
-      <c r="B14" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>148</v>
-      </c>
-      <c r="B15" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>150</v>
-      </c>
-      <c r="B16" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>152</v>
-      </c>
-      <c r="B17" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>154</v>
-      </c>
-      <c r="B18" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>156</v>
-      </c>
-      <c r="B19" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>158</v>
-      </c>
-      <c r="B20" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>160</v>
-      </c>
-      <c r="B21" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>162</v>
-      </c>
-      <c r="B22" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>164</v>
-      </c>
-      <c r="B23" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>166</v>
-      </c>
-      <c r="B24" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>168</v>
-      </c>
-      <c r="B25" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>170</v>
-      </c>
-      <c r="B26" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>172</v>
-      </c>
-      <c r="B27" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>174</v>
-      </c>
-      <c r="B28" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>176</v>
-      </c>
-      <c r="B29" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>178</v>
-      </c>
-      <c r="B30" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>180</v>
-      </c>
-      <c r="B31" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>182</v>
-      </c>
-      <c r="B32" t="s">
-        <v>183</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:B1 B6 B7 B8 A9:B9 A10" numberStoredAsText="1"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="5"/>
@@ -3186,628 +3321,628 @@
     <col min="1" max="1" width="9.125" customWidth="1"/>
     <col min="2" max="2" width="10.875" customWidth="1"/>
     <col min="4" max="4" width="8.75" customWidth="1"/>
-    <col min="5" max="5" width="5" customWidth="1"/>
+    <col min="5" max="5" width="5" style="4" customWidth="1"/>
     <col min="6" max="6" width="21.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>189</v>
+    <row r="1" s="3" customFormat="1" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="D2" t="s">
-        <v>192</v>
-      </c>
-      <c r="E2" t="s">
-        <v>193</v>
+        <v>206</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>207</v>
       </c>
       <c r="F2" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="B3" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="C3" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="D3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E3" t="s">
-        <v>193</v>
+        <v>211</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>207</v>
       </c>
       <c r="F3" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="B4" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="C4" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="D4" t="s">
-        <v>192</v>
-      </c>
-      <c r="E4" t="s">
-        <v>200</v>
+        <v>206</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>214</v>
       </c>
       <c r="F4" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="D5" t="s">
-        <v>192</v>
-      </c>
-      <c r="E5" t="s">
-        <v>203</v>
+        <v>206</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>217</v>
       </c>
       <c r="F5" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D6" t="s">
         <v>206</v>
       </c>
-      <c r="D6" t="s">
-        <v>192</v>
-      </c>
-      <c r="E6" t="s">
-        <v>203</v>
+      <c r="E6" s="4" t="s">
+        <v>217</v>
       </c>
       <c r="F6" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
+        <v>220</v>
+      </c>
+      <c r="D7" t="s">
         <v>206</v>
       </c>
-      <c r="D7" t="s">
-        <v>192</v>
-      </c>
-      <c r="E7" t="s">
-        <v>203</v>
+      <c r="E7" s="4" t="s">
+        <v>217</v>
       </c>
       <c r="F7" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="D8" t="s">
-        <v>192</v>
-      </c>
-      <c r="E8" t="s">
-        <v>211</v>
+        <v>206</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>225</v>
       </c>
       <c r="F8" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="C9" t="s">
+        <v>220</v>
+      </c>
+      <c r="D9" t="s">
         <v>206</v>
       </c>
-      <c r="D9" t="s">
-        <v>192</v>
-      </c>
-      <c r="E9" t="s">
-        <v>214</v>
+      <c r="E9" s="4" t="s">
+        <v>228</v>
       </c>
       <c r="F9" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="D10" t="s">
-        <v>197</v>
-      </c>
-      <c r="E10" t="s">
-        <v>217</v>
+        <v>211</v>
+      </c>
+      <c r="E10" s="4">
+        <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
+        <v>220</v>
+      </c>
+      <c r="D11" t="s">
         <v>206</v>
       </c>
-      <c r="D11" t="s">
-        <v>192</v>
-      </c>
-      <c r="E11" t="s">
-        <v>220</v>
+      <c r="E11" s="4">
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="D12" t="s">
-        <v>197</v>
-      </c>
-      <c r="E12" t="s">
-        <v>220</v>
+        <v>211</v>
+      </c>
+      <c r="E12" s="4">
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="B13" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="C13" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="D13" t="s">
-        <v>192</v>
-      </c>
-      <c r="E13" t="s">
-        <v>225</v>
+        <v>206</v>
+      </c>
+      <c r="E13" s="4">
+        <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="B14" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="C14" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="D14" t="s">
-        <v>197</v>
-      </c>
-      <c r="E14" t="s">
-        <v>225</v>
+        <v>211</v>
+      </c>
+      <c r="E14" s="4">
+        <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="B15" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="C15" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="D15" t="s">
-        <v>192</v>
-      </c>
-      <c r="E15" t="s">
-        <v>231</v>
+        <v>206</v>
+      </c>
+      <c r="E15" s="4">
+        <v>18</v>
       </c>
       <c r="F15" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="C16" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="D16" t="s">
-        <v>197</v>
-      </c>
-      <c r="E16" t="s">
-        <v>234</v>
+        <v>211</v>
+      </c>
+      <c r="E16" s="4">
+        <v>20</v>
       </c>
       <c r="F16" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="C17" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="D17" t="s">
-        <v>192</v>
-      </c>
-      <c r="E17" t="s">
-        <v>234</v>
+        <v>206</v>
+      </c>
+      <c r="E17" s="4">
+        <v>20</v>
       </c>
       <c r="F17" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="C18" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="D18" t="s">
-        <v>192</v>
-      </c>
-      <c r="E18" t="s">
-        <v>238</v>
+        <v>206</v>
+      </c>
+      <c r="E18" s="4">
+        <v>23</v>
       </c>
       <c r="F18" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="B19" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="C19" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="D19" t="s">
-        <v>242</v>
-      </c>
-      <c r="E19" t="s">
-        <v>243</v>
+        <v>250</v>
+      </c>
+      <c r="E19" s="4">
+        <v>27</v>
       </c>
       <c r="F19" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="C20" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="D20" t="s">
-        <v>192</v>
-      </c>
-      <c r="E20" t="s">
-        <v>246</v>
+        <v>206</v>
+      </c>
+      <c r="E20" s="4">
+        <v>28</v>
       </c>
       <c r="F20" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="C21" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="D21" t="s">
-        <v>192</v>
-      </c>
-      <c r="E21" t="s">
-        <v>246</v>
+        <v>206</v>
+      </c>
+      <c r="E21" s="4">
+        <v>28</v>
       </c>
       <c r="F21" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="B22" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="C22" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="D22" t="s">
-        <v>192</v>
-      </c>
-      <c r="E22" t="s">
-        <v>251</v>
+        <v>206</v>
+      </c>
+      <c r="E22" s="4">
+        <v>29</v>
       </c>
       <c r="F22" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="B23" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C23" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="D23" t="s">
-        <v>192</v>
-      </c>
-      <c r="E23" t="s">
-        <v>251</v>
+        <v>206</v>
+      </c>
+      <c r="E23" s="4">
+        <v>29</v>
       </c>
       <c r="F23" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="B24" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C24" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="D24" t="s">
-        <v>197</v>
-      </c>
-      <c r="E24" t="s">
-        <v>251</v>
+        <v>211</v>
+      </c>
+      <c r="E24" s="4">
+        <v>29</v>
       </c>
       <c r="F24" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="B25" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C25" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="D25" t="s">
-        <v>192</v>
-      </c>
-      <c r="E25" t="s">
-        <v>251</v>
+        <v>206</v>
+      </c>
+      <c r="E25" s="4">
+        <v>29</v>
       </c>
       <c r="F25" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="B26" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C26" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="D26" t="s">
-        <v>192</v>
-      </c>
-      <c r="E26" t="s">
-        <v>251</v>
+        <v>206</v>
+      </c>
+      <c r="E26" s="4">
+        <v>29</v>
       </c>
       <c r="F26" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="B27" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="C27" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="D27" t="s">
-        <v>242</v>
-      </c>
-      <c r="E27" t="s">
-        <v>264</v>
+        <v>250</v>
+      </c>
+      <c r="E27" s="4">
+        <v>31</v>
       </c>
       <c r="F27" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B28" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="C28" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="D28" t="s">
-        <v>242</v>
-      </c>
-      <c r="E28" t="s">
-        <v>267</v>
+        <v>250</v>
+      </c>
+      <c r="E28" s="4">
+        <v>34</v>
       </c>
       <c r="F28" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B29" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="C29" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="D29" t="s">
-        <v>242</v>
-      </c>
-      <c r="E29" t="s">
-        <v>270</v>
+        <v>250</v>
+      </c>
+      <c r="E29" s="4">
+        <v>40</v>
       </c>
       <c r="F29" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B30" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="C30" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="D30" t="s">
-        <v>197</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>273</v>
+        <v>211</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>275</v>
       </c>
       <c r="F30" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="C31" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="D31" t="s">
-        <v>197</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>275</v>
+        <v>211</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>277</v>
       </c>
       <c r="F31" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -3815,7 +3950,104 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A1:F12 B13:F13 B14:F14 A15:F29" numberStoredAsText="1"/>
+    <ignoredError sqref="F12 A12:D12 F11 A11:D11 F10 A10:D10 F9 A9:E9 F8 A8:E8 F7 A7:E7 F6 A6:E6 F5 A5:E5 F4 A4:E4 F3 A3:E3 F2 A2:E2 A1:F1 F13 B13:D13 F14 B14:D14 F29 A29:D29 F28 A28:D28 F27 A27:D27 F26 A26:D26 F25 A25:D25 F24 A24:D24 F23 A23:D23 F22 A22:D22 F21 A21:D21 F20 A20:D20 F19 A19:D19 F18 A18:D18 F17 A17:D17 F16 A16:D16 F15 A15:D15 E30:E31" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="6" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="3" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C5" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B6" t="s">
+        <v>292</v>
+      </c>
+      <c r="C6" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>294</v>
+      </c>
+      <c r="B7" t="s">
+        <v>295</v>
+      </c>
+      <c r="C7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/事出无因-表格.xlsx
+++ b/事出无因-表格.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CONST\PartA_Aint_No_Reason\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B794CA-C8E5-4897-B14D-754E2FACE24F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0ED963-B778-47BC-BAF5-A197CF2C5CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{C152C2CF-4795-4690-A1F7-AD5CABE71FF9}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="311">
   <si>
     <t>时间</t>
   </si>
@@ -576,15 +576,9 @@
     <t>待定（机器人询问阴影问题，然后参与计划）</t>
   </si>
   <si>
-    <t>家乡</t>
-  </si>
-  <si>
     <t>献祭</t>
   </si>
   <si>
-    <t>出发</t>
-  </si>
-  <si>
     <t>解封</t>
   </si>
   <si>
@@ -621,9 +615,6 @@
     <t>男</t>
   </si>
   <si>
-    <t>01</t>
-  </si>
-  <si>
     <t>一个契机</t>
   </si>
   <si>
@@ -642,18 +633,12 @@
     <t>李</t>
   </si>
   <si>
-    <t>02</t>
-  </si>
-  <si>
     <t>常州云虫管理人</t>
   </si>
   <si>
     <t>林一</t>
   </si>
   <si>
-    <t>04</t>
-  </si>
-  <si>
     <t>云虫学者</t>
   </si>
   <si>
@@ -675,18 +660,12 @@
     <t>卢</t>
   </si>
   <si>
-    <t>06</t>
-  </si>
-  <si>
     <t>常州新人类职员</t>
   </si>
   <si>
     <t>？</t>
   </si>
   <si>
-    <t>07</t>
-  </si>
-  <si>
     <t>地下城市长</t>
   </si>
   <si>
@@ -825,13 +804,7 @@
     <t>沙岛</t>
   </si>
   <si>
-    <t>45</t>
-  </si>
-  <si>
     <t>朱澄</t>
-  </si>
-  <si>
-    <t>49</t>
   </si>
   <si>
     <t>卢的另一半？</t>
@@ -1008,6 +981,30 @@
   </si>
   <si>
     <t>月在微型龙签署合同</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>风暴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>尽头</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表白</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>远航</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>航行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>故乡</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1158,7 +1155,95 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="00"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1169,6 +1254,42 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0B38B560-4BBB-406A-89AE-7E96911E7002}" name="表1" displayName="表1" ref="A1:J66" totalsRowShown="0" headerRowDxfId="2" dataDxfId="3">
+  <autoFilter ref="A1:J66" xr:uid="{0B38B560-4BBB-406A-89AE-7E96911E7002}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{DDA5145A-D047-4F1D-B712-A7AF5F2C1B61}" name="序号" dataDxfId="12">
+      <calculatedColumnFormula>OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),-1,0)+1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{D61CAD78-B743-49C6-85A6-7006FC0E2971}" name="章节" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{612FC461-E23F-40FB-A2EB-CDDEAA9D8322}" name="时间" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{3D31D840-5FF8-4307-8D93-FE4A4F6A713E}" name="概括"/>
+    <tableColumn id="5" xr3:uid="{EAA7FE29-EA45-4039-B646-A3AFCD3A48DA}" name="其他" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{65166CC7-2E74-4A5A-B95E-1F3EEA4B9225}" name="云虫内部" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{10A5B5AE-BCBC-45BD-87C2-38B39BB38650}" name="地下城" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{9CB4FB37-31E5-4716-A555-79FF61FA84F7}" name="新人类世界" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{C4FBA580-0CF0-4B6A-8C00-0F8C38974587}" name="外太空" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{8EDC8BA6-BF0E-421C-8E65-25D06CAB7F4B}" name="郊外" dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5980693B-DA59-4CAF-AE17-AE064C16D314}" name="表2" displayName="表2" ref="A1:F31" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:F31" xr:uid="{5980693B-DA59-4CAF-AE17-AE064C16D314}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{136D04D6-098A-4255-A0C8-FEC42565FF59}" name="名字"/>
+    <tableColumn id="2" xr3:uid="{0E47CD47-6849-4EF3-931D-F7F0BF93AFE4}" name="从属"/>
+    <tableColumn id="3" xr3:uid="{3C9FC89F-31AE-4378-998E-CD9CBE3A21B3}" name="种族"/>
+    <tableColumn id="4" xr3:uid="{1269B344-6E5D-425D-8DAA-852789987EE8}" name="性别认知"/>
+    <tableColumn id="5" xr3:uid="{174ED0B3-0156-49EF-9803-838DC4ED3EAA}" name="登场" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{EF07E877-DAC2-4DCA-BC84-52580C4609B0}" name="备注"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1597,10 +1718,10 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
@@ -1621,19 +1742,19 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
@@ -1641,39 +1762,39 @@
         <v>26</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="10" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="10" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="10" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="10" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -1747,7 +1868,7 @@
         <v>43</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
@@ -1755,7 +1876,7 @@
         <v>44</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
@@ -1857,30 +1978,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J62"/>
+  <dimension ref="A1:J66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C57" sqref="C57"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.375" style="18" customWidth="1"/>
+    <col min="1" max="1" width="5.625" style="18" customWidth="1"/>
     <col min="3" max="3" width="13.875" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="50.875" customWidth="1"/>
-    <col min="5" max="10" width="9" style="5"/>
+    <col min="5" max="5" width="9" style="5"/>
+    <col min="6" max="6" width="11.25" style="5" customWidth="1"/>
+    <col min="7" max="7" width="9.125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="13.375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="9.125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>67</v>
@@ -1912,7 +2038,7 @@
         <v>75</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="D2" t="s">
         <v>76</v>
@@ -2134,10 +2260,7 @@
         <v>45117</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>74</v>
+        <v>289</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>74</v>
@@ -2173,9 +2296,9 @@
         <v>45117</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="F16" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="H16" s="5" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2191,7 +2314,7 @@
         <v>45130</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>74</v>
@@ -2227,7 +2350,7 @@
         <v>45134</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>74</v>
@@ -2242,7 +2365,7 @@
         <v>107</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="D20" t="s">
         <v>108</v>
@@ -2265,9 +2388,6 @@
       <c r="D21" t="s">
         <v>112</v>
       </c>
-      <c r="H21" s="5" t="s">
-        <v>74</v>
-      </c>
       <c r="J21" s="5" t="s">
         <v>74</v>
       </c>
@@ -2344,7 +2464,7 @@
         <v>45131</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>74</v>
@@ -2383,7 +2503,7 @@
         <v>45132</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>74</v>
@@ -2478,7 +2598,7 @@
       <c r="D32" t="s">
         <v>130</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="H32" s="5" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2523,7 +2643,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="18">
-        <f t="shared" ref="A35:A61" ca="1" si="1">OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),-1,0)+1</f>
+        <f t="shared" ref="A35:A62" ca="1" si="1">OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),-1,0)+1</f>
         <v>33</v>
       </c>
       <c r="B35" t="s">
@@ -2548,7 +2668,7 @@
         <v>137</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="D36" t="s">
         <v>138</v>
@@ -2680,7 +2800,7 @@
         <v>149</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="D43" t="s">
         <v>150</v>
@@ -2755,7 +2875,7 @@
         <v>45143</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>74</v>
@@ -2806,7 +2926,7 @@
         <v>162</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="D50" t="s">
         <v>163</v>
@@ -2920,7 +3040,7 @@
         <v>45152</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="H56" s="5" t="s">
         <v>74</v>
@@ -2946,8 +3066,14 @@
         <f t="shared" ca="1" si="1"/>
         <v>56</v>
       </c>
-      <c r="B58" t="s">
-        <v>179</v>
+      <c r="B58" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.15">
@@ -2956,7 +3082,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>180</v>
+        <v>179</v>
+      </c>
+      <c r="J59" s="5" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.15">
@@ -2964,34 +3093,88 @@
         <f t="shared" ca="1" si="1"/>
         <v>58</v>
       </c>
-      <c r="B60" t="s">
-        <v>181</v>
+      <c r="B60" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A61" s="18">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),-1,0)+1</f>
         <v>59</v>
       </c>
-      <c r="B61" t="s">
-        <v>182</v>
+      <c r="B61" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A62" s="18">
-        <f t="shared" ref="A62" ca="1" si="2">OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),-1,0)+1</f>
+        <f t="shared" ca="1" si="1"/>
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>183</v>
-      </c>
-      <c r="C62" s="14">
+        <v>180</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A63" s="18">
+        <f t="shared" ref="A63:A66" ca="1" si="2">OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),-1,0)+1</f>
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>181</v>
+      </c>
+      <c r="C63" s="14">
         <v>45156</v>
       </c>
-      <c r="D62" t="s">
-        <v>184</v>
-      </c>
-      <c r="I62" s="5" t="s">
+      <c r="D63" t="s">
+        <v>182</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A64" s="18">
+        <f t="shared" ca="1" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A65" s="18">
+        <f t="shared" ca="1" si="2"/>
+        <v>63</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A66" s="18">
+        <f t="shared" ca="1" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="E66" s="5" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2999,9 +3182,9 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="E1:J1 B1 B12 E12:J12 E2:J10 B2:B10 B15:B20 E15:J20 B22:B24 E22:J24 B26:B27 E26:J27 B42:B43 E42:J43 E45:J47 B45:B47 E29:J40 B29:B40" numberStoredAsText="1"/>
-  </ignoredErrors>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -3011,645 +3194,555 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.125" customWidth="1"/>
     <col min="2" max="2" width="10.875" customWidth="1"/>
-    <col min="4" max="4" width="8.75" customWidth="1"/>
-    <col min="5" max="5" width="5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.25" customWidth="1"/>
+    <col min="5" max="5" width="7" style="2" customWidth="1"/>
     <col min="6" max="6" width="21.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B2" t="s">
         <v>71</v>
       </c>
       <c r="C2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F2" t="s">
         <v>192</v>
-      </c>
-      <c r="D2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="F2" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F3" t="s">
         <v>196</v>
-      </c>
-      <c r="B3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="F3" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D4" t="s">
-        <v>193</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="F4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B5" t="s">
         <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D5" t="s">
-        <v>193</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="F5" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B6" t="s">
         <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D6" t="s">
-        <v>193</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="F6" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B7" t="s">
         <v>70</v>
       </c>
       <c r="C7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D7" t="s">
-        <v>193</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="F7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B8" t="s">
         <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D8" t="s">
-        <v>193</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="F8" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B9" t="s">
         <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D9" t="s">
-        <v>193</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="F9" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B10" t="s">
         <v>71</v>
       </c>
       <c r="C10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D10" t="s">
-        <v>198</v>
-      </c>
-      <c r="E10" s="2">
-        <v>10</v>
+        <v>195</v>
       </c>
       <c r="F10" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B11" t="s">
         <v>70</v>
       </c>
       <c r="C11" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D11" t="s">
-        <v>193</v>
-      </c>
-      <c r="E11" s="2">
-        <v>11</v>
+        <v>191</v>
       </c>
       <c r="F11" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B12" t="s">
         <v>70</v>
       </c>
       <c r="C12" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D12" t="s">
-        <v>198</v>
-      </c>
-      <c r="E12" s="2">
-        <v>11</v>
+        <v>195</v>
       </c>
       <c r="F12" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B13" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C13" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="D13" t="s">
-        <v>193</v>
-      </c>
-      <c r="E13" s="2">
-        <v>13</v>
+        <v>191</v>
       </c>
       <c r="F13" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C14" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="D14" t="s">
-        <v>198</v>
-      </c>
-      <c r="E14" s="2">
-        <v>13</v>
+        <v>195</v>
       </c>
       <c r="F14" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B15" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C15" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="D15" t="s">
-        <v>193</v>
-      </c>
-      <c r="E15" s="2">
-        <v>18</v>
+        <v>191</v>
       </c>
       <c r="F15" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="B16" t="s">
         <v>71</v>
       </c>
       <c r="C16" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D16" t="s">
-        <v>198</v>
-      </c>
-      <c r="E16" s="2">
-        <v>20</v>
+        <v>195</v>
       </c>
       <c r="F16" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B17" t="s">
         <v>71</v>
       </c>
       <c r="C17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D17" t="s">
-        <v>193</v>
-      </c>
-      <c r="E17" s="2">
-        <v>20</v>
+        <v>191</v>
       </c>
       <c r="F17" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B18" t="s">
         <v>71</v>
       </c>
       <c r="C18" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D18" t="s">
-        <v>193</v>
-      </c>
-      <c r="E18" s="2">
-        <v>23</v>
+        <v>191</v>
       </c>
       <c r="F18" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B19" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C19" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D19" t="s">
-        <v>237</v>
-      </c>
-      <c r="E19" s="2">
-        <v>27</v>
+        <v>230</v>
       </c>
       <c r="F19" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B20" t="s">
         <v>71</v>
       </c>
       <c r="C20" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D20" t="s">
-        <v>193</v>
-      </c>
-      <c r="E20" s="2">
-        <v>28</v>
+        <v>191</v>
       </c>
       <c r="F20" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B21" t="s">
         <v>71</v>
       </c>
       <c r="C21" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D21" t="s">
-        <v>193</v>
-      </c>
-      <c r="E21" s="2">
-        <v>28</v>
+        <v>191</v>
       </c>
       <c r="F21" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B22" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C22" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="D22" t="s">
-        <v>193</v>
-      </c>
-      <c r="E22" s="2">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="F22" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B23" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C23" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="D23" t="s">
-        <v>193</v>
-      </c>
-      <c r="E23" s="2">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="F23" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B24" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C24" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="D24" t="s">
-        <v>198</v>
-      </c>
-      <c r="E24" s="2">
-        <v>29</v>
+        <v>195</v>
       </c>
       <c r="F24" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B25" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C25" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="D25" t="s">
-        <v>193</v>
-      </c>
-      <c r="E25" s="2">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="F25" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B26" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="C26" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D26" t="s">
-        <v>193</v>
-      </c>
-      <c r="E26" s="2">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="F26" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B27" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C27" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D27" t="s">
-        <v>237</v>
-      </c>
-      <c r="E27" s="2">
-        <v>31</v>
+        <v>230</v>
       </c>
       <c r="F27" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B28" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C28" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="D28" t="s">
-        <v>237</v>
-      </c>
-      <c r="E28" s="2">
-        <v>34</v>
+        <v>230</v>
       </c>
       <c r="F28" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="B29" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C29" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="D29" t="s">
-        <v>237</v>
-      </c>
-      <c r="E29" s="2">
-        <v>40</v>
+        <v>230</v>
       </c>
       <c r="F29" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B30" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C30" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D30" t="s">
-        <v>198</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>262</v>
+        <v>195</v>
       </c>
       <c r="F30" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="B31" t="s">
         <v>71</v>
       </c>
       <c r="C31" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D31" t="s">
-        <v>198</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>264</v>
+        <v>195</v>
       </c>
       <c r="F31" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <ignoredErrors>
-    <ignoredError sqref="F12 A12:D12 F11 A11:D11 F10 A10:D10 F9 A9:E9 F8 A8:E8 F7 A7:E7 F6 A6:E6 F5 A5:E5 F4 A4:E4 F3 A3:E3 F2 A2:E2 A1:F1 F13 B13:D13 F14 B14:D14 F29 A29:D29 F28 A28:D28 F27 A27:D27 F26 A26:D26 F25 A25:D25 F24 A24:D24 F23 A23:D23 F22 A22:D22 F21 A21:D21 F20 A20:D20 F19 A19:D19 F18 A18:D18 F17 A17:D17 F16 A16:D16 F15 A15:D15 E30:E31" numberStoredAsText="1"/>
-  </ignoredErrors>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -3669,75 +3762,75 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="B4" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="C4" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="B5" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="C5" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="B6" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="C6" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="B7" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="C7" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>

--- a/事出无因-表格.xlsx
+++ b/事出无因-表格.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CONST\PartA_Aint_No_Reason\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0ED963-B778-47BC-BAF5-A197CF2C5CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CBBD204-5ECB-41AF-BB34-C4CBAF8BFF2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{C152C2CF-4795-4690-A1F7-AD5CABE71FF9}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{54F204C0-C9E1-4FE7-9249-049DCA64453D}"/>
   </bookViews>
   <sheets>
     <sheet name="时间轴" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="352">
   <si>
     <t>时间</t>
   </si>
@@ -246,15 +246,9 @@
     <t>其他</t>
   </si>
   <si>
-    <t>云虫内部</t>
-  </si>
-  <si>
     <t>地下城</t>
   </si>
   <si>
-    <t>新人类世界</t>
-  </si>
-  <si>
     <t>外太空</t>
   </si>
   <si>
@@ -540,9 +534,6 @@
     <t>改写</t>
   </si>
   <si>
-    <t>卢与朱澄散步时遇到沙岛、卢出于某种目的暂时与朱分手</t>
-  </si>
-  <si>
     <t>神明</t>
   </si>
   <si>
@@ -573,9 +564,6 @@
     <t>民族</t>
   </si>
   <si>
-    <t>待定（机器人询问阴影问题，然后参与计划）</t>
-  </si>
-  <si>
     <t>献祭</t>
   </si>
   <si>
@@ -595,9 +583,6 @@
   </si>
   <si>
     <t>种族</t>
-  </si>
-  <si>
-    <t>性别认知</t>
   </si>
   <si>
     <t>登场</t>
@@ -984,10 +969,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>风暴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>尽头</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1006,6 +987,194 @@
   <si>
     <t>故乡</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢与朱澄散步时遇到沙岛、卢与朱分手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8月末</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>尽头</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>终局</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙暴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>云虫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新世界</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>昆顿</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>隶属微型龙的小说家</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>血泊</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>炮击</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>呼唤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>离去</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>求助</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>密钥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>传承</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>求职</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>机场</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>会议</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫荆</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>后巷</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>你好</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>旅者</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>镜岛</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>改写</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿图罗</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地下城</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>旧人类</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>港口</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>晌午</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>渗透到新世界的旧人类</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新世界</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人类</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微型龙的CEO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>天使X</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>天使Y</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小彼得的女朋友</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>常州城外的重建机器</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>威兹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>尅兹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别认知</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1015,7 +1184,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="00"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1052,6 +1221,32 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1061,7 +1256,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1106,17 +1301,62 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1151,11 +1391,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="20">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1168,15 +1454,241 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
-        <color theme="1"/>
+        <color theme="0"/>
         <name val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1192,13 +1704,25 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="宋体"/>
-        <family val="2"/>
+        <family val="3"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1243,6 +1767,28 @@
     <dxf>
       <numFmt numFmtId="176" formatCode="00"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
@@ -1257,36 +1803,37 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0B38B560-4BBB-406A-89AE-7E96911E7002}" name="表1" displayName="表1" ref="A1:J66" totalsRowShown="0" headerRowDxfId="2" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0B38B560-4BBB-406A-89AE-7E96911E7002}" name="表1" displayName="表1" ref="A1:J66" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A1:J66" xr:uid="{0B38B560-4BBB-406A-89AE-7E96911E7002}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{DDA5145A-D047-4F1D-B712-A7AF5F2C1B61}" name="序号" dataDxfId="12">
+    <tableColumn id="1" xr3:uid="{DDA5145A-D047-4F1D-B712-A7AF5F2C1B61}" name="序号" dataDxfId="17">
       <calculatedColumnFormula>OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),-1,0)+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{D61CAD78-B743-49C6-85A6-7006FC0E2971}" name="章节" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{612FC461-E23F-40FB-A2EB-CDDEAA9D8322}" name="时间" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{D61CAD78-B743-49C6-85A6-7006FC0E2971}" name="章节" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{612FC461-E23F-40FB-A2EB-CDDEAA9D8322}" name="时间" dataDxfId="15"/>
     <tableColumn id="4" xr3:uid="{3D31D840-5FF8-4307-8D93-FE4A4F6A713E}" name="概括"/>
-    <tableColumn id="5" xr3:uid="{EAA7FE29-EA45-4039-B646-A3AFCD3A48DA}" name="其他" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{65166CC7-2E74-4A5A-B95E-1F3EEA4B9225}" name="云虫内部" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{10A5B5AE-BCBC-45BD-87C2-38B39BB38650}" name="地下城" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{9CB4FB37-31E5-4716-A555-79FF61FA84F7}" name="新人类世界" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{C4FBA580-0CF0-4B6A-8C00-0F8C38974587}" name="外太空" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{8EDC8BA6-BF0E-421C-8E65-25D06CAB7F4B}" name="郊外" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{EAA7FE29-EA45-4039-B646-A3AFCD3A48DA}" name="其他" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{65166CC7-2E74-4A5A-B95E-1F3EEA4B9225}" name="云虫" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{10A5B5AE-BCBC-45BD-87C2-38B39BB38650}" name="地下城" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{9CB4FB37-31E5-4716-A555-79FF61FA84F7}" name="新世界" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{C4FBA580-0CF0-4B6A-8C00-0F8C38974587}" name="外太空" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{8EDC8BA6-BF0E-421C-8E65-25D06CAB7F4B}" name="郊外" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5980693B-DA59-4CAF-AE17-AE064C16D314}" name="表2" displayName="表2" ref="A1:F31" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:F31" xr:uid="{5980693B-DA59-4CAF-AE17-AE064C16D314}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{136D04D6-098A-4255-A0C8-FEC42565FF59}" name="名字"/>
-    <tableColumn id="2" xr3:uid="{0E47CD47-6849-4EF3-931D-F7F0BF93AFE4}" name="从属"/>
-    <tableColumn id="3" xr3:uid="{3C9FC89F-31AE-4378-998E-CD9CBE3A21B3}" name="种族"/>
-    <tableColumn id="4" xr3:uid="{1269B344-6E5D-425D-8DAA-852789987EE8}" name="性别认知"/>
-    <tableColumn id="5" xr3:uid="{174ED0B3-0156-49EF-9803-838DC4ED3EAA}" name="登场" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{EF07E877-DAC2-4DCA-BC84-52580C4609B0}" name="备注"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{093EB0BA-25A7-4768-AF21-374EA7451524}" name="表4" displayName="表4" ref="A1:G39" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A1:G39" xr:uid="{093EB0BA-25A7-4768-AF21-374EA7451524}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{A501BEBA-18E2-4C04-8401-61B2CB3E3DA3}" name="序号" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{C532D22D-C116-4E91-A376-969460C824DD}" name="名字" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{3E070FE3-14C9-4DFA-BB8A-B31747726B65}" name="从属" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{B2550F57-2090-4E55-9AC0-9FB0613D6D46}" name="种族" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{46E4D422-12BC-44FF-861E-A5AC312E398F}" name="性别认知" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{CA89770E-3C58-40BC-A9E6-895CBA24760E}" name="登场" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{0C497B82-361A-495D-9B2D-160B2076A775}" name="备注" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1616,10 +2163,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B54" sqref="B54"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1627,15 +2171,15 @@
     <col min="2" max="2" width="77.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1643,7 +2187,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1651,7 +2195,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1659,7 +2203,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>8</v>
@@ -1717,11 +2261,11 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>281</v>
+      <c r="A15" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
@@ -1741,64 +2285,64 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>288</v>
+      <c r="A19" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>283</v>
+      <c r="A22" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>284</v>
+      <c r="B23" s="5" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>294</v>
+      <c r="A24" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>282</v>
-      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>292</v>
+      <c r="A27" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B28" t="s">
@@ -1807,7 +2351,7 @@
     </row>
     <row r="29" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="10" t="s">
         <v>29</v>
       </c>
       <c r="B30" t="s">
@@ -1815,7 +2359,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B31" t="s">
@@ -1823,7 +2367,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B32" t="s">
@@ -1831,7 +2375,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B33" t="s">
@@ -1839,7 +2383,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B34" t="s">
@@ -1847,7 +2391,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="7" t="s">
         <v>39</v>
       </c>
       <c r="B35" t="s">
@@ -1855,7 +2399,7 @@
       </c>
     </row>
     <row r="36" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="9" t="s">
         <v>41</v>
       </c>
       <c r="B36" t="s">
@@ -1864,23 +2408,23 @@
     </row>
     <row r="37" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="7" t="s">
-        <v>301</v>
+      <c r="B38" s="5" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="7" t="s">
-        <v>297</v>
+      <c r="B39" s="5" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B40" t="s">
@@ -1888,12 +2432,12 @@
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="7" t="s">
         <v>48</v>
       </c>
       <c r="B42" t="s">
@@ -1901,7 +2445,7 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="7" t="s">
         <v>50</v>
       </c>
       <c r="B43" t="s">
@@ -1909,7 +2453,7 @@
       </c>
     </row>
     <row r="44" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="9" t="s">
         <v>52</v>
       </c>
       <c r="B44" t="s">
@@ -1918,7 +2462,7 @@
     </row>
     <row r="45" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="10" t="s">
         <v>54</v>
       </c>
       <c r="B46" t="s">
@@ -1926,7 +2470,7 @@
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="7" t="s">
         <v>56</v>
       </c>
       <c r="B47" t="s">
@@ -1934,7 +2478,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="7" t="s">
         <v>58</v>
       </c>
       <c r="B48" t="s">
@@ -1942,7 +2486,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="7" t="s">
         <v>60</v>
       </c>
       <c r="B49" t="s">
@@ -1950,7 +2494,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="7" t="s">
         <v>62</v>
       </c>
       <c r="B50" t="s">
@@ -1958,13 +2502,19 @@
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="7" t="s">
         <v>64</v>
       </c>
+      <c r="B51" s="5" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="52" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="11" t="s">
+      <c r="A52" s="9" t="s">
         <v>65</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -1980,33 +2530,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C66" sqref="C66"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="13.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="13.875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="50.875" customWidth="1"/>
-    <col min="5" max="5" width="9" style="5"/>
-    <col min="6" max="6" width="11.25" style="5" customWidth="1"/>
-    <col min="7" max="7" width="9.125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="13.375" style="5" customWidth="1"/>
-    <col min="9" max="9" width="9.125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="9" style="5"/>
+    <col min="5" max="10" width="7.625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
-        <v>303</v>
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="15" t="s">
+        <v>298</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>67</v>
@@ -2015,1167 +2559,1191 @@
         <v>68</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="16">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="18">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>286</v>
+      <c r="C2" s="11" t="s">
+        <v>281</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" s="5" t="s">
         <v>74</v>
       </c>
+      <c r="E2" s="3" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="18">
+      <c r="A3" s="16">
         <f t="shared" ref="A3:A34" ca="1" si="0">OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),-1,0)+1</f>
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="14">
+        <v>75</v>
+      </c>
+      <c r="C3" s="12">
         <v>45129</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="18">
+      <c r="A4" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="14">
+        <v>77</v>
+      </c>
+      <c r="C4" s="12">
         <v>45127</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>74</v>
+        <v>78</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="18">
+      <c r="A5" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" s="14">
+        <v>79</v>
+      </c>
+      <c r="C5" s="12">
         <v>45129</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>74</v>
+        <v>80</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="18">
+      <c r="A6" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="14">
+        <v>81</v>
+      </c>
+      <c r="C6" s="12">
         <v>45130</v>
       </c>
       <c r="D6" t="s">
-        <v>84</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>74</v>
+        <v>82</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="18">
+      <c r="A7" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" s="14">
+        <v>83</v>
+      </c>
+      <c r="C7" s="12">
         <v>45130</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>74</v>
+        <v>84</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="18">
+      <c r="A8" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" s="14">
+        <v>85</v>
+      </c>
+      <c r="C8" s="12">
         <v>45115</v>
       </c>
       <c r="D8" t="s">
-        <v>88</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>74</v>
+        <v>86</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="18">
+      <c r="A9" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" s="14">
+        <v>87</v>
+      </c>
+      <c r="C9" s="12">
         <v>45130</v>
       </c>
       <c r="D9" t="s">
-        <v>90</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>74</v>
+        <v>88</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="18">
+      <c r="A10" s="16">
         <f ca="1">OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),-1,0)+1</f>
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
-      </c>
-      <c r="C10" s="14">
+        <v>91</v>
+      </c>
+      <c r="C10" s="12">
         <v>45116</v>
       </c>
       <c r="D10" t="s">
-        <v>94</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>74</v>
+        <v>92</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="18">
+      <c r="A11" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" s="14">
+        <v>89</v>
+      </c>
+      <c r="C11" s="12">
         <v>45130</v>
       </c>
       <c r="D11" t="s">
-        <v>92</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>74</v>
+        <v>90</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="18">
+      <c r="A12" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C12" s="14">
+        <v>93</v>
+      </c>
+      <c r="C12" s="12">
         <v>45116</v>
       </c>
       <c r="D12" t="s">
-        <v>96</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>74</v>
+        <v>94</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="18">
+      <c r="A13" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C13" s="14">
+        <v>95</v>
+      </c>
+      <c r="C13" s="12">
         <v>45130</v>
       </c>
       <c r="D13" t="s">
-        <v>98</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>74</v>
+        <v>96</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" s="18">
+      <c r="A14" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>99</v>
-      </c>
-      <c r="C14" s="14">
+        <v>97</v>
+      </c>
+      <c r="C14" s="12">
         <v>45117</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>74</v>
+      <c r="D14" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" s="18">
+      <c r="A15" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C15" s="14">
+        <v>98</v>
+      </c>
+      <c r="C15" s="12">
         <v>45130</v>
       </c>
       <c r="D15" t="s">
-        <v>101</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>74</v>
+        <v>99</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" s="18">
+      <c r="A16" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>102</v>
-      </c>
-      <c r="C16" s="14">
+        <v>100</v>
+      </c>
+      <c r="C16" s="12">
         <v>45117</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>74</v>
+      <c r="D16" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A17" s="18">
+      <c r="A17" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>103</v>
-      </c>
-      <c r="C17" s="14">
+        <v>101</v>
+      </c>
+      <c r="C17" s="12">
         <v>45130</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>74</v>
+      <c r="D17" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A18" s="18">
+      <c r="A18" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>104</v>
-      </c>
-      <c r="C18" s="14">
+        <v>102</v>
+      </c>
+      <c r="C18" s="12">
         <v>45133</v>
       </c>
       <c r="D18" t="s">
-        <v>105</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>74</v>
+        <v>103</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A19" s="18">
+      <c r="A19" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>106</v>
-      </c>
-      <c r="C19" s="14">
+        <v>104</v>
+      </c>
+      <c r="C19" s="12">
         <v>45134</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>74</v>
+      <c r="D19" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" s="18">
+      <c r="A20" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>107</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>293</v>
+        <v>105</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>288</v>
       </c>
       <c r="D20" t="s">
-        <v>108</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>74</v>
+        <v>106</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21" s="18">
+      <c r="A21" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>111</v>
-      </c>
-      <c r="C21" s="14">
+        <v>109</v>
+      </c>
+      <c r="C21" s="12">
         <v>45116</v>
       </c>
       <c r="D21" t="s">
-        <v>112</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>74</v>
+        <v>110</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A22" s="18">
+      <c r="A22" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>109</v>
-      </c>
-      <c r="C22" s="16">
+        <v>107</v>
+      </c>
+      <c r="C22" s="14">
         <v>45135</v>
       </c>
       <c r="D22" t="s">
-        <v>110</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>74</v>
+        <v>108</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A23" s="18">
+      <c r="A23" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>113</v>
-      </c>
-      <c r="C23" s="14">
+        <v>111</v>
+      </c>
+      <c r="C23" s="12">
         <v>45125</v>
       </c>
       <c r="D23" t="s">
-        <v>114</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>74</v>
+        <v>112</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A24" s="18">
+      <c r="A24" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>115</v>
-      </c>
-      <c r="C24" s="14">
+        <v>113</v>
+      </c>
+      <c r="C24" s="12">
         <v>45136</v>
       </c>
       <c r="D24" t="s">
-        <v>116</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>74</v>
+        <v>114</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A25" s="18">
+      <c r="A25" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>119</v>
-      </c>
-      <c r="C25" s="14">
+        <v>117</v>
+      </c>
+      <c r="C25" s="12">
         <v>45131</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>74</v>
+      <c r="D25" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A26" s="18">
+      <c r="A26" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>117</v>
-      </c>
-      <c r="C26" s="14">
+        <v>115</v>
+      </c>
+      <c r="C26" s="12">
         <v>45138</v>
       </c>
       <c r="D26" t="s">
-        <v>118</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>74</v>
+        <v>116</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A27" s="18">
+      <c r="A27" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>120</v>
-      </c>
-      <c r="C27" s="14">
+        <v>118</v>
+      </c>
+      <c r="C27" s="12">
         <v>45132</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>74</v>
+      <c r="D27" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A28" s="18">
+      <c r="A28" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>123</v>
-      </c>
-      <c r="C28" s="14">
+        <v>121</v>
+      </c>
+      <c r="C28" s="12">
         <v>45137</v>
       </c>
       <c r="D28" t="s">
-        <v>124</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>74</v>
+        <v>122</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A29" s="18">
+      <c r="A29" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>121</v>
-      </c>
-      <c r="C29" s="16">
+        <v>119</v>
+      </c>
+      <c r="C29" s="14">
         <v>45135</v>
       </c>
       <c r="D29" t="s">
-        <v>122</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>74</v>
+        <v>120</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A30" s="18">
+      <c r="A30" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>125</v>
-      </c>
-      <c r="C30" s="14">
+        <v>123</v>
+      </c>
+      <c r="C30" s="12">
         <v>45138</v>
       </c>
       <c r="D30" t="s">
-        <v>126</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>74</v>
+        <v>124</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A31" s="18">
+      <c r="A31" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>127</v>
-      </c>
-      <c r="C31" s="14">
+        <v>125</v>
+      </c>
+      <c r="C31" s="12">
         <v>45138</v>
       </c>
       <c r="D31" t="s">
-        <v>128</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>74</v>
+        <v>126</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A32" s="18">
+      <c r="A32" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>129</v>
-      </c>
-      <c r="C32" s="14">
+        <v>127</v>
+      </c>
+      <c r="C32" s="12">
         <v>45139</v>
       </c>
       <c r="D32" t="s">
-        <v>130</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>74</v>
+        <v>128</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A33" s="18">
+      <c r="A33" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>131</v>
-      </c>
-      <c r="C33" s="14">
+        <v>129</v>
+      </c>
+      <c r="C33" s="12">
         <v>45139</v>
       </c>
       <c r="D33" t="s">
-        <v>132</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>74</v>
+        <v>130</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A34" s="18">
+      <c r="A34" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>133</v>
-      </c>
-      <c r="C34" s="14">
+        <v>131</v>
+      </c>
+      <c r="C34" s="12">
         <v>45140</v>
       </c>
       <c r="D34" t="s">
-        <v>134</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>74</v>
+        <v>132</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A35" s="18">
+      <c r="A35" s="16">
         <f t="shared" ref="A35:A62" ca="1" si="1">OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),-1,0)+1</f>
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>135</v>
-      </c>
-      <c r="C35" s="14">
+        <v>133</v>
+      </c>
+      <c r="C35" s="12">
         <v>45141</v>
       </c>
       <c r="D35" t="s">
-        <v>136</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>74</v>
+        <v>134</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A36" s="18">
+      <c r="A36" s="16">
         <f t="shared" ca="1" si="1"/>
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>137</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>298</v>
+        <v>135</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>293</v>
       </c>
       <c r="D36" t="s">
-        <v>138</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>74</v>
+        <v>136</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A37" s="18">
+      <c r="A37" s="16">
         <f t="shared" ca="1" si="1"/>
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>139</v>
-      </c>
-      <c r="C37" s="16">
+        <v>137</v>
+      </c>
+      <c r="C37" s="14">
         <v>45142</v>
       </c>
       <c r="D37" t="s">
-        <v>140</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>74</v>
+        <v>138</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A38" s="18">
+      <c r="A38" s="16">
         <f t="shared" ca="1" si="1"/>
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>141</v>
-      </c>
-      <c r="C38" s="14">
+        <v>139</v>
+      </c>
+      <c r="C38" s="12">
         <v>45142</v>
       </c>
       <c r="D38" t="s">
-        <v>142</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>74</v>
+        <v>140</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A39" s="18">
+      <c r="A39" s="16">
         <f t="shared" ca="1" si="1"/>
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>143</v>
-      </c>
-      <c r="C39" s="14">
+        <v>141</v>
+      </c>
+      <c r="C39" s="12">
         <v>45142</v>
       </c>
       <c r="D39" t="s">
-        <v>144</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>74</v>
+        <v>142</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A40" s="18">
+      <c r="A40" s="16">
         <f t="shared" ca="1" si="1"/>
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>145</v>
-      </c>
-      <c r="C40" s="14">
+        <v>143</v>
+      </c>
+      <c r="C40" s="12">
         <v>45144</v>
       </c>
       <c r="D40" t="s">
-        <v>146</v>
-      </c>
-      <c r="J40" s="5" t="s">
-        <v>74</v>
+        <v>144</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A41" s="18">
+      <c r="A41" s="16">
         <f t="shared" ca="1" si="1"/>
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>151</v>
-      </c>
-      <c r="C41" s="14">
+        <v>149</v>
+      </c>
+      <c r="C41" s="12">
         <v>45141</v>
       </c>
       <c r="D41" t="s">
-        <v>152</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>74</v>
+        <v>150</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A42" s="18">
+      <c r="A42" s="16">
         <f t="shared" ca="1" si="1"/>
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>147</v>
-      </c>
-      <c r="C42" s="14">
+        <v>145</v>
+      </c>
+      <c r="C42" s="12">
         <v>45145</v>
       </c>
       <c r="D42" t="s">
-        <v>148</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>74</v>
+        <v>146</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A43" s="18">
+      <c r="A43" s="16">
         <f t="shared" ca="1" si="1"/>
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>149</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>299</v>
+        <v>147</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>294</v>
       </c>
       <c r="D43" t="s">
-        <v>150</v>
-      </c>
-      <c r="I43" s="5" t="s">
-        <v>74</v>
+        <v>148</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A44" s="18">
+      <c r="A44" s="16">
         <f t="shared" ca="1" si="1"/>
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>153</v>
-      </c>
-      <c r="C44" s="14">
+        <v>151</v>
+      </c>
+      <c r="C44" s="12">
         <v>45142</v>
       </c>
       <c r="D44" t="s">
-        <v>154</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>74</v>
+        <v>152</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A45" s="18">
+      <c r="A45" s="16">
         <f t="shared" ca="1" si="1"/>
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>155</v>
-      </c>
-      <c r="C45" s="14">
+        <v>153</v>
+      </c>
+      <c r="C45" s="12">
         <v>45147</v>
       </c>
       <c r="D45" t="s">
-        <v>156</v>
-      </c>
-      <c r="J45" s="5" t="s">
-        <v>74</v>
+        <v>154</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A46" s="18">
+      <c r="A46" s="16">
         <f t="shared" ca="1" si="1"/>
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>157</v>
-      </c>
-      <c r="C46" s="14">
+        <v>155</v>
+      </c>
+      <c r="C46" s="12">
         <v>45147</v>
       </c>
       <c r="D46" t="s">
-        <v>158</v>
-      </c>
-      <c r="J46" s="5" t="s">
-        <v>74</v>
+        <v>156</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A47" s="18">
+      <c r="A47" s="16">
         <f t="shared" ca="1" si="1"/>
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>159</v>
-      </c>
-      <c r="C47" s="14">
+        <v>157</v>
+      </c>
+      <c r="C47" s="12">
         <v>45143</v>
       </c>
-      <c r="D47" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>74</v>
+      <c r="D47" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A48" s="18">
+      <c r="A48" s="16">
         <f t="shared" ca="1" si="1"/>
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>160</v>
-      </c>
-      <c r="C48" s="14">
+        <v>158</v>
+      </c>
+      <c r="C48" s="12">
         <v>45147</v>
       </c>
       <c r="D48" t="s">
-        <v>161</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>74</v>
+        <v>159</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A49" s="18">
+      <c r="A49" s="16">
         <f t="shared" ca="1" si="1"/>
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>164</v>
-      </c>
-      <c r="C49" s="14">
+        <v>162</v>
+      </c>
+      <c r="C49" s="12">
         <v>45148</v>
       </c>
       <c r="D49" t="s">
-        <v>165</v>
-      </c>
-      <c r="H49" s="5" t="s">
-        <v>74</v>
+        <v>163</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A50" s="18">
+      <c r="A50" s="16">
         <f t="shared" ca="1" si="1"/>
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>162</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>299</v>
+        <v>160</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>294</v>
       </c>
       <c r="D50" t="s">
-        <v>163</v>
-      </c>
-      <c r="I50" s="5" t="s">
-        <v>74</v>
+        <v>161</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A51" s="18">
+      <c r="A51" s="16">
         <f t="shared" ca="1" si="1"/>
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>166</v>
-      </c>
-      <c r="C51" s="14">
+        <v>164</v>
+      </c>
+      <c r="C51" s="12">
         <v>45151</v>
       </c>
-      <c r="D51" t="s">
-        <v>167</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>74</v>
+      <c r="D51" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A52" s="18">
+      <c r="A52" s="16">
         <f t="shared" ca="1" si="1"/>
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>168</v>
-      </c>
-      <c r="C52" s="14">
+        <v>165</v>
+      </c>
+      <c r="C52" s="12">
         <v>45151</v>
       </c>
       <c r="D52" t="s">
-        <v>169</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="J52" s="5" t="s">
-        <v>74</v>
+        <v>166</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A53" s="18">
+      <c r="A53" s="16">
         <f t="shared" ca="1" si="1"/>
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>170</v>
-      </c>
-      <c r="C53" s="14">
+        <v>167</v>
+      </c>
+      <c r="C53" s="12">
         <v>45152</v>
       </c>
       <c r="D53" t="s">
-        <v>171</v>
-      </c>
-      <c r="H53" s="5" t="s">
-        <v>74</v>
+        <v>168</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A54" s="18">
+      <c r="A54" s="16">
         <f t="shared" ca="1" si="1"/>
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>172</v>
-      </c>
-      <c r="C54" s="14">
+        <v>169</v>
+      </c>
+      <c r="C54" s="12">
         <v>45152</v>
       </c>
       <c r="D54" t="s">
-        <v>173</v>
-      </c>
-      <c r="H54" s="5" t="s">
-        <v>74</v>
+        <v>170</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A55" s="18">
+      <c r="A55" s="16">
         <f t="shared" ca="1" si="1"/>
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>174</v>
-      </c>
-      <c r="C55" s="14">
+        <v>171</v>
+      </c>
+      <c r="C55" s="12">
         <v>45151</v>
       </c>
       <c r="D55" t="s">
-        <v>175</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>74</v>
+        <v>172</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A56" s="18">
+      <c r="A56" s="16">
         <f t="shared" ca="1" si="1"/>
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>176</v>
-      </c>
-      <c r="C56" s="14">
+        <v>173</v>
+      </c>
+      <c r="C56" s="12">
         <v>45152</v>
       </c>
-      <c r="D56" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="H56" s="5" t="s">
-        <v>74</v>
+      <c r="D56" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A57" s="18">
+      <c r="A57" s="16">
         <f t="shared" ca="1" si="1"/>
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>177</v>
-      </c>
-      <c r="D57" t="s">
-        <v>178</v>
-      </c>
-      <c r="J57" s="5" t="s">
-        <v>74</v>
+        <v>174</v>
+      </c>
+      <c r="C57" s="12">
+        <v>45153</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A58" s="18">
+      <c r="A58" s="16">
         <f t="shared" ca="1" si="1"/>
         <v>56</v>
       </c>
-      <c r="B58" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="G58" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H58" s="5" t="s">
-        <v>74</v>
+      <c r="B58" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C58" s="12">
+        <v>45153</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A59" s="18">
+      <c r="A59" s="16">
         <f t="shared" ca="1" si="1"/>
         <v>57</v>
       </c>
-      <c r="B59" t="s">
-        <v>179</v>
-      </c>
-      <c r="J59" s="5" t="s">
-        <v>74</v>
+      <c r="B59" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C59" s="12">
+        <v>45154</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A60" s="18">
+      <c r="A60" s="16">
         <f t="shared" ca="1" si="1"/>
         <v>58</v>
       </c>
-      <c r="B60" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="H60" s="5" t="s">
-        <v>74</v>
+      <c r="B60" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C60" s="12">
+        <v>45155</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A61" s="18">
+      <c r="A61" s="16">
         <f ca="1">OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),-1,0)+1</f>
         <v>59</v>
       </c>
-      <c r="B61" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>74</v>
+      <c r="B61" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="C61" s="12">
+        <v>45154</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A62" s="18">
+      <c r="A62" s="16">
         <f t="shared" ca="1" si="1"/>
         <v>60</v>
       </c>
-      <c r="B62" t="s">
-        <v>180</v>
-      </c>
-      <c r="G62" s="5" t="s">
-        <v>74</v>
+      <c r="B62" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C62" s="12">
+        <v>45154</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A63" s="18">
+      <c r="A63" s="16">
         <f t="shared" ref="A63:A66" ca="1" si="2">OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),-1,0)+1</f>
         <v>61</v>
       </c>
-      <c r="B63" t="s">
-        <v>181</v>
-      </c>
-      <c r="C63" s="14">
-        <v>45156</v>
+      <c r="B63" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C63" s="12">
+        <v>45155</v>
       </c>
       <c r="D63" t="s">
-        <v>182</v>
-      </c>
-      <c r="I63" s="5" t="s">
-        <v>74</v>
+        <v>178</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A64" s="18">
+      <c r="A64" s="16">
         <f t="shared" ca="1" si="2"/>
         <v>62</v>
       </c>
-      <c r="B64" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="G64" s="5" t="s">
-        <v>74</v>
+      <c r="B64" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="C64" s="12">
+        <v>45155</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A65" s="18">
+      <c r="A65" s="16">
         <f t="shared" ca="1" si="2"/>
         <v>63</v>
       </c>
-      <c r="B65" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="I65" s="5" t="s">
-        <v>74</v>
+      <c r="B65" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A66" s="18">
+      <c r="A66" s="16">
         <f t="shared" ca="1" si="2"/>
         <v>64</v>
       </c>
-      <c r="B66" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>74</v>
+      <c r="B66" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="C66" s="14">
+        <v>45156</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -3190,550 +3758,918 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.125" customWidth="1"/>
-    <col min="2" max="2" width="10.875" customWidth="1"/>
-    <col min="4" max="4" width="11.25" customWidth="1"/>
-    <col min="5" max="5" width="7" style="2" customWidth="1"/>
-    <col min="6" max="6" width="21.75" customWidth="1"/>
+    <col min="1" max="1" width="7" style="18" customWidth="1"/>
+    <col min="2" max="2" width="8.625" customWidth="1"/>
+    <col min="3" max="3" width="10.75" customWidth="1"/>
+    <col min="4" max="4" width="8.75" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="19" customWidth="1"/>
+    <col min="6" max="6" width="7" style="20" customWidth="1"/>
+    <col min="7" max="7" width="21.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="G1" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="24">
+        <v>1</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="25" t="s">
+        <v>341</v>
+      </c>
+      <c r="D2" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E2" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F2" s="27" t="s">
+        <v>315</v>
+      </c>
+      <c r="G2" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="28">
+        <v>2</v>
+      </c>
+      <c r="B3" s="29" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="C3" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="B2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D3" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="E3" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F3" s="31" t="s">
+        <v>315</v>
+      </c>
+      <c r="G3" s="29" t="s">
         <v>191</v>
       </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="28">
+        <v>3</v>
+      </c>
+      <c r="B4" s="29" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="C4" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>316</v>
+      </c>
+      <c r="G4" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="28">
+        <v>4</v>
+      </c>
+      <c r="B5" s="29" t="s">
         <v>194</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C5" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="28">
+        <v>5</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="28">
+        <v>6</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="28">
+        <v>7</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>318</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="28">
+        <v>8</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>319</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="28">
+        <v>9</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="E10" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="D3" t="s">
-        <v>195</v>
-      </c>
-      <c r="F3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+      <c r="F10" s="31" t="s">
+        <v>320</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="28">
+        <v>10</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="B4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="E11" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>321</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="28">
+        <v>11</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="E12" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F12" s="31" t="s">
+        <v>321</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="28">
+        <v>12</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>322</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="28">
+        <v>13</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>322</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="28">
+        <v>14</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>323</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="28">
+        <v>15</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>324</v>
+      </c>
+      <c r="G16" s="29" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="28">
+        <v>16</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>324</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="28">
+        <v>17</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>325</v>
+      </c>
+      <c r="G18" s="29" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="28">
+        <v>18</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>326</v>
+      </c>
+      <c r="G19" s="29" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="28">
+        <v>19</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="F20" s="31" t="s">
+        <v>327</v>
+      </c>
+      <c r="G20" s="29" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="28">
+        <v>20</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>327</v>
+      </c>
+      <c r="G21" s="29" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="28">
+        <v>21</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="F22" s="31" t="s">
+        <v>328</v>
+      </c>
+      <c r="G22" s="29" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="28">
+        <v>22</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="E23" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="F23" s="31" t="s">
+        <v>328</v>
+      </c>
+      <c r="G23" s="29" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="28">
+        <v>23</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="E24" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="F24" s="31" t="s">
+        <v>328</v>
+      </c>
+      <c r="G24" s="29" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="28">
+        <v>24</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="E25" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="F25" s="31" t="s">
+        <v>328</v>
+      </c>
+      <c r="G25" s="29" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" s="28">
+        <v>25</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="E26" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="F26" s="31" t="s">
+        <v>328</v>
+      </c>
+      <c r="G26" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" s="28">
+        <v>26</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="E27" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="F27" s="31" t="s">
+        <v>329</v>
+      </c>
+      <c r="G27" s="29" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28" s="28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>340</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>335</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>336</v>
+      </c>
+      <c r="E28" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="F28" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="G28" s="29" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29" s="28">
+        <v>28</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="E29" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="F29" s="31" t="s">
+        <v>330</v>
+      </c>
+      <c r="G29" s="29" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30" s="28">
+        <v>29</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="F30" s="31" t="s">
+        <v>330</v>
+      </c>
+      <c r="G30" s="29" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31" s="28">
+        <v>30</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>344</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="D31" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="E31" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="F31" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="G31" s="29" t="s">
         <v>191</v>
       </c>
-      <c r="F4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>199</v>
-      </c>
-      <c r="B5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A32" s="28">
+        <v>31</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>345</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="E32" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="F32" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="G32" s="29" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33" s="28">
+        <v>32</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>335</v>
+      </c>
+      <c r="D33" s="29" t="s">
+        <v>336</v>
+      </c>
+      <c r="E33" s="30" t="s">
+        <v>313</v>
+      </c>
+      <c r="F33" s="31" t="s">
+        <v>338</v>
+      </c>
+      <c r="G33" s="29" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34" s="28">
+        <v>33</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="D34" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="E34" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="F34" s="31" t="s">
+        <v>337</v>
+      </c>
+      <c r="G34" s="29" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A35" s="28">
+        <v>34</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>350</v>
+      </c>
+      <c r="C35" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="D35" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="E35" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="F35" s="31" t="s">
+        <v>337</v>
+      </c>
+      <c r="G35" s="29" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36" s="28">
+        <v>35</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="D36" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="E36" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F36" s="31" t="s">
+        <v>331</v>
+      </c>
+      <c r="G36" s="29" t="s">
         <v>191</v>
       </c>
-      <c r="F5" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>201</v>
-      </c>
-      <c r="B6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" t="s">
-        <v>202</v>
-      </c>
-      <c r="D6" t="s">
-        <v>191</v>
-      </c>
-      <c r="F6" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>204</v>
-      </c>
-      <c r="B7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" t="s">
-        <v>202</v>
-      </c>
-      <c r="D7" t="s">
-        <v>191</v>
-      </c>
-      <c r="F7" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>206</v>
-      </c>
-      <c r="B8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37" s="28">
+        <v>36</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="D37" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="E37" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="D8" t="s">
-        <v>191</v>
-      </c>
-      <c r="F8" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>208</v>
-      </c>
-      <c r="B9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" t="s">
-        <v>202</v>
-      </c>
-      <c r="D9" t="s">
-        <v>191</v>
-      </c>
-      <c r="F9" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>210</v>
-      </c>
-      <c r="B10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" t="s">
-        <v>190</v>
-      </c>
-      <c r="D10" t="s">
-        <v>195</v>
-      </c>
-      <c r="F10" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>212</v>
-      </c>
-      <c r="B11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" t="s">
-        <v>202</v>
-      </c>
-      <c r="D11" t="s">
-        <v>191</v>
-      </c>
-      <c r="F11" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>214</v>
-      </c>
-      <c r="B12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" t="s">
-        <v>202</v>
-      </c>
-      <c r="D12" t="s">
-        <v>195</v>
-      </c>
-      <c r="F12" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>215</v>
-      </c>
-      <c r="B13" t="s">
-        <v>194</v>
-      </c>
-      <c r="C13" t="s">
-        <v>216</v>
-      </c>
-      <c r="D13" t="s">
-        <v>191</v>
-      </c>
-      <c r="F13" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>218</v>
-      </c>
-      <c r="B14" t="s">
-        <v>194</v>
-      </c>
-      <c r="C14" t="s">
-        <v>216</v>
-      </c>
-      <c r="D14" t="s">
-        <v>195</v>
-      </c>
-      <c r="F14" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>219</v>
-      </c>
-      <c r="B15" t="s">
-        <v>220</v>
-      </c>
-      <c r="C15" t="s">
-        <v>221</v>
-      </c>
-      <c r="D15" t="s">
-        <v>191</v>
-      </c>
-      <c r="F15" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>223</v>
-      </c>
-      <c r="B16" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" t="s">
-        <v>190</v>
-      </c>
-      <c r="D16" t="s">
-        <v>195</v>
-      </c>
-      <c r="F16" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>225</v>
-      </c>
-      <c r="B17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" t="s">
-        <v>190</v>
-      </c>
-      <c r="D17" t="s">
-        <v>191</v>
-      </c>
-      <c r="F17" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>226</v>
-      </c>
-      <c r="B18" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" t="s">
-        <v>190</v>
-      </c>
-      <c r="D18" t="s">
-        <v>191</v>
-      </c>
-      <c r="F18" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>228</v>
-      </c>
-      <c r="B19" t="s">
-        <v>194</v>
-      </c>
-      <c r="C19" t="s">
-        <v>229</v>
-      </c>
-      <c r="D19" t="s">
-        <v>230</v>
-      </c>
-      <c r="F19" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>232</v>
-      </c>
-      <c r="B20" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20" t="s">
-        <v>190</v>
-      </c>
-      <c r="D20" t="s">
-        <v>191</v>
-      </c>
-      <c r="F20" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>234</v>
-      </c>
-      <c r="B21" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" t="s">
-        <v>190</v>
-      </c>
-      <c r="D21" t="s">
-        <v>191</v>
-      </c>
-      <c r="F21" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>208</v>
-      </c>
-      <c r="B22" t="s">
-        <v>235</v>
-      </c>
-      <c r="C22" t="s">
-        <v>236</v>
-      </c>
-      <c r="D22" t="s">
-        <v>191</v>
-      </c>
-      <c r="F22" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>208</v>
-      </c>
-      <c r="B23" t="s">
-        <v>238</v>
-      </c>
-      <c r="C23" t="s">
-        <v>239</v>
-      </c>
-      <c r="D23" t="s">
-        <v>191</v>
-      </c>
-      <c r="F23" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>208</v>
-      </c>
-      <c r="B24" t="s">
-        <v>238</v>
-      </c>
-      <c r="C24" t="s">
-        <v>239</v>
-      </c>
-      <c r="D24" t="s">
-        <v>195</v>
-      </c>
-      <c r="F24" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>208</v>
-      </c>
-      <c r="B25" t="s">
-        <v>238</v>
-      </c>
-      <c r="C25" t="s">
-        <v>239</v>
-      </c>
-      <c r="D25" t="s">
-        <v>191</v>
-      </c>
-      <c r="F25" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>243</v>
-      </c>
-      <c r="B26" t="s">
-        <v>244</v>
-      </c>
-      <c r="C26" t="s">
-        <v>245</v>
-      </c>
-      <c r="D26" t="s">
-        <v>191</v>
-      </c>
-      <c r="F26" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>208</v>
-      </c>
-      <c r="B27" t="s">
-        <v>247</v>
-      </c>
-      <c r="C27" t="s">
-        <v>248</v>
-      </c>
-      <c r="D27" t="s">
-        <v>230</v>
-      </c>
-      <c r="F27" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
-        <v>250</v>
-      </c>
-      <c r="B28" t="s">
-        <v>220</v>
-      </c>
-      <c r="C28" t="s">
-        <v>221</v>
-      </c>
-      <c r="D28" t="s">
-        <v>230</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="F37" s="31" t="s">
+        <v>332</v>
+      </c>
+      <c r="G37" s="29" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
-        <v>252</v>
-      </c>
-      <c r="B29" t="s">
-        <v>220</v>
-      </c>
-      <c r="C29" t="s">
-        <v>221</v>
-      </c>
-      <c r="D29" t="s">
-        <v>230</v>
-      </c>
-      <c r="F29" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>254</v>
-      </c>
-      <c r="B30" t="s">
-        <v>194</v>
-      </c>
-      <c r="C30" t="s">
-        <v>190</v>
-      </c>
-      <c r="D30" t="s">
-        <v>195</v>
-      </c>
-      <c r="F30" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
-        <v>255</v>
-      </c>
-      <c r="B31" t="s">
-        <v>71</v>
-      </c>
-      <c r="C31" t="s">
-        <v>190</v>
-      </c>
-      <c r="D31" t="s">
-        <v>195</v>
-      </c>
-      <c r="F31" t="s">
-        <v>256</v>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38" s="28">
+        <v>37</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>340</v>
+      </c>
+      <c r="C38" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="D38" s="29" t="s">
+        <v>342</v>
+      </c>
+      <c r="E38" s="30" t="s">
+        <v>313</v>
+      </c>
+      <c r="F38" s="31" t="s">
+        <v>333</v>
+      </c>
+      <c r="G38" s="29" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A39" s="28">
+        <v>38</v>
+      </c>
+      <c r="B39" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="C39" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="D39" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="E39" s="30" t="s">
+        <v>313</v>
+      </c>
+      <c r="F39" s="31" t="s">
+        <v>333</v>
+      </c>
+      <c r="G39" s="29" t="s">
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -3750,10 +4686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3762,75 +4695,75 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>260</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>262</v>
+        <v>255</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>263</v>
-      </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
+        <v>258</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B4" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C4" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B5" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C5" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B6" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C6" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>

--- a/事出无因-表格.xlsx
+++ b/事出无因-表格.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CONST\PartA_Aint_No_Reason\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CBBD204-5ECB-41AF-BB34-C4CBAF8BFF2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597E1E20-60D0-4C98-8AA4-A3366A731482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{54F204C0-C9E1-4FE7-9249-049DCA64453D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{54F204C0-C9E1-4FE7-9249-049DCA64453D}"/>
   </bookViews>
   <sheets>
     <sheet name="时间轴" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="353">
   <si>
     <t>时间</t>
   </si>
@@ -561,9 +561,6 @@
     <t>合同</t>
   </si>
   <si>
-    <t>民族</t>
-  </si>
-  <si>
     <t>献祭</t>
   </si>
   <si>
@@ -571,9 +568,6 @@
   </si>
   <si>
     <t>蛛网</t>
-  </si>
-  <si>
-    <t>虫族已经潜伏在月球背面、等待着最后确认</t>
   </si>
   <si>
     <t>名字</t>
@@ -1175,6 +1169,18 @@
   <si>
     <t>性别认知</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>虫族已经潜伏在月球背面等待着最后确认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>种族</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿图罗和尅兹威兹谈论种族、约定帮助他人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1388,9 +1394,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1400,83 +1403,43 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="20">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1725,6 +1688,49 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1824,16 +1830,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{093EB0BA-25A7-4768-AF21-374EA7451524}" name="表4" displayName="表4" ref="A1:G39" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{093EB0BA-25A7-4768-AF21-374EA7451524}" name="表4" displayName="表4" ref="A1:G39" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A1:G39" xr:uid="{093EB0BA-25A7-4768-AF21-374EA7451524}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{A501BEBA-18E2-4C04-8401-61B2CB3E3DA3}" name="序号" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{C532D22D-C116-4E91-A376-969460C824DD}" name="名字" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{3E070FE3-14C9-4DFA-BB8A-B31747726B65}" name="从属" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{B2550F57-2090-4E55-9AC0-9FB0613D6D46}" name="种族" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{46E4D422-12BC-44FF-861E-A5AC312E398F}" name="性别认知" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{CA89770E-3C58-40BC-A9E6-895CBA24760E}" name="登场" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{0C497B82-361A-495D-9B2D-160B2076A775}" name="备注" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{A501BEBA-18E2-4C04-8401-61B2CB3E3DA3}" name="序号" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{C532D22D-C116-4E91-A376-969460C824DD}" name="名字" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{3E070FE3-14C9-4DFA-BB8A-B31747726B65}" name="从属" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{B2550F57-2090-4E55-9AC0-9FB0613D6D46}" name="种族" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{46E4D422-12BC-44FF-861E-A5AC312E398F}" name="性别认知" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{CA89770E-3C58-40BC-A9E6-895CBA24760E}" name="登场" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{0C497B82-361A-495D-9B2D-160B2076A775}" name="备注" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2163,7 +2169,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A28" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2262,10 +2268,10 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
@@ -2286,19 +2292,19 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
@@ -2306,39 +2312,39 @@
         <v>26</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="8" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="8" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -2412,7 +2418,7 @@
         <v>43</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
@@ -2420,7 +2426,7 @@
         <v>44</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
@@ -2506,7 +2512,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -2514,7 +2520,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -2530,8 +2536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -2544,13 +2550,13 @@
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>67</v>
@@ -2559,13 +2565,13 @@
         <v>68</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>69</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>70</v>
@@ -2582,7 +2588,7 @@
         <v>73</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D2" t="s">
         <v>74</v>
@@ -2804,7 +2810,7 @@
         <v>45117</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>72</v>
@@ -2840,7 +2846,7 @@
         <v>45117</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>72</v>
@@ -2858,7 +2864,7 @@
         <v>45130</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>72</v>
@@ -2894,7 +2900,7 @@
         <v>45134</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>72</v>
@@ -2909,7 +2915,7 @@
         <v>105</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D20" t="s">
         <v>106</v>
@@ -3008,7 +3014,7 @@
         <v>45131</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>72</v>
@@ -3047,7 +3053,7 @@
         <v>45132</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>72</v>
@@ -3212,7 +3218,7 @@
         <v>135</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D36" t="s">
         <v>136</v>
@@ -3344,7 +3350,7 @@
         <v>147</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D43" t="s">
         <v>148</v>
@@ -3419,7 +3425,7 @@
         <v>45143</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>72</v>
@@ -3470,7 +3476,7 @@
         <v>160</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D50" t="s">
         <v>161</v>
@@ -3491,7 +3497,7 @@
         <v>45151</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>72</v>
@@ -3584,7 +3590,7 @@
         <v>45152</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H56" s="3" t="s">
         <v>72</v>
@@ -3595,11 +3601,14 @@
         <f t="shared" ca="1" si="1"/>
         <v>55</v>
       </c>
-      <c r="B57" t="s">
-        <v>174</v>
+      <c r="B57" s="5" t="s">
+        <v>351</v>
       </c>
       <c r="C57" s="12">
         <v>45153</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>352</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>72</v>
@@ -3611,7 +3620,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C58" s="12">
         <v>45153</v>
@@ -3629,7 +3638,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C59" s="12">
         <v>45154</v>
@@ -3644,7 +3653,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C60" s="12">
         <v>45155</v>
@@ -3659,7 +3668,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C61" s="12">
         <v>45154</v>
@@ -3674,7 +3683,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C62" s="12">
         <v>45154</v>
@@ -3689,13 +3698,13 @@
         <v>61</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C63" s="12">
         <v>45155</v>
       </c>
-      <c r="D63" t="s">
-        <v>178</v>
+      <c r="D63" s="5" t="s">
+        <v>350</v>
       </c>
       <c r="I63" s="3" t="s">
         <v>72</v>
@@ -3707,7 +3716,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C64" s="12">
         <v>45155</v>
@@ -3722,10 +3731,10 @@
         <v>63</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="I65" s="3" t="s">
         <v>72</v>
@@ -3737,7 +3746,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C66" s="14">
         <v>45156</v>
@@ -3766,910 +3775,910 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7" style="18" customWidth="1"/>
+    <col min="1" max="1" width="7" style="17" customWidth="1"/>
     <col min="2" max="2" width="8.625" customWidth="1"/>
     <col min="3" max="3" width="10.75" customWidth="1"/>
     <col min="4" max="4" width="8.75" customWidth="1"/>
-    <col min="5" max="5" width="11.25" style="19" customWidth="1"/>
-    <col min="6" max="6" width="7" style="20" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="18" customWidth="1"/>
+    <col min="6" max="6" width="7" style="19" customWidth="1"/>
     <col min="7" max="7" width="21.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="23">
+        <v>1</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>339</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>313</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="27">
+        <v>2</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>313</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="27">
+        <v>3</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>314</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="27">
+        <v>4</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>339</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>315</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="27">
+        <v>5</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>315</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="27">
+        <v>6</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>315</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="27">
+        <v>7</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>339</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>316</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="27">
+        <v>8</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>317</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="27">
+        <v>9</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>339</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>318</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="27">
+        <v>10</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="27">
+        <v>11</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="27">
+        <v>12</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>320</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="27">
+        <v>13</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>320</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="27">
+        <v>14</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>321</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="27">
+        <v>15</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>339</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>322</v>
+      </c>
+      <c r="G16" s="28" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="27">
+        <v>16</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>339</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>322</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="27">
+        <v>17</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>339</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>323</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="27">
+        <v>18</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="27">
+        <v>19</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>339</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>325</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="27">
+        <v>20</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>339</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>325</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="27">
+        <v>21</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="F22" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="27">
+        <v>22</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="F23" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="G23" s="28" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="27">
+        <v>23</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="F24" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="G24" s="28" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="27">
+        <v>24</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="F25" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" s="27">
+        <v>25</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>236</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>237</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="F26" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="G26" s="28" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" s="27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="F27" s="30" t="s">
+        <v>327</v>
+      </c>
+      <c r="G27" s="28" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28" s="27">
+        <v>27</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>338</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>333</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>334</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="F28" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="G28" s="28" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29" s="27">
+        <v>28</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="F29" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="G29" s="28" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30" s="27">
+        <v>29</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="F30" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="G30" s="28" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31" s="27">
+        <v>30</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>342</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="E31" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="F31" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="G31" s="28" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A32" s="27">
+        <v>31</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>343</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="E32" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="F32" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="G32" s="28" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33" s="27">
+        <v>32</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>332</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>333</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>334</v>
+      </c>
+      <c r="E33" s="29" t="s">
+        <v>311</v>
+      </c>
+      <c r="F33" s="30" t="s">
+        <v>336</v>
+      </c>
+      <c r="G33" s="28" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34" s="27">
+        <v>33</v>
+      </c>
+      <c r="B34" s="28" t="s">
         <v>347</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>351</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="G1" s="22" t="s">
+      <c r="C34" s="28" t="s">
+        <v>339</v>
+      </c>
+      <c r="D34" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="E34" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="F34" s="30" t="s">
+        <v>335</v>
+      </c>
+      <c r="G34" s="28" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A35" s="27">
+        <v>34</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>348</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>339</v>
+      </c>
+      <c r="D35" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="E35" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="F35" s="30" t="s">
+        <v>335</v>
+      </c>
+      <c r="G35" s="28" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36" s="27">
+        <v>35</v>
+      </c>
+      <c r="B36" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="D36" s="28" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="24">
-        <v>1</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="C2" s="25" t="s">
+      <c r="E36" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="F36" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="G36" s="28" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37" s="27">
+        <v>36</v>
+      </c>
+      <c r="B37" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="C37" s="28" t="s">
+        <v>339</v>
+      </c>
+      <c r="D37" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="E37" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="F37" s="30" t="s">
+        <v>330</v>
+      </c>
+      <c r="G37" s="28" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38" s="27">
+        <v>37</v>
+      </c>
+      <c r="B38" s="28" t="s">
+        <v>338</v>
+      </c>
+      <c r="C38" s="28" t="s">
+        <v>339</v>
+      </c>
+      <c r="D38" s="28" t="s">
+        <v>340</v>
+      </c>
+      <c r="E38" s="29" t="s">
+        <v>311</v>
+      </c>
+      <c r="F38" s="30" t="s">
+        <v>331</v>
+      </c>
+      <c r="G38" s="28" t="s">
         <v>341</v>
       </c>
-      <c r="D2" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>315</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="28">
-        <v>2</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>188</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="E3" s="30" t="s">
-        <v>190</v>
-      </c>
-      <c r="F3" s="31" t="s">
-        <v>315</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="28">
-        <v>3</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>192</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="F4" s="31" t="s">
-        <v>316</v>
-      </c>
-      <c r="G4" s="29" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="28">
-        <v>4</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>341</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>317</v>
-      </c>
-      <c r="G5" s="29" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="28">
-        <v>5</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>197</v>
-      </c>
-      <c r="E6" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="F6" s="31" t="s">
-        <v>317</v>
-      </c>
-      <c r="G6" s="29" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="28">
-        <v>6</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>197</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="F7" s="31" t="s">
-        <v>317</v>
-      </c>
-      <c r="G7" s="29" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="28">
-        <v>7</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>201</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>341</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="F8" s="31" t="s">
-        <v>318</v>
-      </c>
-      <c r="G8" s="29" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="28">
-        <v>8</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>197</v>
-      </c>
-      <c r="E9" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="F9" s="31" t="s">
-        <v>319</v>
-      </c>
-      <c r="G9" s="29" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="28">
-        <v>9</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>205</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>341</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>190</v>
-      </c>
-      <c r="F10" s="31" t="s">
-        <v>320</v>
-      </c>
-      <c r="G10" s="29" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="28">
-        <v>10</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>207</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>197</v>
-      </c>
-      <c r="E11" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="F11" s="31" t="s">
-        <v>321</v>
-      </c>
-      <c r="G11" s="29" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="28">
-        <v>11</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>209</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>197</v>
-      </c>
-      <c r="E12" s="30" t="s">
-        <v>190</v>
-      </c>
-      <c r="F12" s="31" t="s">
-        <v>321</v>
-      </c>
-      <c r="G12" s="29" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="28">
-        <v>12</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>210</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>211</v>
-      </c>
-      <c r="E13" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="F13" s="31" t="s">
-        <v>322</v>
-      </c>
-      <c r="G13" s="29" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="28">
-        <v>13</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>211</v>
-      </c>
-      <c r="E14" s="30" t="s">
-        <v>190</v>
-      </c>
-      <c r="F14" s="31" t="s">
-        <v>322</v>
-      </c>
-      <c r="G14" s="29" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="28">
-        <v>14</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>214</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>215</v>
-      </c>
-      <c r="D15" s="29" t="s">
-        <v>216</v>
-      </c>
-      <c r="E15" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="F15" s="31" t="s">
-        <v>323</v>
-      </c>
-      <c r="G15" s="29" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="28">
-        <v>15</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>218</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>341</v>
-      </c>
-      <c r="D16" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="E16" s="30" t="s">
-        <v>190</v>
-      </c>
-      <c r="F16" s="31" t="s">
-        <v>324</v>
-      </c>
-      <c r="G16" s="29" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="28">
-        <v>16</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>341</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="E17" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="F17" s="31" t="s">
-        <v>324</v>
-      </c>
-      <c r="G17" s="29" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="28">
-        <v>17</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>221</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>341</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="F18" s="31" t="s">
-        <v>325</v>
-      </c>
-      <c r="G18" s="29" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="28">
-        <v>18</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>223</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>224</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>225</v>
-      </c>
-      <c r="F19" s="31" t="s">
-        <v>326</v>
-      </c>
-      <c r="G19" s="29" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="28">
-        <v>19</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>341</v>
-      </c>
-      <c r="D20" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="E20" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="F20" s="31" t="s">
-        <v>327</v>
-      </c>
-      <c r="G20" s="29" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="28">
-        <v>20</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>229</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>341</v>
-      </c>
-      <c r="D21" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="F21" s="31" t="s">
-        <v>327</v>
-      </c>
-      <c r="G21" s="29" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="28">
-        <v>21</v>
-      </c>
-      <c r="B22" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>230</v>
-      </c>
-      <c r="D22" s="29" t="s">
-        <v>231</v>
-      </c>
-      <c r="E22" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="F22" s="31" t="s">
-        <v>328</v>
-      </c>
-      <c r="G22" s="29" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="28">
-        <v>22</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="C23" s="29" t="s">
-        <v>233</v>
-      </c>
-      <c r="D23" s="29" t="s">
-        <v>234</v>
-      </c>
-      <c r="E23" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="F23" s="31" t="s">
-        <v>328</v>
-      </c>
-      <c r="G23" s="29" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="28">
-        <v>23</v>
-      </c>
-      <c r="B24" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="C24" s="29" t="s">
-        <v>233</v>
-      </c>
-      <c r="D24" s="29" t="s">
-        <v>234</v>
-      </c>
-      <c r="E24" s="30" t="s">
-        <v>190</v>
-      </c>
-      <c r="F24" s="31" t="s">
-        <v>328</v>
-      </c>
-      <c r="G24" s="29" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="28">
-        <v>24</v>
-      </c>
-      <c r="B25" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="C25" s="29" t="s">
-        <v>233</v>
-      </c>
-      <c r="D25" s="29" t="s">
-        <v>234</v>
-      </c>
-      <c r="E25" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="F25" s="31" t="s">
-        <v>328</v>
-      </c>
-      <c r="G25" s="29" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="28">
-        <v>25</v>
-      </c>
-      <c r="B26" s="29" t="s">
-        <v>238</v>
-      </c>
-      <c r="C26" s="29" t="s">
-        <v>239</v>
-      </c>
-      <c r="D26" s="29" t="s">
-        <v>240</v>
-      </c>
-      <c r="E26" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="F26" s="31" t="s">
-        <v>328</v>
-      </c>
-      <c r="G26" s="29" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="28">
-        <v>26</v>
-      </c>
-      <c r="B27" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="C27" s="29" t="s">
-        <v>242</v>
-      </c>
-      <c r="D27" s="29" t="s">
-        <v>243</v>
-      </c>
-      <c r="E27" s="30" t="s">
-        <v>225</v>
-      </c>
-      <c r="F27" s="31" t="s">
-        <v>329</v>
-      </c>
-      <c r="G27" s="29" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" s="28">
-        <v>27</v>
-      </c>
-      <c r="B28" s="29" t="s">
-        <v>340</v>
-      </c>
-      <c r="C28" s="29" t="s">
-        <v>335</v>
-      </c>
-      <c r="D28" s="29" t="s">
-        <v>336</v>
-      </c>
-      <c r="E28" s="30" t="s">
-        <v>190</v>
-      </c>
-      <c r="F28" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="G28" s="29" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" s="28">
-        <v>28</v>
-      </c>
-      <c r="B29" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="C29" s="29" t="s">
-        <v>215</v>
-      </c>
-      <c r="D29" s="29" t="s">
-        <v>216</v>
-      </c>
-      <c r="E29" s="30" t="s">
-        <v>225</v>
-      </c>
-      <c r="F29" s="31" t="s">
-        <v>330</v>
-      </c>
-      <c r="G29" s="29" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" s="28">
-        <v>29</v>
-      </c>
-      <c r="B30" s="29" t="s">
-        <v>247</v>
-      </c>
-      <c r="C30" s="29" t="s">
-        <v>215</v>
-      </c>
-      <c r="D30" s="29" t="s">
-        <v>216</v>
-      </c>
-      <c r="E30" s="30" t="s">
-        <v>225</v>
-      </c>
-      <c r="F30" s="31" t="s">
-        <v>330</v>
-      </c>
-      <c r="G30" s="29" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31" s="28">
-        <v>30</v>
-      </c>
-      <c r="B31" s="29" t="s">
-        <v>344</v>
-      </c>
-      <c r="C31" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="D31" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="E31" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="F31" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="G31" s="29" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32" s="28">
-        <v>31</v>
-      </c>
-      <c r="B32" s="29" t="s">
-        <v>345</v>
-      </c>
-      <c r="C32" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="D32" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="E32" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="F32" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="G32" s="29" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33" s="28">
-        <v>32</v>
-      </c>
-      <c r="B33" s="29" t="s">
-        <v>334</v>
-      </c>
-      <c r="C33" s="29" t="s">
-        <v>335</v>
-      </c>
-      <c r="D33" s="29" t="s">
-        <v>336</v>
-      </c>
-      <c r="E33" s="30" t="s">
-        <v>313</v>
-      </c>
-      <c r="F33" s="31" t="s">
-        <v>338</v>
-      </c>
-      <c r="G33" s="29" t="s">
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A39" s="27">
+        <v>38</v>
+      </c>
+      <c r="B39" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="C39" s="28" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A34" s="28">
-        <v>33</v>
-      </c>
-      <c r="B34" s="29" t="s">
-        <v>349</v>
-      </c>
-      <c r="C34" s="29" t="s">
-        <v>341</v>
-      </c>
-      <c r="D34" s="29" t="s">
-        <v>224</v>
-      </c>
-      <c r="E34" s="30" t="s">
-        <v>225</v>
-      </c>
-      <c r="F34" s="31" t="s">
-        <v>337</v>
-      </c>
-      <c r="G34" s="29" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A35" s="28">
-        <v>34</v>
-      </c>
-      <c r="B35" s="29" t="s">
-        <v>350</v>
-      </c>
-      <c r="C35" s="29" t="s">
-        <v>341</v>
-      </c>
-      <c r="D35" s="29" t="s">
-        <v>224</v>
-      </c>
-      <c r="E35" s="30" t="s">
-        <v>225</v>
-      </c>
-      <c r="F35" s="31" t="s">
-        <v>337</v>
-      </c>
-      <c r="G35" s="29" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36" s="28">
-        <v>35</v>
-      </c>
-      <c r="B36" s="29" t="s">
-        <v>249</v>
-      </c>
-      <c r="C36" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="D36" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="E36" s="30" t="s">
-        <v>190</v>
-      </c>
-      <c r="F36" s="31" t="s">
+      <c r="D39" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="E39" s="29" t="s">
+        <v>311</v>
+      </c>
+      <c r="F39" s="30" t="s">
         <v>331</v>
       </c>
-      <c r="G36" s="29" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37" s="28">
-        <v>36</v>
-      </c>
-      <c r="B37" s="29" t="s">
-        <v>250</v>
-      </c>
-      <c r="C37" s="29" t="s">
-        <v>341</v>
-      </c>
-      <c r="D37" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="E37" s="30" t="s">
-        <v>190</v>
-      </c>
-      <c r="F37" s="31" t="s">
-        <v>332</v>
-      </c>
-      <c r="G37" s="29" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A38" s="28">
-        <v>37</v>
-      </c>
-      <c r="B38" s="29" t="s">
-        <v>340</v>
-      </c>
-      <c r="C38" s="29" t="s">
-        <v>341</v>
-      </c>
-      <c r="D38" s="29" t="s">
-        <v>342</v>
-      </c>
-      <c r="E38" s="30" t="s">
-        <v>313</v>
-      </c>
-      <c r="F38" s="31" t="s">
-        <v>333</v>
-      </c>
-      <c r="G38" s="29" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A39" s="28">
-        <v>38</v>
-      </c>
-      <c r="B39" s="29" t="s">
+      <c r="G39" s="28" t="s">
         <v>312</v>
-      </c>
-      <c r="C39" s="29" t="s">
-        <v>341</v>
-      </c>
-      <c r="D39" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="E39" s="30" t="s">
-        <v>313</v>
-      </c>
-      <c r="F39" s="31" t="s">
-        <v>333</v>
-      </c>
-      <c r="G39" s="29" t="s">
-        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -4695,75 +4704,75 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="C2" s="31" t="s">
         <v>255</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>258</v>
-      </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
+        <v>256</v>
+      </c>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C4" t="s">
         <v>259</v>
-      </c>
-      <c r="B4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C4" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C5" t="s">
         <v>261</v>
-      </c>
-      <c r="C5" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C6" t="s">
         <v>264</v>
-      </c>
-      <c r="B6" t="s">
-        <v>265</v>
-      </c>
-      <c r="C6" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>265</v>
+      </c>
+      <c r="B7" t="s">
+        <v>266</v>
+      </c>
+      <c r="C7" t="s">
         <v>267</v>
-      </c>
-      <c r="B7" t="s">
-        <v>268</v>
-      </c>
-      <c r="C7" t="s">
-        <v>269</v>
       </c>
     </row>
   </sheetData>

--- a/事出无因-表格.xlsx
+++ b/事出无因-表格.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CONST\PartA_Aint_No_Reason\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5458DB4B-B1EF-4734-8802-7A8F3C38473A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DE43FF-9B1E-48F0-8E1D-1D7D1004187E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{B2B67734-6FD0-42FD-B7A8-8CA54F3DD00D}"/>
   </bookViews>
   <sheets>
     <sheet name="时间轴" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="478">
   <si>
     <t>时间</t>
   </si>
@@ -1020,10 +1020,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>当前时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>书房</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1037,6 +1033,595 @@
   </si>
   <si>
     <t>云虫(周期内)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>$当前时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>云虫(办公区)</t>
+  </si>
+  <si>
+    <t>办公室</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>云虫(镜像城郊外)</t>
+  </si>
+  <si>
+    <t>云层</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>云巅</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>日/夜</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>某处林地/地下城</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>某处林地</t>
+  </si>
+  <si>
+    <t>地下城大门内</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>某处林地</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>大气层</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>地下城上方</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>求助</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>云虫(镜像城)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>大厦内</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>出租车</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>中心旅馆</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>新世界/某个公寓(梦境?)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>公寓</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>某个公寓(梦境?)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>地下城</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>医务室</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>通道</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄昏</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>内/外</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>荒地</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>新世界</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻轨/城西大学</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>镜像城</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>新世界(云虫实验室)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>门口</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>走廊</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>林一办公室</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>地下城(旁白)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>地下城(机房)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>地下城/云虫(镜像城)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验室</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>隔音室</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>某处街道</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>红梅公园</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>外/内</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>防空洞</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>云虫</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>医院走廊</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>病房</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>医院走廊/病房</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>街道</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>机房</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>报告厅</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>公园</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄昏/夜</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2171年4月某日</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>宇宙</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>会议室</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>新世界/郊外</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>城门/郊外</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>守林人小屋</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>小屋外</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>新世界(云虫园区)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>云虫园区办公室</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2171年6月某日</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>地外</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>地外/地下城/郊外</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>捷的办公室</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖边</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>车祸现场</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>地下城(查阅室)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查阅室</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>新世界(苏州城)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>机场</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>空房间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>云虫(南极)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>终端</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>终端邮件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>会议厅</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪丘</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>永夜</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>食堂</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫荆公园</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫荆酒吧</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>后巷</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>新世界(常州城)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>装卸点</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>大街</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>洞穴</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>洞穴(回溯)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>云虫/新世界(云虫实验室)/地外</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>投掷台</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>林一的办公室</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>云虫网络</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>空间站</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>广场</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>地下城(下层)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2171年7月末</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2171年1月中</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>地外(旅者舰队)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>小隔间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>观星台</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>云虫(镜像城郊外)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>扇湖湖边</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>扇湖湖面</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>新世界(云虫园区)/云虫</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>办公室/云虫</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>病房/走廊/病房</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>郊外</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>树林</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>新世界/地下城</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>车站/展厅</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>吧台</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>展厅</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>天桥</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2171年8月初</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>花园</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>云巅/走廊</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>大门</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>废墟</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖边/废墟</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>港口</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>地下室门口</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>云虫(镜像城郊区)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>镜岛</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>郊外/地下城</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙漠</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>地外(旅者舰队/云虫舰队)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>走廊/仓库</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>栈桥</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>树林/栈桥/草坪</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>新世界(微型龙大厦)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>雨林</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>坠机点</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>悬崖</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>云虫(周期内/休息区)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>小巷/走廊</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>月的房间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CEO办公室</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>郊外(港口)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>郊外(南郊)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>港口(回溯)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>地下室</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>新世界(拉斯维加斯城)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮卡</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>太空(月背)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>指挥舱</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1044,10 +1629,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="00"/>
+    <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1091,6 +1677,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1100,7 +1695,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1201,58 +1796,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color theme="0"/>
       </bottom>
       <diagonal/>
@@ -1290,11 +1833,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1345,6 +1901,147 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1357,36 +2054,8 @@
     <xf numFmtId="58" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1395,41 +2064,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1439,89 +2083,26 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1529,6 +2110,197 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="18">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment horizontal="center"/>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment horizontal="center"/>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment horizontal="center" vertical="center"/>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1698,6 +2470,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1911,197 +2684,6 @@
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment horizontal="center"/>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment horizontal="center"/>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
@@ -2116,18 +2698,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{695201C6-C6F5-4E75-8536-C024582338AA}" name="表1" displayName="表1" ref="A1:I70" totalsRowShown="0" headerRowDxfId="10" tableBorderDxfId="9">
-  <autoFilter ref="A1:I70" xr:uid="{695201C6-C6F5-4E75-8536-C024582338AA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{695201C6-C6F5-4E75-8536-C024582338AA}" name="表1" displayName="表1" ref="A1:I216" totalsRowShown="0" headerRowDxfId="17" tableBorderDxfId="16">
+  <autoFilter ref="A1:I216" xr:uid="{695201C6-C6F5-4E75-8536-C024582338AA}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+    <filterColumn colId="7" hiddenButton="1"/>
+    <filterColumn colId="8" hiddenButton="1"/>
+  </autoFilter>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{297BFE22-491C-403D-97BA-208B819749F7}" name="序号" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{CBDB222E-DE0A-4C97-8327-5FA01BCE1425}" name="章节" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{D46CF3A0-231A-4816-BC47-588492307F13}" name="时间" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{D4AC44D0-113E-4B80-BB76-5A8635E6E028}" name="幕次" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{829DB3E4-7EEE-4EAF-9897-FDB614F773CA}" name="幕次时间" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{1B28BD1E-D267-45CD-B1F4-045412453081}" name="地点" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{792B9350-648E-4CCE-9E10-22EEA5235628}" name="日夜" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{A5F7502D-0B0C-42DB-8F46-E745BA47E851}" name="内外" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{6D128893-6138-4796-B5B7-2EC8B9DB5425}" name="概括" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{297BFE22-491C-403D-97BA-208B819749F7}" name="序号" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{CBDB222E-DE0A-4C97-8327-5FA01BCE1425}" name="章节" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{D46CF3A0-231A-4816-BC47-588492307F13}" name="时间" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{D4AC44D0-113E-4B80-BB76-5A8635E6E028}" name="幕次" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{829DB3E4-7EEE-4EAF-9897-FDB614F773CA}" name="幕次时间" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{1B28BD1E-D267-45CD-B1F4-045412453081}" name="地点" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{792B9350-648E-4CCE-9E10-22EEA5235628}" name="日夜" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{A5F7502D-0B0C-42DB-8F46-E745BA47E851}" name="内外" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{6D128893-6138-4796-B5B7-2EC8B9DB5425}" name="概括" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2137,13 +2729,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表4" displayName="表4" ref="A1:G40" totalsRowShown="0">
   <autoFilter ref="A1:G40" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="序号" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="名字" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="从属" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="种族" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="性别认知" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="登场" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="备注" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="序号" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="名字" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="从属" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="种族" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="性别认知" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="登场" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="备注" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2473,8 +3065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -2836,1356 +3428,4486 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:I216"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7" style="40" customWidth="1"/>
-    <col min="2" max="2" width="9" style="41"/>
-    <col min="3" max="3" width="9.375" style="42" customWidth="1"/>
-    <col min="4" max="4" width="7.25" style="43" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="44" customWidth="1"/>
-    <col min="6" max="6" width="15.125" style="43" customWidth="1"/>
-    <col min="7" max="7" width="7.25" style="45" customWidth="1"/>
-    <col min="8" max="8" width="8.25" style="43" customWidth="1"/>
-    <col min="9" max="9" width="51.75" style="46" customWidth="1"/>
+    <col min="1" max="1" width="7" style="35" customWidth="1"/>
+    <col min="2" max="2" width="9" style="36"/>
+    <col min="3" max="3" width="9.375" style="37" customWidth="1"/>
+    <col min="4" max="4" width="7.25" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="66" customWidth="1"/>
+    <col min="6" max="6" width="29" customWidth="1"/>
+    <col min="7" max="7" width="7.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="7.5" customWidth="1"/>
+    <col min="9" max="9" width="51.75" style="38" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="18" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="60" t="s">
         <v>319</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="G1" s="29" t="s">
-        <v>328</v>
-      </c>
-      <c r="H1" s="29" t="s">
+      <c r="G1" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="5" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="48">
+      <c r="A2" s="40">
         <v>0</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="D2" s="31">
+      <c r="D2" s="27">
         <v>0</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="61" t="s">
+        <v>330</v>
+      </c>
+      <c r="F2" s="29" t="s">
         <v>326</v>
       </c>
-      <c r="F2" s="34" t="s">
-        <v>327</v>
-      </c>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="I2" s="31" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="47">
+        <v>1</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="49">
+        <v>99185</v>
+      </c>
+      <c r="D3" s="48">
+        <v>0</v>
+      </c>
+      <c r="E3" s="62">
+        <v>44012</v>
+      </c>
+      <c r="F3" s="50" t="s">
         <v>329</v>
       </c>
-      <c r="H2" s="35" t="s">
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="52" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="22"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="23">
+        <v>1</v>
+      </c>
+      <c r="E4" s="63"/>
+      <c r="F4" s="32" t="s">
+        <v>326</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="H4" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="I2" s="36" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="61">
+      <c r="I4" s="34"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="41"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="23">
+        <v>2</v>
+      </c>
+      <c r="E5" s="63"/>
+      <c r="F5" s="32" t="s">
+        <v>323</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>325</v>
+      </c>
+      <c r="I5" s="34"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" s="47">
+        <v>2</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="49">
+        <v>99183</v>
+      </c>
+      <c r="D6" s="48">
+        <v>0</v>
+      </c>
+      <c r="E6" s="62">
+        <v>99183</v>
+      </c>
+      <c r="F6" s="50" t="s">
+        <v>331</v>
+      </c>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="52" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="22"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="23">
         <v>1</v>
       </c>
-      <c r="B3" s="62" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="63">
+      <c r="E7" s="63"/>
+      <c r="F7" s="32" t="s">
+        <v>332</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="H7" s="33" t="s">
+        <v>324</v>
+      </c>
+      <c r="I7" s="34"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="22"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="23">
+        <v>2</v>
+      </c>
+      <c r="E8" s="63"/>
+      <c r="F8" s="32" t="s">
+        <v>332</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>324</v>
+      </c>
+      <c r="I8" s="34"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="53">
+        <v>3</v>
+      </c>
+      <c r="B9" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="55">
         <v>99185</v>
       </c>
-      <c r="D3" s="62">
+      <c r="D9" s="54">
         <v>0</v>
       </c>
-      <c r="E3" s="64">
-        <v>44012</v>
-      </c>
-      <c r="F3" s="65" t="s">
-        <v>330</v>
-      </c>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="67" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="23"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="24">
+      <c r="E9" s="64">
+        <v>99185</v>
+      </c>
+      <c r="F9" s="56" t="s">
+        <v>333</v>
+      </c>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="58" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" s="22"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="23">
         <v>1</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="37" t="s">
-        <v>323</v>
-      </c>
-      <c r="G4" s="38" t="s">
+      <c r="E10" s="67"/>
+      <c r="F10" s="32" t="s">
+        <v>334</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>336</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>325</v>
+      </c>
+      <c r="I10" s="34"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" s="22"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="23">
+        <v>2</v>
+      </c>
+      <c r="E11" s="63"/>
+      <c r="F11" s="32" t="s">
+        <v>335</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>337</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>325</v>
+      </c>
+      <c r="I11" s="34"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" s="53">
+        <v>4</v>
+      </c>
+      <c r="B12" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="55">
+        <v>99186</v>
+      </c>
+      <c r="D12" s="54">
+        <v>0</v>
+      </c>
+      <c r="E12" s="64">
+        <v>99186</v>
+      </c>
+      <c r="F12" s="56" t="s">
+        <v>338</v>
+      </c>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="58" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="22"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="23">
+        <v>1</v>
+      </c>
+      <c r="E13" s="63"/>
+      <c r="F13" s="32" t="s">
+        <v>339</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="H13" s="33" t="s">
+        <v>325</v>
+      </c>
+      <c r="I13" s="34"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="23">
+        <v>2</v>
+      </c>
+      <c r="E14" s="63"/>
+      <c r="F14" s="32" t="s">
+        <v>340</v>
+      </c>
+      <c r="G14" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="H14" s="33" t="s">
+        <v>324</v>
+      </c>
+      <c r="I14" s="34"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="22"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="23">
+        <v>3</v>
+      </c>
+      <c r="E15" s="63"/>
+      <c r="F15" s="32" t="s">
+        <v>341</v>
+      </c>
+      <c r="G15" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="H15" s="33" t="s">
+        <v>325</v>
+      </c>
+      <c r="I15" s="34"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="22"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="23">
+        <v>4</v>
+      </c>
+      <c r="E16" s="63"/>
+      <c r="F16" s="32" t="s">
+        <v>340</v>
+      </c>
+      <c r="G16" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="H16" s="33" t="s">
+        <v>324</v>
+      </c>
+      <c r="I16" s="34"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" s="22"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="23">
+        <v>5</v>
+      </c>
+      <c r="E17" s="63"/>
+      <c r="F17" s="32" t="s">
+        <v>342</v>
+      </c>
+      <c r="G17" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="H17" s="33" t="s">
+        <v>325</v>
+      </c>
+      <c r="I17" s="34"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18" s="22"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="23">
+        <v>6</v>
+      </c>
+      <c r="E18" s="63"/>
+      <c r="F18" s="32" t="s">
+        <v>340</v>
+      </c>
+      <c r="G18" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="H18" s="33" t="s">
+        <v>324</v>
+      </c>
+      <c r="I18" s="34"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19" s="22"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="23">
+        <v>7</v>
+      </c>
+      <c r="E19" s="63"/>
+      <c r="F19" s="32" t="s">
+        <v>343</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="H19" s="33" t="s">
+        <v>325</v>
+      </c>
+      <c r="I19" s="34"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20" s="22"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="23">
+        <v>8</v>
+      </c>
+      <c r="E20" s="63"/>
+      <c r="F20" s="32" t="s">
+        <v>340</v>
+      </c>
+      <c r="G20" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="H20" s="33" t="s">
+        <v>324</v>
+      </c>
+      <c r="I20" s="34"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21" s="53">
+        <v>5</v>
+      </c>
+      <c r="B21" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" s="55">
+        <v>99186</v>
+      </c>
+      <c r="D21" s="54">
+        <v>0</v>
+      </c>
+      <c r="E21" s="64">
+        <v>99185</v>
+      </c>
+      <c r="F21" s="56" t="s">
+        <v>345</v>
+      </c>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="58" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22" s="22"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="23">
+        <v>1</v>
+      </c>
+      <c r="E22" s="63"/>
+      <c r="F22" s="32" t="s">
+        <v>346</v>
+      </c>
+      <c r="G22" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="H22" s="33" t="s">
+        <v>324</v>
+      </c>
+      <c r="I22" s="34"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A23" s="22"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="23">
+        <v>2</v>
+      </c>
+      <c r="E23" s="63"/>
+      <c r="F23" s="32" t="s">
+        <v>347</v>
+      </c>
+      <c r="G23" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="H23" s="33" t="s">
+        <v>324</v>
+      </c>
+      <c r="I23" s="34"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A24" s="22"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="23">
+        <v>3</v>
+      </c>
+      <c r="E24" s="63"/>
+      <c r="F24" s="32" t="s">
+        <v>348</v>
+      </c>
+      <c r="G24" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="H24" s="33" t="s">
+        <v>324</v>
+      </c>
+      <c r="I24" s="34"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A25" s="53">
+        <v>6</v>
+      </c>
+      <c r="B25" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="55">
+        <v>99171</v>
+      </c>
+      <c r="D25" s="54">
+        <v>0</v>
+      </c>
+      <c r="E25" s="64"/>
+      <c r="F25" s="56" t="s">
+        <v>349</v>
+      </c>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="58" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A26" s="22"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="23">
+        <v>1</v>
+      </c>
+      <c r="E26" s="63">
+        <v>99171</v>
+      </c>
+      <c r="F26" s="32" t="s">
+        <v>332</v>
+      </c>
+      <c r="G26" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="H26" s="33" t="s">
+        <v>324</v>
+      </c>
+      <c r="I26" s="34"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A27" s="22"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="23">
+        <v>2</v>
+      </c>
+      <c r="E27" s="63">
+        <v>47306</v>
+      </c>
+      <c r="F27" s="32" t="s">
+        <v>351</v>
+      </c>
+      <c r="G27" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="H27" s="33" t="s">
+        <v>324</v>
+      </c>
+      <c r="I27" s="34"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A28" s="22"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="23">
+        <v>3</v>
+      </c>
+      <c r="E28" s="63">
+        <v>99171</v>
+      </c>
+      <c r="F28" s="32" t="s">
+        <v>332</v>
+      </c>
+      <c r="G28" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="H28" s="33" t="s">
+        <v>324</v>
+      </c>
+      <c r="I28" s="34"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A29" s="53">
+        <v>7</v>
+      </c>
+      <c r="B29" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="55">
+        <v>99186</v>
+      </c>
+      <c r="D29" s="54">
+        <v>0</v>
+      </c>
+      <c r="E29" s="64">
+        <v>99186</v>
+      </c>
+      <c r="F29" s="56" t="s">
+        <v>352</v>
+      </c>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="58" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A30" s="22"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="23">
+        <v>1</v>
+      </c>
+      <c r="E30" s="63"/>
+      <c r="F30" s="32" t="s">
+        <v>353</v>
+      </c>
+      <c r="G30" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="H30" s="33" t="s">
+        <v>324</v>
+      </c>
+      <c r="I30" s="34"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A31" s="22"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="23">
+        <v>2</v>
+      </c>
+      <c r="E31" s="63"/>
+      <c r="F31" s="32" t="s">
+        <v>354</v>
+      </c>
+      <c r="G31" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="H31" s="33" t="s">
+        <v>324</v>
+      </c>
+      <c r="I31" s="34"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A32" s="22"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="23">
+        <v>3</v>
+      </c>
+      <c r="E32" s="63"/>
+      <c r="F32" s="32" t="s">
+        <v>355</v>
+      </c>
+      <c r="G32" s="33" t="s">
+        <v>356</v>
+      </c>
+      <c r="H32" s="33" t="s">
+        <v>357</v>
+      </c>
+      <c r="I32" s="34"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A33" s="22"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="23">
+        <v>4</v>
+      </c>
+      <c r="E33" s="63"/>
+      <c r="F33" s="32" t="s">
+        <v>358</v>
+      </c>
+      <c r="G33" s="33" t="s">
+        <v>356</v>
+      </c>
+      <c r="H33" s="33" t="s">
+        <v>325</v>
+      </c>
+      <c r="I33" s="34"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A34" s="53">
+        <v>8</v>
+      </c>
+      <c r="B34" s="54" t="s">
+        <v>344</v>
+      </c>
+      <c r="C34" s="55">
+        <v>99172</v>
+      </c>
+      <c r="D34" s="54">
+        <v>0</v>
+      </c>
+      <c r="E34" s="64">
+        <v>99172</v>
+      </c>
+      <c r="F34" s="56" t="s">
+        <v>359</v>
+      </c>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="58" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A35" s="22"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="23">
+        <v>1</v>
+      </c>
+      <c r="E35" s="63"/>
+      <c r="F35" s="32" t="s">
+        <v>350</v>
+      </c>
+      <c r="G35" s="33" t="s">
+        <v>337</v>
+      </c>
+      <c r="H35" s="33" t="s">
+        <v>324</v>
+      </c>
+      <c r="I35" s="34"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A36" s="22"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="23">
+        <v>2</v>
+      </c>
+      <c r="E36" s="63"/>
+      <c r="F36" s="32" t="s">
+        <v>350</v>
+      </c>
+      <c r="G36" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="H36" s="33" t="s">
+        <v>324</v>
+      </c>
+      <c r="I36" s="34"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A37" s="22"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="23">
+        <v>3</v>
+      </c>
+      <c r="E37" s="63"/>
+      <c r="F37" s="32" t="s">
+        <v>360</v>
+      </c>
+      <c r="G37" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="H37" s="33" t="s">
+        <v>324</v>
+      </c>
+      <c r="I37" s="34"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A38" s="53">
+        <v>9</v>
+      </c>
+      <c r="B38" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38" s="55">
+        <v>99186</v>
+      </c>
+      <c r="D38" s="54">
+        <v>0</v>
+      </c>
+      <c r="E38" s="64">
+        <v>99186</v>
+      </c>
+      <c r="F38" s="56" t="s">
+        <v>345</v>
+      </c>
+      <c r="G38" s="57"/>
+      <c r="H38" s="57"/>
+      <c r="I38" s="58" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A39" s="22"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="23">
+        <v>1</v>
+      </c>
+      <c r="E39" s="63"/>
+      <c r="F39" s="32" t="s">
+        <v>361</v>
+      </c>
+      <c r="G39" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="H39" s="33" t="s">
+        <v>325</v>
+      </c>
+      <c r="I39" s="34"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A40" s="53">
+        <v>10</v>
+      </c>
+      <c r="B40" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="C40" s="55">
+        <v>99172</v>
+      </c>
+      <c r="D40" s="54">
+        <v>0</v>
+      </c>
+      <c r="E40" s="64">
+        <v>99172</v>
+      </c>
+      <c r="F40" s="56" t="s">
+        <v>362</v>
+      </c>
+      <c r="G40" s="57"/>
+      <c r="H40" s="57"/>
+      <c r="I40" s="58" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A41" s="22"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="23">
+        <v>1</v>
+      </c>
+      <c r="E41" s="63"/>
+      <c r="F41" s="32" t="s">
+        <v>363</v>
+      </c>
+      <c r="G41" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="H41" s="33" t="s">
+        <v>324</v>
+      </c>
+      <c r="I41" s="34"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A42" s="22"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="23">
+        <v>2</v>
+      </c>
+      <c r="E42" s="63"/>
+      <c r="F42" s="32" t="s">
+        <v>364</v>
+      </c>
+      <c r="G42" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="H42" s="33" t="s">
+        <v>324</v>
+      </c>
+      <c r="I42" s="34"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A43" s="22"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="23">
+        <v>3</v>
+      </c>
+      <c r="E43" s="63"/>
+      <c r="F43" s="32" t="s">
+        <v>365</v>
+      </c>
+      <c r="G43" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="H43" s="33" t="s">
+        <v>324</v>
+      </c>
+      <c r="I43" s="34"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A44" s="53">
+        <v>11</v>
+      </c>
+      <c r="B44" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="C44" s="68">
+        <v>99186</v>
+      </c>
+      <c r="D44" s="59">
+        <v>0</v>
+      </c>
+      <c r="E44" s="69">
+        <v>99186</v>
+      </c>
+      <c r="F44" s="70" t="s">
+        <v>368</v>
+      </c>
+      <c r="G44" s="71"/>
+      <c r="H44" s="71"/>
+      <c r="I44" s="72" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A45" s="22"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="23">
+        <v>1</v>
+      </c>
+      <c r="E45" s="63"/>
+      <c r="F45" s="32" t="s">
+        <v>366</v>
+      </c>
+      <c r="G45" s="33" t="s">
+        <v>337</v>
+      </c>
+      <c r="H45" s="33" t="s">
+        <v>324</v>
+      </c>
+      <c r="I45" s="34"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A46" s="22"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="23">
+        <v>2</v>
+      </c>
+      <c r="E46" s="63"/>
+      <c r="F46" s="32" t="s">
+        <v>367</v>
+      </c>
+      <c r="G46" s="33" t="s">
+        <v>337</v>
+      </c>
+      <c r="H46" s="33" t="s">
+        <v>324</v>
+      </c>
+      <c r="I46" s="34"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A47" s="41"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="43">
+        <v>3</v>
+      </c>
+      <c r="E47" s="65"/>
+      <c r="F47" s="45" t="s">
+        <v>361</v>
+      </c>
+      <c r="G47" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="H47" s="33" t="s">
+        <v>325</v>
+      </c>
+      <c r="I47" s="46"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A48" s="53">
+        <v>12</v>
+      </c>
+      <c r="B48" s="59" t="s">
+        <v>116</v>
+      </c>
+      <c r="C48" s="68">
+        <v>99173</v>
+      </c>
+      <c r="D48" s="59">
+        <v>0</v>
+      </c>
+      <c r="E48" s="69">
+        <v>99173</v>
+      </c>
+      <c r="F48" s="56" t="s">
+        <v>362</v>
+      </c>
+      <c r="G48" s="71"/>
+      <c r="H48" s="71"/>
+      <c r="I48" s="72" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A49" s="81"/>
+      <c r="B49" s="82"/>
+      <c r="C49" s="83"/>
+      <c r="D49" s="82">
+        <v>1</v>
+      </c>
+      <c r="E49" s="84"/>
+      <c r="F49" s="85" t="s">
+        <v>370</v>
+      </c>
+      <c r="G49" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="H49" s="33" t="s">
+        <v>324</v>
+      </c>
+      <c r="I49" s="87"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A50" s="74"/>
+      <c r="B50" s="75"/>
+      <c r="C50" s="76"/>
+      <c r="D50" s="75">
+        <v>2</v>
+      </c>
+      <c r="E50" s="77"/>
+      <c r="F50" s="78" t="s">
+        <v>371</v>
+      </c>
+      <c r="G50" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="H50" s="33" t="s">
+        <v>325</v>
+      </c>
+      <c r="I50" s="80"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A51" s="74"/>
+      <c r="B51" s="75"/>
+      <c r="C51" s="76"/>
+      <c r="D51" s="75">
+        <v>3</v>
+      </c>
+      <c r="E51" s="77"/>
+      <c r="F51" s="78" t="s">
+        <v>372</v>
+      </c>
+      <c r="G51" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="H51" s="33" t="s">
+        <v>325</v>
+      </c>
+      <c r="I51" s="80"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A52" s="53">
+        <v>13</v>
+      </c>
+      <c r="B52" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="C52" s="55">
+        <v>99186</v>
+      </c>
+      <c r="D52" s="54">
+        <v>0</v>
+      </c>
+      <c r="E52" s="69">
+        <v>99186</v>
+      </c>
+      <c r="F52" s="56" t="s">
+        <v>345</v>
+      </c>
+      <c r="G52" s="57"/>
+      <c r="H52" s="57"/>
+      <c r="I52" s="58" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A53" s="81"/>
+      <c r="B53" s="88"/>
+      <c r="C53" s="89"/>
+      <c r="D53" s="88">
+        <v>1</v>
+      </c>
+      <c r="E53" s="90"/>
+      <c r="F53" s="91" t="s">
+        <v>373</v>
+      </c>
+      <c r="G53" s="92" t="s">
+        <v>328</v>
+      </c>
+      <c r="H53" s="92" t="s">
+        <v>374</v>
+      </c>
+      <c r="I53" s="93"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A54" s="74"/>
+      <c r="B54" s="75"/>
+      <c r="C54" s="76"/>
+      <c r="D54" s="75">
+        <v>2</v>
+      </c>
+      <c r="E54" s="77"/>
+      <c r="F54" s="78" t="s">
+        <v>375</v>
+      </c>
+      <c r="G54" s="79" t="s">
+        <v>337</v>
+      </c>
+      <c r="H54" s="79" t="s">
+        <v>324</v>
+      </c>
+      <c r="I54" s="80"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A55" s="53">
+        <v>14</v>
+      </c>
+      <c r="B55" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="C55" s="55">
+        <v>99173</v>
+      </c>
+      <c r="D55" s="54">
+        <v>0</v>
+      </c>
+      <c r="E55" s="69">
+        <v>99173</v>
+      </c>
+      <c r="F55" s="56" t="s">
+        <v>362</v>
+      </c>
+      <c r="G55" s="57"/>
+      <c r="H55" s="57"/>
+      <c r="I55" s="58" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A56" s="81"/>
+      <c r="B56" s="88"/>
+      <c r="C56" s="89"/>
+      <c r="D56" s="82">
+        <v>1</v>
+      </c>
+      <c r="E56" s="84"/>
+      <c r="F56" s="78" t="s">
+        <v>372</v>
+      </c>
+      <c r="G56" s="86" t="s">
+        <v>328</v>
+      </c>
+      <c r="H56" s="86" t="s">
+        <v>325</v>
+      </c>
+      <c r="I56" s="87"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A57" s="81"/>
+      <c r="B57" s="82"/>
+      <c r="C57" s="76"/>
+      <c r="D57" s="75">
+        <v>2</v>
+      </c>
+      <c r="E57" s="77"/>
+      <c r="F57" s="78" t="s">
+        <v>377</v>
+      </c>
+      <c r="G57" s="86" t="s">
+        <v>328</v>
+      </c>
+      <c r="H57" s="86" t="s">
+        <v>325</v>
+      </c>
+      <c r="I57" s="80"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A58" s="74"/>
+      <c r="B58" s="75"/>
+      <c r="C58" s="76"/>
+      <c r="D58" s="94">
+        <v>3</v>
+      </c>
+      <c r="E58" s="77"/>
+      <c r="F58" s="78" t="s">
+        <v>378</v>
+      </c>
+      <c r="G58" s="86" t="s">
+        <v>328</v>
+      </c>
+      <c r="H58" s="86" t="s">
+        <v>325</v>
+      </c>
+      <c r="I58" s="80"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A59" s="74"/>
+      <c r="B59" s="75"/>
+      <c r="C59" s="76"/>
+      <c r="D59" s="82">
+        <v>4</v>
+      </c>
+      <c r="E59" s="77"/>
+      <c r="F59" s="78" t="s">
+        <v>379</v>
+      </c>
+      <c r="G59" s="86" t="s">
+        <v>328</v>
+      </c>
+      <c r="H59" s="86" t="s">
+        <v>325</v>
+      </c>
+      <c r="I59" s="80"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A60" s="53">
+        <v>15</v>
+      </c>
+      <c r="B60" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60" s="55">
+        <v>99186</v>
+      </c>
+      <c r="D60" s="54">
+        <v>0</v>
+      </c>
+      <c r="E60" s="69">
+        <v>99186</v>
+      </c>
+      <c r="F60" s="56" t="s">
+        <v>345</v>
+      </c>
+      <c r="G60" s="57"/>
+      <c r="H60" s="57"/>
+      <c r="I60" s="58" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A61" s="74"/>
+      <c r="B61" s="75"/>
+      <c r="C61" s="76"/>
+      <c r="D61" s="75">
+        <v>1</v>
+      </c>
+      <c r="E61" s="77"/>
+      <c r="F61" s="78" t="s">
+        <v>375</v>
+      </c>
+      <c r="G61" s="79" t="s">
+        <v>337</v>
+      </c>
+      <c r="H61" s="79" t="s">
+        <v>324</v>
+      </c>
+      <c r="I61" s="80"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A62" s="74"/>
+      <c r="B62" s="75"/>
+      <c r="C62" s="76"/>
+      <c r="D62" s="75">
+        <v>2</v>
+      </c>
+      <c r="E62" s="77"/>
+      <c r="F62" s="78" t="s">
+        <v>380</v>
+      </c>
+      <c r="G62" s="79" t="s">
+        <v>328</v>
+      </c>
+      <c r="H62" s="79" t="s">
+        <v>325</v>
+      </c>
+      <c r="I62" s="80"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A63" s="53">
+        <v>16</v>
+      </c>
+      <c r="B63" s="59" t="s">
+        <v>124</v>
+      </c>
+      <c r="C63" s="55">
+        <v>99189</v>
+      </c>
+      <c r="D63" s="54">
+        <v>0</v>
+      </c>
+      <c r="E63" s="64">
+        <v>99189</v>
+      </c>
+      <c r="F63" s="56" t="s">
+        <v>352</v>
+      </c>
+      <c r="G63" s="57"/>
+      <c r="H63" s="57"/>
+      <c r="I63" s="58" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A64" s="74"/>
+      <c r="B64" s="75"/>
+      <c r="C64" s="76"/>
+      <c r="D64" s="75">
+        <v>1</v>
+      </c>
+      <c r="E64" s="77"/>
+      <c r="F64" s="78" t="s">
+        <v>364</v>
+      </c>
+      <c r="G64" s="79" t="s">
+        <v>328</v>
+      </c>
+      <c r="H64" s="79" t="s">
+        <v>324</v>
+      </c>
+      <c r="I64" s="80"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A65" s="74"/>
+      <c r="B65" s="75"/>
+      <c r="C65" s="76"/>
+      <c r="D65" s="75">
+        <v>2</v>
+      </c>
+      <c r="E65" s="77"/>
+      <c r="F65" s="78" t="s">
+        <v>381</v>
+      </c>
+      <c r="G65" s="79" t="s">
+        <v>328</v>
+      </c>
+      <c r="H65" s="79" t="s">
+        <v>324</v>
+      </c>
+      <c r="I65" s="80"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A66" s="53">
+        <v>17</v>
+      </c>
+      <c r="B66" s="54" t="s">
+        <v>126</v>
+      </c>
+      <c r="C66" s="55">
+        <v>99190</v>
+      </c>
+      <c r="D66" s="54">
+        <v>0</v>
+      </c>
+      <c r="E66" s="64">
+        <v>99190</v>
+      </c>
+      <c r="F66" s="56" t="s">
+        <v>345</v>
+      </c>
+      <c r="G66" s="57"/>
+      <c r="H66" s="57"/>
+      <c r="I66" s="58" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A67" s="74"/>
+      <c r="B67" s="75"/>
+      <c r="C67" s="76"/>
+      <c r="D67" s="75">
+        <v>1</v>
+      </c>
+      <c r="E67" s="77"/>
+      <c r="F67" s="78" t="s">
+        <v>382</v>
+      </c>
+      <c r="G67" s="79" t="s">
+        <v>328</v>
+      </c>
+      <c r="H67" s="79" t="s">
+        <v>324</v>
+      </c>
+      <c r="I67" s="80"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A68" s="74"/>
+      <c r="B68" s="75"/>
+      <c r="C68" s="76"/>
+      <c r="D68" s="75">
+        <v>2</v>
+      </c>
+      <c r="E68" s="77"/>
+      <c r="F68" s="78" t="s">
+        <v>383</v>
+      </c>
+      <c r="G68" s="79" t="s">
+        <v>384</v>
+      </c>
+      <c r="H68" s="79" t="s">
+        <v>325</v>
+      </c>
+      <c r="I68" s="80"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A69" s="53">
+        <v>18</v>
+      </c>
+      <c r="B69" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="C69" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="D69" s="54">
+        <v>0</v>
+      </c>
+      <c r="E69" s="95" t="s">
+        <v>385</v>
+      </c>
+      <c r="F69" s="56" t="s">
+        <v>395</v>
+      </c>
+      <c r="G69" s="57"/>
+      <c r="H69" s="57"/>
+      <c r="I69" s="58" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A70" s="74"/>
+      <c r="B70" s="75"/>
+      <c r="C70" s="76"/>
+      <c r="D70" s="75">
+        <v>1</v>
+      </c>
+      <c r="E70" s="77"/>
+      <c r="F70" s="78" t="s">
+        <v>387</v>
+      </c>
+      <c r="G70" s="79" t="s">
+        <v>328</v>
+      </c>
+      <c r="H70" s="79" t="s">
+        <v>324</v>
+      </c>
+      <c r="I70" s="80"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A71" s="53">
+        <v>19</v>
+      </c>
+      <c r="B71" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="C71" s="55">
+        <v>99172</v>
+      </c>
+      <c r="D71" s="54">
+        <v>0</v>
+      </c>
+      <c r="E71" s="64">
+        <v>99172</v>
+      </c>
+      <c r="F71" s="56" t="s">
+        <v>388</v>
+      </c>
+      <c r="G71" s="57"/>
+      <c r="H71" s="57"/>
+      <c r="I71" s="58" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A72" s="74"/>
+      <c r="B72" s="75"/>
+      <c r="C72" s="76"/>
+      <c r="D72" s="75">
+        <v>1</v>
+      </c>
+      <c r="E72" s="77"/>
+      <c r="F72" s="78" t="s">
+        <v>389</v>
+      </c>
+      <c r="G72" s="79" t="s">
+        <v>328</v>
+      </c>
+      <c r="H72" s="79" t="s">
+        <v>325</v>
+      </c>
+      <c r="I72" s="80"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A73" s="74"/>
+      <c r="B73" s="75"/>
+      <c r="C73" s="76"/>
+      <c r="D73" s="75">
+        <v>2</v>
+      </c>
+      <c r="E73" s="77"/>
+      <c r="F73" s="78" t="s">
+        <v>390</v>
+      </c>
+      <c r="G73" s="79" t="s">
+        <v>328</v>
+      </c>
+      <c r="H73" s="79" t="s">
+        <v>324</v>
+      </c>
+      <c r="I73" s="80"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A74" s="74"/>
+      <c r="B74" s="75"/>
+      <c r="C74" s="76"/>
+      <c r="D74" s="75">
+        <v>3</v>
+      </c>
+      <c r="E74" s="77"/>
+      <c r="F74" s="78" t="s">
+        <v>391</v>
+      </c>
+      <c r="G74" s="79" t="s">
+        <v>328</v>
+      </c>
+      <c r="H74" s="79" t="s">
+        <v>325</v>
+      </c>
+      <c r="I74" s="80"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A75" s="53">
+        <v>20</v>
+      </c>
+      <c r="B75" s="54" t="s">
+        <v>133</v>
+      </c>
+      <c r="C75" s="55">
+        <v>99191</v>
+      </c>
+      <c r="D75" s="54">
+        <v>0</v>
+      </c>
+      <c r="E75" s="64">
+        <v>99191</v>
+      </c>
+      <c r="F75" s="56" t="s">
+        <v>392</v>
+      </c>
+      <c r="G75" s="57"/>
+      <c r="H75" s="57"/>
+      <c r="I75" s="58" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A76" s="74"/>
+      <c r="B76" s="75"/>
+      <c r="C76" s="76"/>
+      <c r="D76" s="75">
+        <v>1</v>
+      </c>
+      <c r="E76" s="77"/>
+      <c r="F76" s="78" t="s">
+        <v>393</v>
+      </c>
+      <c r="G76" s="79" t="s">
+        <v>356</v>
+      </c>
+      <c r="H76" s="79" t="s">
+        <v>324</v>
+      </c>
+      <c r="I76" s="80"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A77" s="53">
+        <v>21</v>
+      </c>
+      <c r="B77" s="54" t="s">
+        <v>135</v>
+      </c>
+      <c r="C77" s="55">
+        <v>99181</v>
+      </c>
+      <c r="D77" s="54">
+        <v>0</v>
+      </c>
+      <c r="E77" s="64"/>
+      <c r="F77" s="56" t="s">
+        <v>396</v>
+      </c>
+      <c r="G77" s="57"/>
+      <c r="H77" s="57"/>
+      <c r="I77" s="58" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A78" s="74"/>
+      <c r="B78" s="75"/>
+      <c r="C78" s="76"/>
+      <c r="D78" s="75">
+        <v>1</v>
+      </c>
+      <c r="E78" s="77" t="s">
+        <v>394</v>
+      </c>
+      <c r="F78" s="78" t="s">
+        <v>397</v>
+      </c>
+      <c r="G78" s="79" t="s">
+        <v>328</v>
+      </c>
+      <c r="H78" s="79" t="s">
+        <v>324</v>
+      </c>
+      <c r="I78" s="80"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A79" s="74"/>
+      <c r="B79" s="75"/>
+      <c r="C79" s="76"/>
+      <c r="D79" s="75">
+        <v>2</v>
+      </c>
+      <c r="E79" s="77">
+        <v>99181</v>
+      </c>
+      <c r="F79" s="78" t="s">
+        <v>381</v>
+      </c>
+      <c r="G79" s="79" t="s">
+        <v>328</v>
+      </c>
+      <c r="H79" s="79" t="s">
+        <v>324</v>
+      </c>
+      <c r="I79" s="80"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A80" s="74"/>
+      <c r="B80" s="75"/>
+      <c r="C80" s="76"/>
+      <c r="D80" s="75">
+        <v>3</v>
+      </c>
+      <c r="E80" s="77">
+        <v>99181</v>
+      </c>
+      <c r="F80" s="78" t="s">
+        <v>398</v>
+      </c>
+      <c r="G80" s="79" t="s">
+        <v>356</v>
+      </c>
+      <c r="H80" s="79" t="s">
+        <v>324</v>
+      </c>
+      <c r="I80" s="80"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A81" s="53">
+        <v>22</v>
+      </c>
+      <c r="B81" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="C81" s="55">
+        <v>99192</v>
+      </c>
+      <c r="D81" s="54">
+        <v>0</v>
+      </c>
+      <c r="E81" s="64">
+        <v>99192</v>
+      </c>
+      <c r="F81" s="56" t="s">
+        <v>362</v>
+      </c>
+      <c r="G81" s="57"/>
+      <c r="H81" s="57"/>
+      <c r="I81" s="58" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A82" s="74"/>
+      <c r="B82" s="75"/>
+      <c r="C82" s="76"/>
+      <c r="D82" s="75">
+        <v>1</v>
+      </c>
+      <c r="E82" s="77"/>
+      <c r="F82" s="78" t="s">
+        <v>369</v>
+      </c>
+      <c r="G82" s="79" t="s">
+        <v>328</v>
+      </c>
+      <c r="H82" s="79" t="s">
+        <v>324</v>
+      </c>
+      <c r="I82" s="80"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A83" s="74"/>
+      <c r="B83" s="75"/>
+      <c r="C83" s="76"/>
+      <c r="D83" s="75">
+        <v>2</v>
+      </c>
+      <c r="E83" s="77"/>
+      <c r="F83" s="78" t="s">
+        <v>399</v>
+      </c>
+      <c r="G83" s="79" t="s">
+        <v>336</v>
+      </c>
+      <c r="H83" s="79" t="s">
+        <v>325</v>
+      </c>
+      <c r="I83" s="80"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A84" s="74"/>
+      <c r="B84" s="75"/>
+      <c r="C84" s="76"/>
+      <c r="D84" s="75">
+        <v>3</v>
+      </c>
+      <c r="E84" s="77"/>
+      <c r="F84" s="78" t="s">
+        <v>369</v>
+      </c>
+      <c r="G84" s="79" t="s">
+        <v>328</v>
+      </c>
+      <c r="H84" s="79" t="s">
+        <v>324</v>
+      </c>
+      <c r="I84" s="80"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A85" s="53">
+        <v>23</v>
+      </c>
+      <c r="B85" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="C85" s="55">
+        <v>99187</v>
+      </c>
+      <c r="D85" s="54">
+        <v>0</v>
+      </c>
+      <c r="E85" s="64">
+        <v>99187</v>
+      </c>
+      <c r="F85" s="56" t="s">
+        <v>400</v>
+      </c>
+      <c r="G85" s="57"/>
+      <c r="H85" s="57"/>
+      <c r="I85" s="58" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A86" s="74"/>
+      <c r="B86" s="75"/>
+      <c r="C86" s="76"/>
+      <c r="D86" s="75">
+        <v>1</v>
+      </c>
+      <c r="E86" s="77"/>
+      <c r="F86" s="78" t="s">
+        <v>401</v>
+      </c>
+      <c r="G86" s="79" t="s">
+        <v>328</v>
+      </c>
+      <c r="H86" s="79" t="s">
+        <v>324</v>
+      </c>
+      <c r="I86" s="80"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A87" s="53">
+        <v>24</v>
+      </c>
+      <c r="B87" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="C87" s="55">
+        <v>99194</v>
+      </c>
+      <c r="D87" s="54">
+        <v>0</v>
+      </c>
+      <c r="E87" s="64">
+        <v>99194</v>
+      </c>
+      <c r="F87" s="56" t="s">
+        <v>402</v>
+      </c>
+      <c r="G87" s="57"/>
+      <c r="H87" s="57"/>
+      <c r="I87" s="58" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A88" s="74"/>
+      <c r="B88" s="75"/>
+      <c r="C88" s="76"/>
+      <c r="D88" s="75">
+        <v>1</v>
+      </c>
+      <c r="E88" s="77"/>
+      <c r="F88" s="78" t="s">
+        <v>403</v>
+      </c>
+      <c r="G88" s="79" t="s">
+        <v>328</v>
+      </c>
+      <c r="H88" s="79" t="s">
+        <v>325</v>
+      </c>
+      <c r="I88" s="80"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A89" s="53">
+        <v>25</v>
+      </c>
+      <c r="B89" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="C89" s="55">
+        <v>99188</v>
+      </c>
+      <c r="D89" s="54">
+        <v>0</v>
+      </c>
+      <c r="E89" s="64">
+        <v>99187</v>
+      </c>
+      <c r="F89" s="56" t="s">
+        <v>352</v>
+      </c>
+      <c r="G89" s="57"/>
+      <c r="H89" s="57"/>
+      <c r="I89" s="58" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A90" s="74"/>
+      <c r="B90" s="75"/>
+      <c r="C90" s="76"/>
+      <c r="D90" s="75">
+        <v>1</v>
+      </c>
+      <c r="E90" s="77"/>
+      <c r="F90" s="78" t="s">
+        <v>404</v>
+      </c>
+      <c r="G90" s="79" t="s">
+        <v>328</v>
+      </c>
+      <c r="H90" s="79" t="s">
+        <v>324</v>
+      </c>
+      <c r="I90" s="80"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A91" s="53">
+        <v>26</v>
+      </c>
+      <c r="B91" s="54" t="s">
+        <v>143</v>
+      </c>
+      <c r="C91" s="55">
+        <v>99193</v>
+      </c>
+      <c r="D91" s="54">
+        <v>0</v>
+      </c>
+      <c r="E91" s="64">
+        <v>99193</v>
+      </c>
+      <c r="F91" s="56" t="s">
+        <v>405</v>
+      </c>
+      <c r="G91" s="57"/>
+      <c r="H91" s="57"/>
+      <c r="I91" s="58" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A92" s="74"/>
+      <c r="B92" s="75"/>
+      <c r="C92" s="76"/>
+      <c r="D92" s="75">
+        <v>1</v>
+      </c>
+      <c r="E92" s="77"/>
+      <c r="F92" s="78" t="s">
+        <v>407</v>
+      </c>
+      <c r="G92" s="79"/>
+      <c r="H92" s="79"/>
+      <c r="I92" s="80"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A93" s="74"/>
+      <c r="B93" s="75"/>
+      <c r="C93" s="76"/>
+      <c r="D93" s="75">
+        <v>2</v>
+      </c>
+      <c r="E93" s="77"/>
+      <c r="F93" s="78" t="s">
+        <v>408</v>
+      </c>
+      <c r="G93" s="79" t="s">
+        <v>410</v>
+      </c>
+      <c r="H93" s="79" t="s">
+        <v>324</v>
+      </c>
+      <c r="I93" s="80"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A94" s="74"/>
+      <c r="B94" s="75"/>
+      <c r="C94" s="76"/>
+      <c r="D94" s="75">
+        <v>3</v>
+      </c>
+      <c r="E94" s="77"/>
+      <c r="F94" s="78" t="s">
+        <v>408</v>
+      </c>
+      <c r="G94" s="79" t="s">
+        <v>410</v>
+      </c>
+      <c r="H94" s="79" t="s">
+        <v>324</v>
+      </c>
+      <c r="I94" s="80"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A95" s="74"/>
+      <c r="B95" s="75"/>
+      <c r="C95" s="76"/>
+      <c r="D95" s="75">
+        <v>4</v>
+      </c>
+      <c r="E95" s="77"/>
+      <c r="F95" s="78" t="s">
+        <v>409</v>
+      </c>
+      <c r="G95" s="79" t="s">
+        <v>410</v>
+      </c>
+      <c r="H95" s="79" t="s">
+        <v>325</v>
+      </c>
+      <c r="I95" s="80"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A96" s="53">
+        <v>27</v>
+      </c>
+      <c r="B96" s="54" t="s">
+        <v>145</v>
+      </c>
+      <c r="C96" s="55">
+        <v>99191</v>
+      </c>
+      <c r="D96" s="54">
+        <v>0</v>
+      </c>
+      <c r="E96" s="64">
+        <v>99191</v>
+      </c>
+      <c r="F96" s="56" t="s">
+        <v>352</v>
+      </c>
+      <c r="G96" s="57"/>
+      <c r="H96" s="57"/>
+      <c r="I96" s="58" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A97" s="74"/>
+      <c r="B97" s="75"/>
+      <c r="C97" s="76"/>
+      <c r="D97" s="75">
+        <v>1</v>
+      </c>
+      <c r="E97" s="77"/>
+      <c r="F97" s="78" t="s">
+        <v>381</v>
+      </c>
+      <c r="G97" s="79" t="s">
+        <v>328</v>
+      </c>
+      <c r="H97" s="79" t="s">
+        <v>324</v>
+      </c>
+      <c r="I97" s="80"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A98" s="74"/>
+      <c r="B98" s="75"/>
+      <c r="C98" s="76"/>
+      <c r="D98" s="75">
+        <v>2</v>
+      </c>
+      <c r="E98" s="77"/>
+      <c r="F98" s="78" t="s">
+        <v>411</v>
+      </c>
+      <c r="G98" s="79" t="s">
+        <v>328</v>
+      </c>
+      <c r="H98" s="79" t="s">
+        <v>324</v>
+      </c>
+      <c r="I98" s="80"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A99" s="53">
+        <v>28</v>
+      </c>
+      <c r="B99" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="C99" s="55">
+        <v>99194</v>
+      </c>
+      <c r="D99" s="54">
+        <v>0</v>
+      </c>
+      <c r="E99" s="64">
+        <v>99194</v>
+      </c>
+      <c r="F99" s="56" t="s">
+        <v>359</v>
+      </c>
+      <c r="G99" s="57"/>
+      <c r="H99" s="57"/>
+      <c r="I99" s="58" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A100" s="74"/>
+      <c r="B100" s="75"/>
+      <c r="C100" s="76"/>
+      <c r="D100" s="75">
+        <v>1</v>
+      </c>
+      <c r="E100" s="77"/>
+      <c r="F100" s="78" t="s">
+        <v>412</v>
+      </c>
+      <c r="G100" s="79" t="s">
+        <v>328</v>
+      </c>
+      <c r="H100" s="79" t="s">
+        <v>325</v>
+      </c>
+      <c r="I100" s="80"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A101" s="74"/>
+      <c r="B101" s="75"/>
+      <c r="C101" s="76"/>
+      <c r="D101" s="75">
+        <v>2</v>
+      </c>
+      <c r="E101" s="77"/>
+      <c r="F101" s="78" t="s">
+        <v>380</v>
+      </c>
+      <c r="G101" s="79" t="s">
+        <v>328</v>
+      </c>
+      <c r="H101" s="79" t="s">
+        <v>325</v>
+      </c>
+      <c r="I101" s="80"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A102" s="74"/>
+      <c r="B102" s="75"/>
+      <c r="C102" s="76"/>
+      <c r="D102" s="75">
+        <v>3</v>
+      </c>
+      <c r="E102" s="77"/>
+      <c r="F102" s="78" t="s">
+        <v>413</v>
+      </c>
+      <c r="G102" s="79" t="s">
+        <v>356</v>
+      </c>
+      <c r="H102" s="79" t="s">
+        <v>324</v>
+      </c>
+      <c r="I102" s="80"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A103" s="74"/>
+      <c r="B103" s="75"/>
+      <c r="C103" s="76"/>
+      <c r="D103" s="75">
+        <v>4</v>
+      </c>
+      <c r="E103" s="77"/>
+      <c r="F103" s="78" t="s">
+        <v>413</v>
+      </c>
+      <c r="G103" s="79" t="s">
+        <v>356</v>
+      </c>
+      <c r="H103" s="79" t="s">
+        <v>324</v>
+      </c>
+      <c r="I103" s="80"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A104" s="74"/>
+      <c r="B104" s="75"/>
+      <c r="C104" s="76"/>
+      <c r="D104" s="75">
+        <v>5</v>
+      </c>
+      <c r="E104" s="77"/>
+      <c r="F104" s="78" t="s">
+        <v>413</v>
+      </c>
+      <c r="G104" s="79" t="s">
+        <v>337</v>
+      </c>
+      <c r="H104" s="79" t="s">
+        <v>324</v>
+      </c>
+      <c r="I104" s="80"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A105" s="74"/>
+      <c r="B105" s="75"/>
+      <c r="C105" s="76"/>
+      <c r="D105" s="75">
+        <v>6</v>
+      </c>
+      <c r="E105" s="77"/>
+      <c r="F105" s="78" t="s">
+        <v>413</v>
+      </c>
+      <c r="G105" s="79" t="s">
+        <v>337</v>
+      </c>
+      <c r="H105" s="79" t="s">
+        <v>324</v>
+      </c>
+      <c r="I105" s="80"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A106" s="53">
+        <v>29</v>
+      </c>
+      <c r="B106" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="C106" s="55">
+        <v>99194</v>
+      </c>
+      <c r="D106" s="54">
+        <v>0</v>
+      </c>
+      <c r="E106" s="64">
+        <v>99194</v>
+      </c>
+      <c r="F106" s="56" t="s">
+        <v>415</v>
+      </c>
+      <c r="G106" s="57"/>
+      <c r="H106" s="57"/>
+      <c r="I106" s="58" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A107" s="74"/>
+      <c r="B107" s="75"/>
+      <c r="C107" s="76"/>
+      <c r="D107" s="75">
+        <v>1</v>
+      </c>
+      <c r="E107" s="77"/>
+      <c r="F107" s="78" t="s">
+        <v>414</v>
+      </c>
+      <c r="G107" s="79" t="s">
+        <v>337</v>
+      </c>
+      <c r="H107" s="79" t="s">
+        <v>325</v>
+      </c>
+      <c r="I107" s="80"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A108" s="74"/>
+      <c r="B108" s="75"/>
+      <c r="C108" s="76"/>
+      <c r="D108" s="75">
+        <v>2</v>
+      </c>
+      <c r="E108" s="77"/>
+      <c r="F108" s="78" t="s">
+        <v>416</v>
+      </c>
+      <c r="G108" s="79" t="s">
+        <v>337</v>
+      </c>
+      <c r="H108" s="79" t="s">
+        <v>325</v>
+      </c>
+      <c r="I108" s="80"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A109" s="74"/>
+      <c r="B109" s="75"/>
+      <c r="C109" s="76"/>
+      <c r="D109" s="75">
+        <v>3</v>
+      </c>
+      <c r="E109" s="77"/>
+      <c r="F109" s="78" t="s">
+        <v>417</v>
+      </c>
+      <c r="G109" s="79" t="s">
+        <v>337</v>
+      </c>
+      <c r="H109" s="79" t="s">
+        <v>325</v>
+      </c>
+      <c r="I109" s="80"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A110" s="53">
+        <v>30</v>
+      </c>
+      <c r="B110" s="54" t="s">
+        <v>151</v>
+      </c>
+      <c r="C110" s="55">
+        <v>99195</v>
+      </c>
+      <c r="D110" s="54">
+        <v>0</v>
+      </c>
+      <c r="E110" s="64">
+        <v>99195</v>
+      </c>
+      <c r="F110" s="56" t="s">
+        <v>362</v>
+      </c>
+      <c r="G110" s="57"/>
+      <c r="H110" s="57"/>
+      <c r="I110" s="58" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A111" s="74"/>
+      <c r="B111" s="75"/>
+      <c r="C111" s="76"/>
+      <c r="D111" s="75">
+        <v>1</v>
+      </c>
+      <c r="E111" s="77"/>
+      <c r="F111" s="78" t="s">
+        <v>418</v>
+      </c>
+      <c r="G111" s="79" t="s">
+        <v>337</v>
+      </c>
+      <c r="H111" s="79" t="s">
+        <v>324</v>
+      </c>
+      <c r="I111" s="80"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A112" s="74"/>
+      <c r="B112" s="75"/>
+      <c r="C112" s="76"/>
+      <c r="D112" s="75">
+        <v>2</v>
+      </c>
+      <c r="E112" s="77"/>
+      <c r="F112" s="78" t="s">
+        <v>419</v>
+      </c>
+      <c r="G112" s="79" t="s">
+        <v>337</v>
+      </c>
+      <c r="H112" s="79" t="s">
+        <v>324</v>
+      </c>
+      <c r="I112" s="80"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A113" s="53">
+        <v>31</v>
+      </c>
+      <c r="B113" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="C113" s="55">
+        <v>99195</v>
+      </c>
+      <c r="D113" s="54">
+        <v>0</v>
+      </c>
+      <c r="E113" s="64"/>
+      <c r="F113" s="56" t="s">
+        <v>420</v>
+      </c>
+      <c r="G113" s="57"/>
+      <c r="H113" s="57"/>
+      <c r="I113" s="58" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A114" s="74"/>
+      <c r="B114" s="75"/>
+      <c r="C114" s="76"/>
+      <c r="D114" s="75">
+        <v>1</v>
+      </c>
+      <c r="E114" s="77" t="s">
+        <v>428</v>
+      </c>
+      <c r="F114" s="78" t="s">
+        <v>423</v>
+      </c>
+      <c r="G114" s="79" t="s">
+        <v>337</v>
+      </c>
+      <c r="H114" s="79" t="s">
+        <v>324</v>
+      </c>
+      <c r="I114" s="80"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A115" s="74"/>
+      <c r="B115" s="75"/>
+      <c r="C115" s="76"/>
+      <c r="D115" s="75">
+        <v>2</v>
+      </c>
+      <c r="E115" s="77">
+        <v>99195</v>
+      </c>
+      <c r="F115" s="78" t="s">
+        <v>421</v>
+      </c>
+      <c r="G115" s="79" t="s">
+        <v>410</v>
+      </c>
+      <c r="H115" s="79" t="s">
+        <v>325</v>
+      </c>
+      <c r="I115" s="80"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A116" s="74"/>
+      <c r="B116" s="75"/>
+      <c r="C116" s="76"/>
+      <c r="D116" s="75">
+        <v>3</v>
+      </c>
+      <c r="E116" s="77">
+        <v>99195</v>
+      </c>
+      <c r="F116" s="78" t="s">
+        <v>422</v>
+      </c>
+      <c r="G116" s="79" t="s">
+        <v>337</v>
+      </c>
+      <c r="H116" s="79" t="s">
+        <v>324</v>
+      </c>
+      <c r="I116" s="80"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A117" s="74"/>
+      <c r="B117" s="75"/>
+      <c r="C117" s="76"/>
+      <c r="D117" s="75">
+        <v>4</v>
+      </c>
+      <c r="E117" s="77">
+        <v>99195</v>
+      </c>
+      <c r="F117" s="78" t="s">
+        <v>423</v>
+      </c>
+      <c r="G117" s="79" t="s">
+        <v>337</v>
+      </c>
+      <c r="H117" s="79" t="s">
+        <v>324</v>
+      </c>
+      <c r="I117" s="80"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A118" s="53">
+        <v>32</v>
+      </c>
+      <c r="B118" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="C118" s="55">
+        <v>99196</v>
+      </c>
+      <c r="D118" s="54">
+        <v>0</v>
+      </c>
+      <c r="E118" s="64">
+        <v>99196</v>
+      </c>
+      <c r="F118" s="56" t="s">
+        <v>405</v>
+      </c>
+      <c r="G118" s="57"/>
+      <c r="H118" s="57"/>
+      <c r="I118" s="58" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A119" s="74"/>
+      <c r="B119" s="75"/>
+      <c r="C119" s="76"/>
+      <c r="D119" s="75">
+        <v>1</v>
+      </c>
+      <c r="E119" s="77"/>
+      <c r="F119" s="78" t="s">
+        <v>376</v>
+      </c>
+      <c r="G119" s="79" t="s">
+        <v>410</v>
+      </c>
+      <c r="H119" s="79" t="s">
+        <v>324</v>
+      </c>
+      <c r="I119" s="80"/>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A120" s="74"/>
+      <c r="B120" s="75"/>
+      <c r="C120" s="76"/>
+      <c r="D120" s="75">
+        <v>2</v>
+      </c>
+      <c r="E120" s="77"/>
+      <c r="F120" s="78" t="s">
+        <v>326</v>
+      </c>
+      <c r="G120" s="79" t="s">
+        <v>410</v>
+      </c>
+      <c r="H120" s="79" t="s">
+        <v>324</v>
+      </c>
+      <c r="I120" s="80"/>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A121" s="74"/>
+      <c r="B121" s="75"/>
+      <c r="C121" s="76"/>
+      <c r="D121" s="75">
+        <v>3</v>
+      </c>
+      <c r="E121" s="77"/>
+      <c r="F121" s="78" t="s">
+        <v>424</v>
+      </c>
+      <c r="G121" s="79" t="s">
+        <v>410</v>
+      </c>
+      <c r="H121" s="79" t="s">
+        <v>325</v>
+      </c>
+      <c r="I121" s="80"/>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A122" s="74"/>
+      <c r="B122" s="75"/>
+      <c r="C122" s="76"/>
+      <c r="D122" s="75">
+        <v>4</v>
+      </c>
+      <c r="E122" s="77"/>
+      <c r="F122" s="78" t="s">
+        <v>326</v>
+      </c>
+      <c r="G122" s="79" t="s">
+        <v>410</v>
+      </c>
+      <c r="H122" s="79" t="s">
+        <v>324</v>
+      </c>
+      <c r="I122" s="80"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A123" s="53">
+        <v>33</v>
+      </c>
+      <c r="B123" s="54" t="s">
+        <v>157</v>
+      </c>
+      <c r="C123" s="55">
+        <v>99197</v>
+      </c>
+      <c r="D123" s="54">
+        <v>0</v>
+      </c>
+      <c r="E123" s="64">
+        <v>99197</v>
+      </c>
+      <c r="F123" s="56" t="s">
+        <v>426</v>
+      </c>
+      <c r="G123" s="57"/>
+      <c r="H123" s="57"/>
+      <c r="I123" s="58" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A124" s="74"/>
+      <c r="B124" s="75"/>
+      <c r="C124" s="76"/>
+      <c r="D124" s="75">
+        <v>1</v>
+      </c>
+      <c r="E124" s="77"/>
+      <c r="F124" s="78" t="s">
+        <v>425</v>
+      </c>
+      <c r="G124" s="79" t="s">
+        <v>328</v>
+      </c>
+      <c r="H124" s="79" t="s">
+        <v>324</v>
+      </c>
+      <c r="I124" s="80"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A125" s="53">
+        <v>34</v>
+      </c>
+      <c r="B125" s="54" t="s">
+        <v>159</v>
+      </c>
+      <c r="C125" s="55" t="s">
+        <v>160</v>
+      </c>
+      <c r="D125" s="54">
+        <v>0</v>
+      </c>
+      <c r="E125" s="64" t="s">
+        <v>427</v>
+      </c>
+      <c r="F125" s="56" t="s">
+        <v>429</v>
+      </c>
+      <c r="G125" s="57"/>
+      <c r="H125" s="57"/>
+      <c r="I125" s="58" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A126" s="74"/>
+      <c r="B126" s="75"/>
+      <c r="C126" s="76"/>
+      <c r="D126" s="75">
+        <v>1</v>
+      </c>
+      <c r="E126" s="77"/>
+      <c r="F126" s="78" t="s">
+        <v>406</v>
+      </c>
+      <c r="G126" s="79" t="s">
+        <v>328</v>
+      </c>
+      <c r="H126" s="79" t="s">
+        <v>324</v>
+      </c>
+      <c r="I126" s="80"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A127" s="74"/>
+      <c r="B127" s="75"/>
+      <c r="C127" s="76"/>
+      <c r="D127" s="75">
+        <v>2</v>
+      </c>
+      <c r="E127" s="77"/>
+      <c r="F127" s="78" t="s">
+        <v>430</v>
+      </c>
+      <c r="G127" s="79" t="s">
+        <v>328</v>
+      </c>
+      <c r="H127" s="79" t="s">
+        <v>324</v>
+      </c>
+      <c r="I127" s="80"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A128" s="74"/>
+      <c r="B128" s="75"/>
+      <c r="C128" s="76"/>
+      <c r="D128" s="75">
+        <v>3</v>
+      </c>
+      <c r="E128" s="77"/>
+      <c r="F128" s="78" t="s">
+        <v>431</v>
+      </c>
+      <c r="G128" s="79" t="s">
+        <v>328</v>
+      </c>
+      <c r="H128" s="79" t="s">
+        <v>325</v>
+      </c>
+      <c r="I128" s="80"/>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A129" s="53">
+        <v>35</v>
+      </c>
+      <c r="B129" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="C129" s="55">
+        <v>99198</v>
+      </c>
+      <c r="D129" s="54">
+        <v>0</v>
+      </c>
+      <c r="E129" s="64">
+        <v>99198</v>
+      </c>
+      <c r="F129" s="56" t="s">
+        <v>432</v>
+      </c>
+      <c r="G129" s="57"/>
+      <c r="H129" s="57"/>
+      <c r="I129" s="58" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A130" s="74"/>
+      <c r="B130" s="75"/>
+      <c r="C130" s="76"/>
+      <c r="D130" s="75">
+        <v>1</v>
+      </c>
+      <c r="E130" s="77"/>
+      <c r="F130" s="78" t="s">
+        <v>433</v>
+      </c>
+      <c r="G130" s="79" t="s">
+        <v>337</v>
+      </c>
+      <c r="H130" s="79" t="s">
+        <v>325</v>
+      </c>
+      <c r="I130" s="80"/>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A131" s="53">
+        <v>36</v>
+      </c>
+      <c r="B131" s="54" t="s">
+        <v>164</v>
+      </c>
+      <c r="C131" s="55">
+        <v>99198</v>
+      </c>
+      <c r="D131" s="54">
+        <v>0</v>
+      </c>
+      <c r="E131" s="64">
+        <v>99198</v>
+      </c>
+      <c r="F131" s="56" t="s">
+        <v>432</v>
+      </c>
+      <c r="G131" s="57"/>
+      <c r="H131" s="57"/>
+      <c r="I131" s="58" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A132" s="74"/>
+      <c r="B132" s="75"/>
+      <c r="C132" s="76"/>
+      <c r="D132" s="75">
+        <v>1</v>
+      </c>
+      <c r="E132" s="77"/>
+      <c r="F132" s="78" t="s">
+        <v>433</v>
+      </c>
+      <c r="G132" s="79" t="s">
+        <v>337</v>
+      </c>
+      <c r="H132" s="79" t="s">
+        <v>325</v>
+      </c>
+      <c r="I132" s="80"/>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A133" s="74"/>
+      <c r="B133" s="75"/>
+      <c r="C133" s="76"/>
+      <c r="D133" s="75">
+        <v>2</v>
+      </c>
+      <c r="E133" s="77"/>
+      <c r="F133" s="78" t="s">
+        <v>434</v>
+      </c>
+      <c r="G133" s="79" t="s">
+        <v>337</v>
+      </c>
+      <c r="H133" s="79" t="s">
+        <v>325</v>
+      </c>
+      <c r="I133" s="80"/>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A134" s="53">
+        <v>37</v>
+      </c>
+      <c r="B134" s="54" t="s">
+        <v>166</v>
+      </c>
+      <c r="C134" s="55">
+        <v>99198</v>
+      </c>
+      <c r="D134" s="54">
+        <v>0</v>
+      </c>
+      <c r="E134" s="64">
+        <v>99198</v>
+      </c>
+      <c r="F134" s="56" t="s">
+        <v>435</v>
+      </c>
+      <c r="G134" s="57"/>
+      <c r="H134" s="57"/>
+      <c r="I134" s="58" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A135" s="74"/>
+      <c r="B135" s="75"/>
+      <c r="C135" s="76"/>
+      <c r="D135" s="75">
+        <v>1</v>
+      </c>
+      <c r="E135" s="77"/>
+      <c r="F135" s="78" t="s">
+        <v>436</v>
+      </c>
+      <c r="G135" s="79" t="s">
+        <v>337</v>
+      </c>
+      <c r="H135" s="79" t="s">
+        <v>324</v>
+      </c>
+      <c r="I135" s="80"/>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A136" s="74"/>
+      <c r="B136" s="75"/>
+      <c r="C136" s="76"/>
+      <c r="D136" s="75">
+        <v>2</v>
+      </c>
+      <c r="E136" s="77"/>
+      <c r="F136" s="78" t="s">
+        <v>437</v>
+      </c>
+      <c r="G136" s="79" t="s">
+        <v>328</v>
+      </c>
+      <c r="H136" s="79" t="s">
+        <v>324</v>
+      </c>
+      <c r="I136" s="80"/>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A137" s="74"/>
+      <c r="B137" s="75"/>
+      <c r="C137" s="76"/>
+      <c r="D137" s="75">
+        <v>3</v>
+      </c>
+      <c r="E137" s="77"/>
+      <c r="F137" s="78" t="s">
+        <v>332</v>
+      </c>
+      <c r="G137" s="79" t="s">
+        <v>337</v>
+      </c>
+      <c r="H137" s="79" t="s">
+        <v>324</v>
+      </c>
+      <c r="I137" s="80"/>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A138" s="53">
+        <v>38</v>
+      </c>
+      <c r="B138" s="54" t="s">
+        <v>168</v>
+      </c>
+      <c r="C138" s="55">
+        <v>99200</v>
+      </c>
+      <c r="D138" s="54">
+        <v>0</v>
+      </c>
+      <c r="E138" s="64">
+        <v>99200</v>
+      </c>
+      <c r="F138" s="56" t="s">
+        <v>438</v>
+      </c>
+      <c r="G138" s="57"/>
+      <c r="H138" s="57"/>
+      <c r="I138" s="58" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A139" s="74"/>
+      <c r="B139" s="75"/>
+      <c r="C139" s="76"/>
+      <c r="D139" s="75">
+        <v>1</v>
+      </c>
+      <c r="E139" s="77"/>
+      <c r="F139" s="78" t="s">
+        <v>390</v>
+      </c>
+      <c r="G139" s="79" t="s">
+        <v>337</v>
+      </c>
+      <c r="H139" s="79" t="s">
+        <v>324</v>
+      </c>
+      <c r="I139" s="80"/>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A140" s="74"/>
+      <c r="B140" s="75"/>
+      <c r="C140" s="76"/>
+      <c r="D140" s="75">
+        <v>2</v>
+      </c>
+      <c r="E140" s="77"/>
+      <c r="F140" s="78" t="s">
+        <v>398</v>
+      </c>
+      <c r="G140" s="79" t="s">
+        <v>337</v>
+      </c>
+      <c r="H140" s="79" t="s">
+        <v>325</v>
+      </c>
+      <c r="I140" s="80"/>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A141" s="74"/>
+      <c r="B141" s="75"/>
+      <c r="C141" s="76"/>
+      <c r="D141" s="75">
+        <v>3</v>
+      </c>
+      <c r="E141" s="77"/>
+      <c r="F141" s="78" t="s">
+        <v>439</v>
+      </c>
+      <c r="G141" s="79" t="s">
+        <v>337</v>
+      </c>
+      <c r="H141" s="79" t="s">
+        <v>325</v>
+      </c>
+      <c r="I141" s="80"/>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A142" s="53">
+        <v>39</v>
+      </c>
+      <c r="B142" s="54" t="s">
+        <v>170</v>
+      </c>
+      <c r="C142" s="55">
+        <v>99197</v>
+      </c>
+      <c r="D142" s="54">
+        <v>0</v>
+      </c>
+      <c r="E142" s="64">
+        <v>99197</v>
+      </c>
+      <c r="F142" s="56" t="s">
+        <v>440</v>
+      </c>
+      <c r="G142" s="57"/>
+      <c r="H142" s="57"/>
+      <c r="I142" s="58" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A143" s="74"/>
+      <c r="B143" s="75"/>
+      <c r="C143" s="76"/>
+      <c r="D143" s="75">
+        <v>1</v>
+      </c>
+      <c r="E143" s="77"/>
+      <c r="F143" s="78" t="s">
+        <v>441</v>
+      </c>
+      <c r="G143" s="79" t="s">
+        <v>328</v>
+      </c>
+      <c r="H143" s="79" t="s">
+        <v>374</v>
+      </c>
+      <c r="I143" s="80"/>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A144" s="74"/>
+      <c r="B144" s="75"/>
+      <c r="C144" s="76"/>
+      <c r="D144" s="75">
+        <v>2</v>
+      </c>
+      <c r="E144" s="77"/>
+      <c r="F144" s="78" t="s">
+        <v>442</v>
+      </c>
+      <c r="G144" s="79" t="s">
+        <v>328</v>
+      </c>
+      <c r="H144" s="79" t="s">
+        <v>324</v>
+      </c>
+      <c r="I144" s="80"/>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A145" s="74"/>
+      <c r="B145" s="75"/>
+      <c r="C145" s="76"/>
+      <c r="D145" s="75">
+        <v>3</v>
+      </c>
+      <c r="E145" s="77"/>
+      <c r="F145" s="78" t="s">
+        <v>443</v>
+      </c>
+      <c r="G145" s="79" t="s">
+        <v>328</v>
+      </c>
+      <c r="H145" s="79" t="s">
+        <v>324</v>
+      </c>
+      <c r="I145" s="80"/>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A146" s="53">
+        <v>40</v>
+      </c>
+      <c r="B146" s="54" t="s">
+        <v>172</v>
+      </c>
+      <c r="C146" s="55">
+        <v>99201</v>
+      </c>
+      <c r="D146" s="54">
+        <v>0</v>
+      </c>
+      <c r="E146" s="64">
+        <v>99201</v>
+      </c>
+      <c r="F146" s="56" t="s">
+        <v>415</v>
+      </c>
+      <c r="G146" s="57"/>
+      <c r="H146" s="57"/>
+      <c r="I146" s="58" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A147" s="74"/>
+      <c r="B147" s="75"/>
+      <c r="C147" s="76"/>
+      <c r="D147" s="75">
+        <v>1</v>
+      </c>
+      <c r="E147" s="77"/>
+      <c r="F147" s="78" t="s">
+        <v>444</v>
+      </c>
+      <c r="G147" s="79" t="s">
+        <v>337</v>
+      </c>
+      <c r="H147" s="79" t="s">
+        <v>325</v>
+      </c>
+      <c r="I147" s="80"/>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A148" s="74"/>
+      <c r="B148" s="75"/>
+      <c r="C148" s="76"/>
+      <c r="D148" s="75">
+        <v>2</v>
+      </c>
+      <c r="E148" s="77"/>
+      <c r="F148" s="78" t="s">
+        <v>424</v>
+      </c>
+      <c r="G148" s="79" t="s">
+        <v>337</v>
+      </c>
+      <c r="H148" s="79" t="s">
+        <v>325</v>
+      </c>
+      <c r="I148" s="80"/>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A149" s="74"/>
+      <c r="B149" s="75"/>
+      <c r="C149" s="76"/>
+      <c r="D149" s="75">
+        <v>3</v>
+      </c>
+      <c r="E149" s="77"/>
+      <c r="F149" s="78" t="s">
+        <v>444</v>
+      </c>
+      <c r="G149" s="79" t="s">
+        <v>337</v>
+      </c>
+      <c r="H149" s="79" t="s">
+        <v>325</v>
+      </c>
+      <c r="I149" s="80"/>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A150" s="53">
+        <v>41</v>
+      </c>
+      <c r="B150" s="54" t="s">
+        <v>174</v>
+      </c>
+      <c r="C150" s="55" t="s">
+        <v>175</v>
+      </c>
+      <c r="D150" s="54">
+        <v>0</v>
+      </c>
+      <c r="E150" s="64" t="s">
+        <v>427</v>
+      </c>
+      <c r="F150" s="56" t="s">
+        <v>429</v>
+      </c>
+      <c r="G150" s="57"/>
+      <c r="H150" s="57"/>
+      <c r="I150" s="58" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A151" s="74"/>
+      <c r="B151" s="75"/>
+      <c r="C151" s="76"/>
+      <c r="D151" s="75">
+        <v>1</v>
+      </c>
+      <c r="E151" s="77"/>
+      <c r="F151" s="78" t="s">
+        <v>364</v>
+      </c>
+      <c r="G151" s="79" t="s">
+        <v>328</v>
+      </c>
+      <c r="H151" s="79" t="s">
+        <v>324</v>
+      </c>
+      <c r="I151" s="80"/>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A152" s="74"/>
+      <c r="B152" s="75"/>
+      <c r="C152" s="76"/>
+      <c r="D152" s="75">
+        <v>2</v>
+      </c>
+      <c r="E152" s="77"/>
+      <c r="F152" s="78" t="s">
+        <v>446</v>
+      </c>
+      <c r="G152" s="79" t="s">
+        <v>328</v>
+      </c>
+      <c r="H152" s="79" t="s">
+        <v>324</v>
+      </c>
+      <c r="I152" s="80"/>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A153" s="53">
+        <v>42</v>
+      </c>
+      <c r="B153" s="54" t="s">
+        <v>177</v>
+      </c>
+      <c r="C153" s="55">
+        <v>99198</v>
+      </c>
+      <c r="D153" s="54">
+        <v>0</v>
+      </c>
+      <c r="E153" s="64">
+        <v>99198</v>
+      </c>
+      <c r="F153" s="56" t="s">
+        <v>376</v>
+      </c>
+      <c r="G153" s="57"/>
+      <c r="H153" s="57"/>
+      <c r="I153" s="58" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A154" s="74"/>
+      <c r="B154" s="75"/>
+      <c r="C154" s="76"/>
+      <c r="D154" s="75">
+        <v>1</v>
+      </c>
+      <c r="E154" s="77"/>
+      <c r="F154" s="78" t="s">
+        <v>447</v>
+      </c>
+      <c r="G154" s="79" t="s">
+        <v>337</v>
+      </c>
+      <c r="H154" s="79" t="s">
+        <v>374</v>
+      </c>
+      <c r="I154" s="80"/>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A155" s="74"/>
+      <c r="B155" s="75"/>
+      <c r="C155" s="76"/>
+      <c r="D155" s="75">
+        <v>2</v>
+      </c>
+      <c r="E155" s="77"/>
+      <c r="F155" s="78" t="s">
+        <v>383</v>
+      </c>
+      <c r="G155" s="79" t="s">
+        <v>328</v>
+      </c>
+      <c r="H155" s="79" t="s">
+        <v>325</v>
+      </c>
+      <c r="I155" s="80"/>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A156" s="74"/>
+      <c r="B156" s="75"/>
+      <c r="C156" s="76"/>
+      <c r="D156" s="75">
+        <v>3</v>
+      </c>
+      <c r="E156" s="77"/>
+      <c r="F156" s="78" t="s">
+        <v>383</v>
+      </c>
+      <c r="G156" s="79" t="s">
+        <v>328</v>
+      </c>
+      <c r="H156" s="79" t="s">
+        <v>325</v>
+      </c>
+      <c r="I156" s="80"/>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A157" s="53">
+        <v>43</v>
+      </c>
+      <c r="B157" s="54" t="s">
+        <v>179</v>
+      </c>
+      <c r="C157" s="55">
+        <v>99203</v>
+      </c>
+      <c r="D157" s="54">
+        <v>0</v>
+      </c>
+      <c r="E157" s="64">
+        <v>99203</v>
+      </c>
+      <c r="F157" s="56" t="s">
+        <v>438</v>
+      </c>
+      <c r="G157" s="57"/>
+      <c r="H157" s="57"/>
+      <c r="I157" s="58" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A158" s="74"/>
+      <c r="B158" s="75"/>
+      <c r="C158" s="76"/>
+      <c r="D158" s="75">
+        <v>1</v>
+      </c>
+      <c r="E158" s="77"/>
+      <c r="F158" s="78" t="s">
+        <v>448</v>
+      </c>
+      <c r="G158" s="79" t="s">
+        <v>328</v>
+      </c>
+      <c r="H158" s="79" t="s">
+        <v>325</v>
+      </c>
+      <c r="I158" s="80"/>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A159" s="74"/>
+      <c r="B159" s="75"/>
+      <c r="C159" s="76"/>
+      <c r="D159" s="75">
+        <v>2</v>
+      </c>
+      <c r="E159" s="77"/>
+      <c r="F159" s="78" t="s">
+        <v>449</v>
+      </c>
+      <c r="G159" s="79" t="s">
+        <v>328</v>
+      </c>
+      <c r="H159" s="79" t="s">
+        <v>325</v>
+      </c>
+      <c r="I159" s="80"/>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A160" s="74"/>
+      <c r="B160" s="75"/>
+      <c r="C160" s="76"/>
+      <c r="D160" s="75">
+        <v>3</v>
+      </c>
+      <c r="E160" s="77"/>
+      <c r="F160" s="78" t="s">
+        <v>450</v>
+      </c>
+      <c r="G160" s="79" t="s">
+        <v>328</v>
+      </c>
+      <c r="H160" s="79" t="s">
+        <v>325</v>
+      </c>
+      <c r="I160" s="80"/>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A161" s="53">
+        <v>44</v>
+      </c>
+      <c r="B161" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="C161" s="55">
+        <v>99203</v>
+      </c>
+      <c r="D161" s="54">
+        <v>0</v>
+      </c>
+      <c r="E161" s="64">
+        <v>99203</v>
+      </c>
+      <c r="F161" s="56" t="s">
+        <v>438</v>
+      </c>
+      <c r="G161" s="57"/>
+      <c r="H161" s="57"/>
+      <c r="I161" s="58" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A162" s="74"/>
+      <c r="B162" s="75"/>
+      <c r="C162" s="76"/>
+      <c r="D162" s="75">
+        <v>1</v>
+      </c>
+      <c r="E162" s="77"/>
+      <c r="F162" s="78" t="s">
+        <v>451</v>
+      </c>
+      <c r="G162" s="79" t="s">
+        <v>328</v>
+      </c>
+      <c r="H162" s="79" t="s">
+        <v>325</v>
+      </c>
+      <c r="I162" s="80"/>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A163" s="74"/>
+      <c r="B163" s="75"/>
+      <c r="C163" s="76"/>
+      <c r="D163" s="75">
+        <v>2</v>
+      </c>
+      <c r="E163" s="77"/>
+      <c r="F163" s="78" t="s">
+        <v>452</v>
+      </c>
+      <c r="G163" s="79" t="s">
+        <v>328</v>
+      </c>
+      <c r="H163" s="79" t="s">
+        <v>324</v>
+      </c>
+      <c r="I163" s="80"/>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A164" s="53">
+        <v>45</v>
+      </c>
+      <c r="B164" s="54" t="s">
+        <v>183</v>
+      </c>
+      <c r="C164" s="55">
+        <v>99199</v>
+      </c>
+      <c r="D164" s="54">
+        <v>0</v>
+      </c>
+      <c r="E164" s="64">
+        <v>99199</v>
+      </c>
+      <c r="F164" s="56" t="s">
+        <v>453</v>
+      </c>
+      <c r="G164" s="57"/>
+      <c r="H164" s="57"/>
+      <c r="I164" s="58" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A165" s="74"/>
+      <c r="B165" s="75"/>
+      <c r="C165" s="76"/>
+      <c r="D165" s="75">
+        <v>1</v>
+      </c>
+      <c r="E165" s="77"/>
+      <c r="F165" s="78" t="s">
+        <v>454</v>
+      </c>
+      <c r="G165" s="79" t="s">
+        <v>337</v>
+      </c>
+      <c r="H165" s="79" t="s">
+        <v>325</v>
+      </c>
+      <c r="I165" s="80"/>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A166" s="53">
+        <v>46</v>
+      </c>
+      <c r="B166" s="54" t="s">
+        <v>185</v>
+      </c>
+      <c r="C166" s="55">
+        <v>99203</v>
+      </c>
+      <c r="D166" s="54">
+        <v>0</v>
+      </c>
+      <c r="E166" s="64">
+        <v>99204</v>
+      </c>
+      <c r="F166" s="56" t="s">
+        <v>455</v>
+      </c>
+      <c r="G166" s="57"/>
+      <c r="H166" s="57"/>
+      <c r="I166" s="58" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A167" s="74"/>
+      <c r="B167" s="75"/>
+      <c r="C167" s="76"/>
+      <c r="D167" s="75">
+        <v>1</v>
+      </c>
+      <c r="E167" s="77"/>
+      <c r="F167" s="78" t="s">
+        <v>451</v>
+      </c>
+      <c r="G167" s="79" t="s">
+        <v>337</v>
+      </c>
+      <c r="H167" s="79" t="s">
+        <v>325</v>
+      </c>
+      <c r="I167" s="80"/>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A168" s="74"/>
+      <c r="B168" s="75"/>
+      <c r="C168" s="76"/>
+      <c r="D168" s="75">
+        <v>2</v>
+      </c>
+      <c r="E168" s="77"/>
+      <c r="F168" s="78" t="s">
+        <v>425</v>
+      </c>
+      <c r="G168" s="79" t="s">
+        <v>328</v>
+      </c>
+      <c r="H168" s="79" t="s">
+        <v>324</v>
+      </c>
+      <c r="I168" s="80"/>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A169" s="74"/>
+      <c r="B169" s="75"/>
+      <c r="C169" s="76"/>
+      <c r="D169" s="75">
+        <v>3</v>
+      </c>
+      <c r="E169" s="77"/>
+      <c r="F169" s="78" t="s">
+        <v>381</v>
+      </c>
+      <c r="G169" s="79" t="s">
+        <v>337</v>
+      </c>
+      <c r="H169" s="79" t="s">
+        <v>324</v>
+      </c>
+      <c r="I169" s="80"/>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A170" s="74"/>
+      <c r="B170" s="75"/>
+      <c r="C170" s="76"/>
+      <c r="D170" s="75">
+        <v>4</v>
+      </c>
+      <c r="E170" s="77"/>
+      <c r="F170" s="78" t="s">
+        <v>425</v>
+      </c>
+      <c r="G170" s="79" t="s">
+        <v>328</v>
+      </c>
+      <c r="H170" s="79" t="s">
+        <v>324</v>
+      </c>
+      <c r="I170" s="80"/>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A171" s="74"/>
+      <c r="B171" s="75"/>
+      <c r="C171" s="76"/>
+      <c r="D171" s="75">
+        <v>5</v>
+      </c>
+      <c r="E171" s="77"/>
+      <c r="F171" s="78" t="s">
+        <v>381</v>
+      </c>
+      <c r="G171" s="79" t="s">
+        <v>328</v>
+      </c>
+      <c r="H171" s="79" t="s">
+        <v>324</v>
+      </c>
+      <c r="I171" s="80"/>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A172" s="53">
+        <v>47</v>
+      </c>
+      <c r="B172" s="54" t="s">
+        <v>187</v>
+      </c>
+      <c r="C172" s="55">
+        <v>99204</v>
+      </c>
+      <c r="D172" s="54">
+        <v>0</v>
+      </c>
+      <c r="E172" s="64">
+        <v>99204</v>
+      </c>
+      <c r="F172" s="56" t="s">
+        <v>362</v>
+      </c>
+      <c r="G172" s="57"/>
+      <c r="H172" s="57"/>
+      <c r="I172" s="58" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A173" s="74"/>
+      <c r="B173" s="75"/>
+      <c r="C173" s="76"/>
+      <c r="D173" s="75">
+        <v>1</v>
+      </c>
+      <c r="E173" s="77"/>
+      <c r="F173" s="78" t="s">
+        <v>422</v>
+      </c>
+      <c r="G173" s="79" t="s">
+        <v>337</v>
+      </c>
+      <c r="H173" s="79" t="s">
+        <v>324</v>
+      </c>
+      <c r="I173" s="80"/>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A174" s="74"/>
+      <c r="B174" s="75"/>
+      <c r="C174" s="76"/>
+      <c r="D174" s="75">
+        <v>2</v>
+      </c>
+      <c r="E174" s="77"/>
+      <c r="F174" s="78" t="s">
+        <v>456</v>
+      </c>
+      <c r="G174" s="79" t="s">
+        <v>328</v>
+      </c>
+      <c r="H174" s="79" t="s">
+        <v>325</v>
+      </c>
+      <c r="I174" s="80"/>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A175" s="74"/>
+      <c r="B175" s="75"/>
+      <c r="C175" s="76"/>
+      <c r="D175" s="75">
+        <v>3</v>
+      </c>
+      <c r="E175" s="77"/>
+      <c r="F175" s="78" t="s">
+        <v>422</v>
+      </c>
+      <c r="G175" s="79" t="s">
+        <v>337</v>
+      </c>
+      <c r="H175" s="79" t="s">
+        <v>324</v>
+      </c>
+      <c r="I175" s="80"/>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A176" s="53">
+        <v>48</v>
+      </c>
+      <c r="B176" s="54" t="s">
+        <v>189</v>
+      </c>
+      <c r="C176" s="55" t="s">
+        <v>175</v>
+      </c>
+      <c r="D176" s="54">
+        <v>0</v>
+      </c>
+      <c r="E176" s="64" t="s">
+        <v>445</v>
+      </c>
+      <c r="F176" s="56" t="s">
+        <v>457</v>
+      </c>
+      <c r="G176" s="57"/>
+      <c r="H176" s="57"/>
+      <c r="I176" s="58" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A177" s="74"/>
+      <c r="B177" s="75"/>
+      <c r="C177" s="76"/>
+      <c r="D177" s="75">
+        <v>1</v>
+      </c>
+      <c r="E177" s="77"/>
+      <c r="F177" s="78" t="s">
+        <v>458</v>
+      </c>
+      <c r="G177" s="79" t="s">
+        <v>328</v>
+      </c>
+      <c r="H177" s="79" t="s">
+        <v>324</v>
+      </c>
+      <c r="I177" s="80"/>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A178" s="74"/>
+      <c r="B178" s="75"/>
+      <c r="C178" s="76"/>
+      <c r="D178" s="75">
+        <v>2</v>
+      </c>
+      <c r="E178" s="77"/>
+      <c r="F178" s="78" t="s">
+        <v>386</v>
+      </c>
+      <c r="G178" s="79" t="s">
+        <v>337</v>
+      </c>
+      <c r="H178" s="79" t="s">
+        <v>325</v>
+      </c>
+      <c r="I178" s="80"/>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A179" s="74"/>
+      <c r="B179" s="75"/>
+      <c r="C179" s="76"/>
+      <c r="D179" s="75">
+        <v>3</v>
+      </c>
+      <c r="E179" s="77"/>
+      <c r="F179" s="78" t="s">
+        <v>459</v>
+      </c>
+      <c r="G179" s="79" t="s">
+        <v>328</v>
+      </c>
+      <c r="H179" s="79" t="s">
+        <v>324</v>
+      </c>
+      <c r="I179" s="80"/>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A180" s="53">
+        <v>49</v>
+      </c>
+      <c r="B180" s="54" t="s">
+        <v>191</v>
+      </c>
+      <c r="C180" s="55">
+        <v>99207</v>
+      </c>
+      <c r="D180" s="54">
+        <v>0</v>
+      </c>
+      <c r="E180" s="64">
+        <v>99207</v>
+      </c>
+      <c r="F180" s="56" t="s">
         <v>329</v>
       </c>
-      <c r="H4" s="38" t="s">
+      <c r="G180" s="57"/>
+      <c r="H180" s="57"/>
+      <c r="I180" s="58" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A181" s="74"/>
+      <c r="B181" s="75"/>
+      <c r="C181" s="76"/>
+      <c r="D181" s="75">
+        <v>1</v>
+      </c>
+      <c r="E181" s="77"/>
+      <c r="F181" s="78" t="s">
+        <v>460</v>
+      </c>
+      <c r="G181" s="79" t="s">
+        <v>337</v>
+      </c>
+      <c r="H181" s="79" t="s">
+        <v>325</v>
+      </c>
+      <c r="I181" s="80"/>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A182" s="74"/>
+      <c r="B182" s="75"/>
+      <c r="C182" s="76"/>
+      <c r="D182" s="75">
+        <v>2</v>
+      </c>
+      <c r="E182" s="77"/>
+      <c r="F182" s="78" t="s">
+        <v>461</v>
+      </c>
+      <c r="G182" s="79" t="s">
+        <v>337</v>
+      </c>
+      <c r="H182" s="79" t="s">
+        <v>325</v>
+      </c>
+      <c r="I182" s="80"/>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A183" s="53">
+        <v>50</v>
+      </c>
+      <c r="B183" s="54" t="s">
+        <v>193</v>
+      </c>
+      <c r="C183" s="55">
+        <v>99207</v>
+      </c>
+      <c r="D183" s="54">
+        <v>0</v>
+      </c>
+      <c r="E183" s="64">
+        <v>99207</v>
+      </c>
+      <c r="F183" s="56" t="s">
+        <v>471</v>
+      </c>
+      <c r="G183" s="57"/>
+      <c r="H183" s="57"/>
+      <c r="I183" s="58" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A184" s="74"/>
+      <c r="B184" s="75"/>
+      <c r="C184" s="76"/>
+      <c r="D184" s="75">
+        <v>1</v>
+      </c>
+      <c r="E184" s="77"/>
+      <c r="F184" s="78" t="s">
+        <v>390</v>
+      </c>
+      <c r="G184" s="79" t="s">
+        <v>356</v>
+      </c>
+      <c r="H184" s="79" t="s">
         <v>324</v>
       </c>
-      <c r="I4" s="39"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="49"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="24">
+      <c r="I184" s="80"/>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A185" s="74"/>
+      <c r="B185" s="75"/>
+      <c r="C185" s="76"/>
+      <c r="D185" s="75">
         <v>2</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="37" t="s">
-        <v>323</v>
-      </c>
-      <c r="G5" s="38" t="s">
-        <v>329</v>
-      </c>
-      <c r="H5" s="38" t="s">
+      <c r="E185" s="77"/>
+      <c r="F185" s="78" t="s">
+        <v>406</v>
+      </c>
+      <c r="G185" s="79" t="s">
+        <v>384</v>
+      </c>
+      <c r="H185" s="79" t="s">
+        <v>324</v>
+      </c>
+      <c r="I185" s="80"/>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A186" s="74"/>
+      <c r="B186" s="75"/>
+      <c r="C186" s="76"/>
+      <c r="D186" s="75">
+        <v>3</v>
+      </c>
+      <c r="E186" s="77"/>
+      <c r="F186" s="78" t="s">
+        <v>390</v>
+      </c>
+      <c r="G186" s="79" t="s">
+        <v>337</v>
+      </c>
+      <c r="H186" s="79" t="s">
+        <v>324</v>
+      </c>
+      <c r="I186" s="80"/>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A187" s="53">
+        <v>51</v>
+      </c>
+      <c r="B187" s="54" t="s">
+        <v>195</v>
+      </c>
+      <c r="C187" s="55">
+        <v>99208</v>
+      </c>
+      <c r="D187" s="54">
+        <v>0</v>
+      </c>
+      <c r="E187" s="64">
+        <v>99208</v>
+      </c>
+      <c r="F187" s="56" t="s">
+        <v>462</v>
+      </c>
+      <c r="G187" s="57"/>
+      <c r="H187" s="57"/>
+      <c r="I187" s="58" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A188" s="74"/>
+      <c r="B188" s="75"/>
+      <c r="C188" s="76"/>
+      <c r="D188" s="75">
+        <v>1</v>
+      </c>
+      <c r="E188" s="77"/>
+      <c r="F188" s="78" t="s">
+        <v>363</v>
+      </c>
+      <c r="G188" s="79" t="s">
+        <v>328</v>
+      </c>
+      <c r="H188" s="79" t="s">
+        <v>324</v>
+      </c>
+      <c r="I188" s="80"/>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A189" s="74"/>
+      <c r="B189" s="75"/>
+      <c r="C189" s="76"/>
+      <c r="D189" s="75">
+        <v>2</v>
+      </c>
+      <c r="E189" s="77"/>
+      <c r="F189" s="78" t="s">
+        <v>463</v>
+      </c>
+      <c r="G189" s="79" t="s">
+        <v>328</v>
+      </c>
+      <c r="H189" s="79" t="s">
+        <v>324</v>
+      </c>
+      <c r="I189" s="80"/>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A190" s="74"/>
+      <c r="B190" s="75"/>
+      <c r="C190" s="76"/>
+      <c r="D190" s="75">
+        <v>3</v>
+      </c>
+      <c r="E190" s="77"/>
+      <c r="F190" s="78" t="s">
+        <v>464</v>
+      </c>
+      <c r="G190" s="79" t="s">
+        <v>328</v>
+      </c>
+      <c r="H190" s="79" t="s">
         <v>325</v>
       </c>
-      <c r="I5" s="39"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="61">
+      <c r="I190" s="80"/>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A191" s="74"/>
+      <c r="B191" s="75"/>
+      <c r="C191" s="76"/>
+      <c r="D191" s="75">
+        <v>4</v>
+      </c>
+      <c r="E191" s="77"/>
+      <c r="F191" s="78" t="s">
+        <v>465</v>
+      </c>
+      <c r="G191" s="79" t="s">
+        <v>328</v>
+      </c>
+      <c r="H191" s="79" t="s">
+        <v>325</v>
+      </c>
+      <c r="I191" s="80"/>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A192" s="53">
+        <v>52</v>
+      </c>
+      <c r="B192" s="54" t="s">
+        <v>197</v>
+      </c>
+      <c r="C192" s="55">
+        <v>99208</v>
+      </c>
+      <c r="D192" s="54">
+        <v>0</v>
+      </c>
+      <c r="E192" s="64">
+        <v>99208</v>
+      </c>
+      <c r="F192" s="56" t="s">
+        <v>362</v>
+      </c>
+      <c r="G192" s="57"/>
+      <c r="H192" s="57"/>
+      <c r="I192" s="58" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A193" s="74"/>
+      <c r="B193" s="75"/>
+      <c r="C193" s="76"/>
+      <c r="D193" s="75">
+        <v>1</v>
+      </c>
+      <c r="E193" s="77"/>
+      <c r="F193" s="78" t="s">
+        <v>364</v>
+      </c>
+      <c r="G193" s="79" t="s">
+        <v>328</v>
+      </c>
+      <c r="H193" s="79" t="s">
+        <v>324</v>
+      </c>
+      <c r="I193" s="80"/>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A194" s="74"/>
+      <c r="B194" s="75"/>
+      <c r="C194" s="76"/>
+      <c r="D194" s="75">
         <v>2</v>
       </c>
-      <c r="B6" s="62" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" s="63">
-        <v>99183</v>
-      </c>
-      <c r="D6" s="62">
+      <c r="E194" s="77"/>
+      <c r="F194" s="78" t="s">
+        <v>422</v>
+      </c>
+      <c r="G194" s="79" t="s">
+        <v>328</v>
+      </c>
+      <c r="H194" s="79" t="s">
+        <v>324</v>
+      </c>
+      <c r="I194" s="80"/>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A195" s="53">
+        <v>53</v>
+      </c>
+      <c r="B195" s="54" t="s">
+        <v>199</v>
+      </c>
+      <c r="C195" s="55">
+        <v>99207</v>
+      </c>
+      <c r="D195" s="54">
         <v>0</v>
       </c>
-      <c r="E6" s="68"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="67" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="23"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="24">
+      <c r="E195" s="64">
+        <v>99207</v>
+      </c>
+      <c r="F195" s="56" t="s">
+        <v>466</v>
+      </c>
+      <c r="G195" s="57"/>
+      <c r="H195" s="57"/>
+      <c r="I195" s="58" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A196" s="81"/>
+      <c r="B196" s="82"/>
+      <c r="C196" s="83"/>
+      <c r="D196" s="82">
         <v>1</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="39"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="23"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="24">
+      <c r="E196" s="84"/>
+      <c r="F196" s="85" t="s">
+        <v>467</v>
+      </c>
+      <c r="G196" s="86" t="s">
+        <v>328</v>
+      </c>
+      <c r="H196" s="86" t="s">
+        <v>324</v>
+      </c>
+      <c r="I196" s="87"/>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A197" s="74"/>
+      <c r="B197" s="75"/>
+      <c r="C197" s="76"/>
+      <c r="D197" s="75">
         <v>2</v>
       </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="39"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="69">
+      <c r="E197" s="77"/>
+      <c r="F197" s="78" t="s">
+        <v>468</v>
+      </c>
+      <c r="G197" s="79" t="s">
+        <v>328</v>
+      </c>
+      <c r="H197" s="79" t="s">
+        <v>324</v>
+      </c>
+      <c r="I197" s="80"/>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A198" s="53">
+        <v>54</v>
+      </c>
+      <c r="B198" s="54" t="s">
+        <v>201</v>
+      </c>
+      <c r="C198" s="55">
+        <v>99208</v>
+      </c>
+      <c r="D198" s="54">
+        <v>0</v>
+      </c>
+      <c r="E198" s="64">
+        <v>99208</v>
+      </c>
+      <c r="F198" s="56" t="s">
+        <v>462</v>
+      </c>
+      <c r="G198" s="57"/>
+      <c r="H198" s="57"/>
+      <c r="I198" s="58" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A199" s="74"/>
+      <c r="B199" s="75"/>
+      <c r="C199" s="76"/>
+      <c r="D199" s="75">
+        <v>1</v>
+      </c>
+      <c r="E199" s="77"/>
+      <c r="F199" s="78" t="s">
+        <v>469</v>
+      </c>
+      <c r="G199" s="79" t="s">
+        <v>328</v>
+      </c>
+      <c r="H199" s="79" t="s">
+        <v>324</v>
+      </c>
+      <c r="I199" s="80"/>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A200" s="53">
+        <v>55</v>
+      </c>
+      <c r="B200" s="54" t="s">
+        <v>203</v>
+      </c>
+      <c r="C200" s="55">
+        <v>99209</v>
+      </c>
+      <c r="D200" s="54">
+        <v>0</v>
+      </c>
+      <c r="E200" s="64">
+        <v>99209</v>
+      </c>
+      <c r="F200" s="56" t="s">
+        <v>470</v>
+      </c>
+      <c r="G200" s="57"/>
+      <c r="H200" s="57"/>
+      <c r="I200" s="58" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A201" s="74"/>
+      <c r="B201" s="75"/>
+      <c r="C201" s="76"/>
+      <c r="D201" s="75">
+        <v>1</v>
+      </c>
+      <c r="E201" s="77"/>
+      <c r="F201" s="78" t="s">
+        <v>451</v>
+      </c>
+      <c r="G201" s="79" t="s">
+        <v>328</v>
+      </c>
+      <c r="H201" s="79" t="s">
+        <v>325</v>
+      </c>
+      <c r="I201" s="80"/>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A202" s="74"/>
+      <c r="B202" s="75"/>
+      <c r="C202" s="76"/>
+      <c r="D202" s="75">
+        <v>2</v>
+      </c>
+      <c r="E202" s="77"/>
+      <c r="F202" s="78" t="s">
+        <v>472</v>
+      </c>
+      <c r="G202" s="79" t="s">
+        <v>337</v>
+      </c>
+      <c r="H202" s="79" t="s">
+        <v>325</v>
+      </c>
+      <c r="I202" s="80"/>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A203" s="74"/>
+      <c r="B203" s="75"/>
+      <c r="C203" s="76"/>
+      <c r="D203" s="75">
         <v>3</v>
       </c>
-      <c r="B9" s="70" t="s">
-        <v>98</v>
-      </c>
-      <c r="C9" s="71">
-        <v>99185</v>
-      </c>
-      <c r="D9" s="70"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="75" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="69">
+      <c r="E203" s="77"/>
+      <c r="F203" s="78" t="s">
+        <v>439</v>
+      </c>
+      <c r="G203" s="79" t="s">
+        <v>328</v>
+      </c>
+      <c r="H203" s="79" t="s">
+        <v>325</v>
+      </c>
+      <c r="I203" s="80"/>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A204" s="74"/>
+      <c r="B204" s="75"/>
+      <c r="C204" s="76"/>
+      <c r="D204" s="75">
         <v>4</v>
       </c>
-      <c r="B10" s="70" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="71">
-        <v>99186</v>
-      </c>
-      <c r="D10" s="70"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="75" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="69">
-        <v>5</v>
-      </c>
-      <c r="B11" s="70" t="s">
-        <v>102</v>
-      </c>
-      <c r="C11" s="71">
-        <v>99186</v>
-      </c>
-      <c r="D11" s="70"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="74"/>
-      <c r="I11" s="75" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="69">
-        <v>6</v>
-      </c>
-      <c r="B12" s="70" t="s">
-        <v>104</v>
-      </c>
-      <c r="C12" s="71">
-        <v>99171</v>
-      </c>
-      <c r="D12" s="70"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
-      <c r="I12" s="75" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="69">
-        <v>7</v>
-      </c>
-      <c r="B13" s="70" t="s">
-        <v>106</v>
-      </c>
-      <c r="C13" s="71">
-        <v>99186</v>
-      </c>
-      <c r="D13" s="70"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="75" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="69">
-        <v>8</v>
-      </c>
-      <c r="B14" s="70" t="s">
-        <v>108</v>
-      </c>
-      <c r="C14" s="71">
-        <v>99172</v>
-      </c>
-      <c r="D14" s="70"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
-      <c r="I14" s="75" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="69">
-        <v>9</v>
-      </c>
-      <c r="B15" s="70" t="s">
-        <v>110</v>
-      </c>
-      <c r="C15" s="71">
-        <v>99186</v>
-      </c>
-      <c r="D15" s="70"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="74"/>
-      <c r="I15" s="75" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="69">
-        <v>10</v>
-      </c>
-      <c r="B16" s="70" t="s">
-        <v>112</v>
-      </c>
-      <c r="C16" s="71">
-        <v>99172</v>
-      </c>
-      <c r="D16" s="70"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="74"/>
-      <c r="I16" s="75" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="76">
-        <v>11</v>
-      </c>
-      <c r="B17" s="77" t="s">
-        <v>114</v>
-      </c>
-      <c r="C17" s="78">
-        <v>99186</v>
-      </c>
-      <c r="D17" s="77"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="82"/>
-      <c r="I17" s="60" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="83">
-        <v>12</v>
-      </c>
-      <c r="B18" s="56" t="s">
-        <v>116</v>
-      </c>
-      <c r="C18" s="57">
-        <v>99173</v>
-      </c>
-      <c r="D18" s="56"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="60" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="83">
-        <v>13</v>
-      </c>
-      <c r="B19" s="56" t="s">
-        <v>118</v>
-      </c>
-      <c r="C19" s="57">
-        <v>99186</v>
-      </c>
-      <c r="D19" s="56"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="60" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" s="49">
-        <v>14</v>
-      </c>
-      <c r="B20" s="51" t="s">
-        <v>120</v>
-      </c>
-      <c r="C20" s="52">
-        <v>99173</v>
-      </c>
-      <c r="D20" s="51"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="55" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" s="69">
-        <v>15</v>
-      </c>
-      <c r="B21" s="70" t="s">
-        <v>122</v>
-      </c>
-      <c r="C21" s="71">
-        <v>99186</v>
-      </c>
-      <c r="D21" s="70"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="74"/>
-      <c r="H21" s="74"/>
-      <c r="I21" s="75" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" s="69">
-        <v>16</v>
-      </c>
-      <c r="B22" s="85" t="s">
-        <v>124</v>
-      </c>
-      <c r="C22" s="71">
-        <v>99189</v>
-      </c>
-      <c r="D22" s="70"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="74"/>
-      <c r="I22" s="75" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A23" s="69">
-        <v>17</v>
-      </c>
-      <c r="B23" s="70" t="s">
-        <v>126</v>
-      </c>
-      <c r="C23" s="71">
-        <v>99190</v>
-      </c>
-      <c r="D23" s="70"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="74"/>
-      <c r="I23" s="75" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A24" s="69">
-        <v>18</v>
-      </c>
-      <c r="B24" s="70" t="s">
-        <v>128</v>
-      </c>
-      <c r="C24" s="71" t="s">
-        <v>129</v>
-      </c>
-      <c r="D24" s="70"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="74"/>
-      <c r="I24" s="75" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A25" s="69">
-        <v>19</v>
-      </c>
-      <c r="B25" s="70" t="s">
-        <v>131</v>
-      </c>
-      <c r="C25" s="71">
-        <v>99172</v>
-      </c>
-      <c r="D25" s="70"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="74"/>
-      <c r="I25" s="75" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A26" s="69">
-        <v>20</v>
-      </c>
-      <c r="B26" s="70" t="s">
-        <v>133</v>
-      </c>
-      <c r="C26" s="71">
-        <v>99191</v>
-      </c>
-      <c r="D26" s="70"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="74"/>
-      <c r="I26" s="75" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27" s="69">
-        <v>21</v>
-      </c>
-      <c r="B27" s="70" t="s">
-        <v>135</v>
-      </c>
-      <c r="C27" s="71">
-        <v>99181</v>
-      </c>
-      <c r="D27" s="70"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="74"/>
-      <c r="H27" s="74"/>
-      <c r="I27" s="75" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A28" s="69">
-        <v>22</v>
-      </c>
-      <c r="B28" s="70" t="s">
-        <v>137</v>
-      </c>
-      <c r="C28" s="71">
-        <v>99192</v>
-      </c>
-      <c r="D28" s="70"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="74"/>
-      <c r="I28" s="75" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A29" s="69">
-        <v>23</v>
-      </c>
-      <c r="B29" s="70" t="s">
-        <v>139</v>
-      </c>
-      <c r="C29" s="71">
-        <v>99187</v>
-      </c>
-      <c r="D29" s="70"/>
-      <c r="E29" s="72"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="74"/>
-      <c r="H29" s="74"/>
-      <c r="I29" s="75" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A30" s="69">
-        <v>24</v>
-      </c>
-      <c r="B30" s="70" t="s">
-        <v>140</v>
-      </c>
-      <c r="C30" s="71">
-        <v>99194</v>
-      </c>
-      <c r="D30" s="70"/>
-      <c r="E30" s="72"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="74"/>
-      <c r="I30" s="75" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A31" s="69">
-        <v>25</v>
-      </c>
-      <c r="B31" s="70" t="s">
-        <v>142</v>
-      </c>
-      <c r="C31" s="71">
-        <v>99188</v>
-      </c>
-      <c r="D31" s="70"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="73"/>
-      <c r="G31" s="74"/>
-      <c r="H31" s="74"/>
-      <c r="I31" s="75" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A32" s="69">
-        <v>26</v>
-      </c>
-      <c r="B32" s="70" t="s">
-        <v>143</v>
-      </c>
-      <c r="C32" s="71">
-        <v>99193</v>
-      </c>
-      <c r="D32" s="70"/>
-      <c r="E32" s="72"/>
-      <c r="F32" s="73"/>
-      <c r="G32" s="74"/>
-      <c r="H32" s="74"/>
-      <c r="I32" s="75" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A33" s="69">
-        <v>27</v>
-      </c>
-      <c r="B33" s="70" t="s">
-        <v>145</v>
-      </c>
-      <c r="C33" s="71">
-        <v>99191</v>
-      </c>
-      <c r="D33" s="70"/>
-      <c r="E33" s="72"/>
-      <c r="F33" s="73"/>
-      <c r="G33" s="74"/>
-      <c r="H33" s="74"/>
-      <c r="I33" s="75" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A34" s="69">
-        <v>28</v>
-      </c>
-      <c r="B34" s="70" t="s">
-        <v>147</v>
-      </c>
-      <c r="C34" s="71">
-        <v>99194</v>
-      </c>
-      <c r="D34" s="70"/>
-      <c r="E34" s="72"/>
-      <c r="F34" s="73"/>
-      <c r="G34" s="74"/>
-      <c r="H34" s="74"/>
-      <c r="I34" s="75" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A35" s="69">
-        <v>29</v>
-      </c>
-      <c r="B35" s="70" t="s">
-        <v>149</v>
-      </c>
-      <c r="C35" s="71">
-        <v>99194</v>
-      </c>
-      <c r="D35" s="70"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="73"/>
-      <c r="G35" s="74"/>
-      <c r="H35" s="74"/>
-      <c r="I35" s="75" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A36" s="69">
-        <v>30</v>
-      </c>
-      <c r="B36" s="70" t="s">
-        <v>151</v>
-      </c>
-      <c r="C36" s="71">
-        <v>99195</v>
-      </c>
-      <c r="D36" s="70"/>
-      <c r="E36" s="72"/>
-      <c r="F36" s="73"/>
-      <c r="G36" s="74"/>
-      <c r="H36" s="74"/>
-      <c r="I36" s="75" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A37" s="69">
-        <v>31</v>
-      </c>
-      <c r="B37" s="70" t="s">
-        <v>153</v>
-      </c>
-      <c r="C37" s="71">
-        <v>99195</v>
-      </c>
-      <c r="D37" s="70"/>
-      <c r="E37" s="72"/>
-      <c r="F37" s="73"/>
-      <c r="G37" s="74"/>
-      <c r="H37" s="74"/>
-      <c r="I37" s="75" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A38" s="69">
-        <v>32</v>
-      </c>
-      <c r="B38" s="70" t="s">
-        <v>155</v>
-      </c>
-      <c r="C38" s="71">
-        <v>99196</v>
-      </c>
-      <c r="D38" s="70"/>
-      <c r="E38" s="72"/>
-      <c r="F38" s="73"/>
-      <c r="G38" s="74"/>
-      <c r="H38" s="74"/>
-      <c r="I38" s="75" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A39" s="69">
-        <v>33</v>
-      </c>
-      <c r="B39" s="70" t="s">
-        <v>157</v>
-      </c>
-      <c r="C39" s="71">
-        <v>99197</v>
-      </c>
-      <c r="D39" s="70"/>
-      <c r="E39" s="72"/>
-      <c r="F39" s="73"/>
-      <c r="G39" s="74"/>
-      <c r="H39" s="74"/>
-      <c r="I39" s="75" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A40" s="69">
-        <v>34</v>
-      </c>
-      <c r="B40" s="70" t="s">
-        <v>159</v>
-      </c>
-      <c r="C40" s="71" t="s">
-        <v>160</v>
-      </c>
-      <c r="D40" s="70"/>
-      <c r="E40" s="72"/>
-      <c r="F40" s="73"/>
-      <c r="G40" s="74"/>
-      <c r="H40" s="74"/>
-      <c r="I40" s="75" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A41" s="69">
-        <v>35</v>
-      </c>
-      <c r="B41" s="70" t="s">
-        <v>162</v>
-      </c>
-      <c r="C41" s="71">
-        <v>99198</v>
-      </c>
-      <c r="D41" s="70"/>
-      <c r="E41" s="72"/>
-      <c r="F41" s="73"/>
-      <c r="G41" s="74"/>
-      <c r="H41" s="74"/>
-      <c r="I41" s="75" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A42" s="69">
-        <v>36</v>
-      </c>
-      <c r="B42" s="70" t="s">
-        <v>164</v>
-      </c>
-      <c r="C42" s="71">
-        <v>99198</v>
-      </c>
-      <c r="D42" s="70"/>
-      <c r="E42" s="72"/>
-      <c r="F42" s="73"/>
-      <c r="G42" s="74"/>
-      <c r="H42" s="74"/>
-      <c r="I42" s="75" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A43" s="69">
-        <v>37</v>
-      </c>
-      <c r="B43" s="70" t="s">
-        <v>166</v>
-      </c>
-      <c r="C43" s="71">
-        <v>99198</v>
-      </c>
-      <c r="D43" s="70"/>
-      <c r="E43" s="72"/>
-      <c r="F43" s="73"/>
-      <c r="G43" s="74"/>
-      <c r="H43" s="74"/>
-      <c r="I43" s="75" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A44" s="69">
-        <v>38</v>
-      </c>
-      <c r="B44" s="70" t="s">
-        <v>168</v>
-      </c>
-      <c r="C44" s="71">
-        <v>99200</v>
-      </c>
-      <c r="D44" s="70"/>
-      <c r="E44" s="72"/>
-      <c r="F44" s="73"/>
-      <c r="G44" s="74"/>
-      <c r="H44" s="74"/>
-      <c r="I44" s="75" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A45" s="69">
-        <v>39</v>
-      </c>
-      <c r="B45" s="70" t="s">
-        <v>170</v>
-      </c>
-      <c r="C45" s="71">
-        <v>99197</v>
-      </c>
-      <c r="D45" s="70"/>
-      <c r="E45" s="72"/>
-      <c r="F45" s="73"/>
-      <c r="G45" s="74"/>
-      <c r="H45" s="74"/>
-      <c r="I45" s="75" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A46" s="69">
-        <v>40</v>
-      </c>
-      <c r="B46" s="70" t="s">
-        <v>172</v>
-      </c>
-      <c r="C46" s="71">
-        <v>99201</v>
-      </c>
-      <c r="D46" s="70"/>
-      <c r="E46" s="72"/>
-      <c r="F46" s="73"/>
-      <c r="G46" s="74"/>
-      <c r="H46" s="74"/>
-      <c r="I46" s="75" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A47" s="69">
-        <v>41</v>
-      </c>
-      <c r="B47" s="70" t="s">
-        <v>174</v>
-      </c>
-      <c r="C47" s="71" t="s">
-        <v>175</v>
-      </c>
-      <c r="D47" s="70"/>
-      <c r="E47" s="72"/>
-      <c r="F47" s="73"/>
-      <c r="G47" s="74"/>
-      <c r="H47" s="74"/>
-      <c r="I47" s="75" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A48" s="69">
-        <v>42</v>
-      </c>
-      <c r="B48" s="70" t="s">
-        <v>177</v>
-      </c>
-      <c r="C48" s="71">
-        <v>99198</v>
-      </c>
-      <c r="D48" s="70"/>
-      <c r="E48" s="72"/>
-      <c r="F48" s="73"/>
-      <c r="G48" s="74"/>
-      <c r="H48" s="74"/>
-      <c r="I48" s="75" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A49" s="69">
-        <v>43</v>
-      </c>
-      <c r="B49" s="70" t="s">
-        <v>179</v>
-      </c>
-      <c r="C49" s="71">
-        <v>99203</v>
-      </c>
-      <c r="D49" s="70"/>
-      <c r="E49" s="72"/>
-      <c r="F49" s="73"/>
-      <c r="G49" s="74"/>
-      <c r="H49" s="74"/>
-      <c r="I49" s="75" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A50" s="69">
-        <v>44</v>
-      </c>
-      <c r="B50" s="70" t="s">
-        <v>181</v>
-      </c>
-      <c r="C50" s="71">
-        <v>99203</v>
-      </c>
-      <c r="D50" s="70"/>
-      <c r="E50" s="72"/>
-      <c r="F50" s="73"/>
-      <c r="G50" s="74"/>
-      <c r="H50" s="74"/>
-      <c r="I50" s="75" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A51" s="69">
-        <v>45</v>
-      </c>
-      <c r="B51" s="70" t="s">
-        <v>183</v>
-      </c>
-      <c r="C51" s="71">
-        <v>99199</v>
-      </c>
-      <c r="D51" s="70"/>
-      <c r="E51" s="72"/>
-      <c r="F51" s="73"/>
-      <c r="G51" s="74"/>
-      <c r="H51" s="74"/>
-      <c r="I51" s="75" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A52" s="69">
-        <v>46</v>
-      </c>
-      <c r="B52" s="70" t="s">
-        <v>185</v>
-      </c>
-      <c r="C52" s="71">
-        <v>99203</v>
-      </c>
-      <c r="D52" s="70"/>
-      <c r="E52" s="72"/>
-      <c r="F52" s="73"/>
-      <c r="G52" s="74"/>
-      <c r="H52" s="74"/>
-      <c r="I52" s="75" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A53" s="69">
-        <v>47</v>
-      </c>
-      <c r="B53" s="70" t="s">
-        <v>187</v>
-      </c>
-      <c r="C53" s="71">
-        <v>99204</v>
-      </c>
-      <c r="D53" s="70"/>
-      <c r="E53" s="72"/>
-      <c r="F53" s="73"/>
-      <c r="G53" s="74"/>
-      <c r="H53" s="74"/>
-      <c r="I53" s="75" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A54" s="69">
-        <v>48</v>
-      </c>
-      <c r="B54" s="70" t="s">
-        <v>189</v>
-      </c>
-      <c r="C54" s="71" t="s">
-        <v>175</v>
-      </c>
-      <c r="D54" s="70"/>
-      <c r="E54" s="72"/>
-      <c r="F54" s="73"/>
-      <c r="G54" s="74"/>
-      <c r="H54" s="74"/>
-      <c r="I54" s="75" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A55" s="69">
-        <v>49</v>
-      </c>
-      <c r="B55" s="70" t="s">
-        <v>191</v>
-      </c>
-      <c r="C55" s="71">
-        <v>99207</v>
-      </c>
-      <c r="D55" s="70"/>
-      <c r="E55" s="72"/>
-      <c r="F55" s="73"/>
-      <c r="G55" s="74"/>
-      <c r="H55" s="74"/>
-      <c r="I55" s="75" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A56" s="69">
-        <v>50</v>
-      </c>
-      <c r="B56" s="70" t="s">
-        <v>193</v>
-      </c>
-      <c r="C56" s="71">
-        <v>99207</v>
-      </c>
-      <c r="D56" s="70"/>
-      <c r="E56" s="72"/>
-      <c r="F56" s="73"/>
-      <c r="G56" s="74"/>
-      <c r="H56" s="74"/>
-      <c r="I56" s="75" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A57" s="69">
-        <v>51</v>
-      </c>
-      <c r="B57" s="70" t="s">
-        <v>195</v>
-      </c>
-      <c r="C57" s="71">
-        <v>99208</v>
-      </c>
-      <c r="D57" s="70"/>
-      <c r="E57" s="72"/>
-      <c r="F57" s="73"/>
-      <c r="G57" s="74"/>
-      <c r="H57" s="74"/>
-      <c r="I57" s="75" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A58" s="69">
-        <v>52</v>
-      </c>
-      <c r="B58" s="70" t="s">
-        <v>197</v>
-      </c>
-      <c r="C58" s="71">
-        <v>99208</v>
-      </c>
-      <c r="D58" s="70"/>
-      <c r="E58" s="72"/>
-      <c r="F58" s="73"/>
-      <c r="G58" s="74"/>
-      <c r="H58" s="74"/>
-      <c r="I58" s="75" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A59" s="83">
-        <v>53</v>
-      </c>
-      <c r="B59" s="56" t="s">
-        <v>199</v>
-      </c>
-      <c r="C59" s="57">
-        <v>99207</v>
-      </c>
-      <c r="D59" s="56"/>
-      <c r="E59" s="84"/>
-      <c r="F59" s="58"/>
-      <c r="G59" s="59"/>
-      <c r="H59" s="59"/>
-      <c r="I59" s="60" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A60" s="69">
-        <v>54</v>
-      </c>
-      <c r="B60" s="70" t="s">
-        <v>201</v>
-      </c>
-      <c r="C60" s="71">
-        <v>99208</v>
-      </c>
-      <c r="D60" s="70"/>
-      <c r="E60" s="72"/>
-      <c r="F60" s="73"/>
-      <c r="G60" s="74"/>
-      <c r="H60" s="74"/>
-      <c r="I60" s="75" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A61" s="69">
-        <v>55</v>
-      </c>
-      <c r="B61" s="70" t="s">
-        <v>203</v>
-      </c>
-      <c r="C61" s="71">
+      <c r="E204" s="77"/>
+      <c r="F204" s="78" t="s">
+        <v>473</v>
+      </c>
+      <c r="G204" s="79" t="s">
+        <v>328</v>
+      </c>
+      <c r="H204" s="79" t="s">
+        <v>324</v>
+      </c>
+      <c r="I204" s="80"/>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A205" s="53">
+        <v>56</v>
+      </c>
+      <c r="B205" s="54" t="s">
+        <v>205</v>
+      </c>
+      <c r="C205" s="55">
         <v>99209</v>
       </c>
-      <c r="D61" s="70"/>
-      <c r="E61" s="72"/>
-      <c r="F61" s="73"/>
-      <c r="G61" s="74"/>
-      <c r="H61" s="74"/>
-      <c r="I61" s="75" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A62" s="69">
-        <v>56</v>
-      </c>
-      <c r="B62" s="70" t="s">
-        <v>205</v>
-      </c>
-      <c r="C62" s="71">
+      <c r="D205" s="54">
+        <v>0</v>
+      </c>
+      <c r="E205" s="64">
         <v>99209</v>
       </c>
-      <c r="D62" s="70"/>
-      <c r="E62" s="72"/>
-      <c r="F62" s="73"/>
-      <c r="G62" s="74"/>
-      <c r="H62" s="74"/>
-      <c r="I62" s="75" t="s">
+      <c r="F205" s="56" t="s">
+        <v>474</v>
+      </c>
+      <c r="G205" s="57"/>
+      <c r="H205" s="57"/>
+      <c r="I205" s="58" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A63" s="69">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A206" s="74"/>
+      <c r="B206" s="75"/>
+      <c r="C206" s="76"/>
+      <c r="D206" s="75">
+        <v>1</v>
+      </c>
+      <c r="E206" s="77"/>
+      <c r="F206" s="78" t="s">
+        <v>403</v>
+      </c>
+      <c r="G206" s="79" t="s">
+        <v>328</v>
+      </c>
+      <c r="H206" s="79" t="s">
+        <v>374</v>
+      </c>
+      <c r="I206" s="80"/>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A207" s="74"/>
+      <c r="B207" s="75"/>
+      <c r="C207" s="76"/>
+      <c r="D207" s="75">
+        <v>2</v>
+      </c>
+      <c r="E207" s="77"/>
+      <c r="F207" s="78" t="s">
+        <v>475</v>
+      </c>
+      <c r="G207" s="79" t="s">
+        <v>328</v>
+      </c>
+      <c r="H207" s="79" t="s">
+        <v>324</v>
+      </c>
+      <c r="I207" s="80"/>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A208" s="53">
         <v>57</v>
       </c>
-      <c r="B63" s="70" t="s">
+      <c r="B208" s="54" t="s">
         <v>207</v>
       </c>
-      <c r="C63" s="71">
+      <c r="C208" s="55">
         <v>99210</v>
       </c>
-      <c r="D63" s="70"/>
-      <c r="E63" s="72"/>
-      <c r="F63" s="73"/>
-      <c r="G63" s="74"/>
-      <c r="H63" s="74"/>
-      <c r="I63" s="75"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A64" s="69">
+      <c r="D208" s="54"/>
+      <c r="E208" s="64"/>
+      <c r="F208" s="56"/>
+      <c r="G208" s="57"/>
+      <c r="H208" s="57"/>
+      <c r="I208" s="58"/>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A209" s="53">
         <v>58</v>
       </c>
-      <c r="B64" s="70" t="s">
+      <c r="B209" s="54" t="s">
         <v>208</v>
       </c>
-      <c r="C64" s="71">
+      <c r="C209" s="55">
         <v>99211</v>
       </c>
-      <c r="D64" s="70"/>
-      <c r="E64" s="72"/>
-      <c r="F64" s="73"/>
-      <c r="G64" s="74"/>
-      <c r="H64" s="74"/>
-      <c r="I64" s="75"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A65" s="69">
+      <c r="D209" s="54"/>
+      <c r="E209" s="64"/>
+      <c r="F209" s="56"/>
+      <c r="G209" s="57"/>
+      <c r="H209" s="57"/>
+      <c r="I209" s="58"/>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A210" s="53">
         <v>59</v>
       </c>
-      <c r="B65" s="70" t="s">
+      <c r="B210" s="54" t="s">
         <v>209</v>
       </c>
-      <c r="C65" s="71">
+      <c r="C210" s="55">
         <v>99210</v>
       </c>
-      <c r="D65" s="70"/>
-      <c r="E65" s="72"/>
-      <c r="F65" s="73"/>
-      <c r="G65" s="74"/>
-      <c r="H65" s="74"/>
-      <c r="I65" s="75"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A66" s="69">
+      <c r="D210" s="54"/>
+      <c r="E210" s="64"/>
+      <c r="F210" s="56"/>
+      <c r="G210" s="57"/>
+      <c r="H210" s="57"/>
+      <c r="I210" s="58"/>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A211" s="53">
         <v>60</v>
       </c>
-      <c r="B66" s="70" t="s">
+      <c r="B211" s="54" t="s">
         <v>210</v>
       </c>
-      <c r="C66" s="71">
+      <c r="C211" s="55">
         <v>99210</v>
       </c>
-      <c r="D66" s="70"/>
-      <c r="E66" s="72"/>
-      <c r="F66" s="73"/>
-      <c r="G66" s="74"/>
-      <c r="H66" s="74"/>
-      <c r="I66" s="75"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A67" s="69">
+      <c r="D211" s="54"/>
+      <c r="E211" s="64"/>
+      <c r="F211" s="56"/>
+      <c r="G211" s="57"/>
+      <c r="H211" s="57"/>
+      <c r="I211" s="58"/>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A212" s="53">
         <v>61</v>
       </c>
-      <c r="B67" s="70" t="s">
+      <c r="B212" s="54" t="s">
         <v>211</v>
       </c>
-      <c r="C67" s="71">
+      <c r="C212" s="55">
         <v>99211</v>
       </c>
-      <c r="D67" s="70"/>
-      <c r="E67" s="72"/>
-      <c r="F67" s="73"/>
-      <c r="G67" s="74"/>
-      <c r="H67" s="74"/>
-      <c r="I67" s="75" t="s">
+      <c r="D212" s="54">
+        <v>0</v>
+      </c>
+      <c r="E212" s="64">
+        <v>99211</v>
+      </c>
+      <c r="F212" s="56" t="s">
+        <v>476</v>
+      </c>
+      <c r="G212" s="57"/>
+      <c r="H212" s="57"/>
+      <c r="I212" s="58" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A68" s="69">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A213" s="74"/>
+      <c r="B213" s="75"/>
+      <c r="C213" s="76"/>
+      <c r="D213" s="75">
+        <v>1</v>
+      </c>
+      <c r="E213" s="77"/>
+      <c r="F213" s="78" t="s">
+        <v>477</v>
+      </c>
+      <c r="G213" s="79" t="s">
+        <v>337</v>
+      </c>
+      <c r="H213" s="79" t="s">
+        <v>324</v>
+      </c>
+      <c r="I213" s="80"/>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A214" s="53">
         <v>62</v>
       </c>
-      <c r="B68" s="70" t="s">
+      <c r="B214" s="54" t="s">
         <v>213</v>
       </c>
-      <c r="C68" s="71">
+      <c r="C214" s="55">
         <v>99211</v>
       </c>
-      <c r="D68" s="70"/>
-      <c r="E68" s="72"/>
-      <c r="F68" s="73"/>
-      <c r="G68" s="74"/>
-      <c r="H68" s="74"/>
-      <c r="I68" s="75"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A69" s="69">
+      <c r="D214" s="54"/>
+      <c r="E214" s="64"/>
+      <c r="F214" s="56"/>
+      <c r="G214" s="57"/>
+      <c r="H214" s="57"/>
+      <c r="I214" s="58"/>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A215" s="53">
         <v>63</v>
       </c>
-      <c r="B69" s="70" t="s">
+      <c r="B215" s="54" t="s">
         <v>214</v>
       </c>
-      <c r="C69" s="71" t="s">
+      <c r="C215" s="55" t="s">
         <v>215</v>
       </c>
-      <c r="D69" s="70"/>
-      <c r="E69" s="72"/>
-      <c r="F69" s="73"/>
-      <c r="G69" s="74"/>
-      <c r="H69" s="74"/>
-      <c r="I69" s="75"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A70" s="69">
+      <c r="D215" s="54"/>
+      <c r="E215" s="64"/>
+      <c r="F215" s="56"/>
+      <c r="G215" s="57"/>
+      <c r="H215" s="57"/>
+      <c r="I215" s="58"/>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A216" s="53">
         <v>64</v>
       </c>
-      <c r="B70" s="70" t="s">
+      <c r="B216" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="C70" s="71">
+      <c r="C216" s="55">
         <v>99212</v>
       </c>
-      <c r="D70" s="70"/>
-      <c r="E70" s="72"/>
-      <c r="F70" s="73"/>
-      <c r="G70" s="74"/>
-      <c r="H70" s="74"/>
-      <c r="I70" s="75"/>
+      <c r="D216" s="54"/>
+      <c r="E216" s="64"/>
+      <c r="F216" s="56"/>
+      <c r="G216" s="57"/>
+      <c r="H216" s="57"/>
+      <c r="I216" s="58"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -4201,9 +7923,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -5150,9 +8870,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -5174,10 +8892,10 @@
       <c r="A2" t="s">
         <v>304</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="73" t="s">
         <v>305</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="73" t="s">
         <v>306</v>
       </c>
     </row>
@@ -5185,8 +8903,8 @@
       <c r="A3" t="s">
         <v>307</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">

--- a/事出无因-表格.xlsx
+++ b/事出无因-表格.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CONST\PartA_Aint_No_Reason\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DE43FF-9B1E-48F0-8E1D-1D7D1004187E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71EAF739-6BA2-4F6A-82E5-A6350A9F1742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{B2B67734-6FD0-42FD-B7A8-8CA54F3DD00D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B2B67734-6FD0-42FD-B7A8-8CA54F3DD00D}"/>
   </bookViews>
   <sheets>
     <sheet name="时间轴" sheetId="2" r:id="rId1"/>
@@ -3430,8 +3430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>

--- a/事出无因-表格.xlsx
+++ b/事出无因-表格.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CONST\PartA_Aint_No_Reason\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71EAF739-6BA2-4F6A-82E5-A6350A9F1742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D34AD73F-2B0D-4C72-BCE8-C5194299AA8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B2B67734-6FD0-42FD-B7A8-8CA54F3DD00D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B2B67734-6FD0-42FD-B7A8-8CA54F3DD00D}"/>
   </bookViews>
   <sheets>
     <sheet name="时间轴" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="474">
   <si>
     <t>时间</t>
   </si>
@@ -1149,10 +1149,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>新世界</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>轻轨/城西大学</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1173,10 +1169,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>林一办公室</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>地下城(旁白)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1265,10 +1257,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>新世界/郊外</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>城门/郊外</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1293,14 +1281,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>地外</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>地外/地下城/郊外</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>捷的办公室</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1313,10 +1293,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>地下城(查阅室)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>查阅室</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1465,18 +1441,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>郊外</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>树林</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>新世界/地下城</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>车站/展厅</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1533,10 +1501,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>郊外/地下城</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>沙漠</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1622,6 +1586,26 @@
   </si>
   <si>
     <t>指挥舱</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>地外(比邻星b)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>新世界(常州城)/地下城</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>郊外(港口)/地下城</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>新世界(常州城)/郊外(南郊)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>地外/地下城/郊外(南郊)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1850,7 +1834,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2042,67 +2026,32 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3430,8 +3379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I216"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="N205" sqref="N205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -4157,7 +4106,7 @@
         <v>99172</v>
       </c>
       <c r="F34" s="56" t="s">
-        <v>359</v>
+        <v>409</v>
       </c>
       <c r="G34" s="57"/>
       <c r="H34" s="57"/>
@@ -4212,7 +4161,7 @@
       </c>
       <c r="E37" s="63"/>
       <c r="F37" s="32" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G37" s="33" t="s">
         <v>328</v>
@@ -4256,7 +4205,7 @@
       </c>
       <c r="E39" s="63"/>
       <c r="F39" s="32" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G39" s="33" t="s">
         <v>328</v>
@@ -4283,7 +4232,7 @@
         <v>99172</v>
       </c>
       <c r="F40" s="56" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G40" s="57"/>
       <c r="H40" s="57"/>
@@ -4300,7 +4249,7 @@
       </c>
       <c r="E41" s="63"/>
       <c r="F41" s="32" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G41" s="33" t="s">
         <v>328</v>
@@ -4319,7 +4268,7 @@
       </c>
       <c r="E42" s="63"/>
       <c r="F42" s="32" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G42" s="33" t="s">
         <v>328</v>
@@ -4338,7 +4287,7 @@
       </c>
       <c r="E43" s="63"/>
       <c r="F43" s="32" t="s">
-        <v>365</v>
+        <v>416</v>
       </c>
       <c r="G43" s="33" t="s">
         <v>328</v>
@@ -4365,7 +4314,7 @@
         <v>99186</v>
       </c>
       <c r="F44" s="70" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G44" s="71"/>
       <c r="H44" s="71"/>
@@ -4382,7 +4331,7 @@
       </c>
       <c r="E45" s="63"/>
       <c r="F45" s="32" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G45" s="33" t="s">
         <v>337</v>
@@ -4401,7 +4350,7 @@
       </c>
       <c r="E46" s="63"/>
       <c r="F46" s="32" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G46" s="33" t="s">
         <v>337</v>
@@ -4420,7 +4369,7 @@
       </c>
       <c r="E47" s="65"/>
       <c r="F47" s="45" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G47" s="33" t="s">
         <v>328</v>
@@ -4447,7 +4396,7 @@
         <v>99173</v>
       </c>
       <c r="F48" s="56" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G48" s="71"/>
       <c r="H48" s="71"/>
@@ -4456,15 +4405,15 @@
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A49" s="81"/>
-      <c r="B49" s="82"/>
-      <c r="C49" s="83"/>
-      <c r="D49" s="82">
+      <c r="A49" s="41"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="44"/>
+      <c r="D49" s="43">
         <v>1</v>
       </c>
-      <c r="E49" s="84"/>
-      <c r="F49" s="85" t="s">
-        <v>370</v>
+      <c r="E49" s="65"/>
+      <c r="F49" s="45" t="s">
+        <v>368</v>
       </c>
       <c r="G49" s="33" t="s">
         <v>328</v>
@@ -4472,18 +4421,18 @@
       <c r="H49" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="I49" s="87"/>
+      <c r="I49" s="46"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A50" s="74"/>
-      <c r="B50" s="75"/>
-      <c r="C50" s="76"/>
-      <c r="D50" s="75">
+      <c r="A50" s="22"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="23">
         <v>2</v>
       </c>
-      <c r="E50" s="77"/>
-      <c r="F50" s="78" t="s">
-        <v>371</v>
+      <c r="E50" s="63"/>
+      <c r="F50" s="32" t="s">
+        <v>369</v>
       </c>
       <c r="G50" s="33" t="s">
         <v>328</v>
@@ -4491,18 +4440,18 @@
       <c r="H50" s="33" t="s">
         <v>325</v>
       </c>
-      <c r="I50" s="80"/>
+      <c r="I50" s="34"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A51" s="74"/>
-      <c r="B51" s="75"/>
-      <c r="C51" s="76"/>
-      <c r="D51" s="75">
+      <c r="A51" s="22"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="23">
         <v>3</v>
       </c>
-      <c r="E51" s="77"/>
-      <c r="F51" s="78" t="s">
-        <v>372</v>
+      <c r="E51" s="63"/>
+      <c r="F51" s="32" t="s">
+        <v>370</v>
       </c>
       <c r="G51" s="33" t="s">
         <v>328</v>
@@ -4510,7 +4459,7 @@
       <c r="H51" s="33" t="s">
         <v>325</v>
       </c>
-      <c r="I51" s="80"/>
+      <c r="I51" s="34"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" s="53">
@@ -4538,42 +4487,42 @@
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A53" s="81"/>
-      <c r="B53" s="88"/>
-      <c r="C53" s="89"/>
-      <c r="D53" s="88">
+      <c r="A53" s="41"/>
+      <c r="B53" s="74"/>
+      <c r="C53" s="75"/>
+      <c r="D53" s="74">
         <v>1</v>
       </c>
-      <c r="E53" s="90"/>
-      <c r="F53" s="91" t="s">
+      <c r="E53" s="76"/>
+      <c r="F53" s="77" t="s">
+        <v>371</v>
+      </c>
+      <c r="G53" s="78" t="s">
+        <v>328</v>
+      </c>
+      <c r="H53" s="78" t="s">
+        <v>372</v>
+      </c>
+      <c r="I53" s="79"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A54" s="22"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="23">
+        <v>2</v>
+      </c>
+      <c r="E54" s="63"/>
+      <c r="F54" s="32" t="s">
         <v>373</v>
       </c>
-      <c r="G53" s="92" t="s">
-        <v>328</v>
-      </c>
-      <c r="H53" s="92" t="s">
-        <v>374</v>
-      </c>
-      <c r="I53" s="93"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A54" s="74"/>
-      <c r="B54" s="75"/>
-      <c r="C54" s="76"/>
-      <c r="D54" s="75">
-        <v>2</v>
-      </c>
-      <c r="E54" s="77"/>
-      <c r="F54" s="78" t="s">
-        <v>375</v>
-      </c>
-      <c r="G54" s="79" t="s">
+      <c r="G54" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="H54" s="79" t="s">
+      <c r="H54" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="I54" s="80"/>
+      <c r="I54" s="34"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55" s="53">
@@ -4592,7 +4541,7 @@
         <v>99173</v>
       </c>
       <c r="F55" s="56" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G55" s="57"/>
       <c r="H55" s="57"/>
@@ -4601,80 +4550,80 @@
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A56" s="81"/>
-      <c r="B56" s="88"/>
-      <c r="C56" s="89"/>
-      <c r="D56" s="82">
+      <c r="A56" s="41"/>
+      <c r="B56" s="74"/>
+      <c r="C56" s="75"/>
+      <c r="D56" s="43">
         <v>1</v>
       </c>
-      <c r="E56" s="84"/>
-      <c r="F56" s="78" t="s">
-        <v>372</v>
-      </c>
-      <c r="G56" s="86" t="s">
-        <v>328</v>
-      </c>
-      <c r="H56" s="86" t="s">
+      <c r="E56" s="65"/>
+      <c r="F56" s="32" t="s">
+        <v>370</v>
+      </c>
+      <c r="G56" s="73" t="s">
+        <v>328</v>
+      </c>
+      <c r="H56" s="73" t="s">
         <v>325</v>
       </c>
-      <c r="I56" s="87"/>
+      <c r="I56" s="46"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A57" s="81"/>
-      <c r="B57" s="82"/>
-      <c r="C57" s="76"/>
-      <c r="D57" s="75">
+      <c r="A57" s="41"/>
+      <c r="B57" s="43"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="23">
         <v>2</v>
       </c>
-      <c r="E57" s="77"/>
-      <c r="F57" s="78" t="s">
+      <c r="E57" s="63"/>
+      <c r="F57" s="32" t="s">
+        <v>375</v>
+      </c>
+      <c r="G57" s="73" t="s">
+        <v>328</v>
+      </c>
+      <c r="H57" s="73" t="s">
+        <v>325</v>
+      </c>
+      <c r="I57" s="34"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A58" s="22"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="80">
+        <v>3</v>
+      </c>
+      <c r="E58" s="63"/>
+      <c r="F58" s="32" t="s">
+        <v>376</v>
+      </c>
+      <c r="G58" s="73" t="s">
+        <v>328</v>
+      </c>
+      <c r="H58" s="73" t="s">
+        <v>325</v>
+      </c>
+      <c r="I58" s="34"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A59" s="22"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="43">
+        <v>4</v>
+      </c>
+      <c r="E59" s="63"/>
+      <c r="F59" s="32" t="s">
         <v>377</v>
       </c>
-      <c r="G57" s="86" t="s">
-        <v>328</v>
-      </c>
-      <c r="H57" s="86" t="s">
+      <c r="G59" s="73" t="s">
+        <v>328</v>
+      </c>
+      <c r="H59" s="73" t="s">
         <v>325</v>
       </c>
-      <c r="I57" s="80"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A58" s="74"/>
-      <c r="B58" s="75"/>
-      <c r="C58" s="76"/>
-      <c r="D58" s="94">
-        <v>3</v>
-      </c>
-      <c r="E58" s="77"/>
-      <c r="F58" s="78" t="s">
-        <v>378</v>
-      </c>
-      <c r="G58" s="86" t="s">
-        <v>328</v>
-      </c>
-      <c r="H58" s="86" t="s">
-        <v>325</v>
-      </c>
-      <c r="I58" s="80"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A59" s="74"/>
-      <c r="B59" s="75"/>
-      <c r="C59" s="76"/>
-      <c r="D59" s="82">
-        <v>4</v>
-      </c>
-      <c r="E59" s="77"/>
-      <c r="F59" s="78" t="s">
-        <v>379</v>
-      </c>
-      <c r="G59" s="86" t="s">
-        <v>328</v>
-      </c>
-      <c r="H59" s="86" t="s">
-        <v>325</v>
-      </c>
-      <c r="I59" s="80"/>
+      <c r="I59" s="34"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A60" s="53">
@@ -4702,42 +4651,42 @@
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A61" s="74"/>
-      <c r="B61" s="75"/>
-      <c r="C61" s="76"/>
-      <c r="D61" s="75">
+      <c r="A61" s="22"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="23">
         <v>1</v>
       </c>
-      <c r="E61" s="77"/>
-      <c r="F61" s="78" t="s">
-        <v>375</v>
-      </c>
-      <c r="G61" s="79" t="s">
+      <c r="E61" s="63"/>
+      <c r="F61" s="32" t="s">
+        <v>373</v>
+      </c>
+      <c r="G61" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="H61" s="79" t="s">
+      <c r="H61" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="I61" s="80"/>
+      <c r="I61" s="34"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A62" s="74"/>
-      <c r="B62" s="75"/>
-      <c r="C62" s="76"/>
-      <c r="D62" s="75">
+      <c r="A62" s="22"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="23">
         <v>2</v>
       </c>
-      <c r="E62" s="77"/>
-      <c r="F62" s="78" t="s">
-        <v>380</v>
-      </c>
-      <c r="G62" s="79" t="s">
-        <v>328</v>
-      </c>
-      <c r="H62" s="79" t="s">
+      <c r="E62" s="63"/>
+      <c r="F62" s="32" t="s">
+        <v>378</v>
+      </c>
+      <c r="G62" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="H62" s="33" t="s">
         <v>325</v>
       </c>
-      <c r="I62" s="80"/>
+      <c r="I62" s="34"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A63" s="53">
@@ -4765,42 +4714,42 @@
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A64" s="74"/>
-      <c r="B64" s="75"/>
-      <c r="C64" s="76"/>
-      <c r="D64" s="75">
+      <c r="A64" s="22"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="23">
         <v>1</v>
       </c>
-      <c r="E64" s="77"/>
-      <c r="F64" s="78" t="s">
-        <v>364</v>
-      </c>
-      <c r="G64" s="79" t="s">
-        <v>328</v>
-      </c>
-      <c r="H64" s="79" t="s">
+      <c r="E64" s="63"/>
+      <c r="F64" s="32" t="s">
+        <v>363</v>
+      </c>
+      <c r="G64" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="H64" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="I64" s="80"/>
+      <c r="I64" s="34"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A65" s="74"/>
-      <c r="B65" s="75"/>
-      <c r="C65" s="76"/>
-      <c r="D65" s="75">
+      <c r="A65" s="22"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="23">
         <v>2</v>
       </c>
-      <c r="E65" s="77"/>
-      <c r="F65" s="78" t="s">
-        <v>381</v>
-      </c>
-      <c r="G65" s="79" t="s">
-        <v>328</v>
-      </c>
-      <c r="H65" s="79" t="s">
+      <c r="E65" s="63"/>
+      <c r="F65" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="G65" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="H65" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="I65" s="80"/>
+      <c r="I65" s="34"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A66" s="53">
@@ -4828,42 +4777,42 @@
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A67" s="74"/>
-      <c r="B67" s="75"/>
-      <c r="C67" s="76"/>
-      <c r="D67" s="75">
+      <c r="A67" s="22"/>
+      <c r="B67" s="23"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="23">
         <v>1</v>
       </c>
-      <c r="E67" s="77"/>
-      <c r="F67" s="78" t="s">
+      <c r="E67" s="63"/>
+      <c r="F67" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="G67" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="H67" s="33" t="s">
+        <v>324</v>
+      </c>
+      <c r="I67" s="34"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A68" s="22"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="23">
+        <v>2</v>
+      </c>
+      <c r="E68" s="63"/>
+      <c r="F68" s="32" t="s">
+        <v>381</v>
+      </c>
+      <c r="G68" s="33" t="s">
         <v>382</v>
       </c>
-      <c r="G67" s="79" t="s">
-        <v>328</v>
-      </c>
-      <c r="H67" s="79" t="s">
-        <v>324</v>
-      </c>
-      <c r="I67" s="80"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A68" s="74"/>
-      <c r="B68" s="75"/>
-      <c r="C68" s="76"/>
-      <c r="D68" s="75">
-        <v>2</v>
-      </c>
-      <c r="E68" s="77"/>
-      <c r="F68" s="78" t="s">
-        <v>383</v>
-      </c>
-      <c r="G68" s="79" t="s">
-        <v>384</v>
-      </c>
-      <c r="H68" s="79" t="s">
+      <c r="H68" s="33" t="s">
         <v>325</v>
       </c>
-      <c r="I68" s="80"/>
+      <c r="I68" s="34"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A69" s="53">
@@ -4878,11 +4827,11 @@
       <c r="D69" s="54">
         <v>0</v>
       </c>
-      <c r="E69" s="95" t="s">
-        <v>385</v>
+      <c r="E69" s="81" t="s">
+        <v>383</v>
       </c>
       <c r="F69" s="56" t="s">
-        <v>395</v>
+        <v>469</v>
       </c>
       <c r="G69" s="57"/>
       <c r="H69" s="57"/>
@@ -4891,23 +4840,23 @@
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A70" s="74"/>
-      <c r="B70" s="75"/>
-      <c r="C70" s="76"/>
-      <c r="D70" s="75">
+      <c r="A70" s="22"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="23">
         <v>1</v>
       </c>
-      <c r="E70" s="77"/>
-      <c r="F70" s="78" t="s">
-        <v>387</v>
-      </c>
-      <c r="G70" s="79" t="s">
-        <v>328</v>
-      </c>
-      <c r="H70" s="79" t="s">
+      <c r="E70" s="63"/>
+      <c r="F70" s="32" t="s">
+        <v>385</v>
+      </c>
+      <c r="G70" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="H70" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="I70" s="80"/>
+      <c r="I70" s="34"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A71" s="53">
@@ -4926,7 +4875,7 @@
         <v>99172</v>
       </c>
       <c r="F71" s="56" t="s">
-        <v>388</v>
+        <v>472</v>
       </c>
       <c r="G71" s="57"/>
       <c r="H71" s="57"/>
@@ -4935,61 +4884,61 @@
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A72" s="74"/>
-      <c r="B72" s="75"/>
-      <c r="C72" s="76"/>
-      <c r="D72" s="75">
+      <c r="A72" s="22"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="23">
         <v>1</v>
       </c>
-      <c r="E72" s="77"/>
-      <c r="F72" s="78" t="s">
-        <v>389</v>
-      </c>
-      <c r="G72" s="79" t="s">
-        <v>328</v>
-      </c>
-      <c r="H72" s="79" t="s">
+      <c r="E72" s="63"/>
+      <c r="F72" s="32" t="s">
+        <v>386</v>
+      </c>
+      <c r="G72" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="H72" s="33" t="s">
         <v>325</v>
       </c>
-      <c r="I72" s="80"/>
+      <c r="I72" s="34"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A73" s="74"/>
-      <c r="B73" s="75"/>
-      <c r="C73" s="76"/>
-      <c r="D73" s="75">
+      <c r="A73" s="22"/>
+      <c r="B73" s="23"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="23">
         <v>2</v>
       </c>
-      <c r="E73" s="77"/>
-      <c r="F73" s="78" t="s">
-        <v>390</v>
-      </c>
-      <c r="G73" s="79" t="s">
-        <v>328</v>
-      </c>
-      <c r="H73" s="79" t="s">
+      <c r="E73" s="63"/>
+      <c r="F73" s="32" t="s">
+        <v>387</v>
+      </c>
+      <c r="G73" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="H73" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="I73" s="80"/>
+      <c r="I73" s="34"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A74" s="74"/>
-      <c r="B74" s="75"/>
-      <c r="C74" s="76"/>
-      <c r="D74" s="75">
+      <c r="A74" s="22"/>
+      <c r="B74" s="23"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="23">
         <v>3</v>
       </c>
-      <c r="E74" s="77"/>
-      <c r="F74" s="78" t="s">
-        <v>391</v>
-      </c>
-      <c r="G74" s="79" t="s">
-        <v>328</v>
-      </c>
-      <c r="H74" s="79" t="s">
+      <c r="E74" s="63"/>
+      <c r="F74" s="32" t="s">
+        <v>388</v>
+      </c>
+      <c r="G74" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="H74" s="33" t="s">
         <v>325</v>
       </c>
-      <c r="I74" s="80"/>
+      <c r="I74" s="34"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A75" s="53">
@@ -5008,7 +4957,7 @@
         <v>99191</v>
       </c>
       <c r="F75" s="56" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G75" s="57"/>
       <c r="H75" s="57"/>
@@ -5017,23 +4966,23 @@
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A76" s="74"/>
-      <c r="B76" s="75"/>
-      <c r="C76" s="76"/>
-      <c r="D76" s="75">
+      <c r="A76" s="22"/>
+      <c r="B76" s="23"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="23">
         <v>1</v>
       </c>
-      <c r="E76" s="77"/>
-      <c r="F76" s="78" t="s">
-        <v>393</v>
-      </c>
-      <c r="G76" s="79" t="s">
+      <c r="E76" s="63"/>
+      <c r="F76" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="G76" s="33" t="s">
         <v>356</v>
       </c>
-      <c r="H76" s="79" t="s">
+      <c r="H76" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="I76" s="80"/>
+      <c r="I76" s="34"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A77" s="53">
@@ -5050,7 +4999,7 @@
       </c>
       <c r="E77" s="64"/>
       <c r="F77" s="56" t="s">
-        <v>396</v>
+        <v>473</v>
       </c>
       <c r="G77" s="57"/>
       <c r="H77" s="57"/>
@@ -5059,67 +5008,67 @@
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A78" s="74"/>
-      <c r="B78" s="75"/>
-      <c r="C78" s="76"/>
-      <c r="D78" s="75">
+      <c r="A78" s="22"/>
+      <c r="B78" s="23"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="23">
         <v>1</v>
       </c>
-      <c r="E78" s="77" t="s">
-        <v>394</v>
-      </c>
-      <c r="F78" s="78" t="s">
-        <v>397</v>
-      </c>
-      <c r="G78" s="79" t="s">
-        <v>328</v>
-      </c>
-      <c r="H78" s="79" t="s">
+      <c r="E78" s="63" t="s">
+        <v>391</v>
+      </c>
+      <c r="F78" s="32" t="s">
+        <v>392</v>
+      </c>
+      <c r="G78" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="H78" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="I78" s="80"/>
+      <c r="I78" s="34"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A79" s="74"/>
-      <c r="B79" s="75"/>
-      <c r="C79" s="76"/>
-      <c r="D79" s="75">
+      <c r="A79" s="22"/>
+      <c r="B79" s="23"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="23">
         <v>2</v>
       </c>
-      <c r="E79" s="77">
+      <c r="E79" s="63">
         <v>99181</v>
       </c>
-      <c r="F79" s="78" t="s">
-        <v>381</v>
-      </c>
-      <c r="G79" s="79" t="s">
-        <v>328</v>
-      </c>
-      <c r="H79" s="79" t="s">
+      <c r="F79" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="G79" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="H79" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="I79" s="80"/>
+      <c r="I79" s="34"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A80" s="74"/>
-      <c r="B80" s="75"/>
-      <c r="C80" s="76"/>
-      <c r="D80" s="75">
+      <c r="A80" s="22"/>
+      <c r="B80" s="23"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="23">
         <v>3</v>
       </c>
-      <c r="E80" s="77">
+      <c r="E80" s="63">
         <v>99181</v>
       </c>
-      <c r="F80" s="78" t="s">
-        <v>398</v>
-      </c>
-      <c r="G80" s="79" t="s">
+      <c r="F80" s="32" t="s">
+        <v>393</v>
+      </c>
+      <c r="G80" s="33" t="s">
         <v>356</v>
       </c>
-      <c r="H80" s="79" t="s">
+      <c r="H80" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="I80" s="80"/>
+      <c r="I80" s="34"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A81" s="53">
@@ -5138,7 +5087,7 @@
         <v>99192</v>
       </c>
       <c r="F81" s="56" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G81" s="57"/>
       <c r="H81" s="57"/>
@@ -5147,61 +5096,61 @@
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A82" s="74"/>
-      <c r="B82" s="75"/>
-      <c r="C82" s="76"/>
-      <c r="D82" s="75">
+      <c r="A82" s="22"/>
+      <c r="B82" s="23"/>
+      <c r="C82" s="24"/>
+      <c r="D82" s="23">
         <v>1</v>
       </c>
-      <c r="E82" s="77"/>
-      <c r="F82" s="78" t="s">
-        <v>369</v>
-      </c>
-      <c r="G82" s="79" t="s">
-        <v>328</v>
-      </c>
-      <c r="H82" s="79" t="s">
+      <c r="E82" s="63"/>
+      <c r="F82" s="32" t="s">
+        <v>367</v>
+      </c>
+      <c r="G82" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="H82" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="I82" s="80"/>
+      <c r="I82" s="34"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A83" s="74"/>
-      <c r="B83" s="75"/>
-      <c r="C83" s="76"/>
-      <c r="D83" s="75">
+      <c r="A83" s="22"/>
+      <c r="B83" s="23"/>
+      <c r="C83" s="24"/>
+      <c r="D83" s="23">
         <v>2</v>
       </c>
-      <c r="E83" s="77"/>
-      <c r="F83" s="78" t="s">
-        <v>399</v>
-      </c>
-      <c r="G83" s="79" t="s">
+      <c r="E83" s="63"/>
+      <c r="F83" s="32" t="s">
+        <v>394</v>
+      </c>
+      <c r="G83" s="33" t="s">
         <v>336</v>
       </c>
-      <c r="H83" s="79" t="s">
+      <c r="H83" s="33" t="s">
         <v>325</v>
       </c>
-      <c r="I83" s="80"/>
+      <c r="I83" s="34"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A84" s="74"/>
-      <c r="B84" s="75"/>
-      <c r="C84" s="76"/>
-      <c r="D84" s="75">
+      <c r="A84" s="22"/>
+      <c r="B84" s="23"/>
+      <c r="C84" s="24"/>
+      <c r="D84" s="23">
         <v>3</v>
       </c>
-      <c r="E84" s="77"/>
-      <c r="F84" s="78" t="s">
-        <v>369</v>
-      </c>
-      <c r="G84" s="79" t="s">
-        <v>328</v>
-      </c>
-      <c r="H84" s="79" t="s">
+      <c r="E84" s="63"/>
+      <c r="F84" s="32" t="s">
+        <v>367</v>
+      </c>
+      <c r="G84" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="H84" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="I84" s="80"/>
+      <c r="I84" s="34"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A85" s="53">
@@ -5220,7 +5169,7 @@
         <v>99187</v>
       </c>
       <c r="F85" s="56" t="s">
-        <v>400</v>
+        <v>352</v>
       </c>
       <c r="G85" s="57"/>
       <c r="H85" s="57"/>
@@ -5229,23 +5178,23 @@
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A86" s="74"/>
-      <c r="B86" s="75"/>
-      <c r="C86" s="76"/>
-      <c r="D86" s="75">
+      <c r="A86" s="22"/>
+      <c r="B86" s="23"/>
+      <c r="C86" s="24"/>
+      <c r="D86" s="23">
         <v>1</v>
       </c>
-      <c r="E86" s="77"/>
-      <c r="F86" s="78" t="s">
-        <v>401</v>
-      </c>
-      <c r="G86" s="79" t="s">
-        <v>328</v>
-      </c>
-      <c r="H86" s="79" t="s">
+      <c r="E86" s="63"/>
+      <c r="F86" s="32" t="s">
+        <v>395</v>
+      </c>
+      <c r="G86" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="H86" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="I86" s="80"/>
+      <c r="I86" s="34"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A87" s="53">
@@ -5264,7 +5213,7 @@
         <v>99194</v>
       </c>
       <c r="F87" s="56" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="G87" s="57"/>
       <c r="H87" s="57"/>
@@ -5273,23 +5222,23 @@
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A88" s="74"/>
-      <c r="B88" s="75"/>
-      <c r="C88" s="76"/>
-      <c r="D88" s="75">
+      <c r="A88" s="22"/>
+      <c r="B88" s="23"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="23">
         <v>1</v>
       </c>
-      <c r="E88" s="77"/>
-      <c r="F88" s="78" t="s">
-        <v>403</v>
-      </c>
-      <c r="G88" s="79" t="s">
-        <v>328</v>
-      </c>
-      <c r="H88" s="79" t="s">
+      <c r="E88" s="63"/>
+      <c r="F88" s="32" t="s">
+        <v>397</v>
+      </c>
+      <c r="G88" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="H88" s="33" t="s">
         <v>325</v>
       </c>
-      <c r="I88" s="80"/>
+      <c r="I88" s="34"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A89" s="53">
@@ -5317,23 +5266,23 @@
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A90" s="74"/>
-      <c r="B90" s="75"/>
-      <c r="C90" s="76"/>
-      <c r="D90" s="75">
+      <c r="A90" s="22"/>
+      <c r="B90" s="23"/>
+      <c r="C90" s="24"/>
+      <c r="D90" s="23">
         <v>1</v>
       </c>
-      <c r="E90" s="77"/>
-      <c r="F90" s="78" t="s">
-        <v>404</v>
-      </c>
-      <c r="G90" s="79" t="s">
-        <v>328</v>
-      </c>
-      <c r="H90" s="79" t="s">
+      <c r="E90" s="63"/>
+      <c r="F90" s="32" t="s">
+        <v>398</v>
+      </c>
+      <c r="G90" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="H90" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="I90" s="80"/>
+      <c r="I90" s="34"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A91" s="53">
@@ -5352,7 +5301,7 @@
         <v>99193</v>
       </c>
       <c r="F91" s="56" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="G91" s="57"/>
       <c r="H91" s="57"/>
@@ -5361,76 +5310,76 @@
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A92" s="74"/>
-      <c r="B92" s="75"/>
-      <c r="C92" s="76"/>
-      <c r="D92" s="75">
+      <c r="A92" s="22"/>
+      <c r="B92" s="23"/>
+      <c r="C92" s="24"/>
+      <c r="D92" s="23">
         <v>1</v>
       </c>
-      <c r="E92" s="77"/>
-      <c r="F92" s="78" t="s">
-        <v>407</v>
-      </c>
-      <c r="G92" s="79"/>
-      <c r="H92" s="79"/>
-      <c r="I92" s="80"/>
+      <c r="E92" s="63"/>
+      <c r="F92" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="G92" s="33"/>
+      <c r="H92" s="33"/>
+      <c r="I92" s="34"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A93" s="74"/>
-      <c r="B93" s="75"/>
-      <c r="C93" s="76"/>
-      <c r="D93" s="75">
+      <c r="A93" s="22"/>
+      <c r="B93" s="23"/>
+      <c r="C93" s="24"/>
+      <c r="D93" s="23">
         <v>2</v>
       </c>
-      <c r="E93" s="77"/>
-      <c r="F93" s="78" t="s">
-        <v>408</v>
-      </c>
-      <c r="G93" s="79" t="s">
-        <v>410</v>
-      </c>
-      <c r="H93" s="79" t="s">
+      <c r="E93" s="63"/>
+      <c r="F93" s="32" t="s">
+        <v>402</v>
+      </c>
+      <c r="G93" s="33" t="s">
+        <v>404</v>
+      </c>
+      <c r="H93" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="I93" s="80"/>
+      <c r="I93" s="34"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A94" s="74"/>
-      <c r="B94" s="75"/>
-      <c r="C94" s="76"/>
-      <c r="D94" s="75">
+      <c r="A94" s="22"/>
+      <c r="B94" s="23"/>
+      <c r="C94" s="24"/>
+      <c r="D94" s="23">
         <v>3</v>
       </c>
-      <c r="E94" s="77"/>
-      <c r="F94" s="78" t="s">
-        <v>408</v>
-      </c>
-      <c r="G94" s="79" t="s">
-        <v>410</v>
-      </c>
-      <c r="H94" s="79" t="s">
+      <c r="E94" s="63"/>
+      <c r="F94" s="32" t="s">
+        <v>402</v>
+      </c>
+      <c r="G94" s="33" t="s">
+        <v>404</v>
+      </c>
+      <c r="H94" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="I94" s="80"/>
+      <c r="I94" s="34"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A95" s="74"/>
-      <c r="B95" s="75"/>
-      <c r="C95" s="76"/>
-      <c r="D95" s="75">
+      <c r="A95" s="22"/>
+      <c r="B95" s="23"/>
+      <c r="C95" s="24"/>
+      <c r="D95" s="23">
         <v>4</v>
       </c>
-      <c r="E95" s="77"/>
-      <c r="F95" s="78" t="s">
-        <v>409</v>
-      </c>
-      <c r="G95" s="79" t="s">
-        <v>410</v>
-      </c>
-      <c r="H95" s="79" t="s">
+      <c r="E95" s="63"/>
+      <c r="F95" s="32" t="s">
+        <v>403</v>
+      </c>
+      <c r="G95" s="33" t="s">
+        <v>404</v>
+      </c>
+      <c r="H95" s="33" t="s">
         <v>325</v>
       </c>
-      <c r="I95" s="80"/>
+      <c r="I95" s="34"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A96" s="53">
@@ -5458,42 +5407,42 @@
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A97" s="74"/>
-      <c r="B97" s="75"/>
-      <c r="C97" s="76"/>
-      <c r="D97" s="75">
+      <c r="A97" s="22"/>
+      <c r="B97" s="23"/>
+      <c r="C97" s="24"/>
+      <c r="D97" s="23">
         <v>1</v>
       </c>
-      <c r="E97" s="77"/>
-      <c r="F97" s="78" t="s">
-        <v>381</v>
-      </c>
-      <c r="G97" s="79" t="s">
-        <v>328</v>
-      </c>
-      <c r="H97" s="79" t="s">
+      <c r="E97" s="63"/>
+      <c r="F97" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="G97" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="H97" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="I97" s="80"/>
+      <c r="I97" s="34"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A98" s="74"/>
-      <c r="B98" s="75"/>
-      <c r="C98" s="76"/>
-      <c r="D98" s="75">
+      <c r="A98" s="22"/>
+      <c r="B98" s="23"/>
+      <c r="C98" s="24"/>
+      <c r="D98" s="23">
         <v>2</v>
       </c>
-      <c r="E98" s="77"/>
-      <c r="F98" s="78" t="s">
-        <v>411</v>
-      </c>
-      <c r="G98" s="79" t="s">
-        <v>328</v>
-      </c>
-      <c r="H98" s="79" t="s">
+      <c r="E98" s="63"/>
+      <c r="F98" s="32" t="s">
+        <v>405</v>
+      </c>
+      <c r="G98" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="H98" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="I98" s="80"/>
+      <c r="I98" s="34"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A99" s="53">
@@ -5512,7 +5461,7 @@
         <v>99194</v>
       </c>
       <c r="F99" s="56" t="s">
-        <v>359</v>
+        <v>409</v>
       </c>
       <c r="G99" s="57"/>
       <c r="H99" s="57"/>
@@ -5521,118 +5470,118 @@
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A100" s="74"/>
-      <c r="B100" s="75"/>
-      <c r="C100" s="76"/>
-      <c r="D100" s="75">
+      <c r="A100" s="22"/>
+      <c r="B100" s="23"/>
+      <c r="C100" s="24"/>
+      <c r="D100" s="23">
         <v>1</v>
       </c>
-      <c r="E100" s="77"/>
-      <c r="F100" s="78" t="s">
-        <v>412</v>
-      </c>
-      <c r="G100" s="79" t="s">
-        <v>328</v>
-      </c>
-      <c r="H100" s="79" t="s">
+      <c r="E100" s="63"/>
+      <c r="F100" s="32" t="s">
+        <v>406</v>
+      </c>
+      <c r="G100" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="H100" s="33" t="s">
         <v>325</v>
       </c>
-      <c r="I100" s="80"/>
+      <c r="I100" s="34"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A101" s="74"/>
-      <c r="B101" s="75"/>
-      <c r="C101" s="76"/>
-      <c r="D101" s="75">
+      <c r="A101" s="22"/>
+      <c r="B101" s="23"/>
+      <c r="C101" s="24"/>
+      <c r="D101" s="23">
         <v>2</v>
       </c>
-      <c r="E101" s="77"/>
-      <c r="F101" s="78" t="s">
-        <v>380</v>
-      </c>
-      <c r="G101" s="79" t="s">
-        <v>328</v>
-      </c>
-      <c r="H101" s="79" t="s">
+      <c r="E101" s="63"/>
+      <c r="F101" s="32" t="s">
+        <v>378</v>
+      </c>
+      <c r="G101" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="H101" s="33" t="s">
         <v>325</v>
       </c>
-      <c r="I101" s="80"/>
+      <c r="I101" s="34"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A102" s="74"/>
-      <c r="B102" s="75"/>
-      <c r="C102" s="76"/>
-      <c r="D102" s="75">
+      <c r="A102" s="22"/>
+      <c r="B102" s="23"/>
+      <c r="C102" s="24"/>
+      <c r="D102" s="23">
         <v>3</v>
       </c>
-      <c r="E102" s="77"/>
-      <c r="F102" s="78" t="s">
-        <v>413</v>
-      </c>
-      <c r="G102" s="79" t="s">
+      <c r="E102" s="63"/>
+      <c r="F102" s="32" t="s">
+        <v>407</v>
+      </c>
+      <c r="G102" s="33" t="s">
         <v>356</v>
       </c>
-      <c r="H102" s="79" t="s">
+      <c r="H102" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="I102" s="80"/>
+      <c r="I102" s="34"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A103" s="74"/>
-      <c r="B103" s="75"/>
-      <c r="C103" s="76"/>
-      <c r="D103" s="75">
+      <c r="A103" s="22"/>
+      <c r="B103" s="23"/>
+      <c r="C103" s="24"/>
+      <c r="D103" s="23">
         <v>4</v>
       </c>
-      <c r="E103" s="77"/>
-      <c r="F103" s="78" t="s">
-        <v>413</v>
-      </c>
-      <c r="G103" s="79" t="s">
+      <c r="E103" s="63"/>
+      <c r="F103" s="32" t="s">
+        <v>407</v>
+      </c>
+      <c r="G103" s="33" t="s">
         <v>356</v>
       </c>
-      <c r="H103" s="79" t="s">
+      <c r="H103" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="I103" s="80"/>
+      <c r="I103" s="34"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A104" s="74"/>
-      <c r="B104" s="75"/>
-      <c r="C104" s="76"/>
-      <c r="D104" s="75">
+      <c r="A104" s="22"/>
+      <c r="B104" s="23"/>
+      <c r="C104" s="24"/>
+      <c r="D104" s="23">
         <v>5</v>
       </c>
-      <c r="E104" s="77"/>
-      <c r="F104" s="78" t="s">
-        <v>413</v>
-      </c>
-      <c r="G104" s="79" t="s">
+      <c r="E104" s="63"/>
+      <c r="F104" s="32" t="s">
+        <v>407</v>
+      </c>
+      <c r="G104" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="H104" s="79" t="s">
+      <c r="H104" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="I104" s="80"/>
+      <c r="I104" s="34"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A105" s="74"/>
-      <c r="B105" s="75"/>
-      <c r="C105" s="76"/>
-      <c r="D105" s="75">
+      <c r="A105" s="22"/>
+      <c r="B105" s="23"/>
+      <c r="C105" s="24"/>
+      <c r="D105" s="23">
         <v>6</v>
       </c>
-      <c r="E105" s="77"/>
-      <c r="F105" s="78" t="s">
-        <v>413</v>
-      </c>
-      <c r="G105" s="79" t="s">
+      <c r="E105" s="63"/>
+      <c r="F105" s="32" t="s">
+        <v>407</v>
+      </c>
+      <c r="G105" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="H105" s="79" t="s">
+      <c r="H105" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="I105" s="80"/>
+      <c r="I105" s="34"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A106" s="53">
@@ -5651,7 +5600,7 @@
         <v>99194</v>
       </c>
       <c r="F106" s="56" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="G106" s="57"/>
       <c r="H106" s="57"/>
@@ -5660,61 +5609,61 @@
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A107" s="74"/>
-      <c r="B107" s="75"/>
-      <c r="C107" s="76"/>
-      <c r="D107" s="75">
+      <c r="A107" s="22"/>
+      <c r="B107" s="23"/>
+      <c r="C107" s="24"/>
+      <c r="D107" s="23">
         <v>1</v>
       </c>
-      <c r="E107" s="77"/>
-      <c r="F107" s="78" t="s">
-        <v>414</v>
-      </c>
-      <c r="G107" s="79" t="s">
+      <c r="E107" s="63"/>
+      <c r="F107" s="32" t="s">
+        <v>408</v>
+      </c>
+      <c r="G107" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="H107" s="79" t="s">
+      <c r="H107" s="33" t="s">
         <v>325</v>
       </c>
-      <c r="I107" s="80"/>
+      <c r="I107" s="34"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A108" s="74"/>
-      <c r="B108" s="75"/>
-      <c r="C108" s="76"/>
-      <c r="D108" s="75">
+      <c r="A108" s="22"/>
+      <c r="B108" s="23"/>
+      <c r="C108" s="24"/>
+      <c r="D108" s="23">
         <v>2</v>
       </c>
-      <c r="E108" s="77"/>
-      <c r="F108" s="78" t="s">
-        <v>416</v>
-      </c>
-      <c r="G108" s="79" t="s">
+      <c r="E108" s="63"/>
+      <c r="F108" s="32" t="s">
+        <v>410</v>
+      </c>
+      <c r="G108" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="H108" s="79" t="s">
+      <c r="H108" s="33" t="s">
         <v>325</v>
       </c>
-      <c r="I108" s="80"/>
+      <c r="I108" s="34"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A109" s="74"/>
-      <c r="B109" s="75"/>
-      <c r="C109" s="76"/>
-      <c r="D109" s="75">
+      <c r="A109" s="22"/>
+      <c r="B109" s="23"/>
+      <c r="C109" s="24"/>
+      <c r="D109" s="23">
         <v>3</v>
       </c>
-      <c r="E109" s="77"/>
-      <c r="F109" s="78" t="s">
-        <v>417</v>
-      </c>
-      <c r="G109" s="79" t="s">
+      <c r="E109" s="63"/>
+      <c r="F109" s="32" t="s">
+        <v>411</v>
+      </c>
+      <c r="G109" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="H109" s="79" t="s">
+      <c r="H109" s="33" t="s">
         <v>325</v>
       </c>
-      <c r="I109" s="80"/>
+      <c r="I109" s="34"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A110" s="53">
@@ -5733,7 +5682,7 @@
         <v>99195</v>
       </c>
       <c r="F110" s="56" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G110" s="57"/>
       <c r="H110" s="57"/>
@@ -5742,42 +5691,42 @@
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A111" s="74"/>
-      <c r="B111" s="75"/>
-      <c r="C111" s="76"/>
-      <c r="D111" s="75">
+      <c r="A111" s="22"/>
+      <c r="B111" s="23"/>
+      <c r="C111" s="24"/>
+      <c r="D111" s="23">
         <v>1</v>
       </c>
-      <c r="E111" s="77"/>
-      <c r="F111" s="78" t="s">
-        <v>418</v>
-      </c>
-      <c r="G111" s="79" t="s">
+      <c r="E111" s="63"/>
+      <c r="F111" s="32" t="s">
+        <v>412</v>
+      </c>
+      <c r="G111" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="H111" s="79" t="s">
+      <c r="H111" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="I111" s="80"/>
+      <c r="I111" s="34"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A112" s="74"/>
-      <c r="B112" s="75"/>
-      <c r="C112" s="76"/>
-      <c r="D112" s="75">
+      <c r="A112" s="22"/>
+      <c r="B112" s="23"/>
+      <c r="C112" s="24"/>
+      <c r="D112" s="23">
         <v>2</v>
       </c>
-      <c r="E112" s="77"/>
-      <c r="F112" s="78" t="s">
-        <v>419</v>
-      </c>
-      <c r="G112" s="79" t="s">
+      <c r="E112" s="63"/>
+      <c r="F112" s="32" t="s">
+        <v>413</v>
+      </c>
+      <c r="G112" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="H112" s="79" t="s">
+      <c r="H112" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="I112" s="80"/>
+      <c r="I112" s="34"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A113" s="53">
@@ -5794,7 +5743,7 @@
       </c>
       <c r="E113" s="64"/>
       <c r="F113" s="56" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="G113" s="57"/>
       <c r="H113" s="57"/>
@@ -5803,88 +5752,88 @@
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A114" s="74"/>
-      <c r="B114" s="75"/>
-      <c r="C114" s="76"/>
-      <c r="D114" s="75">
+      <c r="A114" s="22"/>
+      <c r="B114" s="23"/>
+      <c r="C114" s="24"/>
+      <c r="D114" s="23">
         <v>1</v>
       </c>
-      <c r="E114" s="77" t="s">
-        <v>428</v>
-      </c>
-      <c r="F114" s="78" t="s">
-        <v>423</v>
-      </c>
-      <c r="G114" s="79" t="s">
+      <c r="E114" s="63" t="s">
+        <v>422</v>
+      </c>
+      <c r="F114" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="G114" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="H114" s="79" t="s">
+      <c r="H114" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="I114" s="80"/>
+      <c r="I114" s="34"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A115" s="74"/>
-      <c r="B115" s="75"/>
-      <c r="C115" s="76"/>
-      <c r="D115" s="75">
+      <c r="A115" s="22"/>
+      <c r="B115" s="23"/>
+      <c r="C115" s="24"/>
+      <c r="D115" s="23">
         <v>2</v>
       </c>
-      <c r="E115" s="77">
+      <c r="E115" s="63">
         <v>99195</v>
       </c>
-      <c r="F115" s="78" t="s">
-        <v>421</v>
-      </c>
-      <c r="G115" s="79" t="s">
-        <v>410</v>
-      </c>
-      <c r="H115" s="79" t="s">
+      <c r="F115" s="32" t="s">
+        <v>415</v>
+      </c>
+      <c r="G115" s="33" t="s">
+        <v>404</v>
+      </c>
+      <c r="H115" s="33" t="s">
         <v>325</v>
       </c>
-      <c r="I115" s="80"/>
+      <c r="I115" s="34"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A116" s="74"/>
-      <c r="B116" s="75"/>
-      <c r="C116" s="76"/>
-      <c r="D116" s="75">
+      <c r="A116" s="22"/>
+      <c r="B116" s="23"/>
+      <c r="C116" s="24"/>
+      <c r="D116" s="23">
         <v>3</v>
       </c>
-      <c r="E116" s="77">
+      <c r="E116" s="63">
         <v>99195</v>
       </c>
-      <c r="F116" s="78" t="s">
-        <v>422</v>
-      </c>
-      <c r="G116" s="79" t="s">
+      <c r="F116" s="32" t="s">
+        <v>416</v>
+      </c>
+      <c r="G116" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="H116" s="79" t="s">
+      <c r="H116" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="I116" s="80"/>
+      <c r="I116" s="34"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A117" s="74"/>
-      <c r="B117" s="75"/>
-      <c r="C117" s="76"/>
-      <c r="D117" s="75">
+      <c r="A117" s="22"/>
+      <c r="B117" s="23"/>
+      <c r="C117" s="24"/>
+      <c r="D117" s="23">
         <v>4</v>
       </c>
-      <c r="E117" s="77">
+      <c r="E117" s="63">
         <v>99195</v>
       </c>
-      <c r="F117" s="78" t="s">
-        <v>423</v>
-      </c>
-      <c r="G117" s="79" t="s">
+      <c r="F117" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="G117" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="H117" s="79" t="s">
+      <c r="H117" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="I117" s="80"/>
+      <c r="I117" s="34"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A118" s="53">
@@ -5903,7 +5852,7 @@
         <v>99196</v>
       </c>
       <c r="F118" s="56" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="G118" s="57"/>
       <c r="H118" s="57"/>
@@ -5912,80 +5861,80 @@
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A119" s="74"/>
-      <c r="B119" s="75"/>
-      <c r="C119" s="76"/>
-      <c r="D119" s="75">
+      <c r="A119" s="22"/>
+      <c r="B119" s="23"/>
+      <c r="C119" s="24"/>
+      <c r="D119" s="23">
         <v>1</v>
       </c>
-      <c r="E119" s="77"/>
-      <c r="F119" s="78" t="s">
-        <v>376</v>
-      </c>
-      <c r="G119" s="79" t="s">
-        <v>410</v>
-      </c>
-      <c r="H119" s="79" t="s">
+      <c r="E119" s="63"/>
+      <c r="F119" s="32" t="s">
+        <v>374</v>
+      </c>
+      <c r="G119" s="33" t="s">
+        <v>404</v>
+      </c>
+      <c r="H119" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="I119" s="80"/>
+      <c r="I119" s="34"/>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A120" s="74"/>
-      <c r="B120" s="75"/>
-      <c r="C120" s="76"/>
-      <c r="D120" s="75">
+      <c r="A120" s="22"/>
+      <c r="B120" s="23"/>
+      <c r="C120" s="24"/>
+      <c r="D120" s="23">
         <v>2</v>
       </c>
-      <c r="E120" s="77"/>
-      <c r="F120" s="78" t="s">
+      <c r="E120" s="63"/>
+      <c r="F120" s="32" t="s">
         <v>326</v>
       </c>
-      <c r="G120" s="79" t="s">
-        <v>410</v>
-      </c>
-      <c r="H120" s="79" t="s">
+      <c r="G120" s="33" t="s">
+        <v>404</v>
+      </c>
+      <c r="H120" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="I120" s="80"/>
+      <c r="I120" s="34"/>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A121" s="74"/>
-      <c r="B121" s="75"/>
-      <c r="C121" s="76"/>
-      <c r="D121" s="75">
+      <c r="A121" s="22"/>
+      <c r="B121" s="23"/>
+      <c r="C121" s="24"/>
+      <c r="D121" s="23">
         <v>3</v>
       </c>
-      <c r="E121" s="77"/>
-      <c r="F121" s="78" t="s">
-        <v>424</v>
-      </c>
-      <c r="G121" s="79" t="s">
-        <v>410</v>
-      </c>
-      <c r="H121" s="79" t="s">
+      <c r="E121" s="63"/>
+      <c r="F121" s="32" t="s">
+        <v>418</v>
+      </c>
+      <c r="G121" s="33" t="s">
+        <v>404</v>
+      </c>
+      <c r="H121" s="33" t="s">
         <v>325</v>
       </c>
-      <c r="I121" s="80"/>
+      <c r="I121" s="34"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A122" s="74"/>
-      <c r="B122" s="75"/>
-      <c r="C122" s="76"/>
-      <c r="D122" s="75">
+      <c r="A122" s="22"/>
+      <c r="B122" s="23"/>
+      <c r="C122" s="24"/>
+      <c r="D122" s="23">
         <v>4</v>
       </c>
-      <c r="E122" s="77"/>
-      <c r="F122" s="78" t="s">
+      <c r="E122" s="63"/>
+      <c r="F122" s="32" t="s">
         <v>326</v>
       </c>
-      <c r="G122" s="79" t="s">
-        <v>410</v>
-      </c>
-      <c r="H122" s="79" t="s">
+      <c r="G122" s="33" t="s">
+        <v>404</v>
+      </c>
+      <c r="H122" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="I122" s="80"/>
+      <c r="I122" s="34"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A123" s="53">
@@ -6004,7 +5953,7 @@
         <v>99197</v>
       </c>
       <c r="F123" s="56" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="G123" s="57"/>
       <c r="H123" s="57"/>
@@ -6013,23 +5962,23 @@
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A124" s="74"/>
-      <c r="B124" s="75"/>
-      <c r="C124" s="76"/>
-      <c r="D124" s="75">
+      <c r="A124" s="22"/>
+      <c r="B124" s="23"/>
+      <c r="C124" s="24"/>
+      <c r="D124" s="23">
         <v>1</v>
       </c>
-      <c r="E124" s="77"/>
-      <c r="F124" s="78" t="s">
-        <v>425</v>
-      </c>
-      <c r="G124" s="79" t="s">
-        <v>328</v>
-      </c>
-      <c r="H124" s="79" t="s">
+      <c r="E124" s="63"/>
+      <c r="F124" s="32" t="s">
+        <v>419</v>
+      </c>
+      <c r="G124" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="H124" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="I124" s="80"/>
+      <c r="I124" s="34"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A125" s="53">
@@ -6045,10 +5994,10 @@
         <v>0</v>
       </c>
       <c r="E125" s="64" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="F125" s="56" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="G125" s="57"/>
       <c r="H125" s="57"/>
@@ -6057,61 +6006,61 @@
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A126" s="74"/>
-      <c r="B126" s="75"/>
-      <c r="C126" s="76"/>
-      <c r="D126" s="75">
+      <c r="A126" s="22"/>
+      <c r="B126" s="23"/>
+      <c r="C126" s="24"/>
+      <c r="D126" s="23">
         <v>1</v>
       </c>
-      <c r="E126" s="77"/>
-      <c r="F126" s="78" t="s">
-        <v>406</v>
-      </c>
-      <c r="G126" s="79" t="s">
-        <v>328</v>
-      </c>
-      <c r="H126" s="79" t="s">
+      <c r="E126" s="63"/>
+      <c r="F126" s="32" t="s">
+        <v>400</v>
+      </c>
+      <c r="G126" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="H126" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="I126" s="80"/>
+      <c r="I126" s="34"/>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A127" s="74"/>
-      <c r="B127" s="75"/>
-      <c r="C127" s="76"/>
-      <c r="D127" s="75">
+      <c r="A127" s="22"/>
+      <c r="B127" s="23"/>
+      <c r="C127" s="24"/>
+      <c r="D127" s="23">
         <v>2</v>
       </c>
-      <c r="E127" s="77"/>
-      <c r="F127" s="78" t="s">
-        <v>430</v>
-      </c>
-      <c r="G127" s="79" t="s">
-        <v>328</v>
-      </c>
-      <c r="H127" s="79" t="s">
+      <c r="E127" s="63"/>
+      <c r="F127" s="32" t="s">
+        <v>424</v>
+      </c>
+      <c r="G127" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="H127" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="I127" s="80"/>
+      <c r="I127" s="34"/>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A128" s="74"/>
-      <c r="B128" s="75"/>
-      <c r="C128" s="76"/>
-      <c r="D128" s="75">
+      <c r="A128" s="22"/>
+      <c r="B128" s="23"/>
+      <c r="C128" s="24"/>
+      <c r="D128" s="23">
         <v>3</v>
       </c>
-      <c r="E128" s="77"/>
-      <c r="F128" s="78" t="s">
-        <v>431</v>
-      </c>
-      <c r="G128" s="79" t="s">
-        <v>328</v>
-      </c>
-      <c r="H128" s="79" t="s">
+      <c r="E128" s="63"/>
+      <c r="F128" s="32" t="s">
+        <v>425</v>
+      </c>
+      <c r="G128" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="H128" s="33" t="s">
         <v>325</v>
       </c>
-      <c r="I128" s="80"/>
+      <c r="I128" s="34"/>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A129" s="53">
@@ -6130,7 +6079,7 @@
         <v>99198</v>
       </c>
       <c r="F129" s="56" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="G129" s="57"/>
       <c r="H129" s="57"/>
@@ -6139,23 +6088,23 @@
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A130" s="74"/>
-      <c r="B130" s="75"/>
-      <c r="C130" s="76"/>
-      <c r="D130" s="75">
+      <c r="A130" s="22"/>
+      <c r="B130" s="23"/>
+      <c r="C130" s="24"/>
+      <c r="D130" s="23">
         <v>1</v>
       </c>
-      <c r="E130" s="77"/>
-      <c r="F130" s="78" t="s">
-        <v>433</v>
-      </c>
-      <c r="G130" s="79" t="s">
+      <c r="E130" s="63"/>
+      <c r="F130" s="32" t="s">
+        <v>427</v>
+      </c>
+      <c r="G130" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="H130" s="79" t="s">
+      <c r="H130" s="33" t="s">
         <v>325</v>
       </c>
-      <c r="I130" s="80"/>
+      <c r="I130" s="34"/>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A131" s="53">
@@ -6174,7 +6123,7 @@
         <v>99198</v>
       </c>
       <c r="F131" s="56" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="G131" s="57"/>
       <c r="H131" s="57"/>
@@ -6183,42 +6132,42 @@
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A132" s="74"/>
-      <c r="B132" s="75"/>
-      <c r="C132" s="76"/>
-      <c r="D132" s="75">
+      <c r="A132" s="22"/>
+      <c r="B132" s="23"/>
+      <c r="C132" s="24"/>
+      <c r="D132" s="23">
         <v>1</v>
       </c>
-      <c r="E132" s="77"/>
-      <c r="F132" s="78" t="s">
-        <v>433</v>
-      </c>
-      <c r="G132" s="79" t="s">
+      <c r="E132" s="63"/>
+      <c r="F132" s="32" t="s">
+        <v>427</v>
+      </c>
+      <c r="G132" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="H132" s="79" t="s">
+      <c r="H132" s="33" t="s">
         <v>325</v>
       </c>
-      <c r="I132" s="80"/>
+      <c r="I132" s="34"/>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A133" s="74"/>
-      <c r="B133" s="75"/>
-      <c r="C133" s="76"/>
-      <c r="D133" s="75">
+      <c r="A133" s="22"/>
+      <c r="B133" s="23"/>
+      <c r="C133" s="24"/>
+      <c r="D133" s="23">
         <v>2</v>
       </c>
-      <c r="E133" s="77"/>
-      <c r="F133" s="78" t="s">
-        <v>434</v>
-      </c>
-      <c r="G133" s="79" t="s">
+      <c r="E133" s="63"/>
+      <c r="F133" s="32" t="s">
+        <v>428</v>
+      </c>
+      <c r="G133" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="H133" s="79" t="s">
+      <c r="H133" s="33" t="s">
         <v>325</v>
       </c>
-      <c r="I133" s="80"/>
+      <c r="I133" s="34"/>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A134" s="53">
@@ -6237,7 +6186,7 @@
         <v>99198</v>
       </c>
       <c r="F134" s="56" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="G134" s="57"/>
       <c r="H134" s="57"/>
@@ -6246,61 +6195,61 @@
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A135" s="74"/>
-      <c r="B135" s="75"/>
-      <c r="C135" s="76"/>
-      <c r="D135" s="75">
+      <c r="A135" s="22"/>
+      <c r="B135" s="23"/>
+      <c r="C135" s="24"/>
+      <c r="D135" s="23">
         <v>1</v>
       </c>
-      <c r="E135" s="77"/>
-      <c r="F135" s="78" t="s">
-        <v>436</v>
-      </c>
-      <c r="G135" s="79" t="s">
+      <c r="E135" s="63"/>
+      <c r="F135" s="32" t="s">
+        <v>430</v>
+      </c>
+      <c r="G135" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="H135" s="79" t="s">
+      <c r="H135" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="I135" s="80"/>
+      <c r="I135" s="34"/>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A136" s="74"/>
-      <c r="B136" s="75"/>
-      <c r="C136" s="76"/>
-      <c r="D136" s="75">
+      <c r="A136" s="22"/>
+      <c r="B136" s="23"/>
+      <c r="C136" s="24"/>
+      <c r="D136" s="23">
         <v>2</v>
       </c>
-      <c r="E136" s="77"/>
-      <c r="F136" s="78" t="s">
-        <v>437</v>
-      </c>
-      <c r="G136" s="79" t="s">
-        <v>328</v>
-      </c>
-      <c r="H136" s="79" t="s">
+      <c r="E136" s="63"/>
+      <c r="F136" s="32" t="s">
+        <v>431</v>
+      </c>
+      <c r="G136" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="H136" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="I136" s="80"/>
+      <c r="I136" s="34"/>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A137" s="74"/>
-      <c r="B137" s="75"/>
-      <c r="C137" s="76"/>
-      <c r="D137" s="75">
+      <c r="A137" s="22"/>
+      <c r="B137" s="23"/>
+      <c r="C137" s="24"/>
+      <c r="D137" s="23">
         <v>3</v>
       </c>
-      <c r="E137" s="77"/>
-      <c r="F137" s="78" t="s">
+      <c r="E137" s="63"/>
+      <c r="F137" s="32" t="s">
         <v>332</v>
       </c>
-      <c r="G137" s="79" t="s">
+      <c r="G137" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="H137" s="79" t="s">
+      <c r="H137" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="I137" s="80"/>
+      <c r="I137" s="34"/>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A138" s="53">
@@ -6319,7 +6268,7 @@
         <v>99200</v>
       </c>
       <c r="F138" s="56" t="s">
-        <v>438</v>
+        <v>462</v>
       </c>
       <c r="G138" s="57"/>
       <c r="H138" s="57"/>
@@ -6328,61 +6277,61 @@
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A139" s="74"/>
-      <c r="B139" s="75"/>
-      <c r="C139" s="76"/>
-      <c r="D139" s="75">
+      <c r="A139" s="22"/>
+      <c r="B139" s="23"/>
+      <c r="C139" s="24"/>
+      <c r="D139" s="23">
         <v>1</v>
       </c>
-      <c r="E139" s="77"/>
-      <c r="F139" s="78" t="s">
-        <v>390</v>
-      </c>
-      <c r="G139" s="79" t="s">
+      <c r="E139" s="63"/>
+      <c r="F139" s="32" t="s">
+        <v>387</v>
+      </c>
+      <c r="G139" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="H139" s="79" t="s">
+      <c r="H139" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="I139" s="80"/>
+      <c r="I139" s="34"/>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A140" s="74"/>
-      <c r="B140" s="75"/>
-      <c r="C140" s="76"/>
-      <c r="D140" s="75">
+      <c r="A140" s="22"/>
+      <c r="B140" s="23"/>
+      <c r="C140" s="24"/>
+      <c r="D140" s="23">
         <v>2</v>
       </c>
-      <c r="E140" s="77"/>
-      <c r="F140" s="78" t="s">
-        <v>398</v>
-      </c>
-      <c r="G140" s="79" t="s">
+      <c r="E140" s="63"/>
+      <c r="F140" s="32" t="s">
+        <v>393</v>
+      </c>
+      <c r="G140" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="H140" s="79" t="s">
+      <c r="H140" s="33" t="s">
         <v>325</v>
       </c>
-      <c r="I140" s="80"/>
+      <c r="I140" s="34"/>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A141" s="74"/>
-      <c r="B141" s="75"/>
-      <c r="C141" s="76"/>
-      <c r="D141" s="75">
+      <c r="A141" s="22"/>
+      <c r="B141" s="23"/>
+      <c r="C141" s="24"/>
+      <c r="D141" s="23">
         <v>3</v>
       </c>
-      <c r="E141" s="77"/>
-      <c r="F141" s="78" t="s">
-        <v>439</v>
-      </c>
-      <c r="G141" s="79" t="s">
+      <c r="E141" s="63"/>
+      <c r="F141" s="32" t="s">
+        <v>432</v>
+      </c>
+      <c r="G141" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="H141" s="79" t="s">
+      <c r="H141" s="33" t="s">
         <v>325</v>
       </c>
-      <c r="I141" s="80"/>
+      <c r="I141" s="34"/>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A142" s="53">
@@ -6401,7 +6350,7 @@
         <v>99197</v>
       </c>
       <c r="F142" s="56" t="s">
-        <v>440</v>
+        <v>470</v>
       </c>
       <c r="G142" s="57"/>
       <c r="H142" s="57"/>
@@ -6410,61 +6359,61 @@
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A143" s="74"/>
-      <c r="B143" s="75"/>
-      <c r="C143" s="76"/>
-      <c r="D143" s="75">
+      <c r="A143" s="22"/>
+      <c r="B143" s="23"/>
+      <c r="C143" s="24"/>
+      <c r="D143" s="23">
         <v>1</v>
       </c>
-      <c r="E143" s="77"/>
-      <c r="F143" s="78" t="s">
-        <v>441</v>
-      </c>
-      <c r="G143" s="79" t="s">
-        <v>328</v>
-      </c>
-      <c r="H143" s="79" t="s">
-        <v>374</v>
-      </c>
-      <c r="I143" s="80"/>
+      <c r="E143" s="63"/>
+      <c r="F143" s="32" t="s">
+        <v>433</v>
+      </c>
+      <c r="G143" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="H143" s="33" t="s">
+        <v>372</v>
+      </c>
+      <c r="I143" s="34"/>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A144" s="74"/>
-      <c r="B144" s="75"/>
-      <c r="C144" s="76"/>
-      <c r="D144" s="75">
+      <c r="A144" s="22"/>
+      <c r="B144" s="23"/>
+      <c r="C144" s="24"/>
+      <c r="D144" s="23">
         <v>2</v>
       </c>
-      <c r="E144" s="77"/>
-      <c r="F144" s="78" t="s">
-        <v>442</v>
-      </c>
-      <c r="G144" s="79" t="s">
-        <v>328</v>
-      </c>
-      <c r="H144" s="79" t="s">
+      <c r="E144" s="63"/>
+      <c r="F144" s="32" t="s">
+        <v>434</v>
+      </c>
+      <c r="G144" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="H144" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="I144" s="80"/>
+      <c r="I144" s="34"/>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A145" s="74"/>
-      <c r="B145" s="75"/>
-      <c r="C145" s="76"/>
-      <c r="D145" s="75">
+      <c r="A145" s="22"/>
+      <c r="B145" s="23"/>
+      <c r="C145" s="24"/>
+      <c r="D145" s="23">
         <v>3</v>
       </c>
-      <c r="E145" s="77"/>
-      <c r="F145" s="78" t="s">
-        <v>443</v>
-      </c>
-      <c r="G145" s="79" t="s">
-        <v>328</v>
-      </c>
-      <c r="H145" s="79" t="s">
+      <c r="E145" s="63"/>
+      <c r="F145" s="32" t="s">
+        <v>435</v>
+      </c>
+      <c r="G145" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="H145" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="I145" s="80"/>
+      <c r="I145" s="34"/>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A146" s="53">
@@ -6483,7 +6432,7 @@
         <v>99201</v>
       </c>
       <c r="F146" s="56" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="G146" s="57"/>
       <c r="H146" s="57"/>
@@ -6492,61 +6441,61 @@
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A147" s="74"/>
-      <c r="B147" s="75"/>
-      <c r="C147" s="76"/>
-      <c r="D147" s="75">
+      <c r="A147" s="22"/>
+      <c r="B147" s="23"/>
+      <c r="C147" s="24"/>
+      <c r="D147" s="23">
         <v>1</v>
       </c>
-      <c r="E147" s="77"/>
-      <c r="F147" s="78" t="s">
-        <v>444</v>
-      </c>
-      <c r="G147" s="79" t="s">
+      <c r="E147" s="63"/>
+      <c r="F147" s="32" t="s">
+        <v>436</v>
+      </c>
+      <c r="G147" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="H147" s="79" t="s">
+      <c r="H147" s="33" t="s">
         <v>325</v>
       </c>
-      <c r="I147" s="80"/>
+      <c r="I147" s="34"/>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A148" s="74"/>
-      <c r="B148" s="75"/>
-      <c r="C148" s="76"/>
-      <c r="D148" s="75">
+      <c r="A148" s="22"/>
+      <c r="B148" s="23"/>
+      <c r="C148" s="24"/>
+      <c r="D148" s="23">
         <v>2</v>
       </c>
-      <c r="E148" s="77"/>
-      <c r="F148" s="78" t="s">
-        <v>424</v>
-      </c>
-      <c r="G148" s="79" t="s">
+      <c r="E148" s="63"/>
+      <c r="F148" s="32" t="s">
+        <v>418</v>
+      </c>
+      <c r="G148" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="H148" s="79" t="s">
+      <c r="H148" s="33" t="s">
         <v>325</v>
       </c>
-      <c r="I148" s="80"/>
+      <c r="I148" s="34"/>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A149" s="74"/>
-      <c r="B149" s="75"/>
-      <c r="C149" s="76"/>
-      <c r="D149" s="75">
+      <c r="A149" s="22"/>
+      <c r="B149" s="23"/>
+      <c r="C149" s="24"/>
+      <c r="D149" s="23">
         <v>3</v>
       </c>
-      <c r="E149" s="77"/>
-      <c r="F149" s="78" t="s">
-        <v>444</v>
-      </c>
-      <c r="G149" s="79" t="s">
+      <c r="E149" s="63"/>
+      <c r="F149" s="32" t="s">
+        <v>436</v>
+      </c>
+      <c r="G149" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="H149" s="79" t="s">
+      <c r="H149" s="33" t="s">
         <v>325</v>
       </c>
-      <c r="I149" s="80"/>
+      <c r="I149" s="34"/>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A150" s="53">
@@ -6562,10 +6511,10 @@
         <v>0</v>
       </c>
       <c r="E150" s="64" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="F150" s="56" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="G150" s="57"/>
       <c r="H150" s="57"/>
@@ -6574,42 +6523,42 @@
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A151" s="74"/>
-      <c r="B151" s="75"/>
-      <c r="C151" s="76"/>
-      <c r="D151" s="75">
+      <c r="A151" s="22"/>
+      <c r="B151" s="23"/>
+      <c r="C151" s="24"/>
+      <c r="D151" s="23">
         <v>1</v>
       </c>
-      <c r="E151" s="77"/>
-      <c r="F151" s="78" t="s">
-        <v>364</v>
-      </c>
-      <c r="G151" s="79" t="s">
-        <v>328</v>
-      </c>
-      <c r="H151" s="79" t="s">
+      <c r="E151" s="63"/>
+      <c r="F151" s="32" t="s">
+        <v>363</v>
+      </c>
+      <c r="G151" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="H151" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="I151" s="80"/>
+      <c r="I151" s="34"/>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A152" s="74"/>
-      <c r="B152" s="75"/>
-      <c r="C152" s="76"/>
-      <c r="D152" s="75">
+      <c r="A152" s="22"/>
+      <c r="B152" s="23"/>
+      <c r="C152" s="24"/>
+      <c r="D152" s="23">
         <v>2</v>
       </c>
-      <c r="E152" s="77"/>
-      <c r="F152" s="78" t="s">
-        <v>446</v>
-      </c>
-      <c r="G152" s="79" t="s">
-        <v>328</v>
-      </c>
-      <c r="H152" s="79" t="s">
+      <c r="E152" s="63"/>
+      <c r="F152" s="32" t="s">
+        <v>438</v>
+      </c>
+      <c r="G152" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="H152" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="I152" s="80"/>
+      <c r="I152" s="34"/>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A153" s="53">
@@ -6628,7 +6577,7 @@
         <v>99198</v>
       </c>
       <c r="F153" s="56" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G153" s="57"/>
       <c r="H153" s="57"/>
@@ -6637,61 +6586,61 @@
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A154" s="74"/>
-      <c r="B154" s="75"/>
-      <c r="C154" s="76"/>
-      <c r="D154" s="75">
+      <c r="A154" s="22"/>
+      <c r="B154" s="23"/>
+      <c r="C154" s="24"/>
+      <c r="D154" s="23">
         <v>1</v>
       </c>
-      <c r="E154" s="77"/>
-      <c r="F154" s="78" t="s">
-        <v>447</v>
-      </c>
-      <c r="G154" s="79" t="s">
+      <c r="E154" s="63"/>
+      <c r="F154" s="32" t="s">
+        <v>439</v>
+      </c>
+      <c r="G154" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="H154" s="79" t="s">
-        <v>374</v>
-      </c>
-      <c r="I154" s="80"/>
+      <c r="H154" s="33" t="s">
+        <v>372</v>
+      </c>
+      <c r="I154" s="34"/>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A155" s="74"/>
-      <c r="B155" s="75"/>
-      <c r="C155" s="76"/>
-      <c r="D155" s="75">
+      <c r="A155" s="22"/>
+      <c r="B155" s="23"/>
+      <c r="C155" s="24"/>
+      <c r="D155" s="23">
         <v>2</v>
       </c>
-      <c r="E155" s="77"/>
-      <c r="F155" s="78" t="s">
-        <v>383</v>
-      </c>
-      <c r="G155" s="79" t="s">
-        <v>328</v>
-      </c>
-      <c r="H155" s="79" t="s">
+      <c r="E155" s="63"/>
+      <c r="F155" s="32" t="s">
+        <v>381</v>
+      </c>
+      <c r="G155" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="H155" s="33" t="s">
         <v>325</v>
       </c>
-      <c r="I155" s="80"/>
+      <c r="I155" s="34"/>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A156" s="74"/>
-      <c r="B156" s="75"/>
-      <c r="C156" s="76"/>
-      <c r="D156" s="75">
+      <c r="A156" s="22"/>
+      <c r="B156" s="23"/>
+      <c r="C156" s="24"/>
+      <c r="D156" s="23">
         <v>3</v>
       </c>
-      <c r="E156" s="77"/>
-      <c r="F156" s="78" t="s">
-        <v>383</v>
-      </c>
-      <c r="G156" s="79" t="s">
-        <v>328</v>
-      </c>
-      <c r="H156" s="79" t="s">
+      <c r="E156" s="63"/>
+      <c r="F156" s="32" t="s">
+        <v>381</v>
+      </c>
+      <c r="G156" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="H156" s="33" t="s">
         <v>325</v>
       </c>
-      <c r="I156" s="80"/>
+      <c r="I156" s="34"/>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A157" s="53">
@@ -6710,7 +6659,7 @@
         <v>99203</v>
       </c>
       <c r="F157" s="56" t="s">
-        <v>438</v>
+        <v>462</v>
       </c>
       <c r="G157" s="57"/>
       <c r="H157" s="57"/>
@@ -6719,61 +6668,61 @@
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A158" s="74"/>
-      <c r="B158" s="75"/>
-      <c r="C158" s="76"/>
-      <c r="D158" s="75">
+      <c r="A158" s="22"/>
+      <c r="B158" s="23"/>
+      <c r="C158" s="24"/>
+      <c r="D158" s="23">
         <v>1</v>
       </c>
-      <c r="E158" s="77"/>
-      <c r="F158" s="78" t="s">
-        <v>448</v>
-      </c>
-      <c r="G158" s="79" t="s">
-        <v>328</v>
-      </c>
-      <c r="H158" s="79" t="s">
+      <c r="E158" s="63"/>
+      <c r="F158" s="32" t="s">
+        <v>440</v>
+      </c>
+      <c r="G158" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="H158" s="33" t="s">
         <v>325</v>
       </c>
-      <c r="I158" s="80"/>
+      <c r="I158" s="34"/>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A159" s="74"/>
-      <c r="B159" s="75"/>
-      <c r="C159" s="76"/>
-      <c r="D159" s="75">
+      <c r="A159" s="22"/>
+      <c r="B159" s="23"/>
+      <c r="C159" s="24"/>
+      <c r="D159" s="23">
         <v>2</v>
       </c>
-      <c r="E159" s="77"/>
-      <c r="F159" s="78" t="s">
-        <v>449</v>
-      </c>
-      <c r="G159" s="79" t="s">
-        <v>328</v>
-      </c>
-      <c r="H159" s="79" t="s">
+      <c r="E159" s="63"/>
+      <c r="F159" s="32" t="s">
+        <v>441</v>
+      </c>
+      <c r="G159" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="H159" s="33" t="s">
         <v>325</v>
       </c>
-      <c r="I159" s="80"/>
+      <c r="I159" s="34"/>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A160" s="74"/>
-      <c r="B160" s="75"/>
-      <c r="C160" s="76"/>
-      <c r="D160" s="75">
+      <c r="A160" s="22"/>
+      <c r="B160" s="23"/>
+      <c r="C160" s="24"/>
+      <c r="D160" s="23">
         <v>3</v>
       </c>
-      <c r="E160" s="77"/>
-      <c r="F160" s="78" t="s">
-        <v>450</v>
-      </c>
-      <c r="G160" s="79" t="s">
-        <v>328</v>
-      </c>
-      <c r="H160" s="79" t="s">
+      <c r="E160" s="63"/>
+      <c r="F160" s="32" t="s">
+        <v>442</v>
+      </c>
+      <c r="G160" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="H160" s="33" t="s">
         <v>325</v>
       </c>
-      <c r="I160" s="80"/>
+      <c r="I160" s="34"/>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A161" s="53">
@@ -6792,7 +6741,7 @@
         <v>99203</v>
       </c>
       <c r="F161" s="56" t="s">
-        <v>438</v>
+        <v>461</v>
       </c>
       <c r="G161" s="57"/>
       <c r="H161" s="57"/>
@@ -6801,42 +6750,42 @@
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A162" s="74"/>
-      <c r="B162" s="75"/>
-      <c r="C162" s="76"/>
-      <c r="D162" s="75">
+      <c r="A162" s="22"/>
+      <c r="B162" s="23"/>
+      <c r="C162" s="24"/>
+      <c r="D162" s="23">
         <v>1</v>
       </c>
-      <c r="E162" s="77"/>
-      <c r="F162" s="78" t="s">
-        <v>451</v>
-      </c>
-      <c r="G162" s="79" t="s">
-        <v>328</v>
-      </c>
-      <c r="H162" s="79" t="s">
+      <c r="E162" s="63"/>
+      <c r="F162" s="32" t="s">
+        <v>443</v>
+      </c>
+      <c r="G162" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="H162" s="33" t="s">
         <v>325</v>
       </c>
-      <c r="I162" s="80"/>
+      <c r="I162" s="34"/>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A163" s="74"/>
-      <c r="B163" s="75"/>
-      <c r="C163" s="76"/>
-      <c r="D163" s="75">
+      <c r="A163" s="22"/>
+      <c r="B163" s="23"/>
+      <c r="C163" s="24"/>
+      <c r="D163" s="23">
         <v>2</v>
       </c>
-      <c r="E163" s="77"/>
-      <c r="F163" s="78" t="s">
-        <v>452</v>
-      </c>
-      <c r="G163" s="79" t="s">
-        <v>328</v>
-      </c>
-      <c r="H163" s="79" t="s">
+      <c r="E163" s="63"/>
+      <c r="F163" s="32" t="s">
+        <v>444</v>
+      </c>
+      <c r="G163" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="H163" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="I163" s="80"/>
+      <c r="I163" s="34"/>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A164" s="53">
@@ -6855,7 +6804,7 @@
         <v>99199</v>
       </c>
       <c r="F164" s="56" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="G164" s="57"/>
       <c r="H164" s="57"/>
@@ -6864,23 +6813,23 @@
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A165" s="74"/>
-      <c r="B165" s="75"/>
-      <c r="C165" s="76"/>
-      <c r="D165" s="75">
+      <c r="A165" s="22"/>
+      <c r="B165" s="23"/>
+      <c r="C165" s="24"/>
+      <c r="D165" s="23">
         <v>1</v>
       </c>
-      <c r="E165" s="77"/>
-      <c r="F165" s="78" t="s">
-        <v>454</v>
-      </c>
-      <c r="G165" s="79" t="s">
+      <c r="E165" s="63"/>
+      <c r="F165" s="32" t="s">
+        <v>446</v>
+      </c>
+      <c r="G165" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="H165" s="79" t="s">
+      <c r="H165" s="33" t="s">
         <v>325</v>
       </c>
-      <c r="I165" s="80"/>
+      <c r="I165" s="34"/>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A166" s="53">
@@ -6899,7 +6848,7 @@
         <v>99204</v>
       </c>
       <c r="F166" s="56" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="G166" s="57"/>
       <c r="H166" s="57"/>
@@ -6908,99 +6857,99 @@
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A167" s="74"/>
-      <c r="B167" s="75"/>
-      <c r="C167" s="76"/>
-      <c r="D167" s="75">
+      <c r="A167" s="22"/>
+      <c r="B167" s="23"/>
+      <c r="C167" s="24"/>
+      <c r="D167" s="23">
         <v>1</v>
       </c>
-      <c r="E167" s="77"/>
-      <c r="F167" s="78" t="s">
-        <v>451</v>
-      </c>
-      <c r="G167" s="79" t="s">
+      <c r="E167" s="63"/>
+      <c r="F167" s="32" t="s">
+        <v>443</v>
+      </c>
+      <c r="G167" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="H167" s="79" t="s">
+      <c r="H167" s="33" t="s">
         <v>325</v>
       </c>
-      <c r="I167" s="80"/>
+      <c r="I167" s="34"/>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A168" s="74"/>
-      <c r="B168" s="75"/>
-      <c r="C168" s="76"/>
-      <c r="D168" s="75">
+      <c r="A168" s="22"/>
+      <c r="B168" s="23"/>
+      <c r="C168" s="24"/>
+      <c r="D168" s="23">
         <v>2</v>
       </c>
-      <c r="E168" s="77"/>
-      <c r="F168" s="78" t="s">
-        <v>425</v>
-      </c>
-      <c r="G168" s="79" t="s">
-        <v>328</v>
-      </c>
-      <c r="H168" s="79" t="s">
+      <c r="E168" s="63"/>
+      <c r="F168" s="32" t="s">
+        <v>419</v>
+      </c>
+      <c r="G168" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="H168" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="I168" s="80"/>
+      <c r="I168" s="34"/>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A169" s="74"/>
-      <c r="B169" s="75"/>
-      <c r="C169" s="76"/>
-      <c r="D169" s="75">
+      <c r="A169" s="22"/>
+      <c r="B169" s="23"/>
+      <c r="C169" s="24"/>
+      <c r="D169" s="23">
         <v>3</v>
       </c>
-      <c r="E169" s="77"/>
-      <c r="F169" s="78" t="s">
-        <v>381</v>
-      </c>
-      <c r="G169" s="79" t="s">
+      <c r="E169" s="63"/>
+      <c r="F169" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="G169" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="H169" s="79" t="s">
+      <c r="H169" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="I169" s="80"/>
+      <c r="I169" s="34"/>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A170" s="74"/>
-      <c r="B170" s="75"/>
-      <c r="C170" s="76"/>
-      <c r="D170" s="75">
+      <c r="A170" s="22"/>
+      <c r="B170" s="23"/>
+      <c r="C170" s="24"/>
+      <c r="D170" s="23">
         <v>4</v>
       </c>
-      <c r="E170" s="77"/>
-      <c r="F170" s="78" t="s">
-        <v>425</v>
-      </c>
-      <c r="G170" s="79" t="s">
-        <v>328</v>
-      </c>
-      <c r="H170" s="79" t="s">
+      <c r="E170" s="63"/>
+      <c r="F170" s="32" t="s">
+        <v>419</v>
+      </c>
+      <c r="G170" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="H170" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="I170" s="80"/>
+      <c r="I170" s="34"/>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A171" s="74"/>
-      <c r="B171" s="75"/>
-      <c r="C171" s="76"/>
-      <c r="D171" s="75">
+      <c r="A171" s="22"/>
+      <c r="B171" s="23"/>
+      <c r="C171" s="24"/>
+      <c r="D171" s="23">
         <v>5</v>
       </c>
-      <c r="E171" s="77"/>
-      <c r="F171" s="78" t="s">
-        <v>381</v>
-      </c>
-      <c r="G171" s="79" t="s">
-        <v>328</v>
-      </c>
-      <c r="H171" s="79" t="s">
+      <c r="E171" s="63"/>
+      <c r="F171" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="G171" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="H171" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="I171" s="80"/>
+      <c r="I171" s="34"/>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A172" s="53">
@@ -7019,7 +6968,7 @@
         <v>99204</v>
       </c>
       <c r="F172" s="56" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G172" s="57"/>
       <c r="H172" s="57"/>
@@ -7028,61 +6977,61 @@
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A173" s="74"/>
-      <c r="B173" s="75"/>
-      <c r="C173" s="76"/>
-      <c r="D173" s="75">
+      <c r="A173" s="22"/>
+      <c r="B173" s="23"/>
+      <c r="C173" s="24"/>
+      <c r="D173" s="23">
         <v>1</v>
       </c>
-      <c r="E173" s="77"/>
-      <c r="F173" s="78" t="s">
-        <v>422</v>
-      </c>
-      <c r="G173" s="79" t="s">
+      <c r="E173" s="63"/>
+      <c r="F173" s="32" t="s">
+        <v>416</v>
+      </c>
+      <c r="G173" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="H173" s="79" t="s">
+      <c r="H173" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="I173" s="80"/>
+      <c r="I173" s="34"/>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A174" s="74"/>
-      <c r="B174" s="75"/>
-      <c r="C174" s="76"/>
-      <c r="D174" s="75">
+      <c r="A174" s="22"/>
+      <c r="B174" s="23"/>
+      <c r="C174" s="24"/>
+      <c r="D174" s="23">
         <v>2</v>
       </c>
-      <c r="E174" s="77"/>
-      <c r="F174" s="78" t="s">
-        <v>456</v>
-      </c>
-      <c r="G174" s="79" t="s">
-        <v>328</v>
-      </c>
-      <c r="H174" s="79" t="s">
+      <c r="E174" s="63"/>
+      <c r="F174" s="32" t="s">
+        <v>447</v>
+      </c>
+      <c r="G174" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="H174" s="33" t="s">
         <v>325</v>
       </c>
-      <c r="I174" s="80"/>
+      <c r="I174" s="34"/>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A175" s="74"/>
-      <c r="B175" s="75"/>
-      <c r="C175" s="76"/>
-      <c r="D175" s="75">
+      <c r="A175" s="22"/>
+      <c r="B175" s="23"/>
+      <c r="C175" s="24"/>
+      <c r="D175" s="23">
         <v>3</v>
       </c>
-      <c r="E175" s="77"/>
-      <c r="F175" s="78" t="s">
-        <v>422</v>
-      </c>
-      <c r="G175" s="79" t="s">
+      <c r="E175" s="63"/>
+      <c r="F175" s="32" t="s">
+        <v>416</v>
+      </c>
+      <c r="G175" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="H175" s="79" t="s">
+      <c r="H175" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="I175" s="80"/>
+      <c r="I175" s="34"/>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A176" s="53">
@@ -7098,10 +7047,10 @@
         <v>0</v>
       </c>
       <c r="E176" s="64" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="F176" s="56" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="G176" s="57"/>
       <c r="H176" s="57"/>
@@ -7110,61 +7059,61 @@
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A177" s="74"/>
-      <c r="B177" s="75"/>
-      <c r="C177" s="76"/>
-      <c r="D177" s="75">
+      <c r="A177" s="22"/>
+      <c r="B177" s="23"/>
+      <c r="C177" s="24"/>
+      <c r="D177" s="23">
         <v>1</v>
       </c>
-      <c r="E177" s="77"/>
-      <c r="F177" s="78" t="s">
-        <v>458</v>
-      </c>
-      <c r="G177" s="79" t="s">
-        <v>328</v>
-      </c>
-      <c r="H177" s="79" t="s">
+      <c r="E177" s="63"/>
+      <c r="F177" s="32" t="s">
+        <v>449</v>
+      </c>
+      <c r="G177" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="H177" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="I177" s="80"/>
+      <c r="I177" s="34"/>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A178" s="74"/>
-      <c r="B178" s="75"/>
-      <c r="C178" s="76"/>
-      <c r="D178" s="75">
+      <c r="A178" s="22"/>
+      <c r="B178" s="23"/>
+      <c r="C178" s="24"/>
+      <c r="D178" s="23">
         <v>2</v>
       </c>
-      <c r="E178" s="77"/>
-      <c r="F178" s="78" t="s">
-        <v>386</v>
-      </c>
-      <c r="G178" s="79" t="s">
+      <c r="E178" s="63"/>
+      <c r="F178" s="32" t="s">
+        <v>384</v>
+      </c>
+      <c r="G178" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="H178" s="79" t="s">
+      <c r="H178" s="33" t="s">
         <v>325</v>
       </c>
-      <c r="I178" s="80"/>
+      <c r="I178" s="34"/>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A179" s="74"/>
-      <c r="B179" s="75"/>
-      <c r="C179" s="76"/>
-      <c r="D179" s="75">
+      <c r="A179" s="22"/>
+      <c r="B179" s="23"/>
+      <c r="C179" s="24"/>
+      <c r="D179" s="23">
         <v>3</v>
       </c>
-      <c r="E179" s="77"/>
-      <c r="F179" s="78" t="s">
-        <v>459</v>
-      </c>
-      <c r="G179" s="79" t="s">
-        <v>328</v>
-      </c>
-      <c r="H179" s="79" t="s">
+      <c r="E179" s="63"/>
+      <c r="F179" s="32" t="s">
+        <v>450</v>
+      </c>
+      <c r="G179" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="H179" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="I179" s="80"/>
+      <c r="I179" s="34"/>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A180" s="53">
@@ -7192,42 +7141,42 @@
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A181" s="74"/>
-      <c r="B181" s="75"/>
-      <c r="C181" s="76"/>
-      <c r="D181" s="75">
+      <c r="A181" s="22"/>
+      <c r="B181" s="23"/>
+      <c r="C181" s="24"/>
+      <c r="D181" s="23">
         <v>1</v>
       </c>
-      <c r="E181" s="77"/>
-      <c r="F181" s="78" t="s">
-        <v>460</v>
-      </c>
-      <c r="G181" s="79" t="s">
+      <c r="E181" s="63"/>
+      <c r="F181" s="32" t="s">
+        <v>451</v>
+      </c>
+      <c r="G181" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="H181" s="79" t="s">
+      <c r="H181" s="33" t="s">
         <v>325</v>
       </c>
-      <c r="I181" s="80"/>
+      <c r="I181" s="34"/>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A182" s="74"/>
-      <c r="B182" s="75"/>
-      <c r="C182" s="76"/>
-      <c r="D182" s="75">
+      <c r="A182" s="22"/>
+      <c r="B182" s="23"/>
+      <c r="C182" s="24"/>
+      <c r="D182" s="23">
         <v>2</v>
       </c>
-      <c r="E182" s="77"/>
-      <c r="F182" s="78" t="s">
-        <v>461</v>
-      </c>
-      <c r="G182" s="79" t="s">
+      <c r="E182" s="63"/>
+      <c r="F182" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="G182" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="H182" s="79" t="s">
+      <c r="H182" s="33" t="s">
         <v>325</v>
       </c>
-      <c r="I182" s="80"/>
+      <c r="I182" s="34"/>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A183" s="53">
@@ -7246,7 +7195,7 @@
         <v>99207</v>
       </c>
       <c r="F183" s="56" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="G183" s="57"/>
       <c r="H183" s="57"/>
@@ -7255,61 +7204,61 @@
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A184" s="74"/>
-      <c r="B184" s="75"/>
-      <c r="C184" s="76"/>
-      <c r="D184" s="75">
+      <c r="A184" s="22"/>
+      <c r="B184" s="23"/>
+      <c r="C184" s="24"/>
+      <c r="D184" s="23">
         <v>1</v>
       </c>
-      <c r="E184" s="77"/>
-      <c r="F184" s="78" t="s">
-        <v>390</v>
-      </c>
-      <c r="G184" s="79" t="s">
+      <c r="E184" s="63"/>
+      <c r="F184" s="32" t="s">
+        <v>387</v>
+      </c>
+      <c r="G184" s="33" t="s">
         <v>356</v>
       </c>
-      <c r="H184" s="79" t="s">
+      <c r="H184" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="I184" s="80"/>
+      <c r="I184" s="34"/>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A185" s="74"/>
-      <c r="B185" s="75"/>
-      <c r="C185" s="76"/>
-      <c r="D185" s="75">
+      <c r="A185" s="22"/>
+      <c r="B185" s="23"/>
+      <c r="C185" s="24"/>
+      <c r="D185" s="23">
         <v>2</v>
       </c>
-      <c r="E185" s="77"/>
-      <c r="F185" s="78" t="s">
-        <v>406</v>
-      </c>
-      <c r="G185" s="79" t="s">
-        <v>384</v>
-      </c>
-      <c r="H185" s="79" t="s">
+      <c r="E185" s="63"/>
+      <c r="F185" s="32" t="s">
+        <v>400</v>
+      </c>
+      <c r="G185" s="33" t="s">
+        <v>382</v>
+      </c>
+      <c r="H185" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="I185" s="80"/>
+      <c r="I185" s="34"/>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A186" s="74"/>
-      <c r="B186" s="75"/>
-      <c r="C186" s="76"/>
-      <c r="D186" s="75">
+      <c r="A186" s="22"/>
+      <c r="B186" s="23"/>
+      <c r="C186" s="24"/>
+      <c r="D186" s="23">
         <v>3</v>
       </c>
-      <c r="E186" s="77"/>
-      <c r="F186" s="78" t="s">
-        <v>390</v>
-      </c>
-      <c r="G186" s="79" t="s">
+      <c r="E186" s="63"/>
+      <c r="F186" s="32" t="s">
+        <v>387</v>
+      </c>
+      <c r="G186" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="H186" s="79" t="s">
+      <c r="H186" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="I186" s="80"/>
+      <c r="I186" s="34"/>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A187" s="53">
@@ -7328,7 +7277,7 @@
         <v>99208</v>
       </c>
       <c r="F187" s="56" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="G187" s="57"/>
       <c r="H187" s="57"/>
@@ -7337,80 +7286,80 @@
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A188" s="74"/>
-      <c r="B188" s="75"/>
-      <c r="C188" s="76"/>
-      <c r="D188" s="75">
+      <c r="A188" s="22"/>
+      <c r="B188" s="23"/>
+      <c r="C188" s="24"/>
+      <c r="D188" s="23">
         <v>1</v>
       </c>
-      <c r="E188" s="77"/>
-      <c r="F188" s="78" t="s">
-        <v>363</v>
-      </c>
-      <c r="G188" s="79" t="s">
-        <v>328</v>
-      </c>
-      <c r="H188" s="79" t="s">
+      <c r="E188" s="63"/>
+      <c r="F188" s="32" t="s">
+        <v>362</v>
+      </c>
+      <c r="G188" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="H188" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="I188" s="80"/>
+      <c r="I188" s="34"/>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A189" s="74"/>
-      <c r="B189" s="75"/>
-      <c r="C189" s="76"/>
-      <c r="D189" s="75">
+      <c r="A189" s="22"/>
+      <c r="B189" s="23"/>
+      <c r="C189" s="24"/>
+      <c r="D189" s="23">
         <v>2</v>
       </c>
-      <c r="E189" s="77"/>
-      <c r="F189" s="78" t="s">
-        <v>463</v>
-      </c>
-      <c r="G189" s="79" t="s">
-        <v>328</v>
-      </c>
-      <c r="H189" s="79" t="s">
+      <c r="E189" s="63"/>
+      <c r="F189" s="32" t="s">
+        <v>454</v>
+      </c>
+      <c r="G189" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="H189" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="I189" s="80"/>
+      <c r="I189" s="34"/>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A190" s="74"/>
-      <c r="B190" s="75"/>
-      <c r="C190" s="76"/>
-      <c r="D190" s="75">
+      <c r="A190" s="22"/>
+      <c r="B190" s="23"/>
+      <c r="C190" s="24"/>
+      <c r="D190" s="23">
         <v>3</v>
       </c>
-      <c r="E190" s="77"/>
-      <c r="F190" s="78" t="s">
-        <v>464</v>
-      </c>
-      <c r="G190" s="79" t="s">
-        <v>328</v>
-      </c>
-      <c r="H190" s="79" t="s">
+      <c r="E190" s="63"/>
+      <c r="F190" s="32" t="s">
+        <v>455</v>
+      </c>
+      <c r="G190" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="H190" s="33" t="s">
         <v>325</v>
       </c>
-      <c r="I190" s="80"/>
+      <c r="I190" s="34"/>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A191" s="74"/>
-      <c r="B191" s="75"/>
-      <c r="C191" s="76"/>
-      <c r="D191" s="75">
+      <c r="A191" s="22"/>
+      <c r="B191" s="23"/>
+      <c r="C191" s="24"/>
+      <c r="D191" s="23">
         <v>4</v>
       </c>
-      <c r="E191" s="77"/>
-      <c r="F191" s="78" t="s">
-        <v>465</v>
-      </c>
-      <c r="G191" s="79" t="s">
-        <v>328</v>
-      </c>
-      <c r="H191" s="79" t="s">
+      <c r="E191" s="63"/>
+      <c r="F191" s="32" t="s">
+        <v>456</v>
+      </c>
+      <c r="G191" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="H191" s="33" t="s">
         <v>325</v>
       </c>
-      <c r="I191" s="80"/>
+      <c r="I191" s="34"/>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A192" s="53">
@@ -7429,7 +7378,7 @@
         <v>99208</v>
       </c>
       <c r="F192" s="56" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G192" s="57"/>
       <c r="H192" s="57"/>
@@ -7438,42 +7387,42 @@
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A193" s="74"/>
-      <c r="B193" s="75"/>
-      <c r="C193" s="76"/>
-      <c r="D193" s="75">
+      <c r="A193" s="22"/>
+      <c r="B193" s="23"/>
+      <c r="C193" s="24"/>
+      <c r="D193" s="23">
         <v>1</v>
       </c>
-      <c r="E193" s="77"/>
-      <c r="F193" s="78" t="s">
-        <v>364</v>
-      </c>
-      <c r="G193" s="79" t="s">
-        <v>328</v>
-      </c>
-      <c r="H193" s="79" t="s">
+      <c r="E193" s="63"/>
+      <c r="F193" s="32" t="s">
+        <v>363</v>
+      </c>
+      <c r="G193" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="H193" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="I193" s="80"/>
+      <c r="I193" s="34"/>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A194" s="74"/>
-      <c r="B194" s="75"/>
-      <c r="C194" s="76"/>
-      <c r="D194" s="75">
+      <c r="A194" s="22"/>
+      <c r="B194" s="23"/>
+      <c r="C194" s="24"/>
+      <c r="D194" s="23">
         <v>2</v>
       </c>
-      <c r="E194" s="77"/>
-      <c r="F194" s="78" t="s">
-        <v>422</v>
-      </c>
-      <c r="G194" s="79" t="s">
-        <v>328</v>
-      </c>
-      <c r="H194" s="79" t="s">
+      <c r="E194" s="63"/>
+      <c r="F194" s="32" t="s">
+        <v>416</v>
+      </c>
+      <c r="G194" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="H194" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="I194" s="80"/>
+      <c r="I194" s="34"/>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A195" s="53">
@@ -7492,7 +7441,7 @@
         <v>99207</v>
       </c>
       <c r="F195" s="56" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="G195" s="57"/>
       <c r="H195" s="57"/>
@@ -7501,42 +7450,42 @@
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A196" s="81"/>
-      <c r="B196" s="82"/>
-      <c r="C196" s="83"/>
-      <c r="D196" s="82">
+      <c r="A196" s="41"/>
+      <c r="B196" s="43"/>
+      <c r="C196" s="44"/>
+      <c r="D196" s="43">
         <v>1</v>
       </c>
-      <c r="E196" s="84"/>
-      <c r="F196" s="85" t="s">
-        <v>467</v>
-      </c>
-      <c r="G196" s="86" t="s">
-        <v>328</v>
-      </c>
-      <c r="H196" s="86" t="s">
+      <c r="E196" s="65"/>
+      <c r="F196" s="45" t="s">
+        <v>458</v>
+      </c>
+      <c r="G196" s="73" t="s">
+        <v>328</v>
+      </c>
+      <c r="H196" s="73" t="s">
         <v>324</v>
       </c>
-      <c r="I196" s="87"/>
+      <c r="I196" s="46"/>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A197" s="74"/>
-      <c r="B197" s="75"/>
-      <c r="C197" s="76"/>
-      <c r="D197" s="75">
+      <c r="A197" s="22"/>
+      <c r="B197" s="23"/>
+      <c r="C197" s="24"/>
+      <c r="D197" s="23">
         <v>2</v>
       </c>
-      <c r="E197" s="77"/>
-      <c r="F197" s="78" t="s">
-        <v>468</v>
-      </c>
-      <c r="G197" s="79" t="s">
-        <v>328</v>
-      </c>
-      <c r="H197" s="79" t="s">
+      <c r="E197" s="63"/>
+      <c r="F197" s="32" t="s">
+        <v>459</v>
+      </c>
+      <c r="G197" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="H197" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="I197" s="80"/>
+      <c r="I197" s="34"/>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A198" s="53">
@@ -7555,7 +7504,7 @@
         <v>99208</v>
       </c>
       <c r="F198" s="56" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="G198" s="57"/>
       <c r="H198" s="57"/>
@@ -7564,23 +7513,23 @@
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A199" s="74"/>
-      <c r="B199" s="75"/>
-      <c r="C199" s="76"/>
-      <c r="D199" s="75">
+      <c r="A199" s="22"/>
+      <c r="B199" s="23"/>
+      <c r="C199" s="24"/>
+      <c r="D199" s="23">
         <v>1</v>
       </c>
-      <c r="E199" s="77"/>
-      <c r="F199" s="78" t="s">
-        <v>469</v>
-      </c>
-      <c r="G199" s="79" t="s">
-        <v>328</v>
-      </c>
-      <c r="H199" s="79" t="s">
+      <c r="E199" s="63"/>
+      <c r="F199" s="32" t="s">
+        <v>460</v>
+      </c>
+      <c r="G199" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="H199" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="I199" s="80"/>
+      <c r="I199" s="34"/>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A200" s="53">
@@ -7599,7 +7548,7 @@
         <v>99209</v>
       </c>
       <c r="F200" s="56" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="G200" s="57"/>
       <c r="H200" s="57"/>
@@ -7608,80 +7557,80 @@
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A201" s="74"/>
-      <c r="B201" s="75"/>
-      <c r="C201" s="76"/>
-      <c r="D201" s="75">
+      <c r="A201" s="22"/>
+      <c r="B201" s="23"/>
+      <c r="C201" s="24"/>
+      <c r="D201" s="23">
         <v>1</v>
       </c>
-      <c r="E201" s="77"/>
-      <c r="F201" s="78" t="s">
-        <v>451</v>
-      </c>
-      <c r="G201" s="79" t="s">
-        <v>328</v>
-      </c>
-      <c r="H201" s="79" t="s">
+      <c r="E201" s="63"/>
+      <c r="F201" s="32" t="s">
+        <v>443</v>
+      </c>
+      <c r="G201" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="H201" s="33" t="s">
         <v>325</v>
       </c>
-      <c r="I201" s="80"/>
+      <c r="I201" s="34"/>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A202" s="74"/>
-      <c r="B202" s="75"/>
-      <c r="C202" s="76"/>
-      <c r="D202" s="75">
+      <c r="A202" s="22"/>
+      <c r="B202" s="23"/>
+      <c r="C202" s="24"/>
+      <c r="D202" s="23">
         <v>2</v>
       </c>
-      <c r="E202" s="77"/>
-      <c r="F202" s="78" t="s">
-        <v>472</v>
-      </c>
-      <c r="G202" s="79" t="s">
+      <c r="E202" s="63"/>
+      <c r="F202" s="32" t="s">
+        <v>463</v>
+      </c>
+      <c r="G202" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="H202" s="79" t="s">
+      <c r="H202" s="33" t="s">
         <v>325</v>
       </c>
-      <c r="I202" s="80"/>
+      <c r="I202" s="34"/>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A203" s="74"/>
-      <c r="B203" s="75"/>
-      <c r="C203" s="76"/>
-      <c r="D203" s="75">
+      <c r="A203" s="22"/>
+      <c r="B203" s="23"/>
+      <c r="C203" s="24"/>
+      <c r="D203" s="23">
         <v>3</v>
       </c>
-      <c r="E203" s="77"/>
-      <c r="F203" s="78" t="s">
-        <v>439</v>
-      </c>
-      <c r="G203" s="79" t="s">
-        <v>328</v>
-      </c>
-      <c r="H203" s="79" t="s">
+      <c r="E203" s="63"/>
+      <c r="F203" s="32" t="s">
+        <v>432</v>
+      </c>
+      <c r="G203" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="H203" s="33" t="s">
         <v>325</v>
       </c>
-      <c r="I203" s="80"/>
+      <c r="I203" s="34"/>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A204" s="74"/>
-      <c r="B204" s="75"/>
-      <c r="C204" s="76"/>
-      <c r="D204" s="75">
+      <c r="A204" s="22"/>
+      <c r="B204" s="23"/>
+      <c r="C204" s="24"/>
+      <c r="D204" s="23">
         <v>4</v>
       </c>
-      <c r="E204" s="77"/>
-      <c r="F204" s="78" t="s">
-        <v>473</v>
-      </c>
-      <c r="G204" s="79" t="s">
-        <v>328</v>
-      </c>
-      <c r="H204" s="79" t="s">
+      <c r="E204" s="63"/>
+      <c r="F204" s="32" t="s">
+        <v>464</v>
+      </c>
+      <c r="G204" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="H204" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="I204" s="80"/>
+      <c r="I204" s="34"/>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A205" s="53">
@@ -7700,7 +7649,7 @@
         <v>99209</v>
       </c>
       <c r="F205" s="56" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="G205" s="57"/>
       <c r="H205" s="57"/>
@@ -7709,42 +7658,42 @@
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A206" s="74"/>
-      <c r="B206" s="75"/>
-      <c r="C206" s="76"/>
-      <c r="D206" s="75">
+      <c r="A206" s="22"/>
+      <c r="B206" s="23"/>
+      <c r="C206" s="24"/>
+      <c r="D206" s="23">
         <v>1</v>
       </c>
-      <c r="E206" s="77"/>
-      <c r="F206" s="78" t="s">
-        <v>403</v>
-      </c>
-      <c r="G206" s="79" t="s">
-        <v>328</v>
-      </c>
-      <c r="H206" s="79" t="s">
-        <v>374</v>
-      </c>
-      <c r="I206" s="80"/>
+      <c r="E206" s="63"/>
+      <c r="F206" s="32" t="s">
+        <v>397</v>
+      </c>
+      <c r="G206" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="H206" s="33" t="s">
+        <v>372</v>
+      </c>
+      <c r="I206" s="34"/>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A207" s="74"/>
-      <c r="B207" s="75"/>
-      <c r="C207" s="76"/>
-      <c r="D207" s="75">
+      <c r="A207" s="22"/>
+      <c r="B207" s="23"/>
+      <c r="C207" s="24"/>
+      <c r="D207" s="23">
         <v>2</v>
       </c>
-      <c r="E207" s="77"/>
-      <c r="F207" s="78" t="s">
-        <v>475</v>
-      </c>
-      <c r="G207" s="79" t="s">
-        <v>328</v>
-      </c>
-      <c r="H207" s="79" t="s">
+      <c r="E207" s="63"/>
+      <c r="F207" s="32" t="s">
+        <v>466</v>
+      </c>
+      <c r="G207" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="H207" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="I207" s="80"/>
+      <c r="I207" s="34"/>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A208" s="53">
@@ -7831,7 +7780,7 @@
         <v>99211</v>
       </c>
       <c r="F212" s="56" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="G212" s="57"/>
       <c r="H212" s="57"/>
@@ -7840,23 +7789,23 @@
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A213" s="74"/>
-      <c r="B213" s="75"/>
-      <c r="C213" s="76"/>
-      <c r="D213" s="75">
+      <c r="A213" s="22"/>
+      <c r="B213" s="23"/>
+      <c r="C213" s="24"/>
+      <c r="D213" s="23">
         <v>1</v>
       </c>
-      <c r="E213" s="77"/>
-      <c r="F213" s="78" t="s">
-        <v>477</v>
-      </c>
-      <c r="G213" s="79" t="s">
+      <c r="E213" s="63"/>
+      <c r="F213" s="32" t="s">
+        <v>468</v>
+      </c>
+      <c r="G213" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="H213" s="79" t="s">
+      <c r="H213" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="I213" s="80"/>
+      <c r="I213" s="34"/>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A214" s="53">
@@ -8892,10 +8841,10 @@
       <c r="A2" t="s">
         <v>304</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="82" t="s">
         <v>305</v>
       </c>
-      <c r="C2" s="73" t="s">
+      <c r="C2" s="82" t="s">
         <v>306</v>
       </c>
     </row>
@@ -8903,8 +8852,8 @@
       <c r="A3" t="s">
         <v>307</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">

--- a/事出无因-表格.xlsx
+++ b/事出无因-表格.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CONST\PartA_Aint_No_Reason\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D34AD73F-2B0D-4C72-BCE8-C5194299AA8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459616CC-DB0A-4D6B-8E44-057D3FAD3A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B2B67734-6FD0-42FD-B7A8-8CA54F3DD00D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B2B67734-6FD0-42FD-B7A8-8CA54F3DD00D}"/>
   </bookViews>
   <sheets>
     <sheet name="时间轴" sheetId="2" r:id="rId1"/>
@@ -2676,7 +2676,15 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表4" displayName="表4" ref="A1:G40" totalsRowShown="0">
-  <autoFilter ref="A1:G40" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <autoFilter ref="A1:G40" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+  </autoFilter>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="序号" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="名字" dataDxfId="5"/>
@@ -3014,7 +3022,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
@@ -3379,7 +3387,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+    <sheetView topLeftCell="A181" workbookViewId="0">
       <selection activeCell="N205" sqref="N205"/>
     </sheetView>
   </sheetViews>
@@ -7872,7 +7880,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>

--- a/事出无因-表格.xlsx
+++ b/事出无因-表格.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CONST\PartA_Aint_No_Reason\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459616CC-DB0A-4D6B-8E44-057D3FAD3A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51A1B02-9605-4EDC-991A-B861FAE09CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B2B67734-6FD0-42FD-B7A8-8CA54F3DD00D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B2B67734-6FD0-42FD-B7A8-8CA54F3DD00D}"/>
   </bookViews>
   <sheets>
     <sheet name="时间轴" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="482">
   <si>
     <t>时间</t>
   </si>
@@ -1606,6 +1606,38 @@
   </si>
   <si>
     <t>地外/地下城/郊外(南郊)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>新世界(南郊)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>南郊</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>小石的守林人小屋</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员的守林人小屋</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖西</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>黎明</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖西/草地</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>小陈和小石进行献祭</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1834,7 +1866,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2053,6 +2085,25 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2647,8 +2698,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{695201C6-C6F5-4E75-8536-C024582338AA}" name="表1" displayName="表1" ref="A1:I216" totalsRowShown="0" headerRowDxfId="17" tableBorderDxfId="16">
-  <autoFilter ref="A1:I216" xr:uid="{695201C6-C6F5-4E75-8536-C024582338AA}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{695201C6-C6F5-4E75-8536-C024582338AA}" name="表1" displayName="表1" ref="A1:I220" totalsRowShown="0" headerRowDxfId="17" tableBorderDxfId="16">
+  <autoFilter ref="A1:I220" xr:uid="{695201C6-C6F5-4E75-8536-C024582338AA}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -3022,8 +3073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -3385,10 +3436,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I216"/>
+  <dimension ref="A1:I220"/>
   <sheetViews>
-    <sheetView topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="N205" sqref="N205"/>
+    <sheetView tabSelected="1" topLeftCell="E184" workbookViewId="0">
+      <selection activeCell="K201" sqref="K201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -4919,7 +4970,7 @@
       </c>
       <c r="E73" s="63"/>
       <c r="F73" s="32" t="s">
-        <v>387</v>
+        <v>477</v>
       </c>
       <c r="G73" s="33" t="s">
         <v>328</v>
@@ -6293,7 +6344,7 @@
       </c>
       <c r="E139" s="63"/>
       <c r="F139" s="32" t="s">
-        <v>387</v>
+        <v>476</v>
       </c>
       <c r="G139" s="33" t="s">
         <v>337</v>
@@ -7713,117 +7764,123 @@
       <c r="C208" s="55">
         <v>99210</v>
       </c>
-      <c r="D208" s="54"/>
-      <c r="E208" s="64"/>
-      <c r="F208" s="56"/>
+      <c r="D208" s="54">
+        <v>0</v>
+      </c>
+      <c r="E208" s="64">
+        <v>99210</v>
+      </c>
+      <c r="F208" s="56" t="s">
+        <v>474</v>
+      </c>
       <c r="G208" s="57"/>
       <c r="H208" s="57"/>
-      <c r="I208" s="58"/>
+      <c r="I208" s="58" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A209" s="53">
+      <c r="A209" s="83"/>
+      <c r="B209" s="84"/>
+      <c r="C209" s="85"/>
+      <c r="D209" s="84">
+        <v>1</v>
+      </c>
+      <c r="E209" s="86"/>
+      <c r="F209" s="87" t="s">
+        <v>476</v>
+      </c>
+      <c r="G209" s="88" t="s">
+        <v>337</v>
+      </c>
+      <c r="H209" s="88" t="s">
+        <v>324</v>
+      </c>
+      <c r="I209" s="89"/>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A210" s="83"/>
+      <c r="B210" s="84"/>
+      <c r="C210" s="85"/>
+      <c r="D210" s="84">
+        <v>2</v>
+      </c>
+      <c r="E210" s="86"/>
+      <c r="F210" s="87" t="s">
+        <v>478</v>
+      </c>
+      <c r="G210" s="88" t="s">
+        <v>337</v>
+      </c>
+      <c r="H210" s="88" t="s">
+        <v>325</v>
+      </c>
+      <c r="I210" s="89"/>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A211" s="83"/>
+      <c r="B211" s="84"/>
+      <c r="C211" s="85"/>
+      <c r="D211" s="84">
+        <v>3</v>
+      </c>
+      <c r="E211" s="86"/>
+      <c r="F211" s="87" t="s">
+        <v>475</v>
+      </c>
+      <c r="G211" s="88" t="s">
+        <v>479</v>
+      </c>
+      <c r="H211" s="88" t="s">
+        <v>325</v>
+      </c>
+      <c r="I211" s="89"/>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A212" s="83"/>
+      <c r="B212" s="84"/>
+      <c r="C212" s="85"/>
+      <c r="D212" s="84">
+        <v>4</v>
+      </c>
+      <c r="E212" s="86"/>
+      <c r="F212" s="87" t="s">
+        <v>480</v>
+      </c>
+      <c r="G212" s="88" t="s">
+        <v>328</v>
+      </c>
+      <c r="H212" s="88" t="s">
+        <v>325</v>
+      </c>
+      <c r="I212" s="89"/>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A213" s="53">
         <v>58</v>
       </c>
-      <c r="B209" s="54" t="s">
+      <c r="B213" s="54" t="s">
         <v>208</v>
       </c>
-      <c r="C209" s="55">
+      <c r="C213" s="55">
         <v>99211</v>
       </c>
-      <c r="D209" s="54"/>
-      <c r="E209" s="64"/>
-      <c r="F209" s="56"/>
-      <c r="G209" s="57"/>
-      <c r="H209" s="57"/>
-      <c r="I209" s="58"/>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A210" s="53">
-        <v>59</v>
-      </c>
-      <c r="B210" s="54" t="s">
-        <v>209</v>
-      </c>
-      <c r="C210" s="55">
-        <v>99210</v>
-      </c>
-      <c r="D210" s="54"/>
-      <c r="E210" s="64"/>
-      <c r="F210" s="56"/>
-      <c r="G210" s="57"/>
-      <c r="H210" s="57"/>
-      <c r="I210" s="58"/>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A211" s="53">
-        <v>60</v>
-      </c>
-      <c r="B211" s="54" t="s">
-        <v>210</v>
-      </c>
-      <c r="C211" s="55">
-        <v>99210</v>
-      </c>
-      <c r="D211" s="54"/>
-      <c r="E211" s="64"/>
-      <c r="F211" s="56"/>
-      <c r="G211" s="57"/>
-      <c r="H211" s="57"/>
-      <c r="I211" s="58"/>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A212" s="53">
-        <v>61</v>
-      </c>
-      <c r="B212" s="54" t="s">
-        <v>211</v>
-      </c>
-      <c r="C212" s="55">
-        <v>99211</v>
-      </c>
-      <c r="D212" s="54">
-        <v>0</v>
-      </c>
-      <c r="E212" s="64">
-        <v>99211</v>
-      </c>
-      <c r="F212" s="56" t="s">
-        <v>467</v>
-      </c>
-      <c r="G212" s="57"/>
-      <c r="H212" s="57"/>
-      <c r="I212" s="58" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A213" s="22"/>
-      <c r="B213" s="23"/>
-      <c r="C213" s="24"/>
-      <c r="D213" s="23">
-        <v>1</v>
-      </c>
-      <c r="E213" s="63"/>
-      <c r="F213" s="32" t="s">
-        <v>468</v>
-      </c>
-      <c r="G213" s="33" t="s">
-        <v>337</v>
-      </c>
-      <c r="H213" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="I213" s="34"/>
+      <c r="D213" s="54"/>
+      <c r="E213" s="64"/>
+      <c r="F213" s="56"/>
+      <c r="G213" s="57"/>
+      <c r="H213" s="57"/>
+      <c r="I213" s="58"/>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A214" s="53">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B214" s="54" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C214" s="55">
-        <v>99211</v>
+        <v>99210</v>
       </c>
       <c r="D214" s="54"/>
       <c r="E214" s="64"/>
@@ -7834,13 +7891,13 @@
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A215" s="53">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B215" s="54" t="s">
-        <v>214</v>
-      </c>
-      <c r="C215" s="55" t="s">
-        <v>215</v>
+        <v>210</v>
+      </c>
+      <c r="C215" s="55">
+        <v>99210</v>
       </c>
       <c r="D215" s="54"/>
       <c r="E215" s="64"/>
@@ -7851,20 +7908,98 @@
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A216" s="53">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B216" s="54" t="s">
-        <v>84</v>
+        <v>211</v>
       </c>
       <c r="C216" s="55">
-        <v>99212</v>
-      </c>
-      <c r="D216" s="54"/>
-      <c r="E216" s="64"/>
-      <c r="F216" s="56"/>
+        <v>99211</v>
+      </c>
+      <c r="D216" s="54">
+        <v>0</v>
+      </c>
+      <c r="E216" s="64">
+        <v>99211</v>
+      </c>
+      <c r="F216" s="56" t="s">
+        <v>467</v>
+      </c>
       <c r="G216" s="57"/>
       <c r="H216" s="57"/>
-      <c r="I216" s="58"/>
+      <c r="I216" s="58" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A217" s="22"/>
+      <c r="B217" s="23"/>
+      <c r="C217" s="24"/>
+      <c r="D217" s="23">
+        <v>1</v>
+      </c>
+      <c r="E217" s="63"/>
+      <c r="F217" s="32" t="s">
+        <v>468</v>
+      </c>
+      <c r="G217" s="33" t="s">
+        <v>337</v>
+      </c>
+      <c r="H217" s="33" t="s">
+        <v>324</v>
+      </c>
+      <c r="I217" s="34"/>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A218" s="53">
+        <v>62</v>
+      </c>
+      <c r="B218" s="54" t="s">
+        <v>213</v>
+      </c>
+      <c r="C218" s="55">
+        <v>99211</v>
+      </c>
+      <c r="D218" s="54"/>
+      <c r="E218" s="64"/>
+      <c r="F218" s="56"/>
+      <c r="G218" s="57"/>
+      <c r="H218" s="57"/>
+      <c r="I218" s="58"/>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A219" s="53">
+        <v>63</v>
+      </c>
+      <c r="B219" s="54" t="s">
+        <v>214</v>
+      </c>
+      <c r="C219" s="55" t="s">
+        <v>215</v>
+      </c>
+      <c r="D219" s="54"/>
+      <c r="E219" s="64"/>
+      <c r="F219" s="56"/>
+      <c r="G219" s="57"/>
+      <c r="H219" s="57"/>
+      <c r="I219" s="58"/>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A220" s="53">
+        <v>64</v>
+      </c>
+      <c r="B220" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="C220" s="55">
+        <v>99212</v>
+      </c>
+      <c r="D220" s="54"/>
+      <c r="E220" s="64"/>
+      <c r="F220" s="56"/>
+      <c r="G220" s="57"/>
+      <c r="H220" s="57"/>
+      <c r="I220" s="58"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/事出无因-表格.xlsx
+++ b/事出无因-表格.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CONST\PartA_Aint_No_Reason\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE8A5E10-95CB-4EE2-A589-9048A9F51C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F39E89A-90F3-4970-B716-B3A3227BBEA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="时间轴" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="478">
   <si>
     <t>时间</t>
   </si>
@@ -358,9 +358,6 @@
     <t>云巅</t>
   </si>
   <si>
-    <t>云虫(镜像城郊外)</t>
-  </si>
-  <si>
     <t>禾魂归云上、由月带到镜像城</t>
   </si>
   <si>
@@ -892,547 +889,587 @@
     <t>卢进入公园得到启示</t>
   </si>
   <si>
+    <t>晌午</t>
+  </si>
+  <si>
+    <t>禾和月将密钥交给郊外的一个人类</t>
+  </si>
+  <si>
+    <t>大门</t>
+  </si>
+  <si>
+    <t>废墟</t>
+  </si>
+  <si>
+    <t>湖边/废墟</t>
+  </si>
+  <si>
+    <t>港口</t>
+  </si>
+  <si>
+    <t>郊外(港口)</t>
+  </si>
+  <si>
+    <t>住在港口的人类遇见两个机器</t>
+  </si>
+  <si>
+    <t>地下室门口</t>
+  </si>
+  <si>
+    <t>镜岛</t>
+  </si>
+  <si>
+    <t>卢遇见月曾经的挚友、在其帮助下寻找挚爱</t>
+  </si>
+  <si>
+    <t>月面</t>
+  </si>
+  <si>
+    <t>郊外(港口)/地下城</t>
+  </si>
+  <si>
+    <t>地下城得到密钥、确认即将可以离开地下城</t>
+  </si>
+  <si>
+    <t>月背</t>
+  </si>
+  <si>
+    <t>虫族飞船已抵达月背、禾通过《事出无因》寻求出路</t>
+  </si>
+  <si>
+    <t>沙漠</t>
+  </si>
+  <si>
+    <t>军械</t>
+  </si>
+  <si>
+    <t>2171年8月初</t>
+  </si>
+  <si>
+    <t>地外(旅者舰队/云虫舰队)</t>
+  </si>
+  <si>
+    <t>捷检查军械仓、云虫加入外太空机器智慧团体</t>
+  </si>
+  <si>
+    <t>走廊/仓库</t>
+  </si>
+  <si>
+    <t>宇宙</t>
+  </si>
+  <si>
+    <t>仓库</t>
+  </si>
+  <si>
+    <t>改写</t>
+  </si>
+  <si>
+    <t>卢与朱澄散步时遇到沙岛、卢与朱分手</t>
+  </si>
+  <si>
+    <t>栈桥</t>
+  </si>
+  <si>
+    <t>树林/栈桥/草坪</t>
+  </si>
+  <si>
+    <t>神明</t>
+  </si>
+  <si>
+    <t>小陈记下梦中内容、隔天前往城中</t>
+  </si>
+  <si>
+    <t>守林人小屋</t>
+  </si>
+  <si>
+    <t>雨林</t>
+  </si>
+  <si>
+    <t>新世界(微型龙大厦)</t>
+  </si>
+  <si>
+    <t>禾参观微型龙的热带雨林全息仓</t>
+  </si>
+  <si>
+    <t>坠机点</t>
+  </si>
+  <si>
+    <t>悬崖</t>
+  </si>
+  <si>
+    <t>解药</t>
+  </si>
+  <si>
+    <t>小陈访问林一寻找解药和帮助</t>
+  </si>
+  <si>
+    <t>手环</t>
+  </si>
+  <si>
+    <t>云虫(周期内/休息区)</t>
+  </si>
+  <si>
+    <t>卢在手环的引导下发现真相</t>
+  </si>
+  <si>
+    <t>小巷/走廊</t>
+  </si>
+  <si>
+    <t>月的房间</t>
+  </si>
+  <si>
+    <t>合同</t>
+  </si>
+  <si>
+    <t>月在微型龙签署合同</t>
+  </si>
+  <si>
+    <t>CEO办公室</t>
+  </si>
+  <si>
+    <t>种族</t>
+  </si>
+  <si>
+    <t>阿图罗和尅兹威兹谈论种族、约定帮助他人</t>
+  </si>
+  <si>
+    <t>港口(回溯)</t>
+  </si>
+  <si>
+    <t>地下室</t>
+  </si>
+  <si>
+    <t>故乡</t>
+  </si>
+  <si>
+    <t>新世界(拉斯维加斯城)</t>
+  </si>
+  <si>
+    <t>布恩斯回到故乡拉斯维加斯、耶达接机</t>
+  </si>
+  <si>
+    <t>皮卡</t>
+  </si>
+  <si>
+    <t>献祭</t>
+  </si>
+  <si>
+    <t>新世界(南郊)</t>
+  </si>
+  <si>
+    <t>小陈和小石进行献祭</t>
+  </si>
+  <si>
+    <t>湖西</t>
+  </si>
+  <si>
+    <t>南郊</t>
+  </si>
+  <si>
+    <t>黎明</t>
+  </si>
+  <si>
+    <t>湖西/草地</t>
+  </si>
+  <si>
+    <t>航行</t>
+  </si>
+  <si>
+    <t>新世界(云层)</t>
+  </si>
+  <si>
+    <t>禾和月乘坐飞行器前往地下城</t>
+  </si>
+  <si>
+    <t>飞行器(右侧)</t>
+  </si>
+  <si>
+    <t>飞行器(左侧)</t>
+  </si>
+  <si>
+    <t>飞行器</t>
+  </si>
+  <si>
+    <t>表白</t>
+  </si>
+  <si>
+    <t>解封</t>
+  </si>
+  <si>
+    <t>蛛网</t>
+  </si>
+  <si>
+    <t>太空(月背)</t>
+  </si>
+  <si>
+    <t>虫族已经潜伏在月球背面等待着最后确认</t>
+  </si>
+  <si>
+    <t>指挥舱</t>
+  </si>
+  <si>
+    <t>沙暴</t>
+  </si>
+  <si>
+    <t>远航</t>
+  </si>
+  <si>
+    <t>8月末</t>
+  </si>
+  <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>从属</t>
+  </si>
+  <si>
+    <t>性别认知</t>
+  </si>
+  <si>
+    <t>登场</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>禾</t>
+  </si>
+  <si>
+    <t>新世界</t>
+  </si>
+  <si>
+    <t>新人类</t>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>一个契机</t>
+  </si>
+  <si>
+    <t>月</t>
+  </si>
+  <si>
+    <t>女</t>
+  </si>
+  <si>
+    <t>一名天使</t>
+  </si>
+  <si>
+    <t>李</t>
+  </si>
+  <si>
+    <t>常州云虫管理人</t>
+  </si>
+  <si>
+    <t>林一</t>
+  </si>
+  <si>
+    <t>云虫学者</t>
+  </si>
+  <si>
+    <t>洛克</t>
+  </si>
+  <si>
+    <t>旧人类</t>
+  </si>
+  <si>
+    <t>地下城人类自卫军成员</t>
+  </si>
+  <si>
+    <t>小彼得</t>
+  </si>
+  <si>
+    <t>前地下城黑客群体成员</t>
+  </si>
+  <si>
+    <t>卢</t>
+  </si>
+  <si>
+    <t>常州新人类职员</t>
+  </si>
+  <si>
+    <t>？</t>
+  </si>
+  <si>
+    <t>地下城市长</t>
+  </si>
+  <si>
+    <t>欧姆</t>
+  </si>
+  <si>
+    <t>常州城西大学学生</t>
+  </si>
+  <si>
+    <t>迪克</t>
+  </si>
+  <si>
+    <t>地下城黑客群体管理者</t>
+  </si>
+  <si>
+    <t>席拉</t>
+  </si>
+  <si>
+    <t>洛迪</t>
+  </si>
+  <si>
+    <t>历史镜像</t>
+  </si>
+  <si>
+    <t>由历史生成的镜像暴徒</t>
+  </si>
+  <si>
+    <t>珀斯</t>
+  </si>
+  <si>
+    <t>捷</t>
+  </si>
+  <si>
+    <t>机器联合国</t>
+  </si>
+  <si>
+    <t>新机器</t>
+  </si>
+  <si>
+    <t>机器联合国信息部职员</t>
+  </si>
+  <si>
+    <t>小石</t>
+  </si>
+  <si>
+    <t>新一代守林人</t>
+  </si>
+  <si>
+    <t>小陈</t>
+  </si>
+  <si>
+    <t>布恩斯</t>
+  </si>
+  <si>
+    <t>旅者，现苏州机场员工</t>
+  </si>
+  <si>
+    <t>云虫核心</t>
+  </si>
+  <si>
+    <t>机器</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>创造新人类的机器智慧</t>
+  </si>
+  <si>
+    <t>方方</t>
+  </si>
+  <si>
+    <t>布恩斯的常州网友之一</t>
+  </si>
+  <si>
+    <t>阿皮</t>
+  </si>
+  <si>
+    <t>故地</t>
+  </si>
+  <si>
+    <t>虫族</t>
+  </si>
+  <si>
+    <t>派遣观察客地的见证人</t>
+  </si>
+  <si>
+    <t>客地</t>
+  </si>
+  <si>
+    <t>远方人类</t>
+  </si>
+  <si>
+    <t>火属魔法师</t>
+  </si>
+  <si>
+    <t>冰属魔法师</t>
+  </si>
+  <si>
+    <t>刀客</t>
+  </si>
+  <si>
+    <t>何</t>
+  </si>
+  <si>
+    <t>新地球</t>
+  </si>
+  <si>
+    <t>新新人类</t>
+  </si>
+  <si>
+    <t>新地球学生</t>
+  </si>
+  <si>
+    <t>远方机器</t>
+  </si>
+  <si>
+    <t>流窜智能</t>
+  </si>
+  <si>
+    <t>小彼得的女朋友</t>
+  </si>
+  <si>
+    <t>奇菈</t>
+  </si>
+  <si>
+    <t>机器联合国普通职员</t>
+  </si>
+  <si>
+    <t>安可</t>
+  </si>
+  <si>
+    <t>旅者四园艺仓职员</t>
+  </si>
+  <si>
+    <t>天使X</t>
+  </si>
+  <si>
+    <t>天使Y</t>
+  </si>
+  <si>
+    <t>阿图罗</t>
+  </si>
+  <si>
+    <t>渗透到新世界的旧人类</t>
+  </si>
+  <si>
+    <t>威兹</t>
+  </si>
+  <si>
+    <t>常州城外的重建机器</t>
+  </si>
+  <si>
+    <t>尅兹</t>
+  </si>
+  <si>
+    <t>沙岛</t>
+  </si>
+  <si>
+    <t>朱澄</t>
+  </si>
+  <si>
+    <t>卢的另一半？</t>
+  </si>
+  <si>
+    <t>微型龙的CEO</t>
+  </si>
+  <si>
+    <t>昆顿</t>
+  </si>
+  <si>
+    <t>隶属微型龙的小说家</t>
+  </si>
+  <si>
+    <t>耶达</t>
+  </si>
+  <si>
+    <t>布恩斯曾经的同事</t>
+  </si>
+  <si>
+    <t>虚拟世界</t>
+  </si>
+  <si>
+    <t>现实世界</t>
+  </si>
+  <si>
+    <t>20年</t>
+  </si>
+  <si>
+    <t>4天</t>
+  </si>
+  <si>
+    <t>1天</t>
+  </si>
+  <si>
+    <t>7300天</t>
+  </si>
+  <si>
+    <t>1825天</t>
+  </si>
+  <si>
+    <t>24小时</t>
+  </si>
+  <si>
+    <t>1小时</t>
+  </si>
+  <si>
+    <t>76.042天</t>
+  </si>
+  <si>
+    <t>150秒</t>
+  </si>
+  <si>
+    <t>30.417小时</t>
+  </si>
+  <si>
+    <t>1分钟</t>
+  </si>
+  <si>
+    <t>2.5秒</t>
+  </si>
+  <si>
+    <t>30.417分钟</t>
+  </si>
+  <si>
+    <t>1秒</t>
+  </si>
+  <si>
+    <t>41.7毫秒</t>
+  </si>
+  <si>
+    <t>2171年8月末</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>云巅/走廊</t>
-  </si>
-  <si>
-    <t>晌午</t>
-  </si>
-  <si>
-    <t>禾和月将密钥交给郊外的一个人类</t>
-  </si>
-  <si>
-    <t>大门</t>
-  </si>
-  <si>
-    <t>废墟</t>
-  </si>
-  <si>
-    <t>湖边/废墟</t>
-  </si>
-  <si>
-    <t>港口</t>
-  </si>
-  <si>
-    <t>郊外(港口)</t>
-  </si>
-  <si>
-    <t>住在港口的人类遇见两个机器</t>
-  </si>
-  <si>
-    <t>地下室门口</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>云虫(云巅)</t>
+  </si>
+  <si>
+    <t>云虫(云巅)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>云虫(云巅/镜像城)</t>
+  </si>
+  <si>
+    <t>云巅</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>镜岛</t>
-  </si>
-  <si>
-    <t>云虫(镜像城郊区)</t>
-  </si>
-  <si>
-    <t>卢遇见月曾经的挚友、在其帮助下寻找挚爱</t>
-  </si>
-  <si>
-    <t>月面</t>
-  </si>
-  <si>
-    <t>郊外(港口)/地下城</t>
-  </si>
-  <si>
-    <t>地下城得到密钥、确认即将可以离开地下城</t>
-  </si>
-  <si>
-    <t>月背</t>
-  </si>
-  <si>
-    <t>虫族飞船已抵达月背、禾通过《事出无因》寻求出路</t>
-  </si>
-  <si>
-    <t>沙漠</t>
-  </si>
-  <si>
-    <t>军械</t>
-  </si>
-  <si>
-    <t>2171年8月初</t>
-  </si>
-  <si>
-    <t>地外(旅者舰队/云虫舰队)</t>
-  </si>
-  <si>
-    <t>捷检查军械仓、云虫加入外太空机器智慧团体</t>
-  </si>
-  <si>
-    <t>走廊/仓库</t>
-  </si>
-  <si>
-    <t>宇宙</t>
-  </si>
-  <si>
-    <t>仓库</t>
-  </si>
-  <si>
-    <t>改写</t>
-  </si>
-  <si>
-    <t>卢与朱澄散步时遇到沙岛、卢与朱分手</t>
-  </si>
-  <si>
-    <t>栈桥</t>
-  </si>
-  <si>
-    <t>树林/栈桥/草坪</t>
-  </si>
-  <si>
-    <t>神明</t>
-  </si>
-  <si>
-    <t>小陈记下梦中内容、隔天前往城中</t>
-  </si>
-  <si>
-    <t>守林人小屋</t>
-  </si>
-  <si>
-    <t>雨林</t>
-  </si>
-  <si>
-    <t>新世界(微型龙大厦)</t>
-  </si>
-  <si>
-    <t>禾参观微型龙的热带雨林全息仓</t>
-  </si>
-  <si>
-    <t>坠机点</t>
-  </si>
-  <si>
-    <t>悬崖</t>
-  </si>
-  <si>
-    <t>解药</t>
-  </si>
-  <si>
-    <t>小陈访问林一寻找解药和帮助</t>
-  </si>
-  <si>
-    <t>手环</t>
-  </si>
-  <si>
-    <t>云虫(周期内/休息区)</t>
-  </si>
-  <si>
-    <t>卢在手环的引导下发现真相</t>
-  </si>
-  <si>
-    <t>小巷/走廊</t>
-  </si>
-  <si>
-    <t>月的房间</t>
-  </si>
-  <si>
-    <t>合同</t>
-  </si>
-  <si>
-    <t>月在微型龙签署合同</t>
-  </si>
-  <si>
-    <t>CEO办公室</t>
-  </si>
-  <si>
-    <t>种族</t>
-  </si>
-  <si>
-    <t>阿图罗和尅兹威兹谈论种族、约定帮助他人</t>
-  </si>
-  <si>
-    <t>港口(回溯)</t>
-  </si>
-  <si>
-    <t>地下室</t>
-  </si>
-  <si>
-    <t>故乡</t>
-  </si>
-  <si>
-    <t>新世界(拉斯维加斯城)</t>
-  </si>
-  <si>
-    <t>布恩斯回到故乡拉斯维加斯、耶达接机</t>
-  </si>
-  <si>
-    <t>皮卡</t>
-  </si>
-  <si>
-    <t>献祭</t>
-  </si>
-  <si>
-    <t>新世界(南郊)</t>
-  </si>
-  <si>
-    <t>小陈和小石进行献祭</t>
-  </si>
-  <si>
-    <t>湖西</t>
-  </si>
-  <si>
-    <t>南郊</t>
-  </si>
-  <si>
-    <t>黎明</t>
-  </si>
-  <si>
-    <t>湖西/草地</t>
-  </si>
-  <si>
-    <t>航行</t>
-  </si>
-  <si>
-    <t>新世界(云层)</t>
-  </si>
-  <si>
-    <t>禾和月乘坐飞行器前往地下城</t>
-  </si>
-  <si>
-    <t>飞行器(右侧)</t>
-  </si>
-  <si>
-    <t>飞行器(左侧)</t>
-  </si>
-  <si>
-    <t>飞行器</t>
-  </si>
-  <si>
-    <t>表白</t>
-  </si>
-  <si>
-    <t>解封</t>
-  </si>
-  <si>
-    <t>蛛网</t>
-  </si>
-  <si>
-    <t>太空(月背)</t>
-  </si>
-  <si>
-    <t>虫族已经潜伏在月球背面等待着最后确认</t>
-  </si>
-  <si>
-    <t>指挥舱</t>
-  </si>
-  <si>
-    <t>沙暴</t>
-  </si>
-  <si>
-    <t>远航</t>
-  </si>
-  <si>
-    <t>8月末</t>
-  </si>
-  <si>
-    <t>名字</t>
-  </si>
-  <si>
-    <t>从属</t>
-  </si>
-  <si>
-    <t>性别认知</t>
-  </si>
-  <si>
-    <t>登场</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>禾</t>
-  </si>
-  <si>
-    <t>新世界</t>
-  </si>
-  <si>
-    <t>新人类</t>
-  </si>
-  <si>
-    <t>男</t>
-  </si>
-  <si>
-    <t>一个契机</t>
-  </si>
-  <si>
-    <t>月</t>
-  </si>
-  <si>
-    <t>女</t>
-  </si>
-  <si>
-    <t>一名天使</t>
-  </si>
-  <si>
-    <t>李</t>
-  </si>
-  <si>
-    <t>常州云虫管理人</t>
-  </si>
-  <si>
-    <t>林一</t>
-  </si>
-  <si>
-    <t>云虫学者</t>
-  </si>
-  <si>
-    <t>洛克</t>
-  </si>
-  <si>
-    <t>旧人类</t>
-  </si>
-  <si>
-    <t>地下城人类自卫军成员</t>
-  </si>
-  <si>
-    <t>小彼得</t>
-  </si>
-  <si>
-    <t>前地下城黑客群体成员</t>
-  </si>
-  <si>
-    <t>卢</t>
-  </si>
-  <si>
-    <t>常州新人类职员</t>
-  </si>
-  <si>
-    <t>？</t>
-  </si>
-  <si>
-    <t>地下城市长</t>
-  </si>
-  <si>
-    <t>欧姆</t>
-  </si>
-  <si>
-    <t>常州城西大学学生</t>
-  </si>
-  <si>
-    <t>迪克</t>
-  </si>
-  <si>
-    <t>地下城黑客群体管理者</t>
-  </si>
-  <si>
-    <t>席拉</t>
-  </si>
-  <si>
-    <t>洛迪</t>
-  </si>
-  <si>
-    <t>历史镜像</t>
-  </si>
-  <si>
-    <t>由历史生成的镜像暴徒</t>
-  </si>
-  <si>
-    <t>珀斯</t>
-  </si>
-  <si>
-    <t>捷</t>
-  </si>
-  <si>
-    <t>机器联合国</t>
-  </si>
-  <si>
-    <t>新机器</t>
-  </si>
-  <si>
-    <t>机器联合国信息部职员</t>
-  </si>
-  <si>
-    <t>小石</t>
-  </si>
-  <si>
-    <t>新一代守林人</t>
-  </si>
-  <si>
-    <t>小陈</t>
-  </si>
-  <si>
-    <t>布恩斯</t>
-  </si>
-  <si>
-    <t>旅者，现苏州机场员工</t>
-  </si>
-  <si>
-    <t>云虫核心</t>
-  </si>
-  <si>
-    <t>机器</t>
-  </si>
-  <si>
-    <t>无</t>
-  </si>
-  <si>
-    <t>创造新人类的机器智慧</t>
-  </si>
-  <si>
-    <t>方方</t>
-  </si>
-  <si>
-    <t>布恩斯的常州网友之一</t>
-  </si>
-  <si>
-    <t>阿皮</t>
-  </si>
-  <si>
-    <t>故地</t>
-  </si>
-  <si>
-    <t>虫族</t>
-  </si>
-  <si>
-    <t>派遣观察客地的见证人</t>
-  </si>
-  <si>
-    <t>客地</t>
-  </si>
-  <si>
-    <t>远方人类</t>
-  </si>
-  <si>
-    <t>火属魔法师</t>
-  </si>
-  <si>
-    <t>冰属魔法师</t>
-  </si>
-  <si>
-    <t>刀客</t>
-  </si>
-  <si>
-    <t>何</t>
-  </si>
-  <si>
-    <t>新地球</t>
-  </si>
-  <si>
-    <t>新新人类</t>
-  </si>
-  <si>
-    <t>新地球学生</t>
-  </si>
-  <si>
-    <t>远方机器</t>
-  </si>
-  <si>
-    <t>流窜智能</t>
-  </si>
-  <si>
-    <t>小彼得的女朋友</t>
-  </si>
-  <si>
-    <t>奇菈</t>
-  </si>
-  <si>
-    <t>机器联合国普通职员</t>
-  </si>
-  <si>
-    <t>安可</t>
-  </si>
-  <si>
-    <t>旅者四园艺仓职员</t>
-  </si>
-  <si>
-    <t>天使X</t>
-  </si>
-  <si>
-    <t>天使Y</t>
-  </si>
-  <si>
-    <t>阿图罗</t>
-  </si>
-  <si>
-    <t>渗透到新世界的旧人类</t>
-  </si>
-  <si>
-    <t>威兹</t>
-  </si>
-  <si>
-    <t>常州城外的重建机器</t>
-  </si>
-  <si>
-    <t>尅兹</t>
-  </si>
-  <si>
-    <t>沙岛</t>
-  </si>
-  <si>
-    <t>朱澄</t>
-  </si>
-  <si>
-    <t>卢的另一半？</t>
-  </si>
-  <si>
-    <t>微型龙的CEO</t>
-  </si>
-  <si>
-    <t>昆顿</t>
-  </si>
-  <si>
-    <t>隶属微型龙的小说家</t>
-  </si>
-  <si>
-    <t>耶达</t>
-  </si>
-  <si>
-    <t>布恩斯曾经的同事</t>
-  </si>
-  <si>
-    <t>虚拟世界</t>
-  </si>
-  <si>
-    <t>现实世界</t>
-  </si>
-  <si>
-    <t>20年</t>
-  </si>
-  <si>
-    <t>4天</t>
-  </si>
-  <si>
-    <t>1天</t>
-  </si>
-  <si>
-    <t>7300天</t>
-  </si>
-  <si>
-    <t>1825天</t>
-  </si>
-  <si>
-    <t>24小时</t>
-  </si>
-  <si>
-    <t>1小时</t>
-  </si>
-  <si>
-    <t>76.042天</t>
-  </si>
-  <si>
-    <t>150秒</t>
-  </si>
-  <si>
-    <t>30.417小时</t>
-  </si>
-  <si>
-    <t>1分钟</t>
-  </si>
-  <si>
-    <t>2.5秒</t>
-  </si>
-  <si>
-    <t>30.417分钟</t>
-  </si>
-  <si>
-    <t>1秒</t>
-  </si>
-  <si>
-    <t>41.7毫秒</t>
-  </si>
-  <si>
-    <t>2171年8月末</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>浪底</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>外</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢跟随旨意找到沙岛表白</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>日</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>内</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1441,10 +1478,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="178" formatCode="00"/>
-    <numFmt numFmtId="179" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="176" formatCode="00"/>
+    <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1494,6 +1531,13 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1659,7 +1703,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1707,7 +1751,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1716,7 +1760,7 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1725,7 +1769,7 @@
     <xf numFmtId="58" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1737,14 +1781,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1753,14 +1797,14 @@
     <xf numFmtId="58" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1769,7 +1813,7 @@
     <xf numFmtId="58" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1779,7 +1823,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1788,14 +1832,14 @@
     <xf numFmtId="58" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1804,7 +1848,7 @@
     <xf numFmtId="58" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1817,7 +1861,7 @@
     <xf numFmtId="58" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1851,307 +1895,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="17">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment vertical="center"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment horizontal="center"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment horizontal="center"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="179" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment horizontal="left" vertical="center"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="45" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment horizontal="left" vertical="center"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="00"/>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment vertical="center"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2343,6 +2138,274 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment vertical="center"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment horizontal="center"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment horizontal="center"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment horizontal="left" vertical="center"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment horizontal="center" vertical="center"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="45" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment horizontal="left" vertical="center"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment horizontal="center" vertical="center"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="00"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment vertical="center"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
@@ -2357,8 +2420,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:I223" totalsRowShown="0" tableBorderDxfId="9">
-  <autoFilter ref="A1:I223" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:I227" totalsRowShown="0" tableBorderDxfId="16">
+  <autoFilter ref="A1:I227" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -2370,15 +2433,15 @@
     <filterColumn colId="8" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="序号" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="章节" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="时间" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="幕次" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="幕次时间" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="地点" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="日夜" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="内外" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="概括" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="序号" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="章节" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="时间" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="幕次" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="幕次时间" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="地点" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="日夜" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="内外" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="概括" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2396,13 +2459,13 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="序号" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="名字" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="从属" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="种族" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="性别认知" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="登场" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="备注" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="序号" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="名字" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="从属" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="种族" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="性别认知" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="登场" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="备注" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3095,10 +3158,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I223"/>
+  <dimension ref="A1:I227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F217" sqref="F217"/>
+    <sheetView tabSelected="1" topLeftCell="A193" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I219" sqref="I219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -3115,7 +3178,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="73" t="s">
         <v>85</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -3144,7 +3207,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="75">
+      <c r="A2" s="74">
         <v>0</v>
       </c>
       <c r="B2" s="26" t="s">
@@ -3217,7 +3280,7 @@
       <c r="I4" s="65"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="76"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="44"/>
       <c r="C5" s="40"/>
       <c r="D5" s="39">
@@ -3315,12 +3378,12 @@
         <v>99185</v>
       </c>
       <c r="F9" s="49" t="s">
-        <v>110</v>
+        <v>467</v>
       </c>
       <c r="G9" s="50"/>
       <c r="H9" s="50"/>
       <c r="I9" s="66" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
@@ -3332,10 +3395,10 @@
       </c>
       <c r="E10" s="51"/>
       <c r="F10" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="G10" s="43" t="s">
         <v>112</v>
-      </c>
-      <c r="G10" s="43" t="s">
-        <v>113</v>
       </c>
       <c r="H10" s="43" t="s">
         <v>104</v>
@@ -3354,7 +3417,7 @@
         <v>109</v>
       </c>
       <c r="G11" s="43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H11" s="43" t="s">
         <v>104</v>
@@ -3366,7 +3429,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C12" s="47">
         <v>99186</v>
@@ -3378,12 +3441,12 @@
         <v>99186</v>
       </c>
       <c r="F12" s="49" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G12" s="50"/>
       <c r="H12" s="50"/>
       <c r="I12" s="66" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
@@ -3395,7 +3458,7 @@
       </c>
       <c r="E13" s="41"/>
       <c r="F13" s="42" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G13" s="43" t="s">
         <v>97</v>
@@ -3414,7 +3477,7 @@
       </c>
       <c r="E14" s="41"/>
       <c r="F14" s="42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G14" s="43" t="s">
         <v>97</v>
@@ -3433,7 +3496,7 @@
       </c>
       <c r="E15" s="41"/>
       <c r="F15" s="42" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G15" s="43" t="s">
         <v>97</v>
@@ -3452,7 +3515,7 @@
       </c>
       <c r="E16" s="41"/>
       <c r="F16" s="42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G16" s="43" t="s">
         <v>97</v>
@@ -3471,7 +3534,7 @@
       </c>
       <c r="E17" s="41"/>
       <c r="F17" s="42" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G17" s="43" t="s">
         <v>97</v>
@@ -3490,7 +3553,7 @@
       </c>
       <c r="E18" s="41"/>
       <c r="F18" s="42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G18" s="43" t="s">
         <v>97</v>
@@ -3509,7 +3572,7 @@
       </c>
       <c r="E19" s="41"/>
       <c r="F19" s="42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G19" s="43" t="s">
         <v>97</v>
@@ -3528,7 +3591,7 @@
       </c>
       <c r="E20" s="41"/>
       <c r="F20" s="42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G20" s="43" t="s">
         <v>97</v>
@@ -3543,7 +3606,7 @@
         <v>5</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C21" s="47">
         <v>99186</v>
@@ -3555,12 +3618,12 @@
         <v>99185</v>
       </c>
       <c r="F21" s="49" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G21" s="50"/>
       <c r="H21" s="50"/>
       <c r="I21" s="66" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
@@ -3572,7 +3635,7 @@
       </c>
       <c r="E22" s="41"/>
       <c r="F22" s="42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G22" s="43" t="s">
         <v>97</v>
@@ -3591,7 +3654,7 @@
       </c>
       <c r="E23" s="41"/>
       <c r="F23" s="42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G23" s="43" t="s">
         <v>97</v>
@@ -3610,7 +3673,7 @@
       </c>
       <c r="E24" s="41"/>
       <c r="F24" s="42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G24" s="43" t="s">
         <v>97</v>
@@ -3625,7 +3688,7 @@
         <v>6</v>
       </c>
       <c r="B25" s="46" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C25" s="47">
         <v>99171</v>
@@ -3635,12 +3698,12 @@
       </c>
       <c r="E25" s="48"/>
       <c r="F25" s="49" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G25" s="50"/>
       <c r="H25" s="50"/>
       <c r="I25" s="66" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
@@ -3675,7 +3738,7 @@
         <v>47306</v>
       </c>
       <c r="F27" s="42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G27" s="43" t="s">
         <v>97</v>
@@ -3711,7 +3774,7 @@
         <v>7</v>
       </c>
       <c r="B29" s="46" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C29" s="47">
         <v>99186</v>
@@ -3723,12 +3786,12 @@
         <v>99186</v>
       </c>
       <c r="F29" s="49" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G29" s="50"/>
       <c r="H29" s="50"/>
       <c r="I29" s="66" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
@@ -3740,7 +3803,7 @@
       </c>
       <c r="E30" s="41"/>
       <c r="F30" s="42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G30" s="43" t="s">
         <v>97</v>
@@ -3759,7 +3822,7 @@
       </c>
       <c r="E31" s="41"/>
       <c r="F31" s="42" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G31" s="43" t="s">
         <v>97</v>
@@ -3778,13 +3841,13 @@
       </c>
       <c r="E32" s="41"/>
       <c r="F32" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="G32" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="G32" s="43" t="s">
+      <c r="H32" s="43" t="s">
         <v>138</v>
-      </c>
-      <c r="H32" s="43" t="s">
-        <v>139</v>
       </c>
       <c r="I32" s="65"/>
     </row>
@@ -3797,10 +3860,10 @@
       </c>
       <c r="E33" s="41"/>
       <c r="F33" s="42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G33" s="43" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H33" s="43" t="s">
         <v>104</v>
@@ -3812,7 +3875,7 @@
         <v>8</v>
       </c>
       <c r="B34" s="46" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C34" s="47">
         <v>99172</v>
@@ -3824,12 +3887,12 @@
         <v>99172</v>
       </c>
       <c r="F34" s="49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G34" s="50"/>
       <c r="H34" s="50"/>
       <c r="I34" s="66" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
@@ -3841,10 +3904,10 @@
       </c>
       <c r="E35" s="41"/>
       <c r="F35" s="42" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G35" s="43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H35" s="43" t="s">
         <v>98</v>
@@ -3860,7 +3923,7 @@
       </c>
       <c r="E36" s="41"/>
       <c r="F36" s="42" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G36" s="43" t="s">
         <v>97</v>
@@ -3879,7 +3942,7 @@
       </c>
       <c r="E37" s="41"/>
       <c r="F37" s="42" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G37" s="43" t="s">
         <v>97</v>
@@ -3894,7 +3957,7 @@
         <v>9</v>
       </c>
       <c r="B38" s="46" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C38" s="47">
         <v>99186</v>
@@ -3906,12 +3969,12 @@
         <v>99186</v>
       </c>
       <c r="F38" s="49" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G38" s="50"/>
       <c r="H38" s="50"/>
       <c r="I38" s="66" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
@@ -3923,7 +3986,7 @@
       </c>
       <c r="E39" s="41"/>
       <c r="F39" s="42" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G39" s="43" t="s">
         <v>97</v>
@@ -3938,7 +4001,7 @@
         <v>10</v>
       </c>
       <c r="B40" s="46" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C40" s="47">
         <v>99172</v>
@@ -3950,12 +4013,12 @@
         <v>99172</v>
       </c>
       <c r="F40" s="49" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G40" s="50"/>
       <c r="H40" s="50"/>
       <c r="I40" s="66" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
@@ -3967,7 +4030,7 @@
       </c>
       <c r="E41" s="41"/>
       <c r="F41" s="42" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G41" s="43" t="s">
         <v>97</v>
@@ -3986,7 +4049,7 @@
       </c>
       <c r="E42" s="41"/>
       <c r="F42" s="42" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G42" s="43" t="s">
         <v>97</v>
@@ -4005,7 +4068,7 @@
       </c>
       <c r="E43" s="41"/>
       <c r="F43" s="42" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G43" s="43" t="s">
         <v>97</v>
@@ -4020,7 +4083,7 @@
         <v>11</v>
       </c>
       <c r="B44" s="52" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C44" s="53">
         <v>99186</v>
@@ -4032,12 +4095,12 @@
         <v>99186</v>
       </c>
       <c r="F44" s="55" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G44" s="56"/>
       <c r="H44" s="56"/>
       <c r="I44" s="67" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
@@ -4049,10 +4112,10 @@
       </c>
       <c r="E45" s="41"/>
       <c r="F45" s="42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G45" s="43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H45" s="43" t="s">
         <v>98</v>
@@ -4068,10 +4131,10 @@
       </c>
       <c r="E46" s="41"/>
       <c r="F46" s="42" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G46" s="43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H46" s="43" t="s">
         <v>98</v>
@@ -4079,7 +4142,7 @@
       <c r="I46" s="65"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A47" s="76"/>
+      <c r="A47" s="75"/>
       <c r="B47" s="57"/>
       <c r="C47" s="58"/>
       <c r="D47" s="57">
@@ -4087,7 +4150,7 @@
       </c>
       <c r="E47" s="59"/>
       <c r="F47" s="60" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G47" s="43" t="s">
         <v>97</v>
@@ -4102,7 +4165,7 @@
         <v>12</v>
       </c>
       <c r="B48" s="52" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C48" s="53">
         <v>99173</v>
@@ -4114,16 +4177,16 @@
         <v>99173</v>
       </c>
       <c r="F48" s="49" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G48" s="56"/>
       <c r="H48" s="56"/>
       <c r="I48" s="67" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A49" s="76"/>
+      <c r="A49" s="75"/>
       <c r="B49" s="57"/>
       <c r="C49" s="58"/>
       <c r="D49" s="57">
@@ -4131,7 +4194,7 @@
       </c>
       <c r="E49" s="59"/>
       <c r="F49" s="60" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G49" s="43" t="s">
         <v>97</v>
@@ -4150,7 +4213,7 @@
       </c>
       <c r="E50" s="41"/>
       <c r="F50" s="42" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G50" s="43" t="s">
         <v>97</v>
@@ -4169,7 +4232,7 @@
       </c>
       <c r="E51" s="41"/>
       <c r="F51" s="42" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G51" s="43" t="s">
         <v>97</v>
@@ -4184,7 +4247,7 @@
         <v>13</v>
       </c>
       <c r="B52" s="46" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C52" s="47">
         <v>99186</v>
@@ -4196,32 +4259,32 @@
         <v>99186</v>
       </c>
       <c r="F52" s="49" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G52" s="50"/>
       <c r="H52" s="50"/>
       <c r="I52" s="66" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A53" s="75"/>
+      <c r="B53" s="76"/>
+      <c r="C53" s="77"/>
+      <c r="D53" s="76">
+        <v>1</v>
+      </c>
+      <c r="E53" s="78"/>
+      <c r="F53" s="79" t="s">
+        <v>164</v>
+      </c>
+      <c r="G53" s="80" t="s">
+        <v>97</v>
+      </c>
+      <c r="H53" s="80" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A53" s="76"/>
-      <c r="B53" s="77"/>
-      <c r="C53" s="78"/>
-      <c r="D53" s="77">
-        <v>1</v>
-      </c>
-      <c r="E53" s="79"/>
-      <c r="F53" s="80" t="s">
-        <v>165</v>
-      </c>
-      <c r="G53" s="81" t="s">
-        <v>97</v>
-      </c>
-      <c r="H53" s="81" t="s">
-        <v>167</v>
-      </c>
-      <c r="I53" s="82"/>
+      <c r="I53" s="81"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A54" s="38"/>
@@ -4232,10 +4295,10 @@
       </c>
       <c r="E54" s="41"/>
       <c r="F54" s="42" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G54" s="43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H54" s="43" t="s">
         <v>98</v>
@@ -4247,7 +4310,7 @@
         <v>14</v>
       </c>
       <c r="B55" s="46" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C55" s="47">
         <v>99173</v>
@@ -4259,24 +4322,24 @@
         <v>99173</v>
       </c>
       <c r="F55" s="49" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G55" s="50"/>
       <c r="H55" s="50"/>
       <c r="I55" s="66" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A56" s="76"/>
-      <c r="B56" s="77"/>
-      <c r="C56" s="78"/>
+      <c r="A56" s="75"/>
+      <c r="B56" s="76"/>
+      <c r="C56" s="77"/>
       <c r="D56" s="57">
         <v>1</v>
       </c>
       <c r="E56" s="59"/>
       <c r="F56" s="42" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G56" s="61" t="s">
         <v>97</v>
@@ -4287,7 +4350,7 @@
       <c r="I56" s="68"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A57" s="76"/>
+      <c r="A57" s="75"/>
       <c r="B57" s="57"/>
       <c r="C57" s="40"/>
       <c r="D57" s="39">
@@ -4295,7 +4358,7 @@
       </c>
       <c r="E57" s="41"/>
       <c r="F57" s="42" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G57" s="61" t="s">
         <v>97</v>
@@ -4314,7 +4377,7 @@
       </c>
       <c r="E58" s="41"/>
       <c r="F58" s="42" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G58" s="61" t="s">
         <v>97</v>
@@ -4333,7 +4396,7 @@
       </c>
       <c r="E59" s="41"/>
       <c r="F59" s="42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G59" s="61" t="s">
         <v>97</v>
@@ -4348,7 +4411,7 @@
         <v>15</v>
       </c>
       <c r="B60" s="46" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C60" s="47">
         <v>99186</v>
@@ -4360,12 +4423,12 @@
         <v>99186</v>
       </c>
       <c r="F60" s="49" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G60" s="50"/>
       <c r="H60" s="50"/>
       <c r="I60" s="66" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.15">
@@ -4377,10 +4440,10 @@
       </c>
       <c r="E61" s="41"/>
       <c r="F61" s="42" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G61" s="43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H61" s="43" t="s">
         <v>98</v>
@@ -4396,7 +4459,7 @@
       </c>
       <c r="E62" s="41"/>
       <c r="F62" s="42" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G62" s="43" t="s">
         <v>97</v>
@@ -4411,7 +4474,7 @@
         <v>16</v>
       </c>
       <c r="B63" s="52" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C63" s="47">
         <v>99189</v>
@@ -4423,12 +4486,12 @@
         <v>99189</v>
       </c>
       <c r="F63" s="49" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G63" s="50"/>
       <c r="H63" s="50"/>
       <c r="I63" s="66" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.15">
@@ -4440,7 +4503,7 @@
       </c>
       <c r="E64" s="41"/>
       <c r="F64" s="42" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G64" s="43" t="s">
         <v>97</v>
@@ -4459,7 +4522,7 @@
       </c>
       <c r="E65" s="41"/>
       <c r="F65" s="42" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G65" s="43" t="s">
         <v>97</v>
@@ -4474,7 +4537,7 @@
         <v>17</v>
       </c>
       <c r="B66" s="46" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C66" s="47">
         <v>99190</v>
@@ -4486,12 +4549,12 @@
         <v>99190</v>
       </c>
       <c r="F66" s="49" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G66" s="50"/>
       <c r="H66" s="50"/>
       <c r="I66" s="66" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.15">
@@ -4503,7 +4566,7 @@
       </c>
       <c r="E67" s="41"/>
       <c r="F67" s="42" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G67" s="43" t="s">
         <v>97</v>
@@ -4522,10 +4585,10 @@
       </c>
       <c r="E68" s="41"/>
       <c r="F68" s="42" t="s">
+        <v>182</v>
+      </c>
+      <c r="G68" s="43" t="s">
         <v>183</v>
-      </c>
-      <c r="G68" s="43" t="s">
-        <v>184</v>
       </c>
       <c r="H68" s="43" t="s">
         <v>104</v>
@@ -4537,24 +4600,24 @@
         <v>18</v>
       </c>
       <c r="B69" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="C69" s="47" t="s">
         <v>185</v>
-      </c>
-      <c r="C69" s="47" t="s">
-        <v>186</v>
       </c>
       <c r="D69" s="46">
         <v>0</v>
       </c>
       <c r="E69" s="69" t="s">
+        <v>186</v>
+      </c>
+      <c r="F69" s="49" t="s">
         <v>187</v>
-      </c>
-      <c r="F69" s="49" t="s">
-        <v>188</v>
       </c>
       <c r="G69" s="50"/>
       <c r="H69" s="50"/>
       <c r="I69" s="66" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.15">
@@ -4566,7 +4629,7 @@
       </c>
       <c r="E70" s="41"/>
       <c r="F70" s="42" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G70" s="43" t="s">
         <v>97</v>
@@ -4581,7 +4644,7 @@
         <v>19</v>
       </c>
       <c r="B71" s="46" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C71" s="47">
         <v>99172</v>
@@ -4593,12 +4656,12 @@
         <v>99172</v>
       </c>
       <c r="F71" s="49" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G71" s="50"/>
       <c r="H71" s="50"/>
       <c r="I71" s="66" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.15">
@@ -4610,7 +4673,7 @@
       </c>
       <c r="E72" s="41"/>
       <c r="F72" s="42" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G72" s="43" t="s">
         <v>97</v>
@@ -4629,7 +4692,7 @@
       </c>
       <c r="E73" s="41"/>
       <c r="F73" s="42" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G73" s="43" t="s">
         <v>97</v>
@@ -4648,7 +4711,7 @@
       </c>
       <c r="E74" s="41"/>
       <c r="F74" s="42" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G74" s="43" t="s">
         <v>97</v>
@@ -4663,7 +4726,7 @@
         <v>20</v>
       </c>
       <c r="B75" s="46" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C75" s="47">
         <v>99191</v>
@@ -4675,12 +4738,12 @@
         <v>99191</v>
       </c>
       <c r="F75" s="49" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G75" s="50"/>
       <c r="H75" s="50"/>
       <c r="I75" s="66" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.15">
@@ -4692,10 +4755,10 @@
       </c>
       <c r="E76" s="41"/>
       <c r="F76" s="42" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G76" s="43" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H76" s="43" t="s">
         <v>98</v>
@@ -4707,7 +4770,7 @@
         <v>21</v>
       </c>
       <c r="B77" s="46" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C77" s="47">
         <v>99181</v>
@@ -4717,12 +4780,12 @@
       </c>
       <c r="E77" s="48"/>
       <c r="F77" s="49" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G77" s="50"/>
       <c r="H77" s="50"/>
       <c r="I77" s="66" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.15">
@@ -4733,10 +4796,10 @@
         <v>1</v>
       </c>
       <c r="E78" s="41" t="s">
+        <v>203</v>
+      </c>
+      <c r="F78" s="42" t="s">
         <v>204</v>
-      </c>
-      <c r="F78" s="42" t="s">
-        <v>205</v>
       </c>
       <c r="G78" s="43" t="s">
         <v>97</v>
@@ -4757,7 +4820,7 @@
         <v>99181</v>
       </c>
       <c r="F79" s="42" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G79" s="43" t="s">
         <v>97</v>
@@ -4778,10 +4841,10 @@
         <v>99181</v>
       </c>
       <c r="F80" s="42" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G80" s="43" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H80" s="43" t="s">
         <v>98</v>
@@ -4793,7 +4856,7 @@
         <v>22</v>
       </c>
       <c r="B81" s="46" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C81" s="47">
         <v>99192</v>
@@ -4805,12 +4868,12 @@
         <v>99192</v>
       </c>
       <c r="F81" s="49" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G81" s="50"/>
       <c r="H81" s="50"/>
       <c r="I81" s="66" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.15">
@@ -4822,7 +4885,7 @@
       </c>
       <c r="E82" s="41"/>
       <c r="F82" s="42" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G82" s="43" t="s">
         <v>97</v>
@@ -4841,10 +4904,10 @@
       </c>
       <c r="E83" s="41"/>
       <c r="F83" s="42" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G83" s="43" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H83" s="43" t="s">
         <v>104</v>
@@ -4860,7 +4923,7 @@
       </c>
       <c r="E84" s="41"/>
       <c r="F84" s="42" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G84" s="43" t="s">
         <v>97</v>
@@ -4875,7 +4938,7 @@
         <v>23</v>
       </c>
       <c r="B85" s="46" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C85" s="47">
         <v>99187</v>
@@ -4887,7 +4950,7 @@
         <v>99187</v>
       </c>
       <c r="F85" s="49" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G85" s="50"/>
       <c r="H85" s="50"/>
@@ -4904,7 +4967,7 @@
       </c>
       <c r="E86" s="41"/>
       <c r="F86" s="42" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G86" s="43" t="s">
         <v>97</v>
@@ -4919,7 +4982,7 @@
         <v>24</v>
       </c>
       <c r="B87" s="46" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C87" s="47">
         <v>99194</v>
@@ -4931,12 +4994,12 @@
         <v>99194</v>
       </c>
       <c r="F87" s="49" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G87" s="50"/>
       <c r="H87" s="50"/>
       <c r="I87" s="66" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.15">
@@ -4948,7 +5011,7 @@
       </c>
       <c r="E88" s="41"/>
       <c r="F88" s="42" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G88" s="43" t="s">
         <v>97</v>
@@ -4963,7 +5026,7 @@
         <v>25</v>
       </c>
       <c r="B89" s="46" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C89" s="47">
         <v>99188</v>
@@ -4975,7 +5038,7 @@
         <v>99187</v>
       </c>
       <c r="F89" s="49" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G89" s="50"/>
       <c r="H89" s="50"/>
@@ -4992,7 +5055,7 @@
       </c>
       <c r="E90" s="41"/>
       <c r="F90" s="42" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G90" s="43" t="s">
         <v>97</v>
@@ -5007,7 +5070,7 @@
         <v>26</v>
       </c>
       <c r="B91" s="46" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C91" s="47">
         <v>99193</v>
@@ -5019,12 +5082,12 @@
         <v>99193</v>
       </c>
       <c r="F91" s="49" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G91" s="50"/>
       <c r="H91" s="50"/>
       <c r="I91" s="66" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.15">
@@ -5036,7 +5099,7 @@
       </c>
       <c r="E92" s="41"/>
       <c r="F92" s="42" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G92" s="43"/>
       <c r="H92" s="43"/>
@@ -5051,10 +5114,10 @@
       </c>
       <c r="E93" s="41"/>
       <c r="F93" s="42" t="s">
+        <v>221</v>
+      </c>
+      <c r="G93" s="43" t="s">
         <v>222</v>
-      </c>
-      <c r="G93" s="43" t="s">
-        <v>223</v>
       </c>
       <c r="H93" s="43" t="s">
         <v>98</v>
@@ -5070,10 +5133,10 @@
       </c>
       <c r="E94" s="41"/>
       <c r="F94" s="42" t="s">
+        <v>221</v>
+      </c>
+      <c r="G94" s="43" t="s">
         <v>222</v>
-      </c>
-      <c r="G94" s="43" t="s">
-        <v>223</v>
       </c>
       <c r="H94" s="43" t="s">
         <v>98</v>
@@ -5089,10 +5152,10 @@
       </c>
       <c r="E95" s="41"/>
       <c r="F95" s="42" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G95" s="43" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H95" s="43" t="s">
         <v>104</v>
@@ -5104,7 +5167,7 @@
         <v>27</v>
       </c>
       <c r="B96" s="46" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C96" s="47">
         <v>99191</v>
@@ -5116,12 +5179,12 @@
         <v>99191</v>
       </c>
       <c r="F96" s="49" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G96" s="50"/>
       <c r="H96" s="50"/>
       <c r="I96" s="66" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.15">
@@ -5133,7 +5196,7 @@
       </c>
       <c r="E97" s="41"/>
       <c r="F97" s="42" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G97" s="43" t="s">
         <v>97</v>
@@ -5152,7 +5215,7 @@
       </c>
       <c r="E98" s="41"/>
       <c r="F98" s="42" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G98" s="43" t="s">
         <v>97</v>
@@ -5167,7 +5230,7 @@
         <v>28</v>
       </c>
       <c r="B99" s="46" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C99" s="47">
         <v>99194</v>
@@ -5179,12 +5242,12 @@
         <v>99194</v>
       </c>
       <c r="F99" s="49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G99" s="50"/>
       <c r="H99" s="50"/>
       <c r="I99" s="66" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.15">
@@ -5196,7 +5259,7 @@
       </c>
       <c r="E100" s="41"/>
       <c r="F100" s="42" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G100" s="43" t="s">
         <v>97</v>
@@ -5215,7 +5278,7 @@
       </c>
       <c r="E101" s="41"/>
       <c r="F101" s="42" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G101" s="43" t="s">
         <v>97</v>
@@ -5234,10 +5297,10 @@
       </c>
       <c r="E102" s="41"/>
       <c r="F102" s="42" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G102" s="43" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H102" s="43" t="s">
         <v>98</v>
@@ -5253,10 +5316,10 @@
       </c>
       <c r="E103" s="41"/>
       <c r="F103" s="42" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G103" s="43" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H103" s="43" t="s">
         <v>98</v>
@@ -5272,10 +5335,10 @@
       </c>
       <c r="E104" s="41"/>
       <c r="F104" s="42" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G104" s="43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H104" s="43" t="s">
         <v>98</v>
@@ -5291,10 +5354,10 @@
       </c>
       <c r="E105" s="41"/>
       <c r="F105" s="42" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G105" s="43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H105" s="43" t="s">
         <v>98</v>
@@ -5306,7 +5369,7 @@
         <v>29</v>
       </c>
       <c r="B106" s="46" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C106" s="47">
         <v>99194</v>
@@ -5318,12 +5381,12 @@
         <v>99194</v>
       </c>
       <c r="F106" s="49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G106" s="50"/>
       <c r="H106" s="50"/>
       <c r="I106" s="66" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.15">
@@ -5335,10 +5398,10 @@
       </c>
       <c r="E107" s="41"/>
       <c r="F107" s="42" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G107" s="43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H107" s="43" t="s">
         <v>104</v>
@@ -5354,10 +5417,10 @@
       </c>
       <c r="E108" s="41"/>
       <c r="F108" s="42" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G108" s="43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H108" s="43" t="s">
         <v>104</v>
@@ -5373,10 +5436,10 @@
       </c>
       <c r="E109" s="41"/>
       <c r="F109" s="42" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G109" s="43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H109" s="43" t="s">
         <v>104</v>
@@ -5388,7 +5451,7 @@
         <v>30</v>
       </c>
       <c r="B110" s="46" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C110" s="47">
         <v>99195</v>
@@ -5400,12 +5463,12 @@
         <v>99195</v>
       </c>
       <c r="F110" s="49" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G110" s="50"/>
       <c r="H110" s="50"/>
       <c r="I110" s="66" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.15">
@@ -5417,10 +5480,10 @@
       </c>
       <c r="E111" s="41"/>
       <c r="F111" s="42" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G111" s="43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H111" s="43" t="s">
         <v>98</v>
@@ -5436,10 +5499,10 @@
       </c>
       <c r="E112" s="41"/>
       <c r="F112" s="42" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G112" s="43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H112" s="43" t="s">
         <v>98</v>
@@ -5451,7 +5514,7 @@
         <v>31</v>
       </c>
       <c r="B113" s="46" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C113" s="47">
         <v>99195</v>
@@ -5461,12 +5524,12 @@
       </c>
       <c r="E113" s="48"/>
       <c r="F113" s="49" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G113" s="50"/>
       <c r="H113" s="50"/>
       <c r="I113" s="66" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.15">
@@ -5477,13 +5540,13 @@
         <v>1</v>
       </c>
       <c r="E114" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="F114" s="42" t="s">
         <v>242</v>
       </c>
-      <c r="F114" s="42" t="s">
-        <v>243</v>
-      </c>
       <c r="G114" s="43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H114" s="43" t="s">
         <v>98</v>
@@ -5501,10 +5564,10 @@
         <v>99195</v>
       </c>
       <c r="F115" s="42" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G115" s="43" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H115" s="43" t="s">
         <v>104</v>
@@ -5522,10 +5585,10 @@
         <v>99195</v>
       </c>
       <c r="F116" s="42" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G116" s="43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H116" s="43" t="s">
         <v>98</v>
@@ -5543,10 +5606,10 @@
         <v>99195</v>
       </c>
       <c r="F117" s="42" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G117" s="43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H117" s="43" t="s">
         <v>98</v>
@@ -5570,12 +5633,12 @@
         <v>99196</v>
       </c>
       <c r="F118" s="49" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G118" s="50"/>
       <c r="H118" s="50"/>
       <c r="I118" s="66" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.15">
@@ -5587,10 +5650,10 @@
       </c>
       <c r="E119" s="41"/>
       <c r="F119" s="42" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G119" s="43" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H119" s="43" t="s">
         <v>98</v>
@@ -5609,7 +5672,7 @@
         <v>96</v>
       </c>
       <c r="G120" s="43" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H120" s="43" t="s">
         <v>98</v>
@@ -5625,10 +5688,10 @@
       </c>
       <c r="E121" s="41"/>
       <c r="F121" s="42" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G121" s="43" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H121" s="43" t="s">
         <v>104</v>
@@ -5647,7 +5710,7 @@
         <v>96</v>
       </c>
       <c r="G122" s="43" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H122" s="43" t="s">
         <v>98</v>
@@ -5659,7 +5722,7 @@
         <v>33</v>
       </c>
       <c r="B123" s="46" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C123" s="47">
         <v>99197</v>
@@ -5671,12 +5734,12 @@
         <v>99197</v>
       </c>
       <c r="F123" s="49" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G123" s="50"/>
       <c r="H123" s="50"/>
       <c r="I123" s="66" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.15">
@@ -5688,7 +5751,7 @@
       </c>
       <c r="E124" s="41"/>
       <c r="F124" s="42" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G124" s="43" t="s">
         <v>97</v>
@@ -5703,24 +5766,24 @@
         <v>34</v>
       </c>
       <c r="B125" s="46" t="s">
+        <v>251</v>
+      </c>
+      <c r="C125" s="47" t="s">
         <v>252</v>
-      </c>
-      <c r="C125" s="47" t="s">
-        <v>253</v>
       </c>
       <c r="D125" s="46">
         <v>0</v>
       </c>
       <c r="E125" s="48" t="s">
+        <v>253</v>
+      </c>
+      <c r="F125" s="49" t="s">
         <v>254</v>
-      </c>
-      <c r="F125" s="49" t="s">
-        <v>255</v>
       </c>
       <c r="G125" s="50"/>
       <c r="H125" s="50"/>
       <c r="I125" s="66" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.15">
@@ -5732,7 +5795,7 @@
       </c>
       <c r="E126" s="41"/>
       <c r="F126" s="42" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G126" s="43" t="s">
         <v>97</v>
@@ -5751,7 +5814,7 @@
       </c>
       <c r="E127" s="41"/>
       <c r="F127" s="42" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G127" s="43" t="s">
         <v>97</v>
@@ -5770,7 +5833,7 @@
       </c>
       <c r="E128" s="41"/>
       <c r="F128" s="42" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G128" s="43" t="s">
         <v>97</v>
@@ -5785,7 +5848,7 @@
         <v>35</v>
       </c>
       <c r="B129" s="46" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C129" s="47">
         <v>99198</v>
@@ -5797,12 +5860,12 @@
         <v>99198</v>
       </c>
       <c r="F129" s="49" t="s">
-        <v>110</v>
+        <v>467</v>
       </c>
       <c r="G129" s="50"/>
       <c r="H129" s="50"/>
       <c r="I129" s="66" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.15">
@@ -5814,10 +5877,10 @@
       </c>
       <c r="E130" s="41"/>
       <c r="F130" s="42" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G130" s="43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H130" s="43" t="s">
         <v>104</v>
@@ -5829,7 +5892,7 @@
         <v>36</v>
       </c>
       <c r="B131" s="46" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C131" s="47">
         <v>99198</v>
@@ -5841,12 +5904,12 @@
         <v>99198</v>
       </c>
       <c r="F131" s="49" t="s">
-        <v>110</v>
+        <v>467</v>
       </c>
       <c r="G131" s="50"/>
       <c r="H131" s="50"/>
       <c r="I131" s="66" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.15">
@@ -5858,10 +5921,10 @@
       </c>
       <c r="E132" s="41"/>
       <c r="F132" s="42" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G132" s="43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H132" s="43" t="s">
         <v>104</v>
@@ -5877,10 +5940,10 @@
       </c>
       <c r="E133" s="41"/>
       <c r="F133" s="42" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G133" s="43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H133" s="43" t="s">
         <v>104</v>
@@ -5892,7 +5955,7 @@
         <v>37</v>
       </c>
       <c r="B134" s="46" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C134" s="47">
         <v>99198</v>
@@ -5904,12 +5967,12 @@
         <v>99198</v>
       </c>
       <c r="F134" s="49" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G134" s="50"/>
       <c r="H134" s="50"/>
       <c r="I134" s="66" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.15">
@@ -5921,10 +5984,10 @@
       </c>
       <c r="E135" s="41"/>
       <c r="F135" s="42" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G135" s="43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H135" s="43" t="s">
         <v>98</v>
@@ -5940,7 +6003,7 @@
       </c>
       <c r="E136" s="41"/>
       <c r="F136" s="42" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G136" s="43" t="s">
         <v>97</v>
@@ -5962,7 +6025,7 @@
         <v>108</v>
       </c>
       <c r="G137" s="43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H137" s="43" t="s">
         <v>98</v>
@@ -5974,7 +6037,7 @@
         <v>38</v>
       </c>
       <c r="B138" s="46" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C138" s="47">
         <v>99200</v>
@@ -5986,12 +6049,12 @@
         <v>99200</v>
       </c>
       <c r="F138" s="49" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G138" s="50"/>
       <c r="H138" s="50"/>
       <c r="I138" s="66" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.15">
@@ -6003,10 +6066,10 @@
       </c>
       <c r="E139" s="41"/>
       <c r="F139" s="42" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G139" s="43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H139" s="43" t="s">
         <v>98</v>
@@ -6022,10 +6085,10 @@
       </c>
       <c r="E140" s="41"/>
       <c r="F140" s="42" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G140" s="43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H140" s="43" t="s">
         <v>104</v>
@@ -6041,10 +6104,10 @@
       </c>
       <c r="E141" s="41"/>
       <c r="F141" s="42" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G141" s="43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H141" s="43" t="s">
         <v>104</v>
@@ -6056,7 +6119,7 @@
         <v>39</v>
       </c>
       <c r="B142" s="46" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C142" s="47">
         <v>99197</v>
@@ -6068,12 +6131,12 @@
         <v>99197</v>
       </c>
       <c r="F142" s="49" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G142" s="50"/>
       <c r="H142" s="50"/>
       <c r="I142" s="66" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.15">
@@ -6085,13 +6148,13 @@
       </c>
       <c r="E143" s="41"/>
       <c r="F143" s="42" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G143" s="43" t="s">
         <v>97</v>
       </c>
       <c r="H143" s="43" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I143" s="65"/>
     </row>
@@ -6104,7 +6167,7 @@
       </c>
       <c r="E144" s="41"/>
       <c r="F144" s="42" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G144" s="43" t="s">
         <v>97</v>
@@ -6123,7 +6186,7 @@
       </c>
       <c r="E145" s="41"/>
       <c r="F145" s="42" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G145" s="43" t="s">
         <v>97</v>
@@ -6138,7 +6201,7 @@
         <v>40</v>
       </c>
       <c r="B146" s="46" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C146" s="47">
         <v>99201</v>
@@ -6150,12 +6213,12 @@
         <v>99201</v>
       </c>
       <c r="F146" s="49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G146" s="50"/>
       <c r="H146" s="50"/>
       <c r="I146" s="66" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.15">
@@ -6167,10 +6230,10 @@
       </c>
       <c r="E147" s="41"/>
       <c r="F147" s="42" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G147" s="43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H147" s="43" t="s">
         <v>104</v>
@@ -6186,10 +6249,10 @@
       </c>
       <c r="E148" s="41"/>
       <c r="F148" s="42" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G148" s="43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H148" s="43" t="s">
         <v>104</v>
@@ -6205,10 +6268,10 @@
       </c>
       <c r="E149" s="41"/>
       <c r="F149" s="42" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G149" s="43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H149" s="43" t="s">
         <v>104</v>
@@ -6220,24 +6283,24 @@
         <v>41</v>
       </c>
       <c r="B150" s="46" t="s">
+        <v>283</v>
+      </c>
+      <c r="C150" s="47" t="s">
         <v>284</v>
-      </c>
-      <c r="C150" s="47" t="s">
-        <v>285</v>
       </c>
       <c r="D150" s="46">
         <v>0</v>
       </c>
       <c r="E150" s="48" t="s">
+        <v>253</v>
+      </c>
+      <c r="F150" s="49" t="s">
         <v>254</v>
-      </c>
-      <c r="F150" s="49" t="s">
-        <v>255</v>
       </c>
       <c r="G150" s="50"/>
       <c r="H150" s="50"/>
       <c r="I150" s="66" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.15">
@@ -6249,7 +6312,7 @@
       </c>
       <c r="E151" s="41"/>
       <c r="F151" s="42" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G151" s="43" t="s">
         <v>97</v>
@@ -6268,7 +6331,7 @@
       </c>
       <c r="E152" s="41"/>
       <c r="F152" s="42" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G152" s="43" t="s">
         <v>97</v>
@@ -6283,7 +6346,7 @@
         <v>42</v>
       </c>
       <c r="B153" s="46" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C153" s="47">
         <v>99198</v>
@@ -6295,12 +6358,12 @@
         <v>99198</v>
       </c>
       <c r="F153" s="49" t="s">
-        <v>246</v>
+        <v>469</v>
       </c>
       <c r="G153" s="50"/>
       <c r="H153" s="50"/>
       <c r="I153" s="66" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.15">
@@ -6312,13 +6375,13 @@
       </c>
       <c r="E154" s="41"/>
       <c r="F154" s="42" t="s">
-        <v>288</v>
+        <v>466</v>
       </c>
       <c r="G154" s="43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H154" s="43" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I154" s="65"/>
     </row>
@@ -6331,7 +6394,7 @@
       </c>
       <c r="E155" s="41"/>
       <c r="F155" s="42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G155" s="43" t="s">
         <v>97</v>
@@ -6350,7 +6413,7 @@
       </c>
       <c r="E156" s="41"/>
       <c r="F156" s="42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G156" s="43" t="s">
         <v>97</v>
@@ -6365,7 +6428,7 @@
         <v>43</v>
       </c>
       <c r="B157" s="46" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C157" s="47">
         <v>99203</v>
@@ -6377,12 +6440,12 @@
         <v>99203</v>
       </c>
       <c r="F157" s="49" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G157" s="50"/>
       <c r="H157" s="50"/>
       <c r="I157" s="66" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.15">
@@ -6394,7 +6457,7 @@
       </c>
       <c r="E158" s="41"/>
       <c r="F158" s="42" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G158" s="43" t="s">
         <v>97</v>
@@ -6413,7 +6476,7 @@
       </c>
       <c r="E159" s="41"/>
       <c r="F159" s="42" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G159" s="43" t="s">
         <v>97</v>
@@ -6432,7 +6495,7 @@
       </c>
       <c r="E160" s="41"/>
       <c r="F160" s="42" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G160" s="43" t="s">
         <v>97</v>
@@ -6447,7 +6510,7 @@
         <v>44</v>
       </c>
       <c r="B161" s="46" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C161" s="47">
         <v>99203</v>
@@ -6459,12 +6522,12 @@
         <v>99203</v>
       </c>
       <c r="F161" s="49" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G161" s="50"/>
       <c r="H161" s="50"/>
       <c r="I161" s="66" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.15">
@@ -6476,7 +6539,7 @@
       </c>
       <c r="E162" s="41"/>
       <c r="F162" s="42" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G162" s="43" t="s">
         <v>97</v>
@@ -6495,7 +6558,7 @@
       </c>
       <c r="E163" s="41"/>
       <c r="F163" s="42" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G163" s="43" t="s">
         <v>97</v>
@@ -6510,7 +6573,7 @@
         <v>45</v>
       </c>
       <c r="B164" s="46" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C164" s="47">
         <v>99199</v>
@@ -6522,12 +6585,12 @@
         <v>99199</v>
       </c>
       <c r="F164" s="49" t="s">
-        <v>299</v>
+        <v>468</v>
       </c>
       <c r="G164" s="50"/>
       <c r="H164" s="50"/>
       <c r="I164" s="66" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.15">
@@ -6539,10 +6602,10 @@
       </c>
       <c r="E165" s="41"/>
       <c r="F165" s="42" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G165" s="43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H165" s="43" t="s">
         <v>104</v>
@@ -6554,7 +6617,7 @@
         <v>46</v>
       </c>
       <c r="B166" s="46" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C166" s="47">
         <v>99203</v>
@@ -6566,12 +6629,12 @@
         <v>99204</v>
       </c>
       <c r="F166" s="49" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G166" s="50"/>
       <c r="H166" s="50"/>
       <c r="I166" s="66" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.15">
@@ -6583,10 +6646,10 @@
       </c>
       <c r="E167" s="41"/>
       <c r="F167" s="42" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G167" s="43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H167" s="43" t="s">
         <v>104</v>
@@ -6602,7 +6665,7 @@
       </c>
       <c r="E168" s="41"/>
       <c r="F168" s="42" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G168" s="43" t="s">
         <v>97</v>
@@ -6621,10 +6684,10 @@
       </c>
       <c r="E169" s="41"/>
       <c r="F169" s="42" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G169" s="43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H169" s="43" t="s">
         <v>98</v>
@@ -6640,7 +6703,7 @@
       </c>
       <c r="E170" s="41"/>
       <c r="F170" s="42" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G170" s="43" t="s">
         <v>97</v>
@@ -6659,7 +6722,7 @@
       </c>
       <c r="E171" s="41"/>
       <c r="F171" s="42" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G171" s="43" t="s">
         <v>97</v>
@@ -6674,7 +6737,7 @@
         <v>47</v>
       </c>
       <c r="B172" s="46" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C172" s="47">
         <v>99204</v>
@@ -6686,12 +6749,12 @@
         <v>99204</v>
       </c>
       <c r="F172" s="49" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G172" s="50"/>
       <c r="H172" s="50"/>
       <c r="I172" s="66" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.15">
@@ -6703,10 +6766,10 @@
       </c>
       <c r="E173" s="41"/>
       <c r="F173" s="42" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G173" s="43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H173" s="43" t="s">
         <v>98</v>
@@ -6722,7 +6785,7 @@
       </c>
       <c r="E174" s="41"/>
       <c r="F174" s="42" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G174" s="43" t="s">
         <v>97</v>
@@ -6741,10 +6804,10 @@
       </c>
       <c r="E175" s="41"/>
       <c r="F175" s="42" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G175" s="43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H175" s="43" t="s">
         <v>98</v>
@@ -6756,24 +6819,24 @@
         <v>48</v>
       </c>
       <c r="B176" s="46" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C176" s="47" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D176" s="46">
         <v>0</v>
       </c>
       <c r="E176" s="48" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F176" s="49" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G176" s="50"/>
       <c r="H176" s="50"/>
       <c r="I176" s="66" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.15">
@@ -6785,7 +6848,7 @@
       </c>
       <c r="E177" s="41"/>
       <c r="F177" s="42" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G177" s="43" t="s">
         <v>97</v>
@@ -6804,10 +6867,10 @@
       </c>
       <c r="E178" s="41"/>
       <c r="F178" s="42" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G178" s="43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H178" s="43" t="s">
         <v>104</v>
@@ -6823,7 +6886,7 @@
       </c>
       <c r="E179" s="41"/>
       <c r="F179" s="42" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="G179" s="43" t="s">
         <v>97</v>
@@ -6838,7 +6901,7 @@
         <v>49</v>
       </c>
       <c r="B180" s="46" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C180" s="47">
         <v>99207</v>
@@ -6855,7 +6918,7 @@
       <c r="G180" s="50"/>
       <c r="H180" s="50"/>
       <c r="I180" s="66" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.15">
@@ -6867,10 +6930,10 @@
       </c>
       <c r="E181" s="41"/>
       <c r="F181" s="42" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G181" s="43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H181" s="43" t="s">
         <v>104</v>
@@ -6886,10 +6949,10 @@
       </c>
       <c r="E182" s="41"/>
       <c r="F182" s="42" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G182" s="43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H182" s="43" t="s">
         <v>104</v>
@@ -6901,7 +6964,7 @@
         <v>50</v>
       </c>
       <c r="B183" s="46" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C183" s="47">
         <v>99207</v>
@@ -6913,12 +6976,12 @@
         <v>99207</v>
       </c>
       <c r="F183" s="49" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G183" s="50"/>
       <c r="H183" s="50"/>
       <c r="I183" s="66" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.15">
@@ -6930,10 +6993,10 @@
       </c>
       <c r="E184" s="41"/>
       <c r="F184" s="42" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G184" s="43" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H184" s="43" t="s">
         <v>98</v>
@@ -6949,10 +7012,10 @@
       </c>
       <c r="E185" s="41"/>
       <c r="F185" s="42" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G185" s="43" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H185" s="43" t="s">
         <v>98</v>
@@ -6968,10 +7031,10 @@
       </c>
       <c r="E186" s="41"/>
       <c r="F186" s="42" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G186" s="43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H186" s="43" t="s">
         <v>98</v>
@@ -6983,7 +7046,7 @@
         <v>51</v>
       </c>
       <c r="B187" s="46" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C187" s="47">
         <v>99208</v>
@@ -6995,12 +7058,12 @@
         <v>99208</v>
       </c>
       <c r="F187" s="49" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G187" s="50"/>
       <c r="H187" s="50"/>
       <c r="I187" s="66" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.15">
@@ -7012,7 +7075,7 @@
       </c>
       <c r="E188" s="41"/>
       <c r="F188" s="42" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G188" s="43" t="s">
         <v>97</v>
@@ -7031,7 +7094,7 @@
       </c>
       <c r="E189" s="41"/>
       <c r="F189" s="42" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="G189" s="43" t="s">
         <v>97</v>
@@ -7050,7 +7113,7 @@
       </c>
       <c r="E190" s="41"/>
       <c r="F190" s="42" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G190" s="43" t="s">
         <v>97</v>
@@ -7069,7 +7132,7 @@
       </c>
       <c r="E191" s="41"/>
       <c r="F191" s="42" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G191" s="43" t="s">
         <v>97</v>
@@ -7084,7 +7147,7 @@
         <v>52</v>
       </c>
       <c r="B192" s="46" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C192" s="47">
         <v>99208</v>
@@ -7096,12 +7159,12 @@
         <v>99208</v>
       </c>
       <c r="F192" s="49" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G192" s="50"/>
       <c r="H192" s="50"/>
       <c r="I192" s="66" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.15">
@@ -7113,7 +7176,7 @@
       </c>
       <c r="E193" s="41"/>
       <c r="F193" s="42" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G193" s="43" t="s">
         <v>97</v>
@@ -7132,7 +7195,7 @@
       </c>
       <c r="E194" s="41"/>
       <c r="F194" s="42" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G194" s="43" t="s">
         <v>97</v>
@@ -7147,7 +7210,7 @@
         <v>53</v>
       </c>
       <c r="B195" s="46" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C195" s="47">
         <v>99207</v>
@@ -7159,16 +7222,16 @@
         <v>99207</v>
       </c>
       <c r="F195" s="49" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G195" s="50"/>
       <c r="H195" s="50"/>
       <c r="I195" s="66" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A196" s="76"/>
+      <c r="A196" s="75"/>
       <c r="B196" s="57"/>
       <c r="C196" s="58"/>
       <c r="D196" s="57">
@@ -7176,7 +7239,7 @@
       </c>
       <c r="E196" s="59"/>
       <c r="F196" s="60" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="G196" s="61" t="s">
         <v>97</v>
@@ -7195,7 +7258,7 @@
       </c>
       <c r="E197" s="41"/>
       <c r="F197" s="42" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G197" s="43" t="s">
         <v>97</v>
@@ -7210,7 +7273,7 @@
         <v>54</v>
       </c>
       <c r="B198" s="46" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C198" s="47">
         <v>99208</v>
@@ -7222,12 +7285,12 @@
         <v>99208</v>
       </c>
       <c r="F198" s="49" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G198" s="50"/>
       <c r="H198" s="50"/>
       <c r="I198" s="66" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.15">
@@ -7239,7 +7302,7 @@
       </c>
       <c r="E199" s="41"/>
       <c r="F199" s="42" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="G199" s="43" t="s">
         <v>97</v>
@@ -7254,7 +7317,7 @@
         <v>55</v>
       </c>
       <c r="B200" s="46" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C200" s="47">
         <v>99209</v>
@@ -7266,12 +7329,12 @@
         <v>99209</v>
       </c>
       <c r="F200" s="49" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G200" s="50"/>
       <c r="H200" s="50"/>
       <c r="I200" s="66" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.15">
@@ -7283,7 +7346,7 @@
       </c>
       <c r="E201" s="41"/>
       <c r="F201" s="42" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G201" s="43" t="s">
         <v>97</v>
@@ -7302,10 +7365,10 @@
       </c>
       <c r="E202" s="41"/>
       <c r="F202" s="42" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G202" s="43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H202" s="43" t="s">
         <v>104</v>
@@ -7321,7 +7384,7 @@
       </c>
       <c r="E203" s="41"/>
       <c r="F203" s="42" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G203" s="43" t="s">
         <v>97</v>
@@ -7340,7 +7403,7 @@
       </c>
       <c r="E204" s="41"/>
       <c r="F204" s="42" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G204" s="43" t="s">
         <v>97</v>
@@ -7355,7 +7418,7 @@
         <v>56</v>
       </c>
       <c r="B205" s="46" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C205" s="47">
         <v>99209</v>
@@ -7367,12 +7430,12 @@
         <v>99209</v>
       </c>
       <c r="F205" s="49" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G205" s="50"/>
       <c r="H205" s="50"/>
       <c r="I205" s="66" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.15">
@@ -7384,13 +7447,13 @@
       </c>
       <c r="E206" s="41"/>
       <c r="F206" s="42" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G206" s="43" t="s">
         <v>97</v>
       </c>
       <c r="H206" s="43" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I206" s="65"/>
     </row>
@@ -7403,7 +7466,7 @@
       </c>
       <c r="E207" s="41"/>
       <c r="F207" s="42" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="G207" s="43" t="s">
         <v>97</v>
@@ -7418,7 +7481,7 @@
         <v>57</v>
       </c>
       <c r="B208" s="46" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C208" s="47">
         <v>99210</v>
@@ -7430,12 +7493,12 @@
         <v>99210</v>
       </c>
       <c r="F208" s="49" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G208" s="50"/>
       <c r="H208" s="50"/>
       <c r="I208" s="66" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.15">
@@ -7447,10 +7510,10 @@
       </c>
       <c r="E209" s="41"/>
       <c r="F209" s="42" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G209" s="43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H209" s="43" t="s">
         <v>98</v>
@@ -7466,10 +7529,10 @@
       </c>
       <c r="E210" s="41"/>
       <c r="F210" s="42" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="G210" s="43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H210" s="43" t="s">
         <v>104</v>
@@ -7485,10 +7548,10 @@
       </c>
       <c r="E211" s="41"/>
       <c r="F211" s="42" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G211" s="43" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="H211" s="43" t="s">
         <v>104</v>
@@ -7504,7 +7567,7 @@
       </c>
       <c r="E212" s="41"/>
       <c r="F212" s="42" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G212" s="43" t="s">
         <v>97</v>
@@ -7519,7 +7582,7 @@
         <v>58</v>
       </c>
       <c r="B213" s="52" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C213" s="47">
         <v>99211</v>
@@ -7531,24 +7594,24 @@
         <v>99211</v>
       </c>
       <c r="F213" s="49" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G213" s="50"/>
       <c r="H213" s="50"/>
       <c r="I213" s="66" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A214" s="76"/>
-      <c r="B214" s="77"/>
+      <c r="A214" s="75"/>
+      <c r="B214" s="76"/>
       <c r="C214" s="58"/>
       <c r="D214" s="57">
         <v>1</v>
       </c>
       <c r="E214" s="59"/>
       <c r="F214" s="60" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G214" s="61" t="s">
         <v>97</v>
@@ -7559,15 +7622,15 @@
       <c r="I214" s="68"/>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A215" s="76"/>
-      <c r="B215" s="77"/>
+      <c r="A215" s="75"/>
+      <c r="B215" s="76"/>
       <c r="C215" s="58"/>
       <c r="D215" s="57">
         <v>2</v>
       </c>
       <c r="E215" s="59"/>
       <c r="F215" s="60" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G215" s="61" t="s">
         <v>97</v>
@@ -7578,7 +7641,7 @@
       <c r="I215" s="68"/>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A216" s="76"/>
+      <c r="A216" s="75"/>
       <c r="B216" s="57"/>
       <c r="C216" s="58"/>
       <c r="D216" s="57">
@@ -7586,7 +7649,7 @@
       </c>
       <c r="E216" s="59"/>
       <c r="F216" s="60" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G216" s="61" t="s">
         <v>97</v>
@@ -7601,7 +7664,7 @@
         <v>59</v>
       </c>
       <c r="B217" s="46" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C217" s="47">
         <v>99210</v>
@@ -7612,112 +7675,106 @@
       <c r="E217" s="48">
         <v>99210</v>
       </c>
-      <c r="F217" s="49"/>
+      <c r="F217" s="49" t="s">
+        <v>468</v>
+      </c>
       <c r="G217" s="50"/>
       <c r="H217" s="50"/>
-      <c r="I217" s="66"/>
+      <c r="I217" s="66" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A218" s="45">
-        <v>60</v>
-      </c>
-      <c r="B218" s="46" t="s">
-        <v>358</v>
-      </c>
-      <c r="C218" s="47">
-        <v>99210</v>
-      </c>
-      <c r="D218" s="46">
-        <v>0</v>
-      </c>
-      <c r="E218" s="48">
-        <v>99210</v>
-      </c>
-      <c r="F218" s="49"/>
-      <c r="G218" s="50"/>
-      <c r="H218" s="50"/>
-      <c r="I218" s="66"/>
+      <c r="A218" s="82"/>
+      <c r="B218" s="83"/>
+      <c r="C218" s="84"/>
+      <c r="D218" s="83">
+        <v>1</v>
+      </c>
+      <c r="E218" s="85"/>
+      <c r="F218" s="86" t="s">
+        <v>470</v>
+      </c>
+      <c r="G218" s="87" t="s">
+        <v>473</v>
+      </c>
+      <c r="H218" s="87" t="s">
+        <v>474</v>
+      </c>
+      <c r="I218" s="88"/>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A219" s="45">
-        <v>61</v>
-      </c>
-      <c r="B219" s="46" t="s">
-        <v>359</v>
-      </c>
-      <c r="C219" s="47">
-        <v>99211</v>
-      </c>
-      <c r="D219" s="46">
-        <v>0</v>
-      </c>
-      <c r="E219" s="48">
-        <v>99211</v>
-      </c>
-      <c r="F219" s="49" t="s">
-        <v>360</v>
-      </c>
-      <c r="G219" s="50"/>
-      <c r="H219" s="50"/>
-      <c r="I219" s="66" t="s">
-        <v>361</v>
-      </c>
+      <c r="A219" s="82"/>
+      <c r="B219" s="83"/>
+      <c r="C219" s="84"/>
+      <c r="D219" s="83">
+        <v>2</v>
+      </c>
+      <c r="E219" s="85"/>
+      <c r="F219" s="86" t="s">
+        <v>471</v>
+      </c>
+      <c r="G219" s="87" t="s">
+        <v>473</v>
+      </c>
+      <c r="H219" s="87" t="s">
+        <v>474</v>
+      </c>
+      <c r="I219" s="88"/>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A220" s="38"/>
-      <c r="B220" s="39"/>
-      <c r="C220" s="40"/>
-      <c r="D220" s="39">
-        <v>1</v>
-      </c>
-      <c r="E220" s="41"/>
-      <c r="F220" s="42" t="s">
-        <v>362</v>
-      </c>
-      <c r="G220" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="H220" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="I220" s="65"/>
+      <c r="A220" s="82"/>
+      <c r="B220" s="83"/>
+      <c r="C220" s="84"/>
+      <c r="D220" s="83">
+        <v>3</v>
+      </c>
+      <c r="E220" s="85"/>
+      <c r="F220" s="86" t="s">
+        <v>472</v>
+      </c>
+      <c r="G220" s="87" t="s">
+        <v>476</v>
+      </c>
+      <c r="H220" s="87" t="s">
+        <v>477</v>
+      </c>
+      <c r="I220" s="88"/>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A221" s="45">
-        <v>62</v>
-      </c>
-      <c r="B221" s="46" t="s">
-        <v>363</v>
-      </c>
-      <c r="C221" s="47">
-        <v>99211</v>
-      </c>
-      <c r="D221" s="46">
-        <v>0</v>
-      </c>
-      <c r="E221" s="48">
-        <v>99211</v>
-      </c>
-      <c r="F221" s="49"/>
-      <c r="G221" s="50"/>
-      <c r="H221" s="50"/>
-      <c r="I221" s="66"/>
+      <c r="A221" s="82"/>
+      <c r="B221" s="83"/>
+      <c r="C221" s="84"/>
+      <c r="D221" s="83">
+        <v>4</v>
+      </c>
+      <c r="E221" s="85"/>
+      <c r="F221" s="86" t="s">
+        <v>471</v>
+      </c>
+      <c r="G221" s="87" t="s">
+        <v>473</v>
+      </c>
+      <c r="H221" s="87" t="s">
+        <v>474</v>
+      </c>
+      <c r="I221" s="88"/>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A222" s="45">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B222" s="46" t="s">
-        <v>364</v>
-      </c>
-      <c r="C222" s="47" t="s">
-        <v>365</v>
+        <v>355</v>
+      </c>
+      <c r="C222" s="47">
+        <v>99210</v>
       </c>
       <c r="D222" s="46">
         <v>0</v>
       </c>
-      <c r="E222" s="48" t="s">
-        <v>468</v>
+      <c r="E222" s="48">
+        <v>99210</v>
       </c>
       <c r="F222" s="49"/>
       <c r="G222" s="50"/>
@@ -7726,24 +7783,110 @@
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A223" s="45">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B223" s="46" t="s">
-        <v>84</v>
+        <v>356</v>
       </c>
       <c r="C223" s="47">
-        <v>99212</v>
+        <v>99211</v>
       </c>
       <c r="D223" s="46">
         <v>0</v>
       </c>
       <c r="E223" s="48">
-        <v>99212</v>
-      </c>
-      <c r="F223" s="49"/>
+        <v>99211</v>
+      </c>
+      <c r="F223" s="49" t="s">
+        <v>357</v>
+      </c>
       <c r="G223" s="50"/>
       <c r="H223" s="50"/>
-      <c r="I223" s="66"/>
+      <c r="I223" s="66" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A224" s="38"/>
+      <c r="B224" s="39"/>
+      <c r="C224" s="40"/>
+      <c r="D224" s="39">
+        <v>1</v>
+      </c>
+      <c r="E224" s="41"/>
+      <c r="F224" s="42" t="s">
+        <v>359</v>
+      </c>
+      <c r="G224" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="H224" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="I224" s="65"/>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A225" s="45">
+        <v>62</v>
+      </c>
+      <c r="B225" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="C225" s="47">
+        <v>99211</v>
+      </c>
+      <c r="D225" s="46">
+        <v>0</v>
+      </c>
+      <c r="E225" s="48">
+        <v>99211</v>
+      </c>
+      <c r="F225" s="49"/>
+      <c r="G225" s="50"/>
+      <c r="H225" s="50"/>
+      <c r="I225" s="66"/>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A226" s="45">
+        <v>63</v>
+      </c>
+      <c r="B226" s="46" t="s">
+        <v>361</v>
+      </c>
+      <c r="C226" s="47" t="s">
+        <v>362</v>
+      </c>
+      <c r="D226" s="46">
+        <v>0</v>
+      </c>
+      <c r="E226" s="48" t="s">
+        <v>465</v>
+      </c>
+      <c r="F226" s="49"/>
+      <c r="G226" s="50"/>
+      <c r="H226" s="50"/>
+      <c r="I226" s="66"/>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A227" s="45">
+        <v>64</v>
+      </c>
+      <c r="B227" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="C227" s="47">
+        <v>99212</v>
+      </c>
+      <c r="D227" s="46">
+        <v>0</v>
+      </c>
+      <c r="E227" s="48">
+        <v>99212</v>
+      </c>
+      <c r="F227" s="49"/>
+      <c r="G227" s="50"/>
+      <c r="H227" s="50"/>
+      <c r="I227" s="66"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -7779,22 +7922,22 @@
         <v>85</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>367</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -7802,22 +7945,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>371</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>374</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>100</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -7825,22 +7968,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F3" s="14" t="s">
         <v>100</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -7848,22 +7991,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F4" s="14" t="s">
         <v>105</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -7871,22 +8014,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
@@ -7894,22 +8037,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
@@ -7917,22 +8060,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D7" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="G7" s="12" t="s">
         <v>384</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>374</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
@@ -7940,22 +8083,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
@@ -7963,22 +8106,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
@@ -7986,22 +8129,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
@@ -8009,22 +8152,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -8032,22 +8175,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -8055,22 +8198,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -8078,22 +8221,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -8101,22 +8244,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="G15" s="12" t="s">
         <v>401</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>402</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>403</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>374</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
@@ -8124,22 +8267,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -8147,22 +8290,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
@@ -8170,22 +8313,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
@@ -8193,22 +8336,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="G19" s="12" t="s">
         <v>410</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>411</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>412</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
@@ -8216,22 +8359,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
@@ -8239,22 +8382,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
@@ -8262,22 +8405,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
@@ -8285,22 +8428,22 @@
         <v>22</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
@@ -8308,22 +8451,22 @@
         <v>23</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C24" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="G24" s="12" t="s">
         <v>420</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>421</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
@@ -8331,22 +8474,22 @@
         <v>24</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D25" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="G25" s="12" t="s">
         <v>421</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>374</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
@@ -8354,22 +8497,22 @@
         <v>25</v>
       </c>
       <c r="B26" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="G26" s="12" t="s">
         <v>425</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>426</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>427</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>374</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
@@ -8377,22 +8520,22 @@
         <v>26</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
@@ -8400,22 +8543,22 @@
         <v>27</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
@@ -8423,22 +8566,22 @@
         <v>28</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
@@ -8446,22 +8589,22 @@
         <v>29</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
@@ -8469,22 +8612,22 @@
         <v>30</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
@@ -8492,22 +8635,22 @@
         <v>31</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
@@ -8515,22 +8658,22 @@
         <v>32</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
@@ -8538,22 +8681,22 @@
         <v>33</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
@@ -8561,22 +8704,22 @@
         <v>34</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
@@ -8584,22 +8727,22 @@
         <v>35</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
@@ -8607,22 +8750,22 @@
         <v>36</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
@@ -8630,22 +8773,22 @@
         <v>37</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
@@ -8653,22 +8796,22 @@
         <v>38</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
@@ -8676,22 +8819,22 @@
         <v>39</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F40" s="17" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
   </sheetData>
@@ -8717,75 +8860,75 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>453</v>
-      </c>
-      <c r="B2" s="73" t="s">
-        <v>454</v>
-      </c>
-      <c r="C2" s="73" t="s">
-        <v>455</v>
+        <v>450</v>
+      </c>
+      <c r="B2" s="89" t="s">
+        <v>451</v>
+      </c>
+      <c r="C2" s="89" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>456</v>
-      </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
+        <v>453</v>
+      </c>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B4" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C4" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B5" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C5" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B6" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C6" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
   </sheetData>

--- a/事出无因-表格.xlsx
+++ b/事出无因-表格.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="473">
   <si>
     <t>时间</t>
   </si>
@@ -1076,6 +1076,9 @@
   </si>
   <si>
     <t>解封</t>
+  </si>
+  <si>
+    <t>地下城(地表)</t>
   </si>
   <si>
     <t>地下城解封</t>
@@ -1450,7 +1453,7 @@
     <numFmt numFmtId="176" formatCode="00"/>
     <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1481,27 +1484,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -2106,19 +2089,31 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2127,131 +2122,119 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2326,168 +2309,167 @@
     <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -3000,8 +2982,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:I227" totalsRowShown="0">
-  <autoFilter ref="A1:I227">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:I229" totalsRowShown="0">
+  <autoFilter ref="A1:I229">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -3508,7 +3490,7 @@
     </row>
     <row r="21" ht="16.5"/>
     <row r="22" spans="1:2">
-      <c r="A22" s="88" t="s">
+      <c r="A22" s="87" t="s">
         <v>30</v>
       </c>
       <c r="B22" t="s">
@@ -3516,7 +3498,7 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="89" t="s">
+      <c r="A23" s="88" t="s">
         <v>32</v>
       </c>
       <c r="B23" t="s">
@@ -3524,7 +3506,7 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="89" t="s">
+      <c r="A24" s="88" t="s">
         <v>34</v>
       </c>
       <c r="B24" t="s">
@@ -3532,7 +3514,7 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="89" t="s">
+      <c r="A25" s="88" t="s">
         <v>36</v>
       </c>
       <c r="B25" t="s">
@@ -3540,7 +3522,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="89" t="s">
+      <c r="A26" s="88" t="s">
         <v>38</v>
       </c>
       <c r="B26" t="s">
@@ -3548,7 +3530,7 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="89" t="s">
+      <c r="A27" s="88" t="s">
         <v>40</v>
       </c>
       <c r="B27" t="s">
@@ -3556,7 +3538,7 @@
       </c>
     </row>
     <row r="28" ht="16.5" spans="1:2">
-      <c r="A28" s="90" t="s">
+      <c r="A28" s="89" t="s">
         <v>42</v>
       </c>
       <c r="B28" t="s">
@@ -3565,7 +3547,7 @@
     </row>
     <row r="29" ht="16.5"/>
     <row r="30" spans="1:2">
-      <c r="A30" s="88" t="s">
+      <c r="A30" s="87" t="s">
         <v>44</v>
       </c>
       <c r="B30" t="s">
@@ -3573,7 +3555,7 @@
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="89" t="s">
+      <c r="A31" s="88" t="s">
         <v>46</v>
       </c>
       <c r="B31" t="s">
@@ -3581,7 +3563,7 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="89" t="s">
+      <c r="A32" s="88" t="s">
         <v>48</v>
       </c>
       <c r="B32" t="s">
@@ -3589,7 +3571,7 @@
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="89" t="s">
+      <c r="A33" s="88" t="s">
         <v>50</v>
       </c>
       <c r="B33" t="s">
@@ -3597,7 +3579,7 @@
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="89" t="s">
+      <c r="A34" s="88" t="s">
         <v>52</v>
       </c>
       <c r="B34" t="s">
@@ -3605,7 +3587,7 @@
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="89" t="s">
+      <c r="A35" s="88" t="s">
         <v>54</v>
       </c>
       <c r="B35" t="s">
@@ -3613,7 +3595,7 @@
       </c>
     </row>
     <row r="36" ht="16.5" spans="1:2">
-      <c r="A36" s="90" t="s">
+      <c r="A36" s="89" t="s">
         <v>56</v>
       </c>
       <c r="B36" t="s">
@@ -3622,7 +3604,7 @@
     </row>
     <row r="37" ht="16.5"/>
     <row r="38" spans="1:2">
-      <c r="A38" s="88" t="s">
+      <c r="A38" s="87" t="s">
         <v>58</v>
       </c>
       <c r="B38" t="s">
@@ -3630,7 +3612,7 @@
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="89" t="s">
+      <c r="A39" s="88" t="s">
         <v>60</v>
       </c>
       <c r="B39" t="s">
@@ -3638,7 +3620,7 @@
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="89" t="s">
+      <c r="A40" s="88" t="s">
         <v>62</v>
       </c>
       <c r="B40" t="s">
@@ -3646,12 +3628,12 @@
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="89" t="s">
+      <c r="A41" s="88" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="89" t="s">
+      <c r="A42" s="88" t="s">
         <v>65</v>
       </c>
       <c r="B42" t="s">
@@ -3659,7 +3641,7 @@
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="89" t="s">
+      <c r="A43" s="88" t="s">
         <v>67</v>
       </c>
       <c r="B43" t="s">
@@ -3667,7 +3649,7 @@
       </c>
     </row>
     <row r="44" ht="16.5" spans="1:2">
-      <c r="A44" s="90" t="s">
+      <c r="A44" s="89" t="s">
         <v>69</v>
       </c>
       <c r="B44" t="s">
@@ -3676,7 +3658,7 @@
     </row>
     <row r="45" ht="16.5"/>
     <row r="46" spans="1:2">
-      <c r="A46" s="88" t="s">
+      <c r="A46" s="87" t="s">
         <v>71</v>
       </c>
       <c r="B46" t="s">
@@ -3684,7 +3666,7 @@
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="89" t="s">
+      <c r="A47" s="88" t="s">
         <v>73</v>
       </c>
       <c r="B47" t="s">
@@ -3692,7 +3674,7 @@
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="89" t="s">
+      <c r="A48" s="88" t="s">
         <v>75</v>
       </c>
       <c r="B48" t="s">
@@ -3700,7 +3682,7 @@
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="89" t="s">
+      <c r="A49" s="88" t="s">
         <v>77</v>
       </c>
       <c r="B49" t="s">
@@ -3708,7 +3690,7 @@
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="89" t="s">
+      <c r="A50" s="88" t="s">
         <v>79</v>
       </c>
       <c r="B50" t="s">
@@ -3716,7 +3698,7 @@
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="89" t="s">
+      <c r="A51" s="88" t="s">
         <v>81</v>
       </c>
       <c r="B51" t="s">
@@ -3724,7 +3706,7 @@
       </c>
     </row>
     <row r="52" ht="16.5" spans="1:2">
-      <c r="A52" s="90" t="s">
+      <c r="A52" s="89" t="s">
         <v>83</v>
       </c>
       <c r="B52" t="s">
@@ -3735,7 +3717,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A1:B1 B6 B7 B8 A9:B9 A10" numberStoredAsText="1"/>
+    <ignoredError sqref="A10 A9:B9 B8 B7 B6 A1:B1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -3743,10 +3725,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I227"/>
+  <dimension ref="A1:I229"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A203" workbookViewId="0">
-      <selection activeCell="F220" sqref="F220"/>
+      <selection activeCell="F214" sqref="F214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -8178,86 +8160,88 @@
       <c r="E213" s="52">
         <v>99211</v>
       </c>
-      <c r="F213" s="53"/>
+      <c r="F213" s="53" t="s">
+        <v>352</v>
+      </c>
       <c r="G213" s="54"/>
       <c r="H213" s="54"/>
       <c r="I213" s="75" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="214" spans="1:9">
-      <c r="A214" s="49">
-        <v>59</v>
-      </c>
-      <c r="B214" s="56" t="s">
-        <v>353</v>
-      </c>
-      <c r="C214" s="51">
-        <v>99211</v>
-      </c>
-      <c r="D214" s="50">
-        <v>0</v>
-      </c>
-      <c r="E214" s="52">
-        <v>99211</v>
-      </c>
-      <c r="F214" s="53" t="s">
-        <v>354</v>
-      </c>
-      <c r="G214" s="54"/>
-      <c r="H214" s="54"/>
-      <c r="I214" s="75" t="s">
-        <v>355</v>
-      </c>
+      <c r="A214" s="80"/>
+      <c r="B214" s="81"/>
+      <c r="C214" s="62"/>
+      <c r="D214" s="61">
+        <v>1</v>
+      </c>
+      <c r="E214" s="63"/>
+      <c r="F214" s="64" t="s">
+        <v>292</v>
+      </c>
+      <c r="G214" s="70" t="s">
+        <v>97</v>
+      </c>
+      <c r="H214" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="I214" s="77"/>
     </row>
     <row r="215" spans="1:9">
-      <c r="A215" s="47"/>
-      <c r="B215" s="65"/>
+      <c r="A215" s="80"/>
+      <c r="B215" s="81"/>
       <c r="C215" s="62"/>
       <c r="D215" s="61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E215" s="63"/>
       <c r="F215" s="64" t="s">
+        <v>140</v>
+      </c>
+      <c r="G215" s="70" t="s">
+        <v>97</v>
+      </c>
+      <c r="H215" s="70" t="s">
+        <v>104</v>
+      </c>
+      <c r="I215" s="77"/>
+    </row>
+    <row r="216" spans="1:9">
+      <c r="A216" s="49">
+        <v>59</v>
+      </c>
+      <c r="B216" s="56" t="s">
+        <v>354</v>
+      </c>
+      <c r="C216" s="51">
+        <v>99211</v>
+      </c>
+      <c r="D216" s="50">
+        <v>0</v>
+      </c>
+      <c r="E216" s="52">
+        <v>99211</v>
+      </c>
+      <c r="F216" s="53" t="s">
+        <v>355</v>
+      </c>
+      <c r="G216" s="54"/>
+      <c r="H216" s="54"/>
+      <c r="I216" s="75" t="s">
         <v>356</v>
       </c>
-      <c r="G215" s="70" t="s">
-        <v>97</v>
-      </c>
-      <c r="H215" s="70" t="s">
-        <v>98</v>
-      </c>
-      <c r="I215" s="77"/>
-    </row>
-    <row r="216" spans="1:9">
-      <c r="A216" s="47"/>
-      <c r="B216" s="65"/>
-      <c r="C216" s="62"/>
-      <c r="D216" s="61">
-        <v>2</v>
-      </c>
-      <c r="E216" s="63"/>
-      <c r="F216" s="64" t="s">
-        <v>357</v>
-      </c>
-      <c r="G216" s="70" t="s">
-        <v>97</v>
-      </c>
-      <c r="H216" s="70" t="s">
-        <v>98</v>
-      </c>
-      <c r="I216" s="77"/>
     </row>
     <row r="217" spans="1:9">
       <c r="A217" s="47"/>
-      <c r="B217" s="61"/>
+      <c r="B217" s="65"/>
       <c r="C217" s="62"/>
       <c r="D217" s="61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E217" s="63"/>
       <c r="F217" s="64" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G217" s="70" t="s">
         <v>97</v>
@@ -8268,156 +8252,150 @@
       <c r="I217" s="77"/>
     </row>
     <row r="218" spans="1:9">
-      <c r="A218" s="49">
+      <c r="A218" s="47"/>
+      <c r="B218" s="65"/>
+      <c r="C218" s="62"/>
+      <c r="D218" s="61">
+        <v>2</v>
+      </c>
+      <c r="E218" s="63"/>
+      <c r="F218" s="64" t="s">
+        <v>358</v>
+      </c>
+      <c r="G218" s="70" t="s">
+        <v>97</v>
+      </c>
+      <c r="H218" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="I218" s="77"/>
+    </row>
+    <row r="219" spans="1:9">
+      <c r="A219" s="47"/>
+      <c r="B219" s="61"/>
+      <c r="C219" s="62"/>
+      <c r="D219" s="61">
+        <v>3</v>
+      </c>
+      <c r="E219" s="63"/>
+      <c r="F219" s="64" t="s">
+        <v>359</v>
+      </c>
+      <c r="G219" s="70" t="s">
+        <v>97</v>
+      </c>
+      <c r="H219" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="I219" s="77"/>
+    </row>
+    <row r="220" spans="1:9">
+      <c r="A220" s="49">
         <v>60</v>
       </c>
-      <c r="B218" s="50" t="s">
-        <v>359</v>
-      </c>
-      <c r="C218" s="51">
+      <c r="B220" s="50" t="s">
+        <v>360</v>
+      </c>
+      <c r="C220" s="51">
         <v>99210</v>
       </c>
-      <c r="D218" s="50">
+      <c r="D220" s="50">
         <v>0</v>
       </c>
-      <c r="E218" s="52">
+      <c r="E220" s="52">
         <v>99210</v>
       </c>
-      <c r="F218" s="53" t="s">
+      <c r="F220" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="G218" s="54"/>
-      <c r="H218" s="54"/>
-      <c r="I218" s="75" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9">
-      <c r="A219" s="80"/>
-      <c r="B219" s="81"/>
-      <c r="C219" s="82"/>
-      <c r="D219" s="83">
+      <c r="G220" s="54"/>
+      <c r="H220" s="54"/>
+      <c r="I220" s="75" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
+      <c r="A221" s="82"/>
+      <c r="B221" s="83"/>
+      <c r="C221" s="84"/>
+      <c r="D221" s="42">
         <v>1</v>
       </c>
-      <c r="E219" s="84"/>
-      <c r="F219" s="85" t="s">
+      <c r="E221" s="85"/>
+      <c r="F221" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="G219" s="86" t="s">
+      <c r="G221" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="H219" s="86" t="s">
+      <c r="H221" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="I219" s="87"/>
-    </row>
-    <row r="220" spans="1:9">
-      <c r="A220" s="80"/>
-      <c r="B220" s="81"/>
-      <c r="C220" s="82"/>
-      <c r="D220" s="83">
+      <c r="I221" s="86"/>
+    </row>
+    <row r="222" spans="1:9">
+      <c r="A222" s="82"/>
+      <c r="B222" s="83"/>
+      <c r="C222" s="84"/>
+      <c r="D222" s="42">
         <v>2</v>
       </c>
-      <c r="E220" s="84"/>
-      <c r="F220" s="85" t="s">
+      <c r="E222" s="85"/>
+      <c r="F222" s="16" t="s">
         <v>299</v>
       </c>
-      <c r="G220" s="86" t="s">
+      <c r="G222" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="H220" s="86" t="s">
+      <c r="H222" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="I220" s="87"/>
-    </row>
-    <row r="221" spans="1:9">
-      <c r="A221" s="80"/>
-      <c r="B221" s="81"/>
-      <c r="C221" s="82"/>
-      <c r="D221" s="83">
+      <c r="I222" s="86"/>
+    </row>
+    <row r="223" spans="1:9">
+      <c r="A223" s="82"/>
+      <c r="B223" s="83"/>
+      <c r="C223" s="84"/>
+      <c r="D223" s="42">
         <v>3</v>
       </c>
-      <c r="E221" s="84"/>
-      <c r="F221" s="85" t="s">
-        <v>361</v>
-      </c>
-      <c r="G221" s="86" t="s">
-        <v>97</v>
-      </c>
-      <c r="H221" s="86" t="s">
+      <c r="E223" s="85"/>
+      <c r="F223" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="G223" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="H223" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="I221" s="87"/>
-    </row>
-    <row r="222" spans="1:9">
-      <c r="A222" s="80"/>
-      <c r="B222" s="81"/>
-      <c r="C222" s="82"/>
-      <c r="D222" s="83">
+      <c r="I223" s="86"/>
+    </row>
+    <row r="224" spans="1:9">
+      <c r="A224" s="82"/>
+      <c r="B224" s="83"/>
+      <c r="C224" s="84"/>
+      <c r="D224" s="42">
         <v>4</v>
       </c>
-      <c r="E222" s="84"/>
-      <c r="F222" s="85" t="s">
+      <c r="E224" s="85"/>
+      <c r="F224" s="16" t="s">
         <v>299</v>
       </c>
-      <c r="G222" s="86" t="s">
+      <c r="G224" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="H222" s="86" t="s">
+      <c r="H224" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="I222" s="87"/>
-    </row>
-    <row r="223" spans="1:9">
-      <c r="A223" s="49">
-        <v>61</v>
-      </c>
-      <c r="B223" s="50" t="s">
-        <v>362</v>
-      </c>
-      <c r="C223" s="51">
-        <v>99211</v>
-      </c>
-      <c r="D223" s="50">
-        <v>0</v>
-      </c>
-      <c r="E223" s="52">
-        <v>99211</v>
-      </c>
-      <c r="F223" s="53" t="s">
-        <v>363</v>
-      </c>
-      <c r="G223" s="54"/>
-      <c r="H223" s="54"/>
-      <c r="I223" s="75" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9">
-      <c r="A224" s="41"/>
-      <c r="B224" s="42"/>
-      <c r="C224" s="43"/>
-      <c r="D224" s="42">
-        <v>1</v>
-      </c>
-      <c r="E224" s="44"/>
-      <c r="F224" s="45" t="s">
-        <v>365</v>
-      </c>
-      <c r="G224" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="H224" s="46" t="s">
-        <v>98</v>
-      </c>
-      <c r="I224" s="74"/>
+      <c r="I224" s="86"/>
     </row>
     <row r="225" spans="1:9">
       <c r="A225" s="49">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B225" s="50" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C225" s="51">
         <v>99211</v>
@@ -8428,52 +8406,96 @@
       <c r="E225" s="52">
         <v>99211</v>
       </c>
-      <c r="F225" s="53"/>
+      <c r="F225" s="53" t="s">
+        <v>364</v>
+      </c>
       <c r="G225" s="54"/>
       <c r="H225" s="54"/>
-      <c r="I225" s="75"/>
+      <c r="I225" s="75" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="226" spans="1:9">
-      <c r="A226" s="49">
-        <v>63</v>
-      </c>
-      <c r="B226" s="50" t="s">
-        <v>367</v>
-      </c>
-      <c r="C226" s="51" t="s">
-        <v>368</v>
-      </c>
-      <c r="D226" s="50">
-        <v>0</v>
-      </c>
-      <c r="E226" s="52" t="s">
-        <v>369</v>
-      </c>
-      <c r="F226" s="53"/>
-      <c r="G226" s="54"/>
-      <c r="H226" s="54"/>
-      <c r="I226" s="75"/>
+      <c r="A226" s="41"/>
+      <c r="B226" s="42"/>
+      <c r="C226" s="43"/>
+      <c r="D226" s="42">
+        <v>1</v>
+      </c>
+      <c r="E226" s="44"/>
+      <c r="F226" s="45" t="s">
+        <v>366</v>
+      </c>
+      <c r="G226" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="H226" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="I226" s="74"/>
     </row>
     <row r="227" spans="1:9">
       <c r="A227" s="49">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B227" s="50" t="s">
-        <v>84</v>
+        <v>367</v>
       </c>
       <c r="C227" s="51">
-        <v>99212</v>
+        <v>99211</v>
       </c>
       <c r="D227" s="50">
         <v>0</v>
       </c>
       <c r="E227" s="52">
-        <v>99212</v>
+        <v>99211</v>
       </c>
       <c r="F227" s="53"/>
       <c r="G227" s="54"/>
       <c r="H227" s="54"/>
       <c r="I227" s="75"/>
+    </row>
+    <row r="228" spans="1:9">
+      <c r="A228" s="41">
+        <v>63</v>
+      </c>
+      <c r="B228" s="42" t="s">
+        <v>368</v>
+      </c>
+      <c r="C228" s="43" t="s">
+        <v>369</v>
+      </c>
+      <c r="D228" s="42">
+        <v>0</v>
+      </c>
+      <c r="E228" s="44" t="s">
+        <v>370</v>
+      </c>
+      <c r="F228" s="45"/>
+      <c r="G228" s="46"/>
+      <c r="H228" s="46"/>
+      <c r="I228" s="74"/>
+    </row>
+    <row r="229" spans="1:9">
+      <c r="A229" s="49">
+        <v>64</v>
+      </c>
+      <c r="B229" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="C229" s="51">
+        <v>99212</v>
+      </c>
+      <c r="D229" s="50">
+        <v>0</v>
+      </c>
+      <c r="E229" s="52">
+        <v>99212</v>
+      </c>
+      <c r="F229" s="53"/>
+      <c r="G229" s="54"/>
+      <c r="H229" s="54"/>
+      <c r="I229" s="75"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8510,22 +8532,22 @@
         <v>85</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>336</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:7">
@@ -8533,22 +8555,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>100</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -8556,22 +8578,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>246</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F3" s="15" t="s">
         <v>100</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -8579,22 +8601,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>246</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F4" s="15" t="s">
         <v>105</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -8602,22 +8624,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F5" s="15" t="s">
         <v>115</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -8625,22 +8647,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>133</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>115</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -8648,22 +8670,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>133</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F7" s="15" t="s">
         <v>115</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8671,22 +8693,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F8" s="15" t="s">
         <v>128</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -8694,22 +8716,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>133</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F9" s="15" t="s">
         <v>132</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -8717,22 +8739,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F10" s="15" t="s">
         <v>141</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -8740,22 +8762,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>133</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F11" s="15" t="s">
         <v>155</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -8763,22 +8785,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>133</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F12" s="15" t="s">
         <v>155</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -8786,22 +8808,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>246</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F13" s="15" t="s">
         <v>165</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -8809,22 +8831,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>246</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F14" s="15" t="s">
         <v>165</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -8832,22 +8854,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F15" s="15" t="s">
         <v>185</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -8855,22 +8877,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F16" s="15" t="s">
         <v>191</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -8878,22 +8900,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F17" s="15" t="s">
         <v>191</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -8901,22 +8923,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F18" s="15" t="s">
         <v>213</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -8924,22 +8946,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>246</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F19" s="15" t="s">
         <v>218</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -8947,22 +8969,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F20" s="15" t="s">
         <v>228</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -8970,22 +8992,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F21" s="15" t="s">
         <v>228</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -8993,22 +9015,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F22" s="15" t="s">
         <v>232</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -9016,22 +9038,22 @@
         <v>22</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F23" s="15" t="s">
         <v>232</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -9039,22 +9061,22 @@
         <v>23</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F24" s="15" t="s">
         <v>232</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -9062,22 +9084,22 @@
         <v>24</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F25" s="15" t="s">
         <v>232</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -9085,22 +9107,22 @@
         <v>25</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F26" s="15" t="s">
         <v>232</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -9108,22 +9130,22 @@
         <v>26</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>312</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F27" s="15" t="s">
         <v>239</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -9131,22 +9153,22 @@
         <v>27</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>133</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F28" s="14" t="s">
         <v>248</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -9154,22 +9176,22 @@
         <v>28</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F29" s="15" t="s">
         <v>252</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -9177,22 +9199,22 @@
         <v>29</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F30" s="15" t="s">
         <v>252</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -9200,22 +9222,22 @@
         <v>30</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C31" s="13" t="s">
         <v>246</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F31" s="14" t="s">
         <v>260</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -9223,22 +9245,22 @@
         <v>31</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>246</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F32" s="14" t="s">
         <v>260</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -9246,22 +9268,22 @@
         <v>32</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C33" s="13" t="s">
         <v>133</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F33" s="15" t="s">
         <v>290</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -9269,22 +9291,22 @@
         <v>33</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F34" s="15" t="s">
         <v>295</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -9292,22 +9314,22 @@
         <v>34</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F35" s="15" t="s">
         <v>295</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -9315,22 +9337,22 @@
         <v>35</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C36" s="13" t="s">
         <v>246</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F36" s="15" t="s">
         <v>299</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -9338,22 +9360,22 @@
         <v>36</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F37" s="15" t="s">
         <v>314</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -9361,22 +9383,22 @@
         <v>37</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F38" s="15" t="s">
         <v>333</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -9384,22 +9406,22 @@
         <v>38</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F39" s="15" t="s">
         <v>333</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -9407,22 +9429,22 @@
         <v>39</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E40" s="17" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F40" s="18" t="s">
         <v>340</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
   </sheetData>
@@ -9451,75 +9473,75 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>148</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B4" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C4" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>465</v>
+      </c>
+      <c r="B5" t="s">
         <v>464</v>
       </c>
-      <c r="B5" t="s">
-        <v>463</v>
-      </c>
       <c r="C5" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B6" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
   </sheetData>

--- a/事出无因-表格.xlsx
+++ b/事出无因-表格.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CONST\PartA_Aint_No_Reason\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297A3239-2254-4C6A-B343-1DFBF002996C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A611C906-4A1F-42B2-B545-6EB73529574A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="时间轴" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="485">
   <si>
     <t>时间</t>
   </si>
@@ -1091,9 +1091,6 @@
   </si>
   <si>
     <t>航行</t>
-  </si>
-  <si>
-    <t>新世界(云层)</t>
   </si>
   <si>
     <t>禾和月乘坐飞行器前往地下城</t>
@@ -1468,6 +1465,34 @@
   </si>
   <si>
     <t>护卫舰加入旅者舰队</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>天堂城</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>天堂？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒吧</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>月球</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>外</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>故事的尽头</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1700,12 +1725,8 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1716,9 +1737,7 @@
         <color theme="0"/>
       </left>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1726,20 +1745,20 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1944,28 +1963,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1991,6 +1988,70 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2454,8 +2515,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:I231" totalsRowShown="0">
-  <autoFilter ref="A1:I231" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:I236" totalsRowShown="0">
+  <autoFilter ref="A1:I236" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -3192,10 +3253,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I231"/>
+  <dimension ref="A1:I237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F232" sqref="F232"/>
+    <sheetView tabSelected="1" topLeftCell="A211" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F216" sqref="F216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -7673,13 +7734,13 @@
       <c r="E216" s="46">
         <v>99211</v>
       </c>
-      <c r="F216" s="47" t="s">
-        <v>355</v>
+      <c r="F216" s="58" t="s">
+        <v>140</v>
       </c>
       <c r="G216" s="48"/>
       <c r="H216" s="48"/>
       <c r="I216" s="64" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.15">
@@ -7689,7 +7750,7 @@
       </c>
       <c r="E217" s="57"/>
       <c r="F217" s="58" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G217" s="59" t="s">
         <v>97</v>
@@ -7706,7 +7767,7 @@
       </c>
       <c r="E218" s="57"/>
       <c r="F218" s="58" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G218" s="59" t="s">
         <v>97</v>
@@ -7724,7 +7785,7 @@
       </c>
       <c r="E219" s="57"/>
       <c r="F219" s="58" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G219" s="59" t="s">
         <v>97</v>
@@ -7739,7 +7800,7 @@
         <v>60</v>
       </c>
       <c r="B220" s="44" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C220" s="45">
         <v>99210</v>
@@ -7756,7 +7817,7 @@
       <c r="G220" s="48"/>
       <c r="H220" s="48"/>
       <c r="I220" s="64" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.15">
@@ -7806,7 +7867,7 @@
       </c>
       <c r="E223" s="71"/>
       <c r="F223" s="15" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G223" s="16" t="s">
         <v>97</v>
@@ -7840,7 +7901,7 @@
         <v>61</v>
       </c>
       <c r="B225" s="44" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C225" s="45">
         <v>99211</v>
@@ -7852,12 +7913,12 @@
         <v>99211</v>
       </c>
       <c r="F225" s="47" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G225" s="48"/>
       <c r="H225" s="48"/>
       <c r="I225" s="64" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.15">
@@ -7869,7 +7930,7 @@
       </c>
       <c r="E226" s="41"/>
       <c r="F226" s="12" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G226" s="13" t="s">
         <v>114</v>
@@ -7880,109 +7941,211 @@
       <c r="I226" s="63"/>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A227" s="76">
+      <c r="A227" s="109">
         <v>62</v>
       </c>
-      <c r="B227" s="77" t="s">
+      <c r="B227" s="44" t="s">
+        <v>366</v>
+      </c>
+      <c r="C227" s="45">
+        <v>99211</v>
+      </c>
+      <c r="D227" s="44">
+        <v>0</v>
+      </c>
+      <c r="E227" s="46">
+        <v>99211</v>
+      </c>
+      <c r="F227" s="47"/>
+      <c r="G227" s="48"/>
+      <c r="H227" s="48"/>
+      <c r="I227" s="64"/>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A228" s="94"/>
+      <c r="B228" s="95"/>
+      <c r="C228" s="96"/>
+      <c r="D228" s="95"/>
+      <c r="E228" s="97"/>
+      <c r="F228" s="98"/>
+      <c r="G228" s="99"/>
+      <c r="H228" s="99"/>
+      <c r="I228" s="100"/>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A229" s="19">
+        <v>63</v>
+      </c>
+      <c r="B229" s="55" t="s">
         <v>367</v>
       </c>
-      <c r="C227" s="78">
-        <v>99211</v>
-      </c>
-      <c r="D227" s="77">
+      <c r="C229" s="56" t="s">
+        <v>368</v>
+      </c>
+      <c r="D229" s="55">
         <v>0</v>
       </c>
-      <c r="E227" s="79">
-        <v>99211</v>
-      </c>
-      <c r="F227" s="80"/>
-      <c r="G227" s="81"/>
-      <c r="H227" s="81"/>
-      <c r="I227" s="82"/>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A228" s="19">
-        <v>63</v>
-      </c>
-      <c r="B228" s="55" t="s">
-        <v>368</v>
-      </c>
-      <c r="C228" s="56" t="s">
+      <c r="E229" s="57" t="s">
         <v>369</v>
       </c>
-      <c r="D228" s="55">
+      <c r="F229" s="83" t="s">
+        <v>472</v>
+      </c>
+      <c r="G229" s="59"/>
+      <c r="H229" s="59"/>
+      <c r="I229" s="84" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A230" s="76"/>
+      <c r="B230" s="77"/>
+      <c r="C230" s="78"/>
+      <c r="D230" s="77">
+        <v>1</v>
+      </c>
+      <c r="E230" s="79"/>
+      <c r="F230" s="80" t="s">
+        <v>475</v>
+      </c>
+      <c r="G230" s="81" t="s">
+        <v>473</v>
+      </c>
+      <c r="H230" s="81" t="s">
+        <v>474</v>
+      </c>
+      <c r="I230" s="82"/>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A231" s="76"/>
+      <c r="B231" s="77"/>
+      <c r="C231" s="78"/>
+      <c r="D231" s="77">
+        <v>2</v>
+      </c>
+      <c r="E231" s="79"/>
+      <c r="F231" s="80" t="s">
+        <v>476</v>
+      </c>
+      <c r="G231" s="81" t="s">
+        <v>473</v>
+      </c>
+      <c r="H231" s="81" t="s">
+        <v>474</v>
+      </c>
+      <c r="I231" s="82"/>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A232" s="43">
+        <v>64</v>
+      </c>
+      <c r="B232" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="C232" s="45">
+        <v>99212</v>
+      </c>
+      <c r="D232" s="44">
         <v>0</v>
       </c>
-      <c r="E228" s="57" t="s">
-        <v>370</v>
-      </c>
-      <c r="F228" s="91" t="s">
-        <v>473</v>
-      </c>
-      <c r="G228" s="59"/>
-      <c r="H228" s="59"/>
-      <c r="I228" s="92" t="s">
+      <c r="E232" s="46">
+        <v>99212</v>
+      </c>
+      <c r="F232" s="107" t="s">
+        <v>479</v>
+      </c>
+      <c r="G232" s="48"/>
+      <c r="H232" s="48"/>
+      <c r="I232" s="108" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A233" s="86"/>
+      <c r="B233" s="87"/>
+      <c r="C233" s="88"/>
+      <c r="D233" s="87">
+        <v>1</v>
+      </c>
+      <c r="E233" s="89"/>
+      <c r="F233" s="90" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A229" s="84"/>
-      <c r="B229" s="85"/>
-      <c r="C229" s="86"/>
-      <c r="D229" s="85">
-        <v>1</v>
-      </c>
-      <c r="E229" s="87"/>
-      <c r="F229" s="88" t="s">
-        <v>476</v>
-      </c>
-      <c r="G229" s="89" t="s">
+      <c r="G233" s="91" t="s">
+        <v>480</v>
+      </c>
+      <c r="H233" s="91" t="s">
         <v>474</v>
       </c>
-      <c r="H229" s="89" t="s">
-        <v>475</v>
-      </c>
-      <c r="I229" s="90"/>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A230" s="84"/>
-      <c r="B230" s="85"/>
-      <c r="C230" s="86"/>
-      <c r="D230" s="85">
+      <c r="I233" s="92"/>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A234" s="86"/>
+      <c r="B234" s="87"/>
+      <c r="C234" s="88"/>
+      <c r="D234" s="87">
         <v>2</v>
       </c>
-      <c r="E230" s="87"/>
-      <c r="F230" s="88" t="s">
-        <v>477</v>
-      </c>
-      <c r="G230" s="89" t="s">
+      <c r="E234" s="89"/>
+      <c r="F234" s="90" t="s">
+        <v>481</v>
+      </c>
+      <c r="G234" s="91" t="s">
+        <v>480</v>
+      </c>
+      <c r="H234" s="91" t="s">
         <v>474</v>
       </c>
-      <c r="H230" s="89" t="s">
-        <v>475</v>
-      </c>
-      <c r="I230" s="90"/>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A231" s="83">
-        <v>64</v>
-      </c>
-      <c r="B231" s="77" t="s">
-        <v>84</v>
-      </c>
-      <c r="C231" s="78">
-        <v>99212</v>
-      </c>
-      <c r="D231" s="77">
-        <v>0</v>
-      </c>
-      <c r="E231" s="79">
-        <v>99212</v>
-      </c>
-      <c r="F231" s="80"/>
-      <c r="G231" s="81"/>
-      <c r="H231" s="81"/>
-      <c r="I231" s="82"/>
+      <c r="I234" s="92"/>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A235" s="86"/>
+      <c r="B235" s="87"/>
+      <c r="C235" s="88"/>
+      <c r="D235" s="87">
+        <v>3</v>
+      </c>
+      <c r="E235" s="89"/>
+      <c r="F235" s="90" t="s">
+        <v>478</v>
+      </c>
+      <c r="G235" s="91" t="s">
+        <v>480</v>
+      </c>
+      <c r="H235" s="91" t="s">
+        <v>474</v>
+      </c>
+      <c r="I235" s="92"/>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A236" s="94"/>
+      <c r="B236" s="95"/>
+      <c r="C236" s="96"/>
+      <c r="D236" s="95">
+        <v>4</v>
+      </c>
+      <c r="E236" s="97"/>
+      <c r="F236" s="98" t="s">
+        <v>482</v>
+      </c>
+      <c r="G236" s="99" t="s">
+        <v>480</v>
+      </c>
+      <c r="H236" s="99" t="s">
+        <v>483</v>
+      </c>
+      <c r="I236" s="100"/>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A237" s="93"/>
+      <c r="B237" s="101"/>
+      <c r="C237" s="102"/>
+      <c r="D237" s="101"/>
+      <c r="E237" s="103"/>
+      <c r="F237" s="104"/>
+      <c r="G237" s="105"/>
+      <c r="H237" s="105"/>
+      <c r="I237" s="106"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -8018,22 +8181,22 @@
         <v>85</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>371</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>372</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>336</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>374</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -8041,22 +8204,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>377</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>378</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>379</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>100</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -8064,22 +8227,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>246</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F3" s="14" t="s">
         <v>100</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -8087,22 +8250,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>246</v>
       </c>
       <c r="D4" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>378</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>379</v>
       </c>
       <c r="F4" s="14" t="s">
         <v>105</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -8110,22 +8273,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C5" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="E5" s="13" t="s">
         <v>378</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>379</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>115</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
@@ -8133,22 +8296,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>133</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F6" s="14" t="s">
         <v>115</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
@@ -8156,22 +8319,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>133</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F7" s="14" t="s">
         <v>115</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
@@ -8179,22 +8342,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C8" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="E8" s="13" t="s">
         <v>378</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>379</v>
       </c>
       <c r="F8" s="14" t="s">
         <v>128</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
@@ -8202,22 +8365,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>133</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F9" s="14" t="s">
         <v>132</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
@@ -8225,22 +8388,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C10" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>378</v>
-      </c>
       <c r="E10" s="13" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F10" s="14" t="s">
         <v>141</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
@@ -8248,22 +8411,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>133</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F11" s="14" t="s">
         <v>155</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -8271,22 +8434,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>133</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F12" s="14" t="s">
         <v>155</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -8294,22 +8457,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>246</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F13" s="14" t="s">
         <v>165</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -8317,22 +8480,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>246</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F14" s="14" t="s">
         <v>165</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -8340,22 +8503,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="D15" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="D15" s="12" t="s">
-        <v>408</v>
-      </c>
       <c r="E15" s="13" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F15" s="14" t="s">
         <v>185</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
@@ -8363,22 +8526,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C16" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="D16" s="12" t="s">
-        <v>378</v>
-      </c>
       <c r="E16" s="13" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F16" s="14" t="s">
         <v>191</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -8386,22 +8549,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C17" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="D17" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="E17" s="13" t="s">
         <v>378</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>379</v>
       </c>
       <c r="F17" s="14" t="s">
         <v>191</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
@@ -8409,22 +8572,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C18" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="D18" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="E18" s="13" t="s">
         <v>378</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>379</v>
       </c>
       <c r="F18" s="14" t="s">
         <v>213</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
@@ -8432,22 +8595,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>246</v>
       </c>
       <c r="D19" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="E19" s="13" t="s">
         <v>416</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>417</v>
       </c>
       <c r="F19" s="14" t="s">
         <v>218</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
@@ -8455,22 +8618,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C20" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="D20" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="E20" s="13" t="s">
         <v>378</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>379</v>
       </c>
       <c r="F20" s="14" t="s">
         <v>228</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
@@ -8478,22 +8641,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C21" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="D21" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="E21" s="13" t="s">
         <v>378</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>379</v>
       </c>
       <c r="F21" s="14" t="s">
         <v>228</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
@@ -8501,22 +8664,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C22" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="D22" s="12" t="s">
         <v>422</v>
       </c>
-      <c r="D22" s="12" t="s">
-        <v>423</v>
-      </c>
       <c r="E22" s="13" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F22" s="14" t="s">
         <v>232</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
@@ -8524,22 +8687,22 @@
         <v>22</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C23" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="D23" s="12" t="s">
         <v>425</v>
       </c>
-      <c r="D23" s="12" t="s">
-        <v>426</v>
-      </c>
       <c r="E23" s="13" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F23" s="14" t="s">
         <v>232</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
@@ -8547,22 +8710,22 @@
         <v>23</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C24" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="D24" s="12" t="s">
         <v>425</v>
       </c>
-      <c r="D24" s="12" t="s">
-        <v>426</v>
-      </c>
       <c r="E24" s="13" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F24" s="14" t="s">
         <v>232</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
@@ -8570,22 +8733,22 @@
         <v>24</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C25" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="D25" s="12" t="s">
         <v>425</v>
       </c>
-      <c r="D25" s="12" t="s">
-        <v>426</v>
-      </c>
       <c r="E25" s="13" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F25" s="14" t="s">
         <v>232</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
@@ -8593,22 +8756,22 @@
         <v>25</v>
       </c>
       <c r="B26" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="C26" s="12" t="s">
         <v>430</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="D26" s="12" t="s">
         <v>431</v>
       </c>
-      <c r="D26" s="12" t="s">
-        <v>432</v>
-      </c>
       <c r="E26" s="13" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F26" s="14" t="s">
         <v>232</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
@@ -8616,22 +8779,22 @@
         <v>26</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>312</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F27" s="14" t="s">
         <v>239</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
@@ -8639,22 +8802,22 @@
         <v>27</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>133</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F28" s="13" t="s">
         <v>248</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
@@ -8662,22 +8825,22 @@
         <v>28</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C29" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="D29" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="D29" s="12" t="s">
-        <v>408</v>
-      </c>
       <c r="E29" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F29" s="14" t="s">
         <v>252</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
@@ -8685,22 +8848,22 @@
         <v>29</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C30" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="D30" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="D30" s="12" t="s">
-        <v>408</v>
-      </c>
       <c r="E30" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F30" s="14" t="s">
         <v>252</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
@@ -8708,22 +8871,22 @@
         <v>30</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>246</v>
       </c>
       <c r="D31" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="E31" s="13" t="s">
         <v>378</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>379</v>
       </c>
       <c r="F31" s="13" t="s">
         <v>260</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
@@ -8731,22 +8894,22 @@
         <v>31</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C32" s="12" t="s">
         <v>246</v>
       </c>
       <c r="D32" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="E32" s="13" t="s">
         <v>378</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>379</v>
       </c>
       <c r="F32" s="13" t="s">
         <v>260</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
@@ -8754,22 +8917,22 @@
         <v>32</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C33" s="12" t="s">
         <v>133</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F33" s="14" t="s">
         <v>290</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
@@ -8777,22 +8940,22 @@
         <v>33</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D34" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="E34" s="13" t="s">
         <v>416</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>417</v>
       </c>
       <c r="F34" s="14" t="s">
         <v>295</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
@@ -8800,22 +8963,22 @@
         <v>34</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D35" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="E35" s="13" t="s">
         <v>416</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>417</v>
       </c>
       <c r="F35" s="14" t="s">
         <v>295</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
@@ -8823,22 +8986,22 @@
         <v>35</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>246</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F36" s="14" t="s">
         <v>299</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
@@ -8846,22 +9009,22 @@
         <v>36</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C37" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="D37" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="D37" s="12" t="s">
-        <v>378</v>
-      </c>
       <c r="E37" s="13" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F37" s="14" t="s">
         <v>314</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
@@ -8869,22 +9032,22 @@
         <v>37</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C38" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="D38" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="E38" s="13" t="s">
         <v>378</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>379</v>
       </c>
       <c r="F38" s="14" t="s">
         <v>333</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
@@ -8892,22 +9055,22 @@
         <v>38</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C39" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="D39" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="D39" s="12" t="s">
+      <c r="E39" s="13" t="s">
         <v>378</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>379</v>
       </c>
       <c r="F39" s="14" t="s">
         <v>333</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
@@ -8915,22 +9078,22 @@
         <v>39</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C40" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="D40" s="15" t="s">
         <v>377</v>
       </c>
-      <c r="D40" s="15" t="s">
+      <c r="E40" s="16" t="s">
         <v>378</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>379</v>
       </c>
       <c r="F40" s="17" t="s">
         <v>340</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
   </sheetData>
@@ -8956,75 +9119,75 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>148</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B2" s="85" t="s">
         <v>458</v>
       </c>
-      <c r="B2" s="93" t="s">
+      <c r="C2" s="85" t="s">
         <v>459</v>
-      </c>
-      <c r="C2" s="93" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>461</v>
-      </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
+        <v>460</v>
+      </c>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>461</v>
+      </c>
+      <c r="B4" t="s">
         <v>462</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>463</v>
-      </c>
-      <c r="C4" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>464</v>
+      </c>
+      <c r="B5" t="s">
+        <v>463</v>
+      </c>
+      <c r="C5" t="s">
         <v>465</v>
-      </c>
-      <c r="B5" t="s">
-        <v>464</v>
-      </c>
-      <c r="C5" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>466</v>
+      </c>
+      <c r="B6" t="s">
         <v>467</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>468</v>
-      </c>
-      <c r="C6" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>469</v>
+      </c>
+      <c r="B7" t="s">
         <v>470</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>471</v>
-      </c>
-      <c r="C7" t="s">
-        <v>472</v>
       </c>
     </row>
   </sheetData>

--- a/事出无因-表格.xlsx
+++ b/事出无因-表格.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CONST\PartA_Aint_No_Reason\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A611C906-4A1F-42B2-B545-6EB73529574A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C16742-3D81-4435-A5F8-7449CAA4C34E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="时间轴" sheetId="2" r:id="rId1"/>
@@ -1986,6 +1986,51 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2006,51 +2051,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2515,8 +2515,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:I236" totalsRowShown="0">
-  <autoFilter ref="A1:I236" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:I240" totalsRowShown="0">
+  <autoFilter ref="A1:I240" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -3253,10 +3253,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I237"/>
+  <dimension ref="A1:I241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F216" sqref="F216"/>
+    <sheetView topLeftCell="A223" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B236" sqref="B236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -7941,7 +7941,7 @@
       <c r="I226" s="63"/>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A227" s="109">
+      <c r="A227" s="101">
         <v>62</v>
       </c>
       <c r="B227" s="44" t="s">
@@ -7962,190 +7962,234 @@
       <c r="I227" s="64"/>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A228" s="94"/>
-      <c r="B228" s="95"/>
-      <c r="C228" s="96"/>
-      <c r="D228" s="95"/>
-      <c r="E228" s="97"/>
-      <c r="F228" s="98"/>
-      <c r="G228" s="99"/>
-      <c r="H228" s="99"/>
-      <c r="I228" s="100"/>
+      <c r="A228" s="103"/>
+      <c r="B228" s="104"/>
+      <c r="C228" s="105"/>
+      <c r="D228" s="104"/>
+      <c r="E228" s="106"/>
+      <c r="F228" s="107"/>
+      <c r="G228" s="108"/>
+      <c r="H228" s="108"/>
+      <c r="I228" s="109"/>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A229" s="19">
+      <c r="A229" s="103"/>
+      <c r="B229" s="104"/>
+      <c r="C229" s="105"/>
+      <c r="D229" s="104"/>
+      <c r="E229" s="106"/>
+      <c r="F229" s="107"/>
+      <c r="G229" s="108"/>
+      <c r="H229" s="108"/>
+      <c r="I229" s="109"/>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A230" s="103"/>
+      <c r="B230" s="104"/>
+      <c r="C230" s="105"/>
+      <c r="D230" s="104"/>
+      <c r="E230" s="106"/>
+      <c r="F230" s="107"/>
+      <c r="G230" s="108"/>
+      <c r="H230" s="108"/>
+      <c r="I230" s="109"/>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A231" s="103"/>
+      <c r="B231" s="104"/>
+      <c r="C231" s="105"/>
+      <c r="D231" s="104"/>
+      <c r="E231" s="106"/>
+      <c r="F231" s="107"/>
+      <c r="G231" s="108"/>
+      <c r="H231" s="108"/>
+      <c r="I231" s="109"/>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A232" s="86"/>
+      <c r="B232" s="87"/>
+      <c r="C232" s="88"/>
+      <c r="D232" s="87"/>
+      <c r="E232" s="89"/>
+      <c r="F232" s="90"/>
+      <c r="G232" s="91"/>
+      <c r="H232" s="91"/>
+      <c r="I232" s="92"/>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A233" s="19">
         <v>63</v>
       </c>
-      <c r="B229" s="55" t="s">
+      <c r="B233" s="55" t="s">
         <v>367</v>
       </c>
-      <c r="C229" s="56" t="s">
+      <c r="C233" s="56" t="s">
         <v>368</v>
       </c>
-      <c r="D229" s="55">
+      <c r="D233" s="55">
         <v>0</v>
       </c>
-      <c r="E229" s="57" t="s">
+      <c r="E233" s="57" t="s">
         <v>369</v>
       </c>
-      <c r="F229" s="83" t="s">
+      <c r="F233" s="83" t="s">
         <v>472</v>
       </c>
-      <c r="G229" s="59"/>
-      <c r="H229" s="59"/>
-      <c r="I229" s="84" t="s">
+      <c r="G233" s="59"/>
+      <c r="H233" s="59"/>
+      <c r="I233" s="84" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A230" s="76"/>
-      <c r="B230" s="77"/>
-      <c r="C230" s="78"/>
-      <c r="D230" s="77">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A234" s="76"/>
+      <c r="B234" s="77"/>
+      <c r="C234" s="78"/>
+      <c r="D234" s="77">
         <v>1</v>
       </c>
-      <c r="E230" s="79"/>
-      <c r="F230" s="80" t="s">
+      <c r="E234" s="79"/>
+      <c r="F234" s="80" t="s">
         <v>475</v>
       </c>
-      <c r="G230" s="81" t="s">
+      <c r="G234" s="81" t="s">
         <v>473</v>
       </c>
-      <c r="H230" s="81" t="s">
+      <c r="H234" s="81" t="s">
         <v>474</v>
       </c>
-      <c r="I230" s="82"/>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A231" s="76"/>
-      <c r="B231" s="77"/>
-      <c r="C231" s="78"/>
-      <c r="D231" s="77">
+      <c r="I234" s="82"/>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A235" s="76"/>
+      <c r="B235" s="77"/>
+      <c r="C235" s="78"/>
+      <c r="D235" s="77">
         <v>2</v>
       </c>
-      <c r="E231" s="79"/>
-      <c r="F231" s="80" t="s">
+      <c r="E235" s="79"/>
+      <c r="F235" s="80" t="s">
         <v>476</v>
       </c>
-      <c r="G231" s="81" t="s">
+      <c r="G235" s="81" t="s">
         <v>473</v>
       </c>
-      <c r="H231" s="81" t="s">
+      <c r="H235" s="81" t="s">
         <v>474</v>
       </c>
-      <c r="I231" s="82"/>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A232" s="43">
+      <c r="I235" s="82"/>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A236" s="43">
         <v>64</v>
       </c>
-      <c r="B232" s="44" t="s">
+      <c r="B236" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="C232" s="45">
+      <c r="C236" s="45">
         <v>99212</v>
       </c>
-      <c r="D232" s="44">
+      <c r="D236" s="44">
         <v>0</v>
       </c>
-      <c r="E232" s="46">
+      <c r="E236" s="46">
         <v>99212</v>
       </c>
-      <c r="F232" s="107" t="s">
+      <c r="F236" s="99" t="s">
         <v>479</v>
       </c>
-      <c r="G232" s="48"/>
-      <c r="H232" s="48"/>
-      <c r="I232" s="108" t="s">
+      <c r="G236" s="48"/>
+      <c r="H236" s="48"/>
+      <c r="I236" s="100" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A233" s="86"/>
-      <c r="B233" s="87"/>
-      <c r="C233" s="88"/>
-      <c r="D233" s="87">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A237" s="76"/>
+      <c r="B237" s="77"/>
+      <c r="C237" s="78"/>
+      <c r="D237" s="77">
         <v>1</v>
       </c>
-      <c r="E233" s="89"/>
-      <c r="F233" s="90" t="s">
+      <c r="E237" s="79"/>
+      <c r="F237" s="80" t="s">
         <v>478</v>
       </c>
-      <c r="G233" s="91" t="s">
+      <c r="G237" s="81" t="s">
         <v>480</v>
       </c>
-      <c r="H233" s="91" t="s">
+      <c r="H237" s="81" t="s">
         <v>474</v>
       </c>
-      <c r="I233" s="92"/>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A234" s="86"/>
-      <c r="B234" s="87"/>
-      <c r="C234" s="88"/>
-      <c r="D234" s="87">
+      <c r="I237" s="82"/>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A238" s="76"/>
+      <c r="B238" s="77"/>
+      <c r="C238" s="78"/>
+      <c r="D238" s="77">
         <v>2</v>
       </c>
-      <c r="E234" s="89"/>
-      <c r="F234" s="90" t="s">
+      <c r="E238" s="79"/>
+      <c r="F238" s="80" t="s">
         <v>481</v>
       </c>
-      <c r="G234" s="91" t="s">
+      <c r="G238" s="81" t="s">
         <v>480</v>
       </c>
-      <c r="H234" s="91" t="s">
+      <c r="H238" s="81" t="s">
         <v>474</v>
       </c>
-      <c r="I234" s="92"/>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A235" s="86"/>
-      <c r="B235" s="87"/>
-      <c r="C235" s="88"/>
-      <c r="D235" s="87">
+      <c r="I238" s="82"/>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A239" s="76"/>
+      <c r="B239" s="77"/>
+      <c r="C239" s="78"/>
+      <c r="D239" s="77">
         <v>3</v>
       </c>
-      <c r="E235" s="89"/>
-      <c r="F235" s="90" t="s">
+      <c r="E239" s="79"/>
+      <c r="F239" s="80" t="s">
         <v>478</v>
       </c>
-      <c r="G235" s="91" t="s">
+      <c r="G239" s="81" t="s">
         <v>480</v>
       </c>
-      <c r="H235" s="91" t="s">
+      <c r="H239" s="81" t="s">
         <v>474</v>
       </c>
-      <c r="I235" s="92"/>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A236" s="94"/>
-      <c r="B236" s="95"/>
-      <c r="C236" s="96"/>
-      <c r="D236" s="95">
+      <c r="I239" s="82"/>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A240" s="86"/>
+      <c r="B240" s="87"/>
+      <c r="C240" s="88"/>
+      <c r="D240" s="87">
         <v>4</v>
       </c>
-      <c r="E236" s="97"/>
-      <c r="F236" s="98" t="s">
+      <c r="E240" s="89"/>
+      <c r="F240" s="90" t="s">
         <v>482</v>
       </c>
-      <c r="G236" s="99" t="s">
+      <c r="G240" s="91" t="s">
         <v>480</v>
       </c>
-      <c r="H236" s="99" t="s">
+      <c r="H240" s="91" t="s">
         <v>483</v>
       </c>
-      <c r="I236" s="100"/>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A237" s="93"/>
-      <c r="B237" s="101"/>
-      <c r="C237" s="102"/>
-      <c r="D237" s="101"/>
-      <c r="E237" s="103"/>
-      <c r="F237" s="104"/>
-      <c r="G237" s="105"/>
-      <c r="H237" s="105"/>
-      <c r="I237" s="106"/>
+      <c r="I240" s="92"/>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A241" s="85"/>
+      <c r="B241" s="93"/>
+      <c r="C241" s="94"/>
+      <c r="D241" s="93"/>
+      <c r="E241" s="95"/>
+      <c r="F241" s="96"/>
+      <c r="G241" s="97"/>
+      <c r="H241" s="97"/>
+      <c r="I241" s="98"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -8161,7 +8205,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A47" sqref="A47:XFD47"/>
     </sheetView>
   </sheetViews>
@@ -9132,10 +9176,10 @@
       <c r="A2" t="s">
         <v>457</v>
       </c>
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="102" t="s">
         <v>458</v>
       </c>
-      <c r="C2" s="85" t="s">
+      <c r="C2" s="102" t="s">
         <v>459</v>
       </c>
     </row>
@@ -9143,8 +9187,8 @@
       <c r="A3" t="s">
         <v>460</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">

--- a/事出无因-表格.xlsx
+++ b/事出无因-表格.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CONST\PartA_Aint_No_Reason\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CONST\Part_Causeless\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C16742-3D81-4435-A5F8-7449CAA4C34E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B730D6A-ADA3-41DA-AEDB-5A4CAD866D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="时间轴" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="490">
   <si>
     <t>时间</t>
   </si>
@@ -1493,6 +1493,26 @@
   </si>
   <si>
     <t>故事的尽头</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵魂世界/地下城</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵魂世界</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>地下城</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>小陈和禾通过各自的方式确保一切都在正规上</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>新世界(云层)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1572,7 +1592,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1754,11 +1774,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2031,27 +2064,9 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2515,8 +2530,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:I240" totalsRowShown="0">
-  <autoFilter ref="A1:I240" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:I241" totalsRowShown="0">
+  <autoFilter ref="A1:I241" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -3253,10 +3268,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I241"/>
+  <dimension ref="A1:I242"/>
   <sheetViews>
-    <sheetView topLeftCell="A223" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B236" sqref="B236"/>
+    <sheetView tabSelected="1" topLeftCell="A196" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F214" sqref="F214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -7707,7 +7722,7 @@
         <v>2</v>
       </c>
       <c r="E215" s="57"/>
-      <c r="F215" s="58" t="s">
+      <c r="F215" s="102" t="s">
         <v>140</v>
       </c>
       <c r="G215" s="59" t="s">
@@ -7734,8 +7749,8 @@
       <c r="E216" s="46">
         <v>99211</v>
       </c>
-      <c r="F216" s="58" t="s">
-        <v>140</v>
+      <c r="F216" s="83" t="s">
+        <v>489</v>
       </c>
       <c r="G216" s="48"/>
       <c r="H216" s="48"/>
@@ -7956,120 +7971,164 @@
       <c r="E227" s="46">
         <v>99211</v>
       </c>
-      <c r="F227" s="47"/>
+      <c r="F227" s="99" t="s">
+        <v>485</v>
+      </c>
       <c r="G227" s="48"/>
       <c r="H227" s="48"/>
-      <c r="I227" s="64"/>
+      <c r="I227" s="100" t="s">
+        <v>488</v>
+      </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A228" s="103"/>
-      <c r="B228" s="104"/>
-      <c r="C228" s="105"/>
-      <c r="D228" s="104"/>
-      <c r="E228" s="106"/>
-      <c r="F228" s="107"/>
-      <c r="G228" s="108"/>
-      <c r="H228" s="108"/>
-      <c r="I228" s="109"/>
+      <c r="A228" s="76"/>
+      <c r="B228" s="77"/>
+      <c r="C228" s="78"/>
+      <c r="D228" s="77">
+        <v>1</v>
+      </c>
+      <c r="E228" s="79"/>
+      <c r="F228" s="80" t="s">
+        <v>486</v>
+      </c>
+      <c r="G228" s="81" t="s">
+        <v>473</v>
+      </c>
+      <c r="H228" s="81" t="s">
+        <v>483</v>
+      </c>
+      <c r="I228" s="82"/>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A229" s="103"/>
-      <c r="B229" s="104"/>
-      <c r="C229" s="105"/>
-      <c r="D229" s="104"/>
-      <c r="E229" s="106"/>
-      <c r="F229" s="107"/>
-      <c r="G229" s="108"/>
-      <c r="H229" s="108"/>
-      <c r="I229" s="109"/>
+      <c r="A229" s="76"/>
+      <c r="B229" s="77"/>
+      <c r="C229" s="78"/>
+      <c r="D229" s="77">
+        <v>2</v>
+      </c>
+      <c r="E229" s="79"/>
+      <c r="F229" s="80" t="s">
+        <v>487</v>
+      </c>
+      <c r="G229" s="81" t="s">
+        <v>473</v>
+      </c>
+      <c r="H229" s="81" t="s">
+        <v>474</v>
+      </c>
+      <c r="I229" s="82"/>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A230" s="103"/>
-      <c r="B230" s="104"/>
-      <c r="C230" s="105"/>
-      <c r="D230" s="104"/>
-      <c r="E230" s="106"/>
-      <c r="F230" s="107"/>
-      <c r="G230" s="108"/>
-      <c r="H230" s="108"/>
-      <c r="I230" s="109"/>
+      <c r="A230" s="76"/>
+      <c r="B230" s="77"/>
+      <c r="C230" s="78"/>
+      <c r="D230" s="77">
+        <v>3</v>
+      </c>
+      <c r="E230" s="79"/>
+      <c r="F230" s="80" t="s">
+        <v>486</v>
+      </c>
+      <c r="G230" s="81" t="s">
+        <v>473</v>
+      </c>
+      <c r="H230" s="81" t="s">
+        <v>483</v>
+      </c>
+      <c r="I230" s="82"/>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A231" s="103"/>
-      <c r="B231" s="104"/>
-      <c r="C231" s="105"/>
-      <c r="D231" s="104"/>
-      <c r="E231" s="106"/>
-      <c r="F231" s="107"/>
-      <c r="G231" s="108"/>
-      <c r="H231" s="108"/>
-      <c r="I231" s="109"/>
+      <c r="A231" s="76"/>
+      <c r="B231" s="77"/>
+      <c r="C231" s="78"/>
+      <c r="D231" s="77">
+        <v>4</v>
+      </c>
+      <c r="E231" s="79"/>
+      <c r="F231" s="80" t="s">
+        <v>487</v>
+      </c>
+      <c r="G231" s="81" t="s">
+        <v>473</v>
+      </c>
+      <c r="H231" s="81" t="s">
+        <v>474</v>
+      </c>
+      <c r="I231" s="82"/>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A232" s="86"/>
-      <c r="B232" s="87"/>
-      <c r="C232" s="88"/>
-      <c r="D232" s="87"/>
-      <c r="E232" s="89"/>
-      <c r="F232" s="90"/>
-      <c r="G232" s="91"/>
-      <c r="H232" s="91"/>
-      <c r="I232" s="92"/>
+      <c r="A232" s="76"/>
+      <c r="B232" s="77"/>
+      <c r="C232" s="78"/>
+      <c r="D232" s="77">
+        <v>5</v>
+      </c>
+      <c r="E232" s="79"/>
+      <c r="F232" s="80" t="s">
+        <v>486</v>
+      </c>
+      <c r="G232" s="81" t="s">
+        <v>473</v>
+      </c>
+      <c r="H232" s="81" t="s">
+        <v>483</v>
+      </c>
+      <c r="I232" s="82"/>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A233" s="19">
+      <c r="A233" s="86"/>
+      <c r="B233" s="87"/>
+      <c r="C233" s="88"/>
+      <c r="D233" s="87">
+        <v>6</v>
+      </c>
+      <c r="E233" s="89"/>
+      <c r="F233" s="90" t="s">
+        <v>487</v>
+      </c>
+      <c r="G233" s="91" t="s">
+        <v>473</v>
+      </c>
+      <c r="H233" s="91" t="s">
+        <v>474</v>
+      </c>
+      <c r="I233" s="92"/>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A234" s="19">
         <v>63</v>
       </c>
-      <c r="B233" s="55" t="s">
+      <c r="B234" s="55" t="s">
         <v>367</v>
       </c>
-      <c r="C233" s="56" t="s">
+      <c r="C234" s="56" t="s">
         <v>368</v>
       </c>
-      <c r="D233" s="55">
+      <c r="D234" s="55">
         <v>0</v>
       </c>
-      <c r="E233" s="57" t="s">
+      <c r="E234" s="57" t="s">
         <v>369</v>
       </c>
-      <c r="F233" s="83" t="s">
+      <c r="F234" s="83" t="s">
         <v>472</v>
       </c>
-      <c r="G233" s="59"/>
-      <c r="H233" s="59"/>
-      <c r="I233" s="84" t="s">
+      <c r="G234" s="59"/>
+      <c r="H234" s="59"/>
+      <c r="I234" s="84" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A234" s="76"/>
-      <c r="B234" s="77"/>
-      <c r="C234" s="78"/>
-      <c r="D234" s="77">
-        <v>1</v>
-      </c>
-      <c r="E234" s="79"/>
-      <c r="F234" s="80" t="s">
-        <v>475</v>
-      </c>
-      <c r="G234" s="81" t="s">
-        <v>473</v>
-      </c>
-      <c r="H234" s="81" t="s">
-        <v>474</v>
-      </c>
-      <c r="I234" s="82"/>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A235" s="76"/>
       <c r="B235" s="77"/>
       <c r="C235" s="78"/>
       <c r="D235" s="77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E235" s="79"/>
       <c r="F235" s="80" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G235" s="81" t="s">
         <v>473</v>
@@ -8080,59 +8139,59 @@
       <c r="I235" s="82"/>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A236" s="43">
+      <c r="A236" s="76"/>
+      <c r="B236" s="77"/>
+      <c r="C236" s="78"/>
+      <c r="D236" s="77">
+        <v>2</v>
+      </c>
+      <c r="E236" s="79"/>
+      <c r="F236" s="80" t="s">
+        <v>476</v>
+      </c>
+      <c r="G236" s="81" t="s">
+        <v>473</v>
+      </c>
+      <c r="H236" s="81" t="s">
+        <v>474</v>
+      </c>
+      <c r="I236" s="82"/>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A237" s="43">
         <v>64</v>
       </c>
-      <c r="B236" s="44" t="s">
+      <c r="B237" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="C236" s="45">
+      <c r="C237" s="45">
         <v>99212</v>
       </c>
-      <c r="D236" s="44">
+      <c r="D237" s="44">
         <v>0</v>
       </c>
-      <c r="E236" s="46">
+      <c r="E237" s="46">
         <v>99212</v>
       </c>
-      <c r="F236" s="99" t="s">
+      <c r="F237" s="99" t="s">
         <v>479</v>
       </c>
-      <c r="G236" s="48"/>
-      <c r="H236" s="48"/>
-      <c r="I236" s="100" t="s">
+      <c r="G237" s="48"/>
+      <c r="H237" s="48"/>
+      <c r="I237" s="100" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A237" s="76"/>
-      <c r="B237" s="77"/>
-      <c r="C237" s="78"/>
-      <c r="D237" s="77">
-        <v>1</v>
-      </c>
-      <c r="E237" s="79"/>
-      <c r="F237" s="80" t="s">
-        <v>478</v>
-      </c>
-      <c r="G237" s="81" t="s">
-        <v>480</v>
-      </c>
-      <c r="H237" s="81" t="s">
-        <v>474</v>
-      </c>
-      <c r="I237" s="82"/>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A238" s="76"/>
       <c r="B238" s="77"/>
       <c r="C238" s="78"/>
       <c r="D238" s="77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E238" s="79"/>
       <c r="F238" s="80" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="G238" s="81" t="s">
         <v>480</v>
@@ -8147,11 +8206,11 @@
       <c r="B239" s="77"/>
       <c r="C239" s="78"/>
       <c r="D239" s="77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E239" s="79"/>
       <c r="F239" s="80" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="G239" s="81" t="s">
         <v>480</v>
@@ -8162,34 +8221,53 @@
       <c r="I239" s="82"/>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A240" s="86"/>
-      <c r="B240" s="87"/>
-      <c r="C240" s="88"/>
-      <c r="D240" s="87">
+      <c r="A240" s="76"/>
+      <c r="B240" s="77"/>
+      <c r="C240" s="78"/>
+      <c r="D240" s="77">
+        <v>3</v>
+      </c>
+      <c r="E240" s="79"/>
+      <c r="F240" s="80" t="s">
+        <v>478</v>
+      </c>
+      <c r="G240" s="81" t="s">
+        <v>480</v>
+      </c>
+      <c r="H240" s="81" t="s">
+        <v>474</v>
+      </c>
+      <c r="I240" s="82"/>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A241" s="86"/>
+      <c r="B241" s="87"/>
+      <c r="C241" s="88"/>
+      <c r="D241" s="87">
         <v>4</v>
       </c>
-      <c r="E240" s="89"/>
-      <c r="F240" s="90" t="s">
+      <c r="E241" s="89"/>
+      <c r="F241" s="90" t="s">
         <v>482</v>
       </c>
-      <c r="G240" s="91" t="s">
+      <c r="G241" s="91" t="s">
         <v>480</v>
       </c>
-      <c r="H240" s="91" t="s">
+      <c r="H241" s="91" t="s">
         <v>483</v>
       </c>
-      <c r="I240" s="92"/>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A241" s="85"/>
-      <c r="B241" s="93"/>
-      <c r="C241" s="94"/>
-      <c r="D241" s="93"/>
-      <c r="E241" s="95"/>
-      <c r="F241" s="96"/>
-      <c r="G241" s="97"/>
-      <c r="H241" s="97"/>
-      <c r="I241" s="98"/>
+      <c r="I241" s="92"/>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A242" s="85"/>
+      <c r="B242" s="93"/>
+      <c r="C242" s="94"/>
+      <c r="D242" s="93"/>
+      <c r="E242" s="95"/>
+      <c r="F242" s="96"/>
+      <c r="G242" s="97"/>
+      <c r="H242" s="97"/>
+      <c r="I242" s="98"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -8205,7 +8283,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A47" sqref="A47:XFD47"/>
     </sheetView>
   </sheetViews>
@@ -9176,10 +9254,10 @@
       <c r="A2" t="s">
         <v>457</v>
       </c>
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="103" t="s">
         <v>458</v>
       </c>
-      <c r="C2" s="102" t="s">
+      <c r="C2" s="103" t="s">
         <v>459</v>
       </c>
     </row>
@@ -9187,8 +9265,8 @@
       <c r="A3" t="s">
         <v>460</v>
       </c>
-      <c r="B3" s="102"/>
-      <c r="C3" s="102"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
